--- a/content/database.xlsx
+++ b/content/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hannah\life\dabad\vue-dabad\content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85025792-3DDC-4F9F-9E28-13A1CEF4CED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC82EC78-8FF4-4AF4-BEDA-619056B015D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6884" uniqueCount="1825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6884" uniqueCount="1826">
   <si>
     <t>Title</t>
   </si>
@@ -5503,6 +5503,9 @@
   </si>
   <si>
     <t>A masterpiece. Linguistics and Aliens are an unlikely combination but it all makes sense and this movie has a twist that will forever leave me with my jaw on the floor just like the first time I saw it. Villeneuve, Adams, Renner. What else do you want? Kangaroo 🤷</t>
+  </si>
+  <si>
+    <t>Spongebob Squarepants [Season 3], Spongebob Squarepants [Season 4], Spongebob Squarepants [Season 5], Spongebob Squarepants [Season 6], Spongebob Squarepants [Season 7], Spongebob Squarepants [Season 8]</t>
   </si>
 </sst>
 </file>
@@ -5898,9 +5901,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A219" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J255" sqref="J255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21536,7 +21539,7 @@
         <v>458</v>
       </c>
       <c r="J253" s="4" t="s">
-        <v>683</v>
+        <v>1825</v>
       </c>
       <c r="K253" s="3" t="s">
         <v>420</v>

--- a/content/database.xlsx
+++ b/content/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hannah\life\dabad\vue-dabad\content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC82EC78-8FF4-4AF4-BEDA-619056B015D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9705D225-7183-4C9C-AB9A-1A17550392E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6884" uniqueCount="1826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6878" uniqueCount="1826">
   <si>
     <t>Title</t>
   </si>
@@ -5901,9 +5901,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A219" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J255" sqref="J255"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A246" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F260" sqref="F260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21988,22 +21988,22 @@
         <v>1287</v>
       </c>
       <c r="O260" s="4" t="s">
-        <v>1133</v>
+        <v>1780</v>
       </c>
       <c r="P260" s="4" t="s">
-        <v>1133</v>
+        <v>97</v>
       </c>
       <c r="Q260" s="4" t="s">
-        <v>1133</v>
+        <v>1639</v>
       </c>
       <c r="R260" s="4" t="s">
-        <v>1133</v>
+        <v>1765</v>
       </c>
       <c r="S260" s="4" t="s">
-        <v>1133</v>
+        <v>1782</v>
       </c>
       <c r="T260" s="4" t="s">
-        <v>1133</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="261" spans="1:20" x14ac:dyDescent="0.25">
@@ -22110,24 +22110,6 @@
       </c>
       <c r="N262" s="4" t="s">
         <v>1287</v>
-      </c>
-      <c r="O262" s="4" t="s">
-        <v>1780</v>
-      </c>
-      <c r="P262" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q262" s="4" t="s">
-        <v>1639</v>
-      </c>
-      <c r="R262" s="4" t="s">
-        <v>1765</v>
-      </c>
-      <c r="S262" s="4" t="s">
-        <v>1782</v>
-      </c>
-      <c r="T262" s="4" t="s">
-        <v>1781</v>
       </c>
     </row>
     <row r="263" spans="1:20" x14ac:dyDescent="0.25">

--- a/content/database.xlsx
+++ b/content/database.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hannah\life\dabad\vue-dabad\content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9705D225-7183-4C9C-AB9A-1A17550392E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{31E5C8A4-34E9-450C-9B9B-2A46E0AE4929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="database" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">database!$A$1:$T$378</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">database!$A$1:$T$384</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6878" uniqueCount="1826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6893" uniqueCount="1860">
   <si>
     <t>Title</t>
   </si>
@@ -5310,12 +5310,6 @@
     <t>Jodie Comer, Sandra Oh, Fiona Shaw, Kim Bodnia, Edward Bluemel, Camille Cottin, Anjana Vasan, Adeel Akhtar</t>
   </si>
   <si>
-    <t>Jodie Comer, Sandra Oh, Fiona Shaw, Kim Bodnia, Owen McDonnell, Sean Delaney, Kirby Howell-Baptiste, Edward Bluemel, Nina Sosanya, Henry Lloyd-Hughes</t>
-  </si>
-  <si>
-    <t>Jodie Comer, Sandra Oh, Fiona Shaw, Kim Bodnia, Owen McDonnell, Harriet Walter, Turlough Convery, Gemma Whelan, Danny Sapani</t>
-  </si>
-  <si>
     <t>Movies with an amazing cast just get me. The way the actors can play off of each other is great and just always creates something exciting. I saw this movie at the Stockholm Fim Festival and was immediately blown away by the first shot and am every time I watch it. The music in this movie is so underrated. It fits the genre and film perfectly and should have gotten much more acknowledgement. The production design is amazing and the house seems to be a whole character on its own. Daniel Craig's crazy accent is fun and fresh and as a whodunnit fan it is a proper kick-off to a new series of whodunnits like we love them 🔪.</t>
   </si>
   <si>
@@ -5355,9 +5349,6 @@
     <t>Salvador Pérez Jr.</t>
   </si>
   <si>
-    <t>Anna Kendrick, Rebel Wilson, Hailee Steinfeld, Brittany Snow, Skylar Astin, Adam Devine, Katey Sagal, Anna Camp, Ben Platt, Alexis Knapp, Hana Mae Lee, Ester Dean, Chrissie Fit, Birgitte Hjort Sorensen, Flula Borg, Kelley Jakle, Shelley Regner, Keegan-Michael Key, Snoop Dogg, Elizabeth Banks, John Michael Higgins,</t>
-  </si>
-  <si>
     <t>Jim Denault</t>
   </si>
   <si>
@@ -5506,6 +5497,117 @@
   </si>
   <si>
     <t>Spongebob Squarepants [Season 3], Spongebob Squarepants [Season 4], Spongebob Squarepants [Season 5], Spongebob Squarepants [Season 6], Spongebob Squarepants [Season 7], Spongebob Squarepants [Season 8]</t>
+  </si>
+  <si>
+    <t>Anna Kendrick, Rebel Wilson, Hailee Steinfeld, Brittany Snow, Skylar Astin, Adam Devine, Katey Sagal, Anna Camp, Ben Platt, Alexis Knapp, Hana Mae Lee, Ester Dean, Chrissie Fit, Birgitte Hjort Sorensen, Flula Borg, Kelley Jakle, Shelley Regner, Keegan-Michael Key, Snoop Dogg, Elizabeth Banks, John Michael Higgins</t>
+  </si>
+  <si>
+    <t>Jodie Comer, Sandra Oh, Fiona Shaw, Kim Bodnia, Owen McDonnell, Sean Delaney, Kirby Howell-Baptiste, Edward Bluemel, Nina Sosanya, Henry Lloyd-Hughes, Adeel Akhtar</t>
+  </si>
+  <si>
+    <t>Jodie Comer, Sandra Oh, Fiona Shaw, Kim Bodnia, Owen McDonnell, Harriet Walter, Turlough Convery, Gemma Whelan, Danny Sapani, Adeel Akhtar</t>
+  </si>
+  <si>
+    <t>Alejandro G. Iñárritu, Nicolás Giacobone, Alexander Dinelaris, Armando Bo</t>
+  </si>
+  <si>
+    <t>Antonio Sanchez</t>
+  </si>
+  <si>
+    <t>Emmanuel Lubezki</t>
+  </si>
+  <si>
+    <t>Albert Wolsky</t>
+  </si>
+  <si>
+    <t>Michael Keaton, Zach Galifianakis, Edward Norton, Andrea Riseborough, Emma Stone, Merritt Wever, Amy Ryan</t>
+  </si>
+  <si>
+    <t>A 2000s classic. Pocketful of Sunshine will always remind me of two things: this and Norway and I think that's beautiful. As a Millenial this movie is a necessity in my collection.</t>
+  </si>
+  <si>
+    <t>Bert V. Royal</t>
+  </si>
+  <si>
+    <t>Emma Stone, Amanda Bynes, Penn Badgley, Dan Byrd, Thomas Haden Church, Patricia Clarkson, Lisa Kudrow, Malcolm McDowell, Stanley Tucci, Fred Armisen</t>
+  </si>
+  <si>
+    <t>Brad Segal</t>
+  </si>
+  <si>
+    <t>Michael Grady</t>
+  </si>
+  <si>
+    <t>Mynka Draper</t>
+  </si>
+  <si>
+    <t>Josh Singer</t>
+  </si>
+  <si>
+    <t>Ryan Gosling, Claire Foy, Jason Clarke, Kyle Chandler, Christopher Abbott, Ciarán Hinds, Olivia Hamilton, Bryan d'Arcy James</t>
+  </si>
+  <si>
+    <t>The scene where they pickpocket random stuff in New Orleans is so incredibly well shot and choreographed, it's always such a joy to watch and really the reason I keep going back to watching this movie.</t>
+  </si>
+  <si>
+    <t>Nick Urata</t>
+  </si>
+  <si>
+    <t>Xavier Grobet</t>
+  </si>
+  <si>
+    <t>Will Smith, Margot Robbie, Rodrigo Santoro, Adrian Martinez, Gerald McRaney, BD Wong, Brennan Brown, Robert Taylor</t>
+  </si>
+  <si>
+    <t>This movie makes me cry every time. It is so beautiful and I wish a lot of people had the resilience that Rose Byrne and Mark Wahlberg have here. I feel this movie is very underrated and needs to be watched more. I have seen it at least four times and am happy to watch it again any time - especially when I need a good happy cry.</t>
+  </si>
+  <si>
+    <t>Mark Wahlberg, Rose Byrne, Isabela Merced, Gustavo Escobar, Julianna Gamiz, Octavia Spencer, Tig Notaro, Margo Martindale, Julie Hagerty, Michael O'Keefe, Joan Cusack</t>
+  </si>
+  <si>
+    <t>Sean Anders, John Morris</t>
+  </si>
+  <si>
+    <t>Michael Andrews</t>
+  </si>
+  <si>
+    <t>Lisa Lovaas</t>
+  </si>
+  <si>
+    <t>James Corden, Domhnall Gleeson, Sia, Sam Neill, Margot Robbie, Elizabeth Debicki, Daisy Ridley, Rose Byrne</t>
+  </si>
+  <si>
+    <t>Rob Lieber, Will Gluck</t>
+  </si>
+  <si>
+    <t>Dominic Lewis</t>
+  </si>
+  <si>
+    <t>Peter Menzies Jr.</t>
+  </si>
+  <si>
+    <t>Lizzy Gardiner</t>
+  </si>
+  <si>
+    <t>Andrew Garfield, Emma Stone, Rhys Ifans, Irrfan Khan, Denis Leary, Martin Sheen, Sally Field</t>
+  </si>
+  <si>
+    <t>James Vanderbilt, Alvin Sargent, Steve Kloves</t>
+  </si>
+  <si>
+    <t>Andrew Garfield, Emma Stone, Jamie Foxx, Paul Giamatti, Dane DeHaan, Felicity Jones, Sally Field</t>
+  </si>
+  <si>
+    <t>Alex Kurtzman, Roberto Orci, Jeff Pinkner</t>
+  </si>
+  <si>
+    <t>Hans Zimmer, The Magnificent Six</t>
+  </si>
+  <si>
+    <t>Dan Mindel</t>
+  </si>
+  <si>
+    <t>Deborah L. Scott</t>
   </si>
 </sst>
 </file>
@@ -5899,29 +6001,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:T384"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A246" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F260" sqref="F260"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A346" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D384" sqref="D384"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="4" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="32.42578125" style="2" customWidth="1"/>
     <col min="5" max="5" width="8.28515625" style="3" customWidth="1"/>
     <col min="6" max="6" width="27" style="5" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" style="9" customWidth="1"/>
-    <col min="9" max="9" width="26.7109375" style="6" customWidth="1"/>
-    <col min="10" max="10" width="25.7109375" style="6" customWidth="1"/>
-    <col min="11" max="11" width="20" style="9" customWidth="1"/>
-    <col min="12" max="12" width="20" style="6" customWidth="1"/>
-    <col min="13" max="13" width="8.28515625" style="9" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="10" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" style="9" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="26.7109375" style="6" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="25.7109375" style="6" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="20" style="9" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="20" style="6" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="8.28515625" style="9" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="42.42578125" customWidth="1"/>
     <col min="16" max="16" width="18" customWidth="1"/>
     <col min="17" max="17" width="15.7109375" customWidth="1"/>
@@ -5992,7 +6095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>750</v>
       </c>
@@ -6054,7 +6157,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>761</v>
       </c>
@@ -6116,7 +6219,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>762</v>
       </c>
@@ -6178,7 +6281,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>763</v>
       </c>
@@ -6240,7 +6343,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>764</v>
       </c>
@@ -6302,7 +6405,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>751</v>
       </c>
@@ -6426,7 +6529,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>766</v>
       </c>
@@ -6488,7 +6591,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>752</v>
       </c>
@@ -6550,7 +6653,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>1113</v>
       </c>
@@ -6612,7 +6715,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>753</v>
       </c>
@@ -6674,7 +6777,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>754</v>
       </c>
@@ -6736,7 +6839,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>755</v>
       </c>
@@ -6798,7 +6901,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>756</v>
       </c>
@@ -6842,7 +6945,7 @@
         <v>1206</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>1824</v>
+        <v>1821</v>
       </c>
       <c r="P15" s="4" t="s">
         <v>1502</v>
@@ -6860,7 +6963,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>767</v>
       </c>
@@ -6922,7 +7025,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>768</v>
       </c>
@@ -6984,7 +7087,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>757</v>
       </c>
@@ -7108,7 +7211,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>758</v>
       </c>
@@ -7356,7 +7459,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>773</v>
       </c>
@@ -7418,7 +7521,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>759</v>
       </c>
@@ -7775,22 +7878,22 @@
         <v>1408</v>
       </c>
       <c r="P30" s="4" t="s">
-        <v>1133</v>
+        <v>1826</v>
       </c>
       <c r="Q30" s="4" t="s">
-        <v>1133</v>
+        <v>1827</v>
       </c>
       <c r="R30" s="4" t="s">
-        <v>1133</v>
+        <v>1828</v>
       </c>
       <c r="S30" s="4" t="s">
-        <v>1133</v>
+        <v>1829</v>
       </c>
       <c r="T30" s="4" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>778</v>
       </c>
@@ -8038,7 +8141,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>782</v>
       </c>
@@ -8100,7 +8203,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>783</v>
       </c>
@@ -8268,7 +8371,7 @@
         <v>1220</v>
       </c>
       <c r="O38" s="4" t="s">
-        <v>1814</v>
+        <v>1811</v>
       </c>
       <c r="P38" s="4" t="s">
         <v>1133</v>
@@ -8410,7 +8513,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>788</v>
       </c>
@@ -8596,7 +8699,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>791</v>
       </c>
@@ -9650,7 +9753,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>1151</v>
       </c>
@@ -9712,7 +9815,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>1190</v>
       </c>
@@ -10004,22 +10107,22 @@
         <v>1303</v>
       </c>
       <c r="O66" s="4" t="s">
-        <v>1133</v>
+        <v>1831</v>
       </c>
       <c r="P66" s="4" t="s">
-        <v>1133</v>
+        <v>1832</v>
       </c>
       <c r="Q66" s="4" t="s">
-        <v>1133</v>
+        <v>1834</v>
       </c>
       <c r="R66" s="4" t="s">
-        <v>1133</v>
+        <v>1835</v>
       </c>
       <c r="S66" s="4" t="s">
-        <v>1133</v>
+        <v>1836</v>
       </c>
       <c r="T66" s="4" t="s">
-        <v>1133</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
@@ -10394,7 +10497,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>1110</v>
       </c>
@@ -10456,7 +10559,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>1111</v>
       </c>
@@ -10518,7 +10621,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>1112</v>
       </c>
@@ -10751,19 +10854,19 @@
         <v>1466</v>
       </c>
       <c r="P78" s="4" t="s">
-        <v>1133</v>
+        <v>1837</v>
       </c>
       <c r="Q78" s="4" t="s">
-        <v>1133</v>
+        <v>1765</v>
       </c>
       <c r="R78" s="4" t="s">
-        <v>1133</v>
+        <v>1678</v>
       </c>
       <c r="S78" s="4" t="s">
-        <v>1133</v>
+        <v>1641</v>
       </c>
       <c r="T78" s="4" t="s">
-        <v>1133</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
@@ -10872,22 +10975,22 @@
         <v>1259</v>
       </c>
       <c r="O80" s="4" t="s">
-        <v>1133</v>
+        <v>1839</v>
       </c>
       <c r="P80" s="4" t="s">
-        <v>1133</v>
+        <v>31</v>
       </c>
       <c r="Q80" s="4" t="s">
-        <v>1133</v>
+        <v>1840</v>
       </c>
       <c r="R80" s="4" t="s">
-        <v>1133</v>
+        <v>1841</v>
       </c>
       <c r="S80" s="4" t="s">
-        <v>1133</v>
+        <v>1681</v>
       </c>
       <c r="T80" s="4" t="s">
-        <v>1133</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
@@ -10952,7 +11055,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>824</v>
       </c>
@@ -11386,7 +11489,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>831</v>
       </c>
@@ -11634,7 +11737,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>835</v>
       </c>
@@ -11758,7 +11861,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>837</v>
       </c>
@@ -12316,7 +12419,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>844</v>
       </c>
@@ -13184,7 +13287,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
         <v>858</v>
       </c>
@@ -13370,7 +13473,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
         <v>861</v>
       </c>
@@ -13662,22 +13765,22 @@
         <v>1298</v>
       </c>
       <c r="O125" s="4" t="s">
-        <v>1133</v>
+        <v>1843</v>
       </c>
       <c r="P125" s="4" t="s">
-        <v>1133</v>
+        <v>1845</v>
       </c>
       <c r="Q125" s="4" t="s">
-        <v>1133</v>
+        <v>1846</v>
       </c>
       <c r="R125" s="4" t="s">
-        <v>1133</v>
+        <v>1510</v>
       </c>
       <c r="S125" s="4" t="s">
-        <v>1133</v>
+        <v>1847</v>
       </c>
       <c r="T125" s="4" t="s">
-        <v>1133</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.25">
@@ -13742,7 +13845,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>867</v>
       </c>
@@ -14114,7 +14217,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>873</v>
       </c>
@@ -14176,7 +14279,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>874</v>
       </c>
@@ -14958,7 +15061,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
         <v>886</v>
       </c>
@@ -15020,7 +15123,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
         <v>887</v>
       </c>
@@ -15079,10 +15182,10 @@
         <v>1755</v>
       </c>
       <c r="T148" s="4" t="s">
-        <v>1760</v>
-      </c>
-    </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="149" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
         <v>888</v>
       </c>
@@ -15141,10 +15244,10 @@
         <v>1756</v>
       </c>
       <c r="T149" s="4" t="s">
-        <v>1761</v>
-      </c>
-    </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="150" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
         <v>889</v>
       </c>
@@ -15330,7 +15433,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
         <v>892</v>
       </c>
@@ -15374,22 +15477,22 @@
         <v>1329</v>
       </c>
       <c r="O153" s="4" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="P153" s="4" t="s">
         <v>97</v>
       </c>
       <c r="Q153" s="4" t="s">
+        <v>1761</v>
+      </c>
+      <c r="R153" s="4" t="s">
         <v>1763</v>
       </c>
-      <c r="R153" s="4" t="s">
-        <v>1765</v>
-      </c>
       <c r="S153" s="4" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="T153" s="4" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="154" spans="1:20" x14ac:dyDescent="0.25">
@@ -15454,7 +15557,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
         <v>894</v>
       </c>
@@ -15498,13 +15601,13 @@
         <v>1331</v>
       </c>
       <c r="O155" s="4" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
       <c r="P155" s="4" t="s">
         <v>233</v>
       </c>
       <c r="Q155" s="4" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="R155" s="4" t="s">
         <v>1678</v>
@@ -15513,7 +15616,7 @@
         <v>1641</v>
       </c>
       <c r="T155" s="4" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="156" spans="1:20" x14ac:dyDescent="0.25">
@@ -17500,7 +17603,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
         <v>925</v>
       </c>
@@ -17544,16 +17647,16 @@
         <v>1220</v>
       </c>
       <c r="O188" s="4" t="s">
+        <v>1817</v>
+      </c>
+      <c r="P188" s="4" t="s">
+        <v>1818</v>
+      </c>
+      <c r="Q188" s="4" t="s">
+        <v>1819</v>
+      </c>
+      <c r="R188" s="4" t="s">
         <v>1820</v>
-      </c>
-      <c r="P188" s="4" t="s">
-        <v>1821</v>
-      </c>
-      <c r="Q188" s="4" t="s">
-        <v>1822</v>
-      </c>
-      <c r="R188" s="4" t="s">
-        <v>1823</v>
       </c>
       <c r="S188" s="4" t="s">
         <v>1133</v>
@@ -17748,7 +17851,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
         <v>929</v>
       </c>
@@ -19035,22 +19138,22 @@
         <v>1440</v>
       </c>
       <c r="P212" s="4" t="s">
-        <v>1133</v>
+        <v>1849</v>
       </c>
       <c r="Q212" s="4" t="s">
-        <v>1133</v>
+        <v>1850</v>
       </c>
       <c r="R212" s="4" t="s">
-        <v>1133</v>
+        <v>1851</v>
       </c>
       <c r="S212" s="4" t="s">
-        <v>1133</v>
+        <v>1852</v>
       </c>
       <c r="T212" s="4" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="213" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="213" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
         <v>949</v>
       </c>
@@ -19097,22 +19200,22 @@
         <v>1437</v>
       </c>
       <c r="P213" s="4" t="s">
+        <v>1768</v>
+      </c>
+      <c r="Q213" s="4" t="s">
         <v>1770</v>
       </c>
-      <c r="Q213" s="4" t="s">
+      <c r="R213" s="4" t="s">
+        <v>1771</v>
+      </c>
+      <c r="S213" s="4" t="s">
         <v>1772</v>
       </c>
-      <c r="R213" s="4" t="s">
-        <v>1773</v>
-      </c>
-      <c r="S213" s="4" t="s">
-        <v>1774</v>
-      </c>
       <c r="T213" s="4" t="s">
-        <v>1771</v>
-      </c>
-    </row>
-    <row r="214" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="214" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
         <v>950</v>
       </c>
@@ -19159,22 +19262,22 @@
         <v>1589</v>
       </c>
       <c r="P214" s="4" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
       <c r="Q214" s="4" t="s">
         <v>1660</v>
       </c>
       <c r="R214" s="4" t="s">
-        <v>1776</v>
+        <v>1773</v>
       </c>
       <c r="S214" s="4" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="T214" s="4" t="s">
-        <v>1775</v>
-      </c>
-    </row>
-    <row r="215" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="215" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
         <v>951</v>
       </c>
@@ -19221,19 +19324,19 @@
         <v>1438</v>
       </c>
       <c r="P215" s="4" t="s">
-        <v>1777</v>
+        <v>1774</v>
       </c>
       <c r="Q215" s="4" t="s">
         <v>1679</v>
       </c>
       <c r="R215" s="4" t="s">
-        <v>1779</v>
+        <v>1776</v>
       </c>
       <c r="S215" s="4" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="T215" s="4" t="s">
-        <v>1778</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="216" spans="1:20" x14ac:dyDescent="0.25">
@@ -20414,7 +20517,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="235" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="4" t="s">
         <v>1505</v>
       </c>
@@ -21026,7 +21129,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="245" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="4" t="s">
         <v>1546</v>
       </c>
@@ -21539,7 +21642,7 @@
         <v>458</v>
       </c>
       <c r="J253" s="4" t="s">
-        <v>1825</v>
+        <v>1822</v>
       </c>
       <c r="K253" s="3" t="s">
         <v>420</v>
@@ -21944,7 +22047,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="260" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="4" t="s">
         <v>1123</v>
       </c>
@@ -21988,7 +22091,7 @@
         <v>1287</v>
       </c>
       <c r="O260" s="4" t="s">
-        <v>1780</v>
+        <v>1777</v>
       </c>
       <c r="P260" s="4" t="s">
         <v>97</v>
@@ -21997,13 +22100,13 @@
         <v>1639</v>
       </c>
       <c r="R260" s="4" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="S260" s="4" t="s">
-        <v>1782</v>
+        <v>1779</v>
       </c>
       <c r="T260" s="4" t="s">
-        <v>1781</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="261" spans="1:20" x14ac:dyDescent="0.25">
@@ -22980,7 +23083,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="277" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="4" t="s">
         <v>1569</v>
       </c>
@@ -23092,7 +23195,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="279" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:20" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="4" t="s">
         <v>1555</v>
       </c>
@@ -23142,7 +23245,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="280" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:20" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="4" t="s">
         <v>1564</v>
       </c>
@@ -23301,19 +23404,19 @@
         <v>1444</v>
       </c>
       <c r="P282" s="4" t="s">
-        <v>1133</v>
+        <v>1854</v>
       </c>
       <c r="Q282" s="4" t="s">
-        <v>1133</v>
+        <v>1527</v>
       </c>
       <c r="R282" s="4" t="s">
-        <v>1133</v>
+        <v>1540</v>
       </c>
       <c r="S282" s="4" t="s">
-        <v>1133</v>
+        <v>1605</v>
       </c>
       <c r="T282" s="4" t="s">
-        <v>1133</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="283" spans="1:20" x14ac:dyDescent="0.25">
@@ -23363,19 +23466,19 @@
         <v>1445</v>
       </c>
       <c r="P283" s="4" t="s">
-        <v>1133</v>
+        <v>1856</v>
       </c>
       <c r="Q283" s="4" t="s">
-        <v>1133</v>
+        <v>1857</v>
       </c>
       <c r="R283" s="4" t="s">
-        <v>1133</v>
+        <v>1858</v>
       </c>
       <c r="S283" s="4" t="s">
-        <v>1133</v>
+        <v>1859</v>
       </c>
       <c r="T283" s="4" t="s">
-        <v>1133</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="284" spans="1:20" x14ac:dyDescent="0.25">
@@ -23440,7 +23543,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="285" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="4" t="s">
         <v>1012</v>
       </c>
@@ -23490,16 +23593,16 @@
         <v>220</v>
       </c>
       <c r="Q285" s="4" t="s">
-        <v>1784</v>
+        <v>1781</v>
       </c>
       <c r="R285" s="4" t="s">
-        <v>1785</v>
+        <v>1782</v>
       </c>
       <c r="S285" s="4" t="s">
-        <v>1786</v>
+        <v>1783</v>
       </c>
       <c r="T285" s="4" t="s">
-        <v>1783</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="286" spans="1:20" x14ac:dyDescent="0.25">
@@ -23562,7 +23665,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="287" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="4" t="s">
         <v>1014</v>
       </c>
@@ -23872,7 +23975,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="292" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="4" t="s">
         <v>1019</v>
       </c>
@@ -23919,19 +24022,19 @@
         <v>1448</v>
       </c>
       <c r="P292" s="4" t="s">
+        <v>1784</v>
+      </c>
+      <c r="Q292" s="4" t="s">
+        <v>1785</v>
+      </c>
+      <c r="R292" s="4" t="s">
+        <v>1786</v>
+      </c>
+      <c r="S292" s="4" t="s">
         <v>1787</v>
       </c>
-      <c r="Q292" s="4" t="s">
+      <c r="T292" s="4" t="s">
         <v>1788</v>
-      </c>
-      <c r="R292" s="4" t="s">
-        <v>1789</v>
-      </c>
-      <c r="S292" s="4" t="s">
-        <v>1790</v>
-      </c>
-      <c r="T292" s="4" t="s">
-        <v>1791</v>
       </c>
     </row>
     <row r="293" spans="1:20" x14ac:dyDescent="0.25">
@@ -24616,7 +24719,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="304" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="4" t="s">
         <v>1031</v>
       </c>
@@ -24660,7 +24763,7 @@
         <v>1265</v>
       </c>
       <c r="O304" s="4" t="s">
-        <v>1792</v>
+        <v>1789</v>
       </c>
       <c r="P304" s="4" t="s">
         <v>199</v>
@@ -24669,13 +24772,13 @@
         <v>1523</v>
       </c>
       <c r="R304" s="4" t="s">
-        <v>1794</v>
+        <v>1791</v>
       </c>
       <c r="S304" s="4" t="s">
-        <v>1795</v>
+        <v>1792</v>
       </c>
       <c r="T304" s="4" t="s">
-        <v>1793</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="305" spans="1:20" x14ac:dyDescent="0.25">
@@ -24864,7 +24967,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="308" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="4" t="s">
         <v>1035</v>
       </c>
@@ -24926,7 +25029,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="309" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="4" t="s">
         <v>1036</v>
       </c>
@@ -24973,22 +25076,22 @@
         <v>1450</v>
       </c>
       <c r="P309" s="4" t="s">
+        <v>1793</v>
+      </c>
+      <c r="Q309" s="4" t="s">
+        <v>1794</v>
+      </c>
+      <c r="R309" s="4" t="s">
+        <v>1795</v>
+      </c>
+      <c r="S309" s="4" t="s">
         <v>1796</v>
       </c>
-      <c r="Q309" s="4" t="s">
-        <v>1797</v>
-      </c>
-      <c r="R309" s="4" t="s">
+      <c r="T309" s="4" t="s">
         <v>1798</v>
       </c>
-      <c r="S309" s="4" t="s">
-        <v>1799</v>
-      </c>
-      <c r="T309" s="4" t="s">
-        <v>1801</v>
-      </c>
-    </row>
-    <row r="310" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="310" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="4" t="s">
         <v>1037</v>
       </c>
@@ -25035,22 +25138,22 @@
         <v>1451</v>
       </c>
       <c r="P310" s="4" t="s">
+        <v>1797</v>
+      </c>
+      <c r="Q310" s="4" t="s">
+        <v>1794</v>
+      </c>
+      <c r="R310" s="4" t="s">
         <v>1800</v>
       </c>
-      <c r="Q310" s="4" t="s">
-        <v>1797</v>
-      </c>
-      <c r="R310" s="4" t="s">
-        <v>1803</v>
-      </c>
       <c r="S310" s="4" t="s">
-        <v>1804</v>
+        <v>1801</v>
       </c>
       <c r="T310" s="4" t="s">
-        <v>1802</v>
-      </c>
-    </row>
-    <row r="311" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="311" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="4" t="s">
         <v>1126</v>
       </c>
@@ -25097,22 +25200,22 @@
         <v>1452</v>
       </c>
       <c r="P311" s="4" t="s">
-        <v>1805</v>
+        <v>1802</v>
       </c>
       <c r="Q311" s="4" t="s">
-        <v>1797</v>
+        <v>1794</v>
       </c>
       <c r="R311" s="4" t="s">
+        <v>1800</v>
+      </c>
+      <c r="S311" s="4" t="s">
         <v>1803</v>
       </c>
-      <c r="S311" s="4" t="s">
-        <v>1806</v>
-      </c>
       <c r="T311" s="4" t="s">
-        <v>1807</v>
-      </c>
-    </row>
-    <row r="312" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="312" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="4" t="s">
         <v>1127</v>
       </c>
@@ -25159,19 +25262,19 @@
         <v>1453</v>
       </c>
       <c r="P312" s="4" t="s">
+        <v>1802</v>
+      </c>
+      <c r="Q312" s="4" t="s">
+        <v>1794</v>
+      </c>
+      <c r="R312" s="4" t="s">
+        <v>1800</v>
+      </c>
+      <c r="S312" s="4" t="s">
+        <v>1803</v>
+      </c>
+      <c r="T312" s="4" t="s">
         <v>1805</v>
-      </c>
-      <c r="Q312" s="4" t="s">
-        <v>1797</v>
-      </c>
-      <c r="R312" s="4" t="s">
-        <v>1803</v>
-      </c>
-      <c r="S312" s="4" t="s">
-        <v>1806</v>
-      </c>
-      <c r="T312" s="4" t="s">
-        <v>1808</v>
       </c>
     </row>
     <row r="313" spans="1:20" x14ac:dyDescent="0.25">
@@ -25546,7 +25649,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="319" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="4" t="s">
         <v>1044</v>
       </c>
@@ -25593,19 +25696,19 @@
         <v>1456</v>
       </c>
       <c r="P319" s="4" t="s">
+        <v>1806</v>
+      </c>
+      <c r="Q319" s="4" t="s">
+        <v>1808</v>
+      </c>
+      <c r="R319" s="4" t="s">
         <v>1809</v>
       </c>
-      <c r="Q319" s="4" t="s">
-        <v>1811</v>
-      </c>
-      <c r="R319" s="4" t="s">
-        <v>1812</v>
-      </c>
       <c r="S319" s="4" t="s">
-        <v>1813</v>
+        <v>1810</v>
       </c>
       <c r="T319" s="4" t="s">
-        <v>1810</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="320" spans="1:20" x14ac:dyDescent="0.25">
@@ -26848,7 +26951,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="340" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="4" t="s">
         <v>1065</v>
       </c>
@@ -26892,22 +26995,22 @@
         <v>1242</v>
       </c>
       <c r="O340" s="4" t="s">
+        <v>1812</v>
+      </c>
+      <c r="P340" s="4" t="s">
+        <v>1813</v>
+      </c>
+      <c r="Q340" s="4" t="s">
         <v>1815</v>
       </c>
-      <c r="P340" s="4" t="s">
+      <c r="R340" s="4" t="s">
         <v>1816</v>
-      </c>
-      <c r="Q340" s="4" t="s">
-        <v>1818</v>
-      </c>
-      <c r="R340" s="4" t="s">
-        <v>1819</v>
       </c>
       <c r="S340" s="4" t="s">
         <v>1754</v>
       </c>
       <c r="T340" s="4" t="s">
-        <v>1817</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="341" spans="1:20" x14ac:dyDescent="0.25">
@@ -27034,7 +27137,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="343" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="4" t="s">
         <v>1068</v>
       </c>
@@ -28272,7 +28375,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="363" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="4" t="s">
         <v>1088</v>
       </c>
@@ -29637,7 +29740,10 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T378" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:T384" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="15">
+      <filters blank="1"/>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T384">
       <sortCondition ref="D1:D378"/>
     </sortState>

--- a/content/database.xlsx
+++ b/content/database.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hannah\life\dabad2_0\dabad\content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B09DEB8E-8B2F-428A-BD23-143FC0073354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4ECDC79-0DF1-4394-843C-10F231E7769B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6926" uniqueCount="1893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6939" uniqueCount="1902">
   <si>
     <t>Title</t>
   </si>
@@ -5707,6 +5707,33 @@
   </si>
   <si>
     <t>signed by Linus Sandgren, also available in Farsi</t>
+  </si>
+  <si>
+    <t>The_Wild_Robot_2024</t>
+  </si>
+  <si>
+    <t>The Wild Robot</t>
+  </si>
+  <si>
+    <t>Chris Sanders</t>
+  </si>
+  <si>
+    <t>Animation, Drama, Coming-of-Age</t>
+  </si>
+  <si>
+    <t>A movie that leaves me with tears pouring down my face and questioning if Ratatouille should still be my favorite animated movie of all time. It comes in as a definitive close second and might even overtake it at some point as time passes. The Wild Robot is genuinely one of the most beautiful films I have ever seen both visually and dramaturgically. I can see how it will mean different things to different people and I can definitely see how even I will see different things in the movie as life goes on. This movie is truly art and if it doesn't win the Oscar this year, it will be the second Robot-Animation film in a row to be snubbed for Best Animated Feature.</t>
+  </si>
+  <si>
+    <t>Chris Sanders, Peter Brown</t>
+  </si>
+  <si>
+    <t>Kris Bowers</t>
+  </si>
+  <si>
+    <t>Chris Stover</t>
+  </si>
+  <si>
+    <t>Lupita Nyong'o, Pedro Pascal, Kit Connor, Bill Nighy, Stephanie Hsu, Ving Rhames, Mark Hamill, Catherine O'Hara, Matt Berry</t>
   </si>
 </sst>
 </file>
@@ -6100,11 +6127,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U386"/>
+  <dimension ref="A1:U387"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A366" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H386" sqref="H386"/>
+      <pane ySplit="1" topLeftCell="A365" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C387" sqref="C387"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27537,70 +27564,54 @@
     </row>
     <row r="342" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A342" s="4" t="s">
-        <v>1066</v>
-      </c>
-      <c r="B342" s="4" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B342" s="2" t="s">
         <v>415</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D342" s="4" t="s">
-        <v>188</v>
+        <v>48</v>
+      </c>
+      <c r="D342" s="2" t="s">
+        <v>1894</v>
       </c>
       <c r="E342" s="3">
-        <v>2017</v>
-      </c>
-      <c r="F342" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="G342" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="H342" s="3"/>
-      <c r="I342" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="J342" s="4" t="s">
-        <v>1133</v>
-      </c>
-      <c r="K342" s="4" t="s">
-        <v>1133</v>
-      </c>
-      <c r="L342" s="3" t="s">
-        <v>1133</v>
-      </c>
-      <c r="M342" s="4" t="s">
-        <v>1133</v>
-      </c>
-      <c r="N342" s="3">
-        <v>122</v>
+        <v>2024</v>
+      </c>
+      <c r="F342" s="5" t="s">
+        <v>1895</v>
+      </c>
+      <c r="G342" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="I342" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="N342" s="9">
+        <v>102</v>
       </c>
       <c r="O342" s="4" t="s">
-        <v>1194</v>
-      </c>
-      <c r="P342" s="4" t="s">
-        <v>1133</v>
-      </c>
-      <c r="Q342" s="4" t="s">
-        <v>1133</v>
-      </c>
-      <c r="R342" s="4" t="s">
-        <v>1133</v>
-      </c>
-      <c r="S342" s="4" t="s">
-        <v>1133</v>
-      </c>
-      <c r="T342" s="4" t="s">
-        <v>1133</v>
-      </c>
-      <c r="U342" s="4" t="s">
-        <v>1133</v>
+        <v>1896</v>
+      </c>
+      <c r="P342" t="s">
+        <v>1897</v>
+      </c>
+      <c r="Q342" t="s">
+        <v>1898</v>
+      </c>
+      <c r="R342" t="s">
+        <v>1899</v>
+      </c>
+      <c r="S342" t="s">
+        <v>1900</v>
+      </c>
+      <c r="U342" t="s">
+        <v>1901</v>
       </c>
     </row>
     <row r="343" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A343" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B343" s="4" t="s">
         <v>415</v>
@@ -27609,16 +27620,16 @@
         <v>6</v>
       </c>
       <c r="D343" s="4" t="s">
-        <v>559</v>
+        <v>188</v>
       </c>
       <c r="E343" s="3">
-        <v>2001</v>
+        <v>2017</v>
       </c>
       <c r="F343" s="4" t="s">
-        <v>560</v>
+        <v>189</v>
       </c>
       <c r="G343" s="3" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H343" s="3"/>
       <c r="I343" s="3" t="s">
@@ -27637,10 +27648,10 @@
         <v>1133</v>
       </c>
       <c r="N343" s="3">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="O343" s="4" t="s">
-        <v>1383</v>
+        <v>1194</v>
       </c>
       <c r="P343" s="4" t="s">
         <v>1133</v>
@@ -27663,29 +27674,29 @@
     </row>
     <row r="344" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A344" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B344" s="4" t="s">
         <v>415</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="D344" s="4" t="s">
-        <v>117</v>
+        <v>559</v>
       </c>
       <c r="E344" s="3">
-        <v>2017</v>
+        <v>2001</v>
       </c>
       <c r="F344" s="4" t="s">
-        <v>118</v>
+        <v>560</v>
       </c>
       <c r="G344" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H344" s="3"/>
       <c r="I344" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="J344" s="4" t="s">
         <v>1133</v>
@@ -27694,61 +27705,61 @@
         <v>1133</v>
       </c>
       <c r="L344" s="3" t="s">
-        <v>418</v>
+        <v>1133</v>
       </c>
       <c r="M344" s="4" t="s">
-        <v>1185</v>
+        <v>1133</v>
       </c>
       <c r="N344" s="3">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="O344" s="4" t="s">
-        <v>1241</v>
+        <v>1383</v>
       </c>
       <c r="P344" s="4" t="s">
-        <v>1657</v>
+        <v>1133</v>
       </c>
       <c r="Q344" s="4" t="s">
-        <v>1662</v>
+        <v>1133</v>
       </c>
       <c r="R344" s="4" t="s">
-        <v>1659</v>
+        <v>1133</v>
       </c>
       <c r="S344" s="4" t="s">
-        <v>1660</v>
+        <v>1133</v>
       </c>
       <c r="T344" s="4" t="s">
-        <v>1661</v>
+        <v>1133</v>
       </c>
       <c r="U344" s="4" t="s">
-        <v>1658</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="345" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A345" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B345" s="4" t="s">
         <v>415</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D345" s="4" t="s">
-        <v>607</v>
+        <v>117</v>
       </c>
       <c r="E345" s="3">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="F345" s="4" t="s">
-        <v>608</v>
+        <v>118</v>
       </c>
       <c r="G345" s="3" t="s">
         <v>420</v>
       </c>
       <c r="H345" s="3"/>
       <c r="I345" s="3" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="J345" s="4" t="s">
         <v>1133</v>
@@ -27757,52 +27768,54 @@
         <v>1133</v>
       </c>
       <c r="L345" s="3" t="s">
-        <v>1133</v>
+        <v>418</v>
       </c>
       <c r="M345" s="4" t="s">
-        <v>1133</v>
+        <v>1185</v>
       </c>
       <c r="N345" s="3">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="O345" s="4" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="P345" s="4" t="s">
-        <v>1133</v>
+        <v>1657</v>
       </c>
       <c r="Q345" s="4" t="s">
-        <v>1133</v>
+        <v>1662</v>
       </c>
       <c r="R345" s="4" t="s">
-        <v>1133</v>
+        <v>1659</v>
       </c>
       <c r="S345" s="4" t="s">
-        <v>1133</v>
+        <v>1660</v>
       </c>
       <c r="T345" s="4" t="s">
-        <v>1133</v>
-      </c>
-      <c r="U345" s="4"/>
+        <v>1661</v>
+      </c>
+      <c r="U345" s="4" t="s">
+        <v>1658</v>
+      </c>
     </row>
     <row r="346" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A346" s="4" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B346" s="4" t="s">
         <v>415</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="D346" s="4" t="s">
-        <v>166</v>
+        <v>607</v>
       </c>
       <c r="E346" s="3">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="F346" s="4" t="s">
-        <v>167</v>
+        <v>608</v>
       </c>
       <c r="G346" s="3" t="s">
         <v>420</v>
@@ -27824,10 +27837,10 @@
         <v>1133</v>
       </c>
       <c r="N346" s="3">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="O346" s="4" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="P346" s="4" t="s">
         <v>1133</v>
@@ -27844,35 +27857,33 @@
       <c r="T346" s="4" t="s">
         <v>1133</v>
       </c>
-      <c r="U346" s="4" t="s">
-        <v>1133</v>
-      </c>
+      <c r="U346" s="4"/>
     </row>
     <row r="347" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A347" s="4" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B347" s="4" t="s">
         <v>415</v>
       </c>
       <c r="C347" s="4" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D347" s="4" t="s">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="E347" s="3">
-        <v>1986</v>
+        <v>2018</v>
       </c>
       <c r="F347" s="4" t="s">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="G347" s="3" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H347" s="3"/>
       <c r="I347" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="J347" s="4" t="s">
         <v>1133</v>
@@ -27881,16 +27892,16 @@
         <v>1133</v>
       </c>
       <c r="L347" s="3" t="s">
-        <v>418</v>
+        <v>1133</v>
       </c>
       <c r="M347" s="4" t="s">
-        <v>1186</v>
+        <v>1133</v>
       </c>
       <c r="N347" s="3">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="O347" s="4" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="P347" s="4" t="s">
         <v>1133</v>
@@ -27913,7 +27924,7 @@
     </row>
     <row r="348" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A348" s="4" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B348" s="4" t="s">
         <v>415</v>
@@ -27922,16 +27933,16 @@
         <v>6</v>
       </c>
       <c r="D348" s="4" t="s">
-        <v>571</v>
+        <v>76</v>
       </c>
       <c r="E348" s="3">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="F348" s="4" t="s">
-        <v>572</v>
+        <v>77</v>
       </c>
       <c r="G348" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H348" s="3"/>
       <c r="I348" s="3" t="s">
@@ -27941,19 +27952,19 @@
         <v>1133</v>
       </c>
       <c r="K348" s="4" t="s">
-        <v>710</v>
+        <v>1133</v>
       </c>
       <c r="L348" s="3" t="s">
         <v>418</v>
       </c>
       <c r="M348" s="4" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="N348" s="3">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="O348" s="4" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="P348" s="4" t="s">
         <v>1133</v>
@@ -27976,7 +27987,7 @@
     </row>
     <row r="349" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A349" s="4" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B349" s="4" t="s">
         <v>415</v>
@@ -27985,10 +27996,10 @@
         <v>6</v>
       </c>
       <c r="D349" s="4" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E349" s="3">
-        <v>1999</v>
+        <v>1995</v>
       </c>
       <c r="F349" s="4" t="s">
         <v>572</v>
@@ -28001,10 +28012,10 @@
         <v>420</v>
       </c>
       <c r="J349" s="4" t="s">
-        <v>571</v>
+        <v>1133</v>
       </c>
       <c r="K349" s="4" t="s">
-        <v>569</v>
+        <v>710</v>
       </c>
       <c r="L349" s="3" t="s">
         <v>418</v>
@@ -28013,7 +28024,7 @@
         <v>1187</v>
       </c>
       <c r="N349" s="3">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="O349" s="4" t="s">
         <v>1237</v>
@@ -28039,7 +28050,7 @@
     </row>
     <row r="350" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A350" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B350" s="4" t="s">
         <v>415</v>
@@ -28048,13 +28059,13 @@
         <v>6</v>
       </c>
       <c r="D350" s="4" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E350" s="3">
-        <v>2010</v>
+        <v>1999</v>
       </c>
       <c r="F350" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G350" s="3" t="s">
         <v>420</v>
@@ -28064,10 +28075,10 @@
         <v>420</v>
       </c>
       <c r="J350" s="4" t="s">
-        <v>711</v>
+        <v>571</v>
       </c>
       <c r="K350" s="4" t="s">
-        <v>1133</v>
+        <v>569</v>
       </c>
       <c r="L350" s="3" t="s">
         <v>418</v>
@@ -28076,7 +28087,7 @@
         <v>1187</v>
       </c>
       <c r="N350" s="3">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="O350" s="4" t="s">
         <v>1237</v>
@@ -28102,7 +28113,7 @@
     </row>
     <row r="351" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A351" s="4" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B351" s="4" t="s">
         <v>415</v>
@@ -28111,13 +28122,13 @@
         <v>6</v>
       </c>
       <c r="D351" s="4" t="s">
-        <v>260</v>
+        <v>569</v>
       </c>
       <c r="E351" s="3">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="F351" s="4" t="s">
-        <v>262</v>
+        <v>573</v>
       </c>
       <c r="G351" s="3" t="s">
         <v>420</v>
@@ -28127,22 +28138,22 @@
         <v>420</v>
       </c>
       <c r="J351" s="4" t="s">
-        <v>1133</v>
+        <v>711</v>
       </c>
       <c r="K351" s="4" t="s">
-        <v>748</v>
+        <v>1133</v>
       </c>
       <c r="L351" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="M351" s="4" t="s">
-        <v>1133</v>
+        <v>1187</v>
       </c>
       <c r="N351" s="3">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="O351" s="4" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="P351" s="4" t="s">
         <v>1133</v>
@@ -28165,7 +28176,7 @@
     </row>
     <row r="352" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A352" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B352" s="4" t="s">
         <v>415</v>
@@ -28174,26 +28185,26 @@
         <v>6</v>
       </c>
       <c r="D352" s="4" t="s">
-        <v>745</v>
+        <v>260</v>
       </c>
       <c r="E352" s="3">
-        <v>2023</v>
+        <v>2016</v>
       </c>
       <c r="F352" s="4" t="s">
-        <v>746</v>
+        <v>262</v>
       </c>
       <c r="G352" s="3" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H352" s="3"/>
       <c r="I352" s="3" t="s">
         <v>420</v>
       </c>
       <c r="J352" s="4" t="s">
-        <v>747</v>
+        <v>1133</v>
       </c>
       <c r="K352" s="4" t="s">
-        <v>1133</v>
+        <v>748</v>
       </c>
       <c r="L352" s="3" t="s">
         <v>420</v>
@@ -28202,7 +28213,7 @@
         <v>1133</v>
       </c>
       <c r="N352" s="3">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="O352" s="4" t="s">
         <v>1236</v>
@@ -28228,7 +28239,7 @@
     </row>
     <row r="353" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A353" s="4" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B353" s="4" t="s">
         <v>415</v>
@@ -28237,26 +28248,26 @@
         <v>6</v>
       </c>
       <c r="D353" s="4" t="s">
-        <v>605</v>
+        <v>745</v>
       </c>
       <c r="E353" s="3">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="F353" s="4" t="s">
-        <v>606</v>
+        <v>746</v>
       </c>
       <c r="G353" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H353" s="3"/>
       <c r="I353" s="3" t="s">
         <v>420</v>
       </c>
       <c r="J353" s="4" t="s">
-        <v>260</v>
+        <v>747</v>
       </c>
       <c r="K353" s="4" t="s">
-        <v>745</v>
+        <v>1133</v>
       </c>
       <c r="L353" s="3" t="s">
         <v>420</v>
@@ -28291,7 +28302,7 @@
     </row>
     <row r="354" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A354" s="4" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B354" s="4" t="s">
         <v>415</v>
@@ -28300,38 +28311,38 @@
         <v>6</v>
       </c>
       <c r="D354" s="4" t="s">
-        <v>391</v>
+        <v>605</v>
       </c>
       <c r="E354" s="3">
-        <v>2010</v>
+        <v>2020</v>
       </c>
       <c r="F354" s="4" t="s">
-        <v>392</v>
+        <v>606</v>
       </c>
       <c r="G354" s="3" t="s">
         <v>420</v>
       </c>
       <c r="H354" s="3"/>
       <c r="I354" s="3" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="J354" s="4" t="s">
-        <v>1133</v>
+        <v>260</v>
       </c>
       <c r="K354" s="4" t="s">
-        <v>1133</v>
+        <v>745</v>
       </c>
       <c r="L354" s="3" t="s">
-        <v>1133</v>
+        <v>420</v>
       </c>
       <c r="M354" s="4" t="s">
         <v>1133</v>
       </c>
       <c r="N354" s="3">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="O354" s="4" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="P354" s="4" t="s">
         <v>1133</v>
@@ -28354,7 +28365,7 @@
     </row>
     <row r="355" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A355" s="4" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B355" s="4" t="s">
         <v>415</v>
@@ -28363,38 +28374,38 @@
         <v>6</v>
       </c>
       <c r="D355" s="4" t="s">
-        <v>69</v>
+        <v>391</v>
       </c>
       <c r="E355" s="3">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="F355" s="4" t="s">
-        <v>68</v>
+        <v>392</v>
       </c>
       <c r="G355" s="3" t="s">
         <v>420</v>
       </c>
       <c r="H355" s="3"/>
       <c r="I355" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="J355" s="4" t="s">
         <v>1133</v>
       </c>
       <c r="K355" s="4" t="s">
-        <v>712</v>
+        <v>1133</v>
       </c>
       <c r="L355" s="3" t="s">
-        <v>420</v>
+        <v>1133</v>
       </c>
       <c r="M355" s="4" t="s">
         <v>1133</v>
       </c>
       <c r="N355" s="3">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="O355" s="4" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="P355" s="4" t="s">
         <v>1133</v>
@@ -28417,7 +28428,7 @@
     </row>
     <row r="356" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A356" s="4" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B356" s="4" t="s">
         <v>415</v>
@@ -28426,38 +28437,38 @@
         <v>6</v>
       </c>
       <c r="D356" s="4" t="s">
-        <v>214</v>
+        <v>69</v>
       </c>
       <c r="E356" s="3">
-        <v>2009</v>
+        <v>2000</v>
       </c>
       <c r="F356" s="4" t="s">
-        <v>215</v>
+        <v>68</v>
       </c>
       <c r="G356" s="3" t="s">
         <v>420</v>
       </c>
       <c r="H356" s="3"/>
       <c r="I356" s="3" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="J356" s="4" t="s">
         <v>1133</v>
       </c>
       <c r="K356" s="4" t="s">
-        <v>1133</v>
+        <v>712</v>
       </c>
       <c r="L356" s="3" t="s">
-        <v>1133</v>
+        <v>420</v>
       </c>
       <c r="M356" s="4" t="s">
         <v>1133</v>
       </c>
       <c r="N356" s="3">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O356" s="4" t="s">
-        <v>1220</v>
+        <v>1234</v>
       </c>
       <c r="P356" s="4" t="s">
         <v>1133</v>
@@ -28480,7 +28491,7 @@
     </row>
     <row r="357" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A357" s="4" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B357" s="4" t="s">
         <v>415</v>
@@ -28489,13 +28500,13 @@
         <v>6</v>
       </c>
       <c r="D357" s="4" t="s">
-        <v>354</v>
+        <v>214</v>
       </c>
       <c r="E357" s="3">
-        <v>2019</v>
+        <v>2009</v>
       </c>
       <c r="F357" s="4" t="s">
-        <v>66</v>
+        <v>215</v>
       </c>
       <c r="G357" s="3" t="s">
         <v>420</v>
@@ -28517,10 +28528,10 @@
         <v>1133</v>
       </c>
       <c r="N357" s="3">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="O357" s="4" t="s">
-        <v>1233</v>
+        <v>1220</v>
       </c>
       <c r="P357" s="4" t="s">
         <v>1133</v>
@@ -28543,7 +28554,7 @@
     </row>
     <row r="358" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A358" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B358" s="4" t="s">
         <v>415</v>
@@ -28552,20 +28563,20 @@
         <v>6</v>
       </c>
       <c r="D358" s="4" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="E358" s="3">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="F358" s="4" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="G358" s="3" t="s">
         <v>420</v>
       </c>
       <c r="H358" s="3"/>
       <c r="I358" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="J358" s="4" t="s">
         <v>1133</v>
@@ -28574,16 +28585,16 @@
         <v>1133</v>
       </c>
       <c r="L358" s="3" t="s">
-        <v>418</v>
+        <v>1133</v>
       </c>
       <c r="M358" s="4" t="s">
-        <v>1188</v>
+        <v>1133</v>
       </c>
       <c r="N358" s="3">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O358" s="4" t="s">
-        <v>1227</v>
+        <v>1233</v>
       </c>
       <c r="P358" s="4" t="s">
         <v>1133</v>
@@ -28606,7 +28617,7 @@
     </row>
     <row r="359" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A359" s="4" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B359" s="4" t="s">
         <v>415</v>
@@ -28615,20 +28626,20 @@
         <v>6</v>
       </c>
       <c r="D359" s="4" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="E359" s="3">
         <v>2018</v>
       </c>
       <c r="F359" s="4" t="s">
-        <v>381</v>
+        <v>58</v>
       </c>
       <c r="G359" s="3" t="s">
         <v>420</v>
       </c>
       <c r="H359" s="3"/>
       <c r="I359" s="3" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="J359" s="4" t="s">
         <v>1133</v>
@@ -28637,19 +28648,19 @@
         <v>1133</v>
       </c>
       <c r="L359" s="3" t="s">
-        <v>1133</v>
+        <v>418</v>
       </c>
       <c r="M359" s="4" t="s">
-        <v>1133</v>
+        <v>1188</v>
       </c>
       <c r="N359" s="3">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="O359" s="4" t="s">
-        <v>1208</v>
+        <v>1227</v>
       </c>
       <c r="P359" s="4" t="s">
-        <v>1461</v>
+        <v>1133</v>
       </c>
       <c r="Q359" s="4" t="s">
         <v>1133</v>
@@ -28669,163 +28680,163 @@
     </row>
     <row r="360" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A360" s="4" t="s">
-        <v>1860</v>
-      </c>
-      <c r="B360" s="2" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B360" s="4" t="s">
         <v>415</v>
       </c>
       <c r="C360" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D360" s="2" t="s">
-        <v>1861</v>
+      <c r="D360" s="4" t="s">
+        <v>380</v>
       </c>
       <c r="E360" s="3">
         <v>2018</v>
       </c>
-      <c r="F360" s="5" t="s">
-        <v>1862</v>
-      </c>
-      <c r="G360" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="I360" s="9" t="s">
-        <v>418</v>
-      </c>
-      <c r="N360" s="9">
-        <v>114</v>
+      <c r="F360" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="G360" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="H360" s="3"/>
+      <c r="I360" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="J360" s="4" t="s">
+        <v>1133</v>
+      </c>
+      <c r="K360" s="4" t="s">
+        <v>1133</v>
+      </c>
+      <c r="L360" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="M360" s="4" t="s">
+        <v>1133</v>
+      </c>
+      <c r="N360" s="3">
+        <v>129</v>
       </c>
       <c r="O360" s="4" t="s">
-        <v>1220</v>
-      </c>
-      <c r="P360" t="s">
-        <v>1878</v>
-      </c>
-      <c r="Q360" t="s">
-        <v>1863</v>
-      </c>
-      <c r="R360" t="s">
-        <v>1873</v>
-      </c>
-      <c r="S360" t="s">
-        <v>1864</v>
-      </c>
-      <c r="T360" t="s">
-        <v>1874</v>
-      </c>
-      <c r="U360" t="s">
-        <v>1867</v>
+        <v>1208</v>
+      </c>
+      <c r="P360" s="4" t="s">
+        <v>1461</v>
+      </c>
+      <c r="Q360" s="4" t="s">
+        <v>1133</v>
+      </c>
+      <c r="R360" s="4" t="s">
+        <v>1133</v>
+      </c>
+      <c r="S360" s="4" t="s">
+        <v>1133</v>
+      </c>
+      <c r="T360" s="4" t="s">
+        <v>1133</v>
+      </c>
+      <c r="U360" s="4" t="s">
+        <v>1133</v>
       </c>
     </row>
     <row r="361" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A361" s="4" t="s">
-        <v>1084</v>
-      </c>
-      <c r="B361" s="4" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B361" s="2" t="s">
         <v>415</v>
       </c>
       <c r="C361" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D361" s="4" t="s">
-        <v>42</v>
+      <c r="D361" s="2" t="s">
+        <v>1861</v>
       </c>
       <c r="E361" s="3">
-        <v>1998</v>
-      </c>
-      <c r="F361" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G361" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="H361" s="3"/>
-      <c r="I361" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="J361" s="4" t="s">
-        <v>1133</v>
-      </c>
-      <c r="K361" s="4" t="s">
-        <v>1133</v>
-      </c>
-      <c r="L361" s="3" t="s">
-        <v>1133</v>
-      </c>
-      <c r="M361" s="4" t="s">
-        <v>1133</v>
-      </c>
-      <c r="N361" s="3">
-        <v>87</v>
+        <v>2018</v>
+      </c>
+      <c r="F361" s="5" t="s">
+        <v>1862</v>
+      </c>
+      <c r="G361" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="I361" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="N361" s="9">
+        <v>114</v>
       </c>
       <c r="O361" s="4" t="s">
-        <v>1219</v>
-      </c>
-      <c r="P361" s="4" t="s">
-        <v>1462</v>
-      </c>
-      <c r="Q361" s="4" t="s">
-        <v>1133</v>
-      </c>
-      <c r="R361" s="4" t="s">
-        <v>1133</v>
-      </c>
-      <c r="S361" s="4" t="s">
-        <v>1133</v>
-      </c>
-      <c r="T361" s="4" t="s">
-        <v>1133</v>
-      </c>
-      <c r="U361" s="4" t="s">
-        <v>1133</v>
+        <v>1220</v>
+      </c>
+      <c r="P361" t="s">
+        <v>1878</v>
+      </c>
+      <c r="Q361" t="s">
+        <v>1863</v>
+      </c>
+      <c r="R361" t="s">
+        <v>1873</v>
+      </c>
+      <c r="S361" t="s">
+        <v>1864</v>
+      </c>
+      <c r="T361" t="s">
+        <v>1874</v>
+      </c>
+      <c r="U361" t="s">
+        <v>1867</v>
       </c>
     </row>
     <row r="362" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A362" s="4" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B362" s="4" t="s">
         <v>415</v>
       </c>
       <c r="C362" s="4" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="D362" s="4" t="s">
-        <v>515</v>
+        <v>42</v>
       </c>
       <c r="E362" s="3">
-        <v>2017</v>
+        <v>1998</v>
       </c>
       <c r="F362" s="4" t="s">
-        <v>516</v>
+        <v>43</v>
       </c>
       <c r="G362" s="3" t="s">
         <v>420</v>
       </c>
       <c r="H362" s="3"/>
       <c r="I362" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="J362" s="4" t="s">
-        <v>342</v>
+        <v>1133</v>
       </c>
       <c r="K362" s="4" t="s">
         <v>1133</v>
       </c>
       <c r="L362" s="3" t="s">
-        <v>418</v>
+        <v>1133</v>
       </c>
       <c r="M362" s="4" t="s">
-        <v>1175</v>
+        <v>1133</v>
       </c>
       <c r="N362" s="3">
-        <v>140</v>
+        <v>87</v>
       </c>
       <c r="O362" s="4" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="P362" s="4" t="s">
-        <v>1133</v>
+        <v>1462</v>
       </c>
       <c r="Q362" s="4" t="s">
         <v>1133</v>
@@ -28845,47 +28856,47 @@
     </row>
     <row r="363" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A363" s="4" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C363" s="4" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D363" s="4" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="E363" s="3">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="F363" s="4" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="G363" s="3" t="s">
         <v>420</v>
       </c>
       <c r="H363" s="3"/>
       <c r="I363" s="3" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="J363" s="4" t="s">
-        <v>1133</v>
+        <v>342</v>
       </c>
       <c r="K363" s="4" t="s">
         <v>1133</v>
       </c>
       <c r="L363" s="3" t="s">
-        <v>1133</v>
+        <v>418</v>
       </c>
       <c r="M363" s="4" t="s">
-        <v>1189</v>
+        <v>1175</v>
       </c>
       <c r="N363" s="3">
-        <v>56</v>
+        <v>140</v>
       </c>
       <c r="O363" s="4" t="s">
-        <v>1382</v>
+        <v>1218</v>
       </c>
       <c r="P363" s="4" t="s">
         <v>1133</v>
@@ -28908,22 +28919,22 @@
     </row>
     <row r="364" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A364" s="4" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C364" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D364" s="4" t="s">
-        <v>38</v>
+        <v>526</v>
       </c>
       <c r="E364" s="3">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="F364" s="4" t="s">
-        <v>39</v>
+        <v>531</v>
       </c>
       <c r="G364" s="3" t="s">
         <v>420</v>
@@ -28942,13 +28953,13 @@
         <v>1133</v>
       </c>
       <c r="M364" s="4" t="s">
-        <v>1133</v>
+        <v>1189</v>
       </c>
       <c r="N364" s="3">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="O364" s="4" t="s">
-        <v>1219</v>
+        <v>1382</v>
       </c>
       <c r="P364" s="4" t="s">
         <v>1133</v>
@@ -28971,7 +28982,7 @@
     </row>
     <row r="365" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A365" s="4" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B365" s="4" t="s">
         <v>415</v>
@@ -28980,13 +28991,13 @@
         <v>6</v>
       </c>
       <c r="D365" s="4" t="s">
-        <v>506</v>
+        <v>38</v>
       </c>
       <c r="E365" s="3">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="F365" s="4" t="s">
-        <v>505</v>
+        <v>39</v>
       </c>
       <c r="G365" s="3" t="s">
         <v>420</v>
@@ -29008,48 +29019,48 @@
         <v>1133</v>
       </c>
       <c r="N365" s="3">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O365" s="4" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="P365" s="4" t="s">
-        <v>1663</v>
+        <v>1133</v>
       </c>
       <c r="Q365" s="4" t="s">
-        <v>1664</v>
+        <v>1133</v>
       </c>
       <c r="R365" s="4" t="s">
-        <v>1668</v>
+        <v>1133</v>
       </c>
       <c r="S365" s="4" t="s">
-        <v>1667</v>
+        <v>1133</v>
       </c>
       <c r="T365" s="4" t="s">
-        <v>1666</v>
+        <v>1133</v>
       </c>
       <c r="U365" s="4" t="s">
-        <v>1665</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="366" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A366" s="4" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B366" s="4" t="s">
         <v>415</v>
       </c>
       <c r="C366" s="4" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="D366" s="4" t="s">
-        <v>232</v>
+        <v>506</v>
       </c>
       <c r="E366" s="3">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="F366" s="4" t="s">
-        <v>233</v>
+        <v>505</v>
       </c>
       <c r="G366" s="3" t="s">
         <v>420</v>
@@ -29071,48 +29082,48 @@
         <v>1133</v>
       </c>
       <c r="N366" s="3">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O366" s="4" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="P366" s="4" t="s">
-        <v>1460</v>
+        <v>1663</v>
       </c>
       <c r="Q366" s="4" t="s">
-        <v>1133</v>
+        <v>1664</v>
       </c>
       <c r="R366" s="4" t="s">
-        <v>1133</v>
+        <v>1668</v>
       </c>
       <c r="S366" s="4" t="s">
-        <v>1133</v>
+        <v>1667</v>
       </c>
       <c r="T366" s="4" t="s">
-        <v>1133</v>
+        <v>1666</v>
       </c>
       <c r="U366" s="4" t="s">
-        <v>1133</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="367" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A367" s="4" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B367" s="4" t="s">
         <v>415</v>
       </c>
       <c r="C367" s="4" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D367" s="4" t="s">
-        <v>417</v>
+        <v>232</v>
       </c>
       <c r="E367" s="3">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="F367" s="4" t="s">
-        <v>31</v>
+        <v>233</v>
       </c>
       <c r="G367" s="3" t="s">
         <v>420</v>
@@ -29137,10 +29148,10 @@
         <v>107</v>
       </c>
       <c r="O367" s="4" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="P367" s="4" t="s">
-        <v>1133</v>
+        <v>1460</v>
       </c>
       <c r="Q367" s="4" t="s">
         <v>1133</v>
@@ -29160,7 +29171,7 @@
     </row>
     <row r="368" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A368" s="4" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B368" s="4" t="s">
         <v>415</v>
@@ -29169,13 +29180,13 @@
         <v>6</v>
       </c>
       <c r="D368" s="4" t="s">
-        <v>74</v>
+        <v>417</v>
       </c>
       <c r="E368" s="3">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="F368" s="4" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="G368" s="3" t="s">
         <v>420</v>
@@ -29197,10 +29208,10 @@
         <v>1133</v>
       </c>
       <c r="N368" s="3">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="O368" s="4" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="P368" s="4" t="s">
         <v>1133</v>
@@ -29223,7 +29234,7 @@
     </row>
     <row r="369" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A369" s="4" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B369" s="4" t="s">
         <v>415</v>
@@ -29232,13 +29243,13 @@
         <v>6</v>
       </c>
       <c r="D369" s="4" t="s">
-        <v>372</v>
+        <v>74</v>
       </c>
       <c r="E369" s="3">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="F369" s="4" t="s">
-        <v>373</v>
+        <v>75</v>
       </c>
       <c r="G369" s="3" t="s">
         <v>420</v>
@@ -29260,10 +29271,10 @@
         <v>1133</v>
       </c>
       <c r="N369" s="3">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="O369" s="4" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="P369" s="4" t="s">
         <v>1133</v>
@@ -29286,25 +29297,25 @@
     </row>
     <row r="370" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A370" s="4" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B370" s="4" t="s">
         <v>415</v>
       </c>
       <c r="C370" s="4" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="D370" s="4" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="E370" s="3">
         <v>2018</v>
       </c>
       <c r="F370" s="4" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="G370" s="3" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H370" s="3"/>
       <c r="I370" s="3" t="s">
@@ -29323,10 +29334,10 @@
         <v>1133</v>
       </c>
       <c r="N370" s="3">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="O370" s="4" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="P370" s="4" t="s">
         <v>1133</v>
@@ -29349,22 +29360,22 @@
     </row>
     <row r="371" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A371" s="4" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B371" s="4" t="s">
         <v>415</v>
       </c>
       <c r="C371" s="4" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D371" s="4" t="s">
-        <v>562</v>
+        <v>357</v>
       </c>
       <c r="E371" s="3">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="F371" s="4" t="s">
-        <v>563</v>
+        <v>358</v>
       </c>
       <c r="G371" s="3" t="s">
         <v>418</v>
@@ -29386,10 +29397,10 @@
         <v>1133</v>
       </c>
       <c r="N371" s="3">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="O371" s="4" t="s">
-        <v>1220</v>
+        <v>1224</v>
       </c>
       <c r="P371" s="4" t="s">
         <v>1133</v>
@@ -29412,7 +29423,7 @@
     </row>
     <row r="372" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A372" s="4" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B372" s="4" t="s">
         <v>415</v>
@@ -29421,38 +29432,38 @@
         <v>6</v>
       </c>
       <c r="D372" s="4" t="s">
-        <v>290</v>
+        <v>562</v>
       </c>
       <c r="E372" s="3">
         <v>2017</v>
       </c>
       <c r="F372" s="4" t="s">
-        <v>291</v>
+        <v>563</v>
       </c>
       <c r="G372" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H372" s="3"/>
       <c r="I372" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="J372" s="4" t="s">
         <v>1133</v>
       </c>
       <c r="K372" s="4" t="s">
-        <v>509</v>
+        <v>1133</v>
       </c>
       <c r="L372" s="3" t="s">
-        <v>420</v>
+        <v>1133</v>
       </c>
       <c r="M372" s="4" t="s">
         <v>1133</v>
       </c>
       <c r="N372" s="3">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="O372" s="4" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="P372" s="4" t="s">
         <v>1133</v>
@@ -29475,35 +29486,35 @@
     </row>
     <row r="373" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A373" s="4" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B373" s="4" t="s">
         <v>415</v>
       </c>
       <c r="C373" s="4" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="D373" s="4" t="s">
-        <v>509</v>
+        <v>290</v>
       </c>
       <c r="E373" s="3">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="F373" s="4" t="s">
         <v>291</v>
       </c>
       <c r="G373" s="3" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H373" s="3"/>
       <c r="I373" s="3" t="s">
         <v>420</v>
       </c>
       <c r="J373" s="4" t="s">
-        <v>290</v>
+        <v>1133</v>
       </c>
       <c r="K373" s="4" t="s">
-        <v>1133</v>
+        <v>509</v>
       </c>
       <c r="L373" s="3" t="s">
         <v>420</v>
@@ -29512,7 +29523,7 @@
         <v>1133</v>
       </c>
       <c r="N373" s="3">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="O373" s="4" t="s">
         <v>1226</v>
@@ -29538,47 +29549,47 @@
     </row>
     <row r="374" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A374" s="4" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B374" s="4" t="s">
         <v>415</v>
       </c>
       <c r="C374" s="4" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D374" s="4" t="s">
-        <v>61</v>
+        <v>509</v>
       </c>
       <c r="E374" s="3">
-        <v>2013</v>
+        <v>2020</v>
       </c>
       <c r="F374" s="4" t="s">
-        <v>62</v>
+        <v>291</v>
       </c>
       <c r="G374" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H374" s="3"/>
       <c r="I374" s="3" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="J374" s="4" t="s">
-        <v>1133</v>
+        <v>290</v>
       </c>
       <c r="K374" s="4" t="s">
         <v>1133</v>
       </c>
       <c r="L374" s="3" t="s">
-        <v>1133</v>
+        <v>420</v>
       </c>
       <c r="M374" s="4" t="s">
         <v>1133</v>
       </c>
       <c r="N374" s="3">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="O374" s="4" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="P374" s="4" t="s">
         <v>1133</v>
@@ -29601,7 +29612,7 @@
     </row>
     <row r="375" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A375" s="4" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B375" s="4" t="s">
         <v>415</v>
@@ -29610,38 +29621,38 @@
         <v>6</v>
       </c>
       <c r="D375" s="4" t="s">
-        <v>125</v>
+        <v>61</v>
       </c>
       <c r="E375" s="3">
-        <v>2000</v>
+        <v>2013</v>
       </c>
       <c r="F375" s="4" t="s">
-        <v>120</v>
+        <v>62</v>
       </c>
       <c r="G375" s="3" t="s">
         <v>420</v>
       </c>
       <c r="H375" s="3"/>
       <c r="I375" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="J375" s="4" t="s">
-        <v>722</v>
+        <v>1133</v>
       </c>
       <c r="K375" s="4" t="s">
-        <v>723</v>
+        <v>1133</v>
       </c>
       <c r="L375" s="3" t="s">
-        <v>420</v>
+        <v>1133</v>
       </c>
       <c r="M375" s="4" t="s">
         <v>1133</v>
       </c>
       <c r="N375" s="3">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="O375" s="4" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="P375" s="4" t="s">
         <v>1133</v>
@@ -29664,7 +29675,7 @@
     </row>
     <row r="376" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A376" s="4" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B376" s="4" t="s">
         <v>415</v>
@@ -29673,10 +29684,10 @@
         <v>6</v>
       </c>
       <c r="D376" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E376" s="3">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="F376" s="4" t="s">
         <v>120</v>
@@ -29689,10 +29700,10 @@
         <v>420</v>
       </c>
       <c r="J376" s="4" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="K376" s="4" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="L376" s="3" t="s">
         <v>420</v>
@@ -29701,7 +29712,7 @@
         <v>1133</v>
       </c>
       <c r="N376" s="3">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="O376" s="4" t="s">
         <v>1227</v>
@@ -29727,7 +29738,7 @@
     </row>
     <row r="377" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A377" s="4" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B377" s="4" t="s">
         <v>415</v>
@@ -29736,10 +29747,10 @@
         <v>6</v>
       </c>
       <c r="D377" s="4" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E377" s="3">
-        <v>2016</v>
+        <v>2003</v>
       </c>
       <c r="F377" s="4" t="s">
         <v>120</v>
@@ -29752,10 +29763,10 @@
         <v>420</v>
       </c>
       <c r="J377" s="4" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="K377" s="4" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="L377" s="3" t="s">
         <v>420</v>
@@ -29764,7 +29775,7 @@
         <v>1133</v>
       </c>
       <c r="N377" s="3">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="O377" s="4" t="s">
         <v>1227</v>
@@ -29790,7 +29801,7 @@
     </row>
     <row r="378" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A378" s="4" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B378" s="4" t="s">
         <v>415</v>
@@ -29799,13 +29810,13 @@
         <v>6</v>
       </c>
       <c r="D378" s="4" t="s">
-        <v>477</v>
+        <v>119</v>
       </c>
       <c r="E378" s="3">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="F378" s="4" t="s">
-        <v>479</v>
+        <v>120</v>
       </c>
       <c r="G378" s="3" t="s">
         <v>420</v>
@@ -29815,10 +29826,10 @@
         <v>420</v>
       </c>
       <c r="J378" s="4" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="K378" s="4" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="L378" s="3" t="s">
         <v>420</v>
@@ -29827,7 +29838,7 @@
         <v>1133</v>
       </c>
       <c r="N378" s="3">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="O378" s="4" t="s">
         <v>1227</v>
@@ -29853,7 +29864,7 @@
     </row>
     <row r="379" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A379" s="4" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B379" s="4" t="s">
         <v>415</v>
@@ -29862,13 +29873,13 @@
         <v>6</v>
       </c>
       <c r="D379" s="4" t="s">
-        <v>121</v>
+        <v>477</v>
       </c>
       <c r="E379" s="3">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="F379" s="4" t="s">
-        <v>120</v>
+        <v>479</v>
       </c>
       <c r="G379" s="3" t="s">
         <v>420</v>
@@ -29878,10 +29889,10 @@
         <v>420</v>
       </c>
       <c r="J379" s="4" t="s">
-        <v>122</v>
+        <v>716</v>
       </c>
       <c r="K379" s="4" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="L379" s="3" t="s">
         <v>420</v>
@@ -29890,7 +29901,7 @@
         <v>1133</v>
       </c>
       <c r="N379" s="3">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="O379" s="4" t="s">
         <v>1227</v>
@@ -29916,7 +29927,7 @@
     </row>
     <row r="380" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A380" s="4" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B380" s="4" t="s">
         <v>415</v>
@@ -29925,13 +29936,13 @@
         <v>6</v>
       </c>
       <c r="D380" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E380" s="3">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="F380" s="4" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="G380" s="3" t="s">
         <v>420</v>
@@ -29941,10 +29952,10 @@
         <v>420</v>
       </c>
       <c r="J380" s="4" t="s">
-        <v>1133</v>
+        <v>122</v>
       </c>
       <c r="K380" s="4" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L380" s="3" t="s">
         <v>420</v>
@@ -29979,7 +29990,7 @@
     </row>
     <row r="381" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A381" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B381" s="4" t="s">
         <v>415</v>
@@ -29988,13 +29999,13 @@
         <v>6</v>
       </c>
       <c r="D381" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E381" s="3">
-        <v>2006</v>
+        <v>2011</v>
       </c>
       <c r="F381" s="4" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="G381" s="3" t="s">
         <v>420</v>
@@ -30004,10 +30015,10 @@
         <v>420</v>
       </c>
       <c r="J381" s="4" t="s">
-        <v>714</v>
+        <v>1133</v>
       </c>
       <c r="K381" s="4" t="s">
-        <v>1133</v>
+        <v>713</v>
       </c>
       <c r="L381" s="3" t="s">
         <v>420</v>
@@ -30016,7 +30027,7 @@
         <v>1133</v>
       </c>
       <c r="N381" s="3">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="O381" s="4" t="s">
         <v>1227</v>
@@ -30042,47 +30053,47 @@
     </row>
     <row r="382" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A382" s="4" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B382" s="4" t="s">
         <v>415</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="D382" s="4" t="s">
-        <v>514</v>
+        <v>123</v>
       </c>
       <c r="E382" s="3">
-        <v>2015</v>
+        <v>2006</v>
       </c>
       <c r="F382" s="4" t="s">
-        <v>517</v>
+        <v>124</v>
       </c>
       <c r="G382" s="3" t="s">
         <v>420</v>
       </c>
       <c r="H382" s="3"/>
       <c r="I382" s="3" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="J382" s="4" t="s">
-        <v>1133</v>
+        <v>714</v>
       </c>
       <c r="K382" s="4" t="s">
         <v>1133</v>
       </c>
       <c r="L382" s="3" t="s">
-        <v>1133</v>
+        <v>420</v>
       </c>
       <c r="M382" s="4" t="s">
         <v>1133</v>
       </c>
       <c r="N382" s="3">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O382" s="4" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="P382" s="4" t="s">
         <v>1133</v>
@@ -30105,7 +30116,7 @@
     </row>
     <row r="383" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A383" s="4" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B383" s="4" t="s">
         <v>415</v>
@@ -30114,13 +30125,13 @@
         <v>48</v>
       </c>
       <c r="D383" s="4" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="E383" s="3">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="F383" s="4" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="G383" s="3" t="s">
         <v>420</v>
@@ -30142,13 +30153,13 @@
         <v>1133</v>
       </c>
       <c r="N383" s="3">
-        <v>157</v>
+        <v>98</v>
       </c>
       <c r="O383" s="4" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="P383" s="4" t="s">
-        <v>1458</v>
+        <v>1133</v>
       </c>
       <c r="Q383" s="4" t="s">
         <v>1133</v>
@@ -30168,50 +30179,50 @@
     </row>
     <row r="384" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A384" s="4" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B384" s="4" t="s">
         <v>415</v>
       </c>
       <c r="C384" s="4" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D384" s="4" t="s">
-        <v>57</v>
+        <v>522</v>
       </c>
       <c r="E384" s="3">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="F384" s="4" t="s">
-        <v>58</v>
+        <v>523</v>
       </c>
       <c r="G384" s="3" t="s">
         <v>420</v>
       </c>
       <c r="H384" s="3"/>
       <c r="I384" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="J384" s="4" t="s">
         <v>1133</v>
       </c>
       <c r="K384" s="4" t="s">
-        <v>359</v>
+        <v>1133</v>
       </c>
       <c r="L384" s="3" t="s">
-        <v>420</v>
+        <v>1133</v>
       </c>
       <c r="M384" s="4" t="s">
         <v>1133</v>
       </c>
       <c r="N384" s="3">
-        <v>84</v>
+        <v>157</v>
       </c>
       <c r="O384" s="4" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="P384" s="4" t="s">
-        <v>1133</v>
+        <v>1458</v>
       </c>
       <c r="Q384" s="4" t="s">
         <v>1133</v>
@@ -30231,19 +30242,19 @@
     </row>
     <row r="385" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A385" s="4" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B385" s="4" t="s">
         <v>415</v>
       </c>
       <c r="C385" s="4" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="D385" s="4" t="s">
-        <v>359</v>
+        <v>57</v>
       </c>
       <c r="E385" s="3">
-        <v>2019</v>
+        <v>2009</v>
       </c>
       <c r="F385" s="4" t="s">
         <v>58</v>
@@ -30256,10 +30267,10 @@
         <v>420</v>
       </c>
       <c r="J385" s="4" t="s">
-        <v>57</v>
+        <v>1133</v>
       </c>
       <c r="K385" s="4" t="s">
-        <v>1133</v>
+        <v>359</v>
       </c>
       <c r="L385" s="3" t="s">
         <v>420</v>
@@ -30268,7 +30279,7 @@
         <v>1133</v>
       </c>
       <c r="N385" s="3">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="O385" s="4" t="s">
         <v>1230</v>
@@ -30294,70 +30305,133 @@
     </row>
     <row r="386" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A386" s="4" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B386" s="4" t="s">
         <v>415</v>
       </c>
       <c r="C386" s="4" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D386" s="4" t="s">
-        <v>244</v>
+        <v>359</v>
       </c>
       <c r="E386" s="3">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="F386" s="4" t="s">
-        <v>245</v>
+        <v>58</v>
       </c>
       <c r="G386" s="3" t="s">
         <v>420</v>
       </c>
       <c r="H386" s="3"/>
       <c r="I386" s="3" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="J386" s="4" t="s">
-        <v>1133</v>
+        <v>57</v>
       </c>
       <c r="K386" s="4" t="s">
         <v>1133</v>
       </c>
       <c r="L386" s="3" t="s">
-        <v>1133</v>
+        <v>420</v>
       </c>
       <c r="M386" s="4" t="s">
         <v>1133</v>
       </c>
       <c r="N386" s="3">
+        <v>99</v>
+      </c>
+      <c r="O386" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="P386" s="4" t="s">
+        <v>1133</v>
+      </c>
+      <c r="Q386" s="4" t="s">
+        <v>1133</v>
+      </c>
+      <c r="R386" s="4" t="s">
+        <v>1133</v>
+      </c>
+      <c r="S386" s="4" t="s">
+        <v>1133</v>
+      </c>
+      <c r="T386" s="4" t="s">
+        <v>1133</v>
+      </c>
+      <c r="U386" s="4" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="387" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A387" s="4" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B387" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="C387" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D387" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E387" s="3">
+        <v>2016</v>
+      </c>
+      <c r="F387" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="G387" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="H387" s="3"/>
+      <c r="I387" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="J387" s="4" t="s">
+        <v>1133</v>
+      </c>
+      <c r="K387" s="4" t="s">
+        <v>1133</v>
+      </c>
+      <c r="L387" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="M387" s="4" t="s">
+        <v>1133</v>
+      </c>
+      <c r="N387" s="3">
         <v>104</v>
       </c>
-      <c r="O386" s="4" t="s">
+      <c r="O387" s="4" t="s">
         <v>1231</v>
       </c>
-      <c r="P386" s="4" t="s">
+      <c r="P387" s="4" t="s">
         <v>1459</v>
       </c>
-      <c r="Q386" s="4" t="s">
-        <v>1133</v>
-      </c>
-      <c r="R386" s="4" t="s">
-        <v>1133</v>
-      </c>
-      <c r="S386" s="4" t="s">
-        <v>1133</v>
-      </c>
-      <c r="T386" s="4" t="s">
-        <v>1133</v>
-      </c>
-      <c r="U386" s="4" t="s">
+      <c r="Q387" s="4" t="s">
+        <v>1133</v>
+      </c>
+      <c r="R387" s="4" t="s">
+        <v>1133</v>
+      </c>
+      <c r="S387" s="4" t="s">
+        <v>1133</v>
+      </c>
+      <c r="T387" s="4" t="s">
+        <v>1133</v>
+      </c>
+      <c r="U387" s="4" t="s">
         <v>1133</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:U384" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U386">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U387">
       <sortCondition ref="D1:D384"/>
     </sortState>
   </autoFilter>

--- a/content/database.xlsx
+++ b/content/database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hannah\life\dabad2_0\dabad\content\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hannah\life\dabad\vue-dabad\content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5089A0AF-8868-4E16-8190-1E087B75546C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E596B3A-8B8A-47F3-8FD1-E2A2819E1CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="database" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6951" uniqueCount="1908">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7037" uniqueCount="1949">
   <si>
     <t>ID</t>
   </si>
@@ -5498,9 +5498,6 @@
     <t>Damon Lindelof</t>
   </si>
   <si>
-    <t>Kingdom of the Planet of the Apes</t>
-  </si>
-  <si>
     <t>SciFi, Drama, Mystery</t>
   </si>
   <si>
@@ -5763,13 +5760,139 @@
   </si>
   <si>
     <t>A wonderful metaphor animated beautifully and the little jokes here and there for the people that look closer are the cream on top. I am excited for the sequel and the technology behind how they animated the different furs is amazing.</t>
+  </si>
+  <si>
+    <t>The_Kids_Are_Alright_2010</t>
+  </si>
+  <si>
+    <t>The Kids Are Alright</t>
+  </si>
+  <si>
+    <t>Lisa Cholodenko</t>
+  </si>
+  <si>
+    <t>Comedy, Drama, Romance</t>
+  </si>
+  <si>
+    <t>Lisa Cholodenko, Stuart Blumberg</t>
+  </si>
+  <si>
+    <t>Annette Bening, Julianne Moore, Mark Ruffalo, Mia Wasikowska, Josh Hutcherson, Yaya DaCosta</t>
+  </si>
+  <si>
+    <t>Igor Jadue-Lillo</t>
+  </si>
+  <si>
+    <t>Mary Claire Hannan</t>
+  </si>
+  <si>
+    <t>A_Room_With_A_View_1985</t>
+  </si>
+  <si>
+    <t>A Room with a View</t>
+  </si>
+  <si>
+    <t>James Ivory</t>
+  </si>
+  <si>
+    <t>E.M. Forster, Ruth Prawer Jhabvala</t>
+  </si>
+  <si>
+    <t>Maggie Smith, Helena Bonham Carter, Denholm Elliott, Julian Sands, Simon Callow, Patrick Godfrey, Judi Dench, Joan Henley, Amanda Walker, Daniel Day-Lewis</t>
+  </si>
+  <si>
+    <t>Richard Robbins</t>
+  </si>
+  <si>
+    <t>Tony Pierce-Roberts</t>
+  </si>
+  <si>
+    <t>Jenny Beavan, John Bright</t>
+  </si>
+  <si>
+    <t>The_Lord_Of_The_Rings_The_Fellowship_Of_The_Ring_2001</t>
+  </si>
+  <si>
+    <t>The Lord of the Rings: The Fellowship of the Ring</t>
+  </si>
+  <si>
+    <t>Peter Jackson</t>
+  </si>
+  <si>
+    <t>The Lord of the Rings: The Two Towers, The Lord of the Rings: The Return of the King</t>
+  </si>
+  <si>
+    <t>Action, Fantasy, Epic</t>
+  </si>
+  <si>
+    <t>J.R.R. Tolkien, Fran Walsh, Philippa Boyens</t>
+  </si>
+  <si>
+    <t>Elijah Wood, Ian McKellen, Orlando Bloom, Sean Bean, Alan Howard, Noel Appleby, Sean Astin, Sala Baker, Billy Boyd, Andy Serkis, Marton Csokas, Viggo Mortensen, Cate Blanchett, Mark Ferguson, Ian Holm, Christopher Lee</t>
+  </si>
+  <si>
+    <t>Howard Shore</t>
+  </si>
+  <si>
+    <t>Andrew Lesnie</t>
+  </si>
+  <si>
+    <t>Ngila Dickson, Richard Taylor</t>
+  </si>
+  <si>
+    <t>The_Lord_Of_The_Rings_The_Two_Towers_2002</t>
+  </si>
+  <si>
+    <t>The Lord of the Rings: The Two Towers</t>
+  </si>
+  <si>
+    <t>The Lord of the Rings: The Return of the King</t>
+  </si>
+  <si>
+    <t>Elijah Wood, Ian McKellen, Viggo Mortensen, Orlando Bloom, Bruce Allpress, Sean Astin, John Bach, Sala Baker, Cate Blanchett, Billy Boyd, Jed Bophy, Sam Comery, Brad Dourif, Calum Gittins, Bernard Hill, Buce Hopkins, Paris Howe Strewe, Christopher Lee</t>
+  </si>
+  <si>
+    <t>The_Lord_Of_The_Rings_The_Return_Of_The_King_2003</t>
+  </si>
+  <si>
+    <t>The Lord of the Rings: The Fellowship of the Ring, The Lord of the Rings: The Two Towers</t>
+  </si>
+  <si>
+    <t>Elijah Wood, Viggo Mortensen, Ian McKellen, Orlando Bloom, Noel Appleby, Ali Astin, Sean Astin, David Aston, John Bach, Sean Bean, Cate Blanchett, Billy Boyd, Sadwyn Brophy, Alistair Browning, Marton Csokas, Richard Edge, Jason Fitch, Bernard Hill</t>
+  </si>
+  <si>
+    <t>Fantastic_Four_2005</t>
+  </si>
+  <si>
+    <t>Fantastic Four</t>
+  </si>
+  <si>
+    <t>Tim Story</t>
+  </si>
+  <si>
+    <t>Fantastic Four: Rise of the Silver Surfer</t>
+  </si>
+  <si>
+    <t>Mark Frost, Michael France, Stan Lee</t>
+  </si>
+  <si>
+    <t>Ioan Gruffudd, Michael Chiklis, Chris Evans, Jessica Alba, Julian McMahon, Hamish Linklater, Kerry Washington, Laurie Holden</t>
+  </si>
+  <si>
+    <t>John Ottman</t>
+  </si>
+  <si>
+    <t>Oliver Wood</t>
+  </si>
+  <si>
+    <t>Jose Fernandez</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5844,7 +5967,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5860,9 +5983,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5900,7 +6023,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -6006,7 +6129,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6148,7 +6271,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6156,16 +6279,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U388"/>
+  <dimension ref="A1:U394"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A301" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A315" sqref="A315"/>
+      <pane ySplit="1" topLeftCell="A362" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A394" sqref="A394"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" style="4" customWidth="1"/>
     <col min="4" max="4" width="32.42578125" style="2" customWidth="1"/>
@@ -6187,7 +6310,7 @@
     <col min="21" max="21" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -6252,7 +6375,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
@@ -6317,7 +6440,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>37</v>
       </c>
@@ -6380,7 +6503,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>47</v>
       </c>
@@ -6443,7 +6566,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>56</v>
       </c>
@@ -6506,7 +6629,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>67</v>
       </c>
@@ -6569,7 +6692,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>77</v>
       </c>
@@ -6632,7 +6755,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>87</v>
       </c>
@@ -6695,7 +6818,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>91</v>
       </c>
@@ -6758,7 +6881,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>99</v>
       </c>
@@ -6821,7 +6944,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>110</v>
       </c>
@@ -6884,7 +7007,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>121</v>
       </c>
@@ -6947,7 +7070,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>131</v>
       </c>
@@ -7010,7 +7133,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>142</v>
       </c>
@@ -7073,7 +7196,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>152</v>
       </c>
@@ -7136,7 +7259,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>162</v>
       </c>
@@ -7199,7 +7322,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>170</v>
       </c>
@@ -7262,7 +7385,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>180</v>
       </c>
@@ -7325,7 +7448,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>189</v>
       </c>
@@ -7388,7 +7511,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>194</v>
       </c>
@@ -7451,7 +7574,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>203</v>
       </c>
@@ -7514,7 +7637,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>209</v>
       </c>
@@ -7577,7 +7700,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>214</v>
       </c>
@@ -7640,7 +7763,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>220</v>
       </c>
@@ -7703,7 +7826,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>230</v>
       </c>
@@ -7766,7 +7889,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>239</v>
       </c>
@@ -7829,7 +7952,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>244</v>
       </c>
@@ -7892,7 +8015,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>248</v>
       </c>
@@ -7955,7 +8078,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>253</v>
       </c>
@@ -8018,7 +8141,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>259</v>
       </c>
@@ -8081,7 +8204,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>269</v>
       </c>
@@ -8144,7 +8267,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>279</v>
       </c>
@@ -8209,7 +8332,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>286</v>
       </c>
@@ -8272,7 +8395,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>291</v>
       </c>
@@ -8335,7 +8458,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>296</v>
       </c>
@@ -8398,7 +8521,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>305</v>
       </c>
@@ -8461,7 +8584,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="37" spans="1:21">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>315</v>
       </c>
@@ -8524,7 +8647,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:21">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>320</v>
       </c>
@@ -8587,7 +8710,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:21">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>325</v>
       </c>
@@ -8650,7 +8773,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:21">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>330</v>
       </c>
@@ -8713,7 +8836,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:21">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>336</v>
       </c>
@@ -8776,7 +8899,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="42" spans="1:21">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>345</v>
       </c>
@@ -8839,7 +8962,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:21">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>352</v>
       </c>
@@ -8902,7 +9025,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:21">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>357</v>
       </c>
@@ -8965,7 +9088,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="45" spans="1:21">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>364</v>
       </c>
@@ -9028,7 +9151,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="1:21">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>369</v>
       </c>
@@ -9091,7 +9214,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:21">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>374</v>
       </c>
@@ -9154,7 +9277,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:21">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>380</v>
       </c>
@@ -9217,7 +9340,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:21">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>385</v>
       </c>
@@ -9280,7 +9403,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:21">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>389</v>
       </c>
@@ -9343,7 +9466,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="1:21">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>392</v>
       </c>
@@ -9406,7 +9529,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:21">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>396</v>
       </c>
@@ -9469,7 +9592,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="1:21">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>401</v>
       </c>
@@ -9532,7 +9655,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="1:21">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>406</v>
       </c>
@@ -9595,7 +9718,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:21">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>413</v>
       </c>
@@ -9658,7 +9781,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="1:21">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>415</v>
       </c>
@@ -9721,7 +9844,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:21">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>421</v>
       </c>
@@ -9784,7 +9907,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:21">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>426</v>
       </c>
@@ -9847,7 +9970,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:21">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>429</v>
       </c>
@@ -9910,7 +10033,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:21">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>435</v>
       </c>
@@ -9975,7 +10098,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="1:21">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>441</v>
       </c>
@@ -10038,7 +10161,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="62" spans="1:21">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>451</v>
       </c>
@@ -10101,7 +10224,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="63" spans="1:21">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>457</v>
       </c>
@@ -10164,7 +10287,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="1:21">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>460</v>
       </c>
@@ -10227,7 +10350,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="1:21">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>463</v>
       </c>
@@ -10290,7 +10413,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="1:21">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>468</v>
       </c>
@@ -10353,7 +10476,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="67" spans="1:21">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>477</v>
       </c>
@@ -10416,7 +10539,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="1:21">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>481</v>
       </c>
@@ -10466,7 +10589,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="69" spans="1:21">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>491</v>
       </c>
@@ -10529,7 +10652,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="1:21">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>496</v>
       </c>
@@ -10592,7 +10715,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="71" spans="1:21">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>501</v>
       </c>
@@ -10655,7 +10778,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="72" spans="1:21">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>506</v>
       </c>
@@ -10718,7 +10841,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="73" spans="1:21">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>509</v>
       </c>
@@ -10780,7 +10903,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="74" spans="1:21">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>512</v>
       </c>
@@ -10845,7 +10968,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="75" spans="1:21">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>522</v>
       </c>
@@ -10910,7 +11033,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="76" spans="1:21">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>529</v>
       </c>
@@ -10973,7 +11096,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="77" spans="1:21">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>535</v>
       </c>
@@ -11036,7 +11159,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="78" spans="1:21">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>541</v>
       </c>
@@ -11099,7 +11222,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="79" spans="1:21">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>542</v>
       </c>
@@ -11162,7 +11285,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="80" spans="1:21">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>550</v>
       </c>
@@ -11225,7 +11348,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="81" spans="1:21">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>554</v>
       </c>
@@ -11288,7 +11411,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="82" spans="1:21">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>562</v>
       </c>
@@ -11351,7 +11474,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="83" spans="1:21">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>566</v>
       </c>
@@ -11416,7 +11539,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="84" spans="1:21">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>576</v>
       </c>
@@ -11479,7 +11602,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="85" spans="1:21">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>581</v>
       </c>
@@ -11542,7 +11665,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="86" spans="1:21">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>582</v>
       </c>
@@ -11605,7 +11728,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="87" spans="1:21">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>587</v>
       </c>
@@ -11668,7 +11791,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="88" spans="1:21">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>591</v>
       </c>
@@ -11731,7 +11854,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="89" spans="1:21">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>595</v>
       </c>
@@ -11794,7 +11917,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="90" spans="1:21">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>599</v>
       </c>
@@ -11857,7 +11980,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="91" spans="1:21">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>608</v>
       </c>
@@ -11920,7 +12043,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="92" spans="1:21">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>611</v>
       </c>
@@ -11983,7 +12106,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="93" spans="1:21">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>615</v>
       </c>
@@ -12046,7 +12169,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="94" spans="1:21">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>619</v>
       </c>
@@ -12109,7 +12232,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="95" spans="1:21">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>629</v>
       </c>
@@ -12172,7 +12295,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="96" spans="1:21">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>632</v>
       </c>
@@ -12235,7 +12358,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="97" spans="1:21">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>642</v>
       </c>
@@ -12298,7 +12421,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="98" spans="1:21">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>647</v>
       </c>
@@ -12361,7 +12484,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="99" spans="1:21">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>651</v>
       </c>
@@ -12424,7 +12547,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="100" spans="1:21">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>653</v>
       </c>
@@ -12487,7 +12610,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="101" spans="1:21">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>658</v>
       </c>
@@ -12550,7 +12673,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="102" spans="1:21">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>662</v>
       </c>
@@ -12613,7 +12736,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="103" spans="1:21">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>666</v>
       </c>
@@ -12676,7 +12799,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="104" spans="1:21">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>668</v>
       </c>
@@ -12739,7 +12862,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="105" spans="1:21">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>672</v>
       </c>
@@ -12802,7 +12925,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="106" spans="1:21">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>682</v>
       </c>
@@ -12865,7 +12988,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="107" spans="1:21">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>686</v>
       </c>
@@ -12928,7 +13051,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="108" spans="1:21">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>690</v>
       </c>
@@ -12991,7 +13114,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="109" spans="1:21">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>695</v>
       </c>
@@ -13054,7 +13177,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="110" spans="1:21">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>699</v>
       </c>
@@ -13117,7 +13240,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="111" spans="1:21">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>704</v>
       </c>
@@ -13180,7 +13303,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="112" spans="1:21">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>709</v>
       </c>
@@ -13243,7 +13366,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="113" spans="1:21">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
         <v>714</v>
       </c>
@@ -13306,7 +13429,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="114" spans="1:21">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>719</v>
       </c>
@@ -13369,7 +13492,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="115" spans="1:21">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
         <v>724</v>
       </c>
@@ -13432,7 +13555,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="116" spans="1:21">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
         <v>727</v>
       </c>
@@ -13495,7 +13618,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="117" spans="1:21">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
         <v>732</v>
       </c>
@@ -13558,7 +13681,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="118" spans="1:21">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
         <v>734</v>
       </c>
@@ -13621,7 +13744,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="119" spans="1:21">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
         <v>737</v>
       </c>
@@ -13684,7 +13807,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="120" spans="1:21">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>746</v>
       </c>
@@ -13747,7 +13870,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="121" spans="1:21">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
         <v>749</v>
       </c>
@@ -13810,7 +13933,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="122" spans="1:21">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>752</v>
       </c>
@@ -13873,7 +13996,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="123" spans="1:21">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
         <v>763</v>
       </c>
@@ -13936,7 +14059,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="124" spans="1:21">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
         <v>766</v>
       </c>
@@ -13999,7 +14122,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="125" spans="1:21">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>770</v>
       </c>
@@ -14062,7 +14185,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="126" spans="1:21">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>775</v>
       </c>
@@ -14125,7 +14248,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="127" spans="1:21">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>785</v>
       </c>
@@ -14188,7 +14311,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="128" spans="1:21">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>787</v>
       </c>
@@ -14251,7 +14374,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="129" spans="1:21">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>796</v>
       </c>
@@ -14314,7 +14437,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="130" spans="1:21">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>800</v>
       </c>
@@ -14377,7 +14500,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="131" spans="1:21">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>803</v>
       </c>
@@ -14440,7 +14563,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="132" spans="1:21">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>806</v>
       </c>
@@ -14503,7 +14626,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="133" spans="1:21">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>811</v>
       </c>
@@ -14566,7 +14689,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="134" spans="1:21">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>813</v>
       </c>
@@ -14629,7 +14752,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="135" spans="1:21">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>822</v>
       </c>
@@ -14692,7 +14815,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="136" spans="1:21">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>832</v>
       </c>
@@ -14733,7 +14856,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="137" spans="1:21">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
         <v>838</v>
       </c>
@@ -14793,7 +14916,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="138" spans="1:21">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
         <v>841</v>
       </c>
@@ -14856,7 +14979,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="139" spans="1:21">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
         <v>845</v>
       </c>
@@ -14919,7 +15042,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="140" spans="1:21">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
         <v>850</v>
       </c>
@@ -14982,7 +15105,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="141" spans="1:21">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
         <v>851</v>
       </c>
@@ -15045,7 +15168,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="142" spans="1:21">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
         <v>855</v>
       </c>
@@ -15110,7 +15233,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="143" spans="1:21">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
         <v>859</v>
       </c>
@@ -15175,7 +15298,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="144" spans="1:21">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>864</v>
       </c>
@@ -15240,7 +15363,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="145" spans="1:21">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
         <v>869</v>
       </c>
@@ -15303,7 +15426,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="146" spans="1:21">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
         <v>872</v>
       </c>
@@ -15366,7 +15489,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="147" spans="1:21">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
         <v>876</v>
       </c>
@@ -15429,7 +15552,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="148" spans="1:21">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
         <v>878</v>
       </c>
@@ -15494,7 +15617,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="149" spans="1:21">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
         <v>890</v>
       </c>
@@ -15559,7 +15682,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="150" spans="1:21">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
         <v>897</v>
       </c>
@@ -15624,7 +15747,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="151" spans="1:21">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
         <v>905</v>
       </c>
@@ -15689,7 +15812,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="152" spans="1:21">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
         <v>910</v>
       </c>
@@ -15752,7 +15875,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="153" spans="1:21">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
         <v>916</v>
       </c>
@@ -15815,7 +15938,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="154" spans="1:21">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
         <v>917</v>
       </c>
@@ -15878,7 +16001,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="155" spans="1:21">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
         <v>927</v>
       </c>
@@ -15941,7 +16064,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="156" spans="1:21">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
         <v>931</v>
       </c>
@@ -16006,7 +16129,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="157" spans="1:21">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
         <v>938</v>
       </c>
@@ -16069,7 +16192,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="158" spans="1:21">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
         <v>941</v>
       </c>
@@ -16132,7 +16255,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="159" spans="1:21">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
         <v>943</v>
       </c>
@@ -16195,7 +16318,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="160" spans="1:21">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
         <v>947</v>
       </c>
@@ -16258,7 +16381,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="161" spans="1:21">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
         <v>950</v>
       </c>
@@ -16321,7 +16444,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="162" spans="1:21">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
         <v>954</v>
       </c>
@@ -16384,7 +16507,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="163" spans="1:21">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
         <v>957</v>
       </c>
@@ -16447,7 +16570,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="164" spans="1:21">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
         <v>960</v>
       </c>
@@ -16510,7 +16633,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="165" spans="1:21">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
         <v>963</v>
       </c>
@@ -16573,7 +16696,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="166" spans="1:21">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
         <v>967</v>
       </c>
@@ -16636,7 +16759,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="167" spans="1:21">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
         <v>972</v>
       </c>
@@ -16699,7 +16822,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="168" spans="1:21">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
         <v>977</v>
       </c>
@@ -16762,7 +16885,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="169" spans="1:21">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
         <v>982</v>
       </c>
@@ -16825,7 +16948,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="170" spans="1:21">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>987</v>
       </c>
@@ -16888,7 +17011,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="171" spans="1:21">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
         <v>988</v>
       </c>
@@ -16951,7 +17074,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="172" spans="1:21">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
         <v>993</v>
       </c>
@@ -17014,7 +17137,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="173" spans="1:21">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
         <v>996</v>
       </c>
@@ -17077,7 +17200,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="174" spans="1:21">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
         <v>1001</v>
       </c>
@@ -17140,7 +17263,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="175" spans="1:21">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
         <v>1003</v>
       </c>
@@ -17203,7 +17326,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="176" spans="1:21">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
         <v>1006</v>
       </c>
@@ -17266,7 +17389,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="177" spans="1:21">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
         <v>1012</v>
       </c>
@@ -17329,7 +17452,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="178" spans="1:21">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
         <v>1013</v>
       </c>
@@ -17392,7 +17515,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="179" spans="1:21">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
         <v>1017</v>
       </c>
@@ -17455,7 +17578,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="180" spans="1:21">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
         <v>1021</v>
       </c>
@@ -17518,7 +17641,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="181" spans="1:21">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
         <v>1022</v>
       </c>
@@ -17581,7 +17704,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="182" spans="1:21">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
         <v>1026</v>
       </c>
@@ -17644,7 +17767,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="183" spans="1:21">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
         <v>1029</v>
       </c>
@@ -17707,7 +17830,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="184" spans="1:21">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
         <v>1033</v>
       </c>
@@ -17770,7 +17893,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="185" spans="1:21">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
         <v>1037</v>
       </c>
@@ -17833,7 +17956,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="186" spans="1:21">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
         <v>1040</v>
       </c>
@@ -17896,7 +18019,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="187" spans="1:21">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
         <v>1043</v>
       </c>
@@ -17959,7 +18082,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="188" spans="1:21">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
         <v>1046</v>
       </c>
@@ -18022,7 +18145,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="189" spans="1:21">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
         <v>1049</v>
       </c>
@@ -18085,7 +18208,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="190" spans="1:21">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
         <v>1057</v>
       </c>
@@ -18148,7 +18271,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="191" spans="1:21">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
         <v>1062</v>
       </c>
@@ -18211,7 +18334,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="192" spans="1:21">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
         <v>1063</v>
       </c>
@@ -18274,7 +18397,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="193" spans="1:21">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
         <v>1066</v>
       </c>
@@ -18337,7 +18460,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="194" spans="1:21">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
         <v>1075</v>
       </c>
@@ -18400,7 +18523,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="195" spans="1:21">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
         <v>1079</v>
       </c>
@@ -18463,7 +18586,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="196" spans="1:21">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
         <v>1082</v>
       </c>
@@ -18526,7 +18649,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="197" spans="1:21">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
         <v>1085</v>
       </c>
@@ -18589,7 +18712,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="198" spans="1:21">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
         <v>1088</v>
       </c>
@@ -18652,7 +18775,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="199" spans="1:21">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
         <v>1094</v>
       </c>
@@ -18715,7 +18838,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="200" spans="1:21">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
         <v>1098</v>
       </c>
@@ -18778,7 +18901,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="201" spans="1:21">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
         <v>1103</v>
       </c>
@@ -18841,7 +18964,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="202" spans="1:21">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
         <v>1108</v>
       </c>
@@ -18904,7 +19027,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="203" spans="1:21">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
         <v>1113</v>
       </c>
@@ -18967,7 +19090,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="204" spans="1:21">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
         <v>1118</v>
       </c>
@@ -19030,7 +19153,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="205" spans="1:21">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
         <v>1124</v>
       </c>
@@ -19093,7 +19216,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="206" spans="1:21">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
         <v>1129</v>
       </c>
@@ -19156,7 +19279,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="207" spans="1:21">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
         <v>1133</v>
       </c>
@@ -19219,7 +19342,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="208" spans="1:21">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
         <v>1137</v>
       </c>
@@ -19282,7 +19405,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="209" spans="1:21">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
         <v>1140</v>
       </c>
@@ -19347,7 +19470,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="210" spans="1:21">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
         <v>1145</v>
       </c>
@@ -19410,7 +19533,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="211" spans="1:21">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
         <v>1150</v>
       </c>
@@ -19473,7 +19596,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="212" spans="1:21">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
         <v>1154</v>
       </c>
@@ -19536,7 +19659,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="213" spans="1:21">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
         <v>1155</v>
       </c>
@@ -19599,7 +19722,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="214" spans="1:21">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
         <v>1164</v>
       </c>
@@ -19662,7 +19785,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="215" spans="1:21">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
         <v>1175</v>
       </c>
@@ -19725,7 +19848,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="216" spans="1:21">
+    <row r="216" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
         <v>1182</v>
       </c>
@@ -19788,7 +19911,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="217" spans="1:21">
+    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
         <v>1190</v>
       </c>
@@ -19851,7 +19974,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="218" spans="1:21">
+    <row r="218" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
         <v>1193</v>
       </c>
@@ -19914,7 +20037,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="219" spans="1:21">
+    <row r="219" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
         <v>1197</v>
       </c>
@@ -19977,7 +20100,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="220" spans="1:21">
+    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
         <v>1201</v>
       </c>
@@ -20040,7 +20163,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="221" spans="1:21">
+    <row r="221" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
         <v>1205</v>
       </c>
@@ -20103,7 +20226,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="222" spans="1:21">
+    <row r="222" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
         <v>1209</v>
       </c>
@@ -20166,7 +20289,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="223" spans="1:21">
+    <row r="223" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
         <v>1215</v>
       </c>
@@ -20229,7 +20352,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="224" spans="1:21">
+    <row r="224" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
         <v>1217</v>
       </c>
@@ -20292,7 +20415,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="225" spans="1:21">
+    <row r="225" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
         <v>1220</v>
       </c>
@@ -20355,7 +20478,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="226" spans="1:21">
+    <row r="226" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
         <v>1225</v>
       </c>
@@ -20418,7 +20541,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="227" spans="1:21">
+    <row r="227" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A227" s="4" t="s">
         <v>1227</v>
       </c>
@@ -20481,7 +20604,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="228" spans="1:21">
+    <row r="228" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
         <v>1232</v>
       </c>
@@ -20544,7 +20667,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="229" spans="1:21">
+    <row r="229" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A229" s="4" t="s">
         <v>1236</v>
       </c>
@@ -20607,7 +20730,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="230" spans="1:21">
+    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A230" s="4" t="s">
         <v>1241</v>
       </c>
@@ -20670,7 +20793,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="231" spans="1:21">
+    <row r="231" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A231" s="4" t="s">
         <v>1244</v>
       </c>
@@ -20733,7 +20856,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="232" spans="1:21">
+    <row r="232" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A232" s="4" t="s">
         <v>1247</v>
       </c>
@@ -20796,7 +20919,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="233" spans="1:21">
+    <row r="233" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
         <v>1250</v>
       </c>
@@ -20859,7 +20982,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="234" spans="1:21">
+    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
         <v>1253</v>
       </c>
@@ -20922,7 +21045,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="235" spans="1:21">
+    <row r="235" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A235" s="4" t="s">
         <v>1257</v>
       </c>
@@ -20985,7 +21108,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="236" spans="1:21">
+    <row r="236" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
         <v>1260</v>
       </c>
@@ -21040,7 +21163,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="237" spans="1:21">
+    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
         <v>1268</v>
       </c>
@@ -21105,7 +21228,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="238" spans="1:21">
+    <row r="238" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A238" s="4" t="s">
         <v>1273</v>
       </c>
@@ -21168,7 +21291,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="239" spans="1:21">
+    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
         <v>1277</v>
       </c>
@@ -21231,7 +21354,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="240" spans="1:21">
+    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A240" s="4" t="s">
         <v>1281</v>
       </c>
@@ -21294,7 +21417,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="241" spans="1:21">
+    <row r="241" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
         <v>1282</v>
       </c>
@@ -21357,7 +21480,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="242" spans="1:21">
+    <row r="242" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A242" s="4" t="s">
         <v>1285</v>
       </c>
@@ -21420,7 +21543,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="243" spans="1:21">
+    <row r="243" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A243" s="4" t="s">
         <v>1290</v>
       </c>
@@ -21483,7 +21606,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="244" spans="1:21">
+    <row r="244" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A244" s="4" t="s">
         <v>1292</v>
       </c>
@@ -21546,7 +21669,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="245" spans="1:21">
+    <row r="245" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A245" s="4" t="s">
         <v>1297</v>
       </c>
@@ -21609,7 +21732,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="246" spans="1:21">
+    <row r="246" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A246" s="4" t="s">
         <v>1300</v>
       </c>
@@ -21659,7 +21782,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="247" spans="1:21">
+    <row r="247" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A247" s="4" t="s">
         <v>1309</v>
       </c>
@@ -21722,7 +21845,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="248" spans="1:21">
+    <row r="248" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A248" s="4" t="s">
         <v>1313</v>
       </c>
@@ -21785,7 +21908,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="249" spans="1:21">
+    <row r="249" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A249" s="4" t="s">
         <v>1316</v>
       </c>
@@ -21848,7 +21971,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="250" spans="1:21">
+    <row r="250" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A250" s="4" t="s">
         <v>1318</v>
       </c>
@@ -21911,7 +22034,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="251" spans="1:21">
+    <row r="251" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A251" s="4" t="s">
         <v>1323</v>
       </c>
@@ -21974,7 +22097,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="252" spans="1:21">
+    <row r="252" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A252" s="4" t="s">
         <v>1328</v>
       </c>
@@ -22037,7 +22160,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="253" spans="1:21">
+    <row r="253" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A253" s="4" t="s">
         <v>1331</v>
       </c>
@@ -22100,7 +22223,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="254" spans="1:21">
+    <row r="254" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A254" s="4" t="s">
         <v>1336</v>
       </c>
@@ -22163,7 +22286,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="255" spans="1:21">
+    <row r="255" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A255" s="4" t="s">
         <v>1339</v>
       </c>
@@ -22226,7 +22349,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="256" spans="1:21">
+    <row r="256" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A256" s="4" t="s">
         <v>1343</v>
       </c>
@@ -22289,7 +22412,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="257" spans="1:21">
+    <row r="257" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A257" s="4" t="s">
         <v>1347</v>
       </c>
@@ -22352,7 +22475,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="258" spans="1:21">
+    <row r="258" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A258" s="4" t="s">
         <v>1351</v>
       </c>
@@ -22415,7 +22538,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="259" spans="1:21">
+    <row r="259" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A259" s="4" t="s">
         <v>1355</v>
       </c>
@@ -22478,7 +22601,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="260" spans="1:21">
+    <row r="260" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A260" s="4" t="s">
         <v>1359</v>
       </c>
@@ -22541,7 +22664,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="261" spans="1:21">
+    <row r="261" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A261" s="4" t="s">
         <v>1361</v>
       </c>
@@ -22604,7 +22727,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="262" spans="1:21">
+    <row r="262" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A262" s="4" t="s">
         <v>1370</v>
       </c>
@@ -22667,7 +22790,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="263" spans="1:21">
+    <row r="263" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A263" s="4" t="s">
         <v>1373</v>
       </c>
@@ -22712,7 +22835,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="264" spans="1:21">
+    <row r="264" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A264" s="4" t="s">
         <v>1375</v>
       </c>
@@ -22775,7 +22898,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="265" spans="1:21">
+    <row r="265" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A265" s="4" t="s">
         <v>1380</v>
       </c>
@@ -22838,7 +22961,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="266" spans="1:21">
+    <row r="266" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A266" s="4" t="s">
         <v>1383</v>
       </c>
@@ -22901,7 +23024,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="267" spans="1:21">
+    <row r="267" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A267" s="4" t="s">
         <v>1387</v>
       </c>
@@ -22964,7 +23087,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="268" spans="1:21">
+    <row r="268" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A268" s="4" t="s">
         <v>1390</v>
       </c>
@@ -23027,7 +23150,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="269" spans="1:21">
+    <row r="269" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A269" s="4" t="s">
         <v>1394</v>
       </c>
@@ -23090,7 +23213,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="270" spans="1:21">
+    <row r="270" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A270" s="4" t="s">
         <v>1397</v>
       </c>
@@ -23153,7 +23276,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="271" spans="1:21">
+    <row r="271" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A271" s="4" t="s">
         <v>1401</v>
       </c>
@@ -23216,7 +23339,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="272" spans="1:21">
+    <row r="272" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A272" s="4" t="s">
         <v>1405</v>
       </c>
@@ -23281,7 +23404,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="273" spans="1:21">
+    <row r="273" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A273" s="4" t="s">
         <v>1412</v>
       </c>
@@ -23344,7 +23467,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="274" spans="1:21">
+    <row r="274" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A274" s="4" t="s">
         <v>1416</v>
       </c>
@@ -23407,7 +23530,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="275" spans="1:21">
+    <row r="275" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A275" s="4" t="s">
         <v>1420</v>
       </c>
@@ -23470,7 +23593,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="276" spans="1:21">
+    <row r="276" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A276" s="4" t="s">
         <v>1423</v>
       </c>
@@ -23533,7 +23656,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="277" spans="1:21">
+    <row r="277" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A277" s="4" t="s">
         <v>1425</v>
       </c>
@@ -23596,7 +23719,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="278" spans="1:21">
+    <row r="278" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A278" s="4" t="s">
         <v>1429</v>
       </c>
@@ -23646,7 +23769,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="279" spans="1:21">
+    <row r="279" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A279" s="4" t="s">
         <v>1439</v>
       </c>
@@ -23709,7 +23832,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="280" spans="1:21">
+    <row r="280" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A280" s="4" t="s">
         <v>1442</v>
       </c>
@@ -23759,7 +23882,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="281" spans="1:21">
+    <row r="281" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A281" s="4" t="s">
         <v>1450</v>
       </c>
@@ -23809,7 +23932,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="282" spans="1:21">
+    <row r="282" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A282" s="4" t="s">
         <v>1455</v>
       </c>
@@ -23872,7 +23995,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="283" spans="1:21">
+    <row r="283" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A283" s="4" t="s">
         <v>1459</v>
       </c>
@@ -23935,7 +24058,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="284" spans="1:21">
+    <row r="284" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A284" s="4" t="s">
         <v>1467</v>
       </c>
@@ -23998,7 +24121,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="285" spans="1:21">
+    <row r="285" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A285" s="4" t="s">
         <v>1474</v>
       </c>
@@ -24061,7 +24184,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="286" spans="1:21">
+    <row r="286" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A286" s="4" t="s">
         <v>1477</v>
       </c>
@@ -24124,7 +24247,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="287" spans="1:21">
+    <row r="287" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A287" s="4" t="s">
         <v>1485</v>
       </c>
@@ -24185,7 +24308,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="288" spans="1:21">
+    <row r="288" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A288" s="4" t="s">
         <v>1489</v>
       </c>
@@ -24248,7 +24371,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="289" spans="1:21">
+    <row r="289" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A289" s="4" t="s">
         <v>1496</v>
       </c>
@@ -24311,7 +24434,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="290" spans="1:21">
+    <row r="290" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A290" s="4" t="s">
         <v>1497</v>
       </c>
@@ -24374,7 +24497,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="291" spans="1:21">
+    <row r="291" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A291" s="4" t="s">
         <v>1500</v>
       </c>
@@ -24437,7 +24560,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="292" spans="1:21">
+    <row r="292" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A292" s="4" t="s">
         <v>1502</v>
       </c>
@@ -24500,7 +24623,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="293" spans="1:21">
+    <row r="293" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A293" s="4" t="s">
         <v>1505</v>
       </c>
@@ -24563,7 +24686,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="294" spans="1:21">
+    <row r="294" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A294" s="4" t="s">
         <v>1514</v>
       </c>
@@ -24626,7 +24749,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="295" spans="1:21">
+    <row r="295" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A295" s="4" t="s">
         <v>1518</v>
       </c>
@@ -24689,7 +24812,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="296" spans="1:21">
+    <row r="296" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A296" s="4" t="s">
         <v>1522</v>
       </c>
@@ -24752,7 +24875,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="297" spans="1:21">
+    <row r="297" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A297" s="4" t="s">
         <v>1526</v>
       </c>
@@ -24815,7 +24938,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="298" spans="1:21">
+    <row r="298" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A298" s="4" t="s">
         <v>1530</v>
       </c>
@@ -24878,7 +25001,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="299" spans="1:21">
+    <row r="299" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A299" s="4" t="s">
         <v>1534</v>
       </c>
@@ -24941,7 +25064,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="300" spans="1:21">
+    <row r="300" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A300" s="4" t="s">
         <v>1537</v>
       </c>
@@ -25004,7 +25127,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="301" spans="1:21">
+    <row r="301" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A301" s="4" t="s">
         <v>1541</v>
       </c>
@@ -25067,7 +25190,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="302" spans="1:21">
+    <row r="302" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A302" s="4" t="s">
         <v>1543</v>
       </c>
@@ -25130,7 +25253,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="303" spans="1:21">
+    <row r="303" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A303" s="4" t="s">
         <v>1547</v>
       </c>
@@ -25193,7 +25316,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="304" spans="1:21">
+    <row r="304" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A304" s="4" t="s">
         <v>1549</v>
       </c>
@@ -25256,7 +25379,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="305" spans="1:21">
+    <row r="305" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A305" s="4" t="s">
         <v>1553</v>
       </c>
@@ -25319,7 +25442,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="306" spans="1:21">
+    <row r="306" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A306" s="4" t="s">
         <v>1560</v>
       </c>
@@ -25382,7 +25505,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="307" spans="1:21">
+    <row r="307" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A307" s="4" t="s">
         <v>1562</v>
       </c>
@@ -25445,7 +25568,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="308" spans="1:21">
+    <row r="308" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A308" s="4" t="s">
         <v>1566</v>
       </c>
@@ -25508,7 +25631,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="309" spans="1:21">
+    <row r="309" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A309" s="4" t="s">
         <v>1569</v>
       </c>
@@ -25571,7 +25694,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="310" spans="1:21">
+    <row r="310" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A310" s="4" t="s">
         <v>1578</v>
       </c>
@@ -25632,7 +25755,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="311" spans="1:21">
+    <row r="311" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A311" s="4" t="s">
         <v>1588</v>
       </c>
@@ -25693,7 +25816,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="312" spans="1:21">
+    <row r="312" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A312" s="4" t="s">
         <v>1597</v>
       </c>
@@ -25756,7 +25879,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="313" spans="1:21">
+    <row r="313" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A313" s="4" t="s">
         <v>1606</v>
       </c>
@@ -25817,7 +25940,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="314" spans="1:21" ht="15">
+    <row r="314" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>1610</v>
       </c>
@@ -25873,7 +25996,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="315" spans="1:21" ht="15">
+    <row r="315" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A315" s="4" t="s">
         <v>1615</v>
       </c>
@@ -25936,7 +26059,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="316" spans="1:21" ht="15">
+    <row r="316" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A316" s="4" t="s">
         <v>1619</v>
       </c>
@@ -25999,7 +26122,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="317" spans="1:21" ht="15">
+    <row r="317" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A317" s="4" t="s">
         <v>1623</v>
       </c>
@@ -26062,7 +26185,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="318" spans="1:21" ht="15">
+    <row r="318" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A318" s="4" t="s">
         <v>1627</v>
       </c>
@@ -26125,7 +26248,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="319" spans="1:21" ht="15">
+    <row r="319" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A319" s="4" t="s">
         <v>1629</v>
       </c>
@@ -26188,7 +26311,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="320" spans="1:21" ht="15">
+    <row r="320" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A320" s="4" t="s">
         <v>1631</v>
       </c>
@@ -26251,7 +26374,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="321" spans="1:21" ht="15">
+    <row r="321" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A321" s="4" t="s">
         <v>1635</v>
       </c>
@@ -26314,7 +26437,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="322" spans="1:21" ht="15">
+    <row r="322" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A322" s="4" t="s">
         <v>1644</v>
       </c>
@@ -26377,7 +26500,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="323" spans="1:21" ht="15">
+    <row r="323" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A323" s="4" t="s">
         <v>1648</v>
       </c>
@@ -26440,7 +26563,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="324" spans="1:21" ht="15">
+    <row r="324" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A324" s="4" t="s">
         <v>1651</v>
       </c>
@@ -26503,7 +26626,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="325" spans="1:21" ht="15">
+    <row r="325" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A325" s="4" t="s">
         <v>1654</v>
       </c>
@@ -26568,7 +26691,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="326" spans="1:21" ht="15">
+    <row r="326" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A326" s="4" t="s">
         <v>1657</v>
       </c>
@@ -26631,7 +26754,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="327" spans="1:21" ht="15">
+    <row r="327" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A327" s="4" t="s">
         <v>1660</v>
       </c>
@@ -26694,7 +26817,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="328" spans="1:21" ht="15">
+    <row r="328" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A328" s="4" t="s">
         <v>1662</v>
       </c>
@@ -26757,7 +26880,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="329" spans="1:21" ht="15">
+    <row r="329" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A329" s="4" t="s">
         <v>1664</v>
       </c>
@@ -26820,7 +26943,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="330" spans="1:21" ht="15">
+    <row r="330" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A330" s="4" t="s">
         <v>1667</v>
       </c>
@@ -26883,7 +27006,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="331" spans="1:21" ht="15">
+    <row r="331" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A331" s="4" t="s">
         <v>1671</v>
       </c>
@@ -26946,7 +27069,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="332" spans="1:21" ht="15">
+    <row r="332" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A332" s="4" t="s">
         <v>1675</v>
       </c>
@@ -27009,7 +27132,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="333" spans="1:21" ht="15">
+    <row r="333" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A333" s="4" t="s">
         <v>1679</v>
       </c>
@@ -27072,7 +27195,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="334" spans="1:21" ht="15">
+    <row r="334" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A334" s="4" t="s">
         <v>1684</v>
       </c>
@@ -27135,7 +27258,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="335" spans="1:21" ht="15">
+    <row r="335" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A335" s="4" t="s">
         <v>1687</v>
       </c>
@@ -27198,7 +27321,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="336" spans="1:21" ht="15">
+    <row r="336" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A336" s="4" t="s">
         <v>1692</v>
       </c>
@@ -27261,7 +27384,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="337" spans="1:21" ht="15">
+    <row r="337" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A337" s="4" t="s">
         <v>1696</v>
       </c>
@@ -27324,7 +27447,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="338" spans="1:21" ht="15">
+    <row r="338" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A338" s="4" t="s">
         <v>1700</v>
       </c>
@@ -27387,7 +27510,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="339" spans="1:21" ht="15">
+    <row r="339" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A339" s="4" t="s">
         <v>1703</v>
       </c>
@@ -27450,7 +27573,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="340" spans="1:21" ht="15">
+    <row r="340" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A340" s="4" t="s">
         <v>1706</v>
       </c>
@@ -27513,7 +27636,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="341" spans="1:21" ht="15">
+    <row r="341" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A341" s="4" t="s">
         <v>1710</v>
       </c>
@@ -27576,7 +27699,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="342" spans="1:21" ht="15">
+    <row r="342" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A342" s="4" t="s">
         <v>1713</v>
       </c>
@@ -27639,7 +27762,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="343" spans="1:21" ht="15">
+    <row r="343" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A343" s="4" t="s">
         <v>1722</v>
       </c>
@@ -27686,7 +27809,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="344" spans="1:21" ht="15">
+    <row r="344" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A344" s="4" t="s">
         <v>1731</v>
       </c>
@@ -27749,7 +27872,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="345" spans="1:21" ht="15">
+    <row r="345" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A345" s="4" t="s">
         <v>1734</v>
       </c>
@@ -27812,7 +27935,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="346" spans="1:21" ht="15">
+    <row r="346" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A346" s="4" t="s">
         <v>1738</v>
       </c>
@@ -27875,7 +27998,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="347" spans="1:21" ht="15">
+    <row r="347" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A347" s="4" t="s">
         <v>1746</v>
       </c>
@@ -27936,7 +28059,7 @@
       </c>
       <c r="U347" s="4"/>
     </row>
-    <row r="348" spans="1:21" ht="15">
+    <row r="348" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A348" s="4" t="s">
         <v>1750</v>
       </c>
@@ -27999,7 +28122,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="349" spans="1:21" ht="15">
+    <row r="349" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A349" s="4" t="s">
         <v>1754</v>
       </c>
@@ -28062,7 +28185,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="350" spans="1:21" ht="15">
+    <row r="350" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A350" s="4" t="s">
         <v>1758</v>
       </c>
@@ -28125,7 +28248,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="351" spans="1:21" ht="15">
+    <row r="351" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A351" s="4" t="s">
         <v>1764</v>
       </c>
@@ -28188,7 +28311,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="352" spans="1:21" ht="15">
+    <row r="352" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A352" s="4" t="s">
         <v>1767</v>
       </c>
@@ -28251,7 +28374,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="353" spans="1:21" ht="15">
+    <row r="353" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A353" s="4" t="s">
         <v>1770</v>
       </c>
@@ -28314,7 +28437,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="354" spans="1:21" ht="15">
+    <row r="354" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A354" s="4" t="s">
         <v>1774</v>
       </c>
@@ -28377,7 +28500,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="355" spans="1:21" ht="15">
+    <row r="355" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A355" s="4" t="s">
         <v>1778</v>
       </c>
@@ -28440,7 +28563,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="356" spans="1:21" ht="15">
+    <row r="356" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A356" s="4" t="s">
         <v>1781</v>
       </c>
@@ -28503,7 +28626,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="357" spans="1:21" ht="15">
+    <row r="357" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A357" s="4" t="s">
         <v>1784</v>
       </c>
@@ -28566,7 +28689,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="358" spans="1:21" ht="15">
+    <row r="358" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A358" s="4" t="s">
         <v>1787</v>
       </c>
@@ -28629,7 +28752,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="359" spans="1:21" ht="15">
+    <row r="359" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A359" s="4" t="s">
         <v>1789</v>
       </c>
@@ -28692,7 +28815,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="360" spans="1:21" ht="15">
+    <row r="360" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A360" s="4" t="s">
         <v>1792</v>
       </c>
@@ -28755,7 +28878,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="361" spans="1:21" ht="15">
+    <row r="361" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A361" s="4" t="s">
         <v>1797</v>
       </c>
@@ -28818,7 +28941,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="362" spans="1:21" ht="15">
+    <row r="362" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A362" s="4" t="s">
         <v>1801</v>
       </c>
@@ -28868,7 +28991,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="363" spans="1:21" ht="15">
+    <row r="363" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A363" s="4" t="s">
         <v>1810</v>
       </c>
@@ -28931,7 +29054,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="364" spans="1:21" ht="15">
+    <row r="364" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A364" s="4" t="s">
         <v>1814</v>
       </c>
@@ -28994,7 +29117,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="365" spans="1:21" ht="15">
+    <row r="365" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A365" s="4" t="s">
         <v>1816</v>
       </c>
@@ -29029,52 +29152,50 @@
       <c r="L365" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M365" s="4" t="s">
-        <v>1819</v>
-      </c>
+      <c r="M365" s="4"/>
       <c r="N365" s="3">
         <v>56</v>
       </c>
       <c r="O365" s="4" t="s">
+        <v>1819</v>
+      </c>
+      <c r="P365" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q365" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R365" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="S365" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T365" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="U365" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="366" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A366" s="4" t="s">
         <v>1820</v>
       </c>
-      <c r="P365" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q365" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R365" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="S365" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="T365" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="U365" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="366" spans="1:21" ht="15">
-      <c r="A366" s="4" t="s">
+      <c r="B366" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C366" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D366" s="4" t="s">
         <v>1821</v>
-      </c>
-      <c r="B366" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C366" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D366" s="4" t="s">
-        <v>1822</v>
       </c>
       <c r="E366" s="3">
         <v>2013</v>
       </c>
       <c r="F366" s="4" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="G366" s="3" t="s">
         <v>26</v>
@@ -29120,24 +29241,24 @@
         <v>29</v>
       </c>
     </row>
-    <row r="367" spans="1:21" ht="15">
+    <row r="367" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A367" s="4" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B367" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C367" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D367" s="4" t="s">
         <v>1824</v>
-      </c>
-      <c r="B367" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C367" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D367" s="4" t="s">
-        <v>1825</v>
       </c>
       <c r="E367" s="3">
         <v>2019</v>
       </c>
       <c r="F367" s="4" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="G367" s="3" t="s">
         <v>26</v>
@@ -29165,27 +29286,27 @@
         <v>323</v>
       </c>
       <c r="P367" s="4" t="s">
+        <v>1826</v>
+      </c>
+      <c r="Q367" s="4" t="s">
         <v>1827</v>
       </c>
-      <c r="Q367" s="4" t="s">
+      <c r="R367" s="4" t="s">
         <v>1828</v>
       </c>
-      <c r="R367" s="4" t="s">
+      <c r="S367" s="4" t="s">
         <v>1829</v>
       </c>
-      <c r="S367" s="4" t="s">
+      <c r="T367" s="4" t="s">
         <v>1830</v>
       </c>
-      <c r="T367" s="4" t="s">
+      <c r="U367" s="4" t="s">
         <v>1831</v>
       </c>
-      <c r="U367" s="4" t="s">
+    </row>
+    <row r="368" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A368" s="4" t="s">
         <v>1832</v>
-      </c>
-    </row>
-    <row r="368" spans="1:21" ht="15">
-      <c r="A368" s="4" t="s">
-        <v>1833</v>
       </c>
       <c r="B368" s="4" t="s">
         <v>22</v>
@@ -29194,7 +29315,7 @@
         <v>23</v>
       </c>
       <c r="D368" s="4" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="E368" s="3">
         <v>2014</v>
@@ -29228,36 +29349,36 @@
         <v>675</v>
       </c>
       <c r="P368" s="4" t="s">
+        <v>1834</v>
+      </c>
+      <c r="Q368" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R368" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="S368" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T368" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="U368" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="369" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A369" s="4" t="s">
         <v>1835</v>
       </c>
-      <c r="Q368" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R368" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="S368" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="T368" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="U368" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="369" spans="1:21" ht="15">
-      <c r="A369" s="4" t="s">
+      <c r="B369" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C369" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D369" s="4" t="s">
         <v>1836</v>
-      </c>
-      <c r="B369" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C369" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D369" s="4" t="s">
-        <v>1837</v>
       </c>
       <c r="E369" s="3">
         <v>2016</v>
@@ -29309,24 +29430,24 @@
         <v>29</v>
       </c>
     </row>
-    <row r="370" spans="1:21" ht="15">
+    <row r="370" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A370" s="4" t="s">
+        <v>1837</v>
+      </c>
+      <c r="B370" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C370" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D370" s="4" t="s">
         <v>1838</v>
-      </c>
-      <c r="B370" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C370" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D370" s="4" t="s">
-        <v>1839</v>
       </c>
       <c r="E370" s="3">
         <v>2014</v>
       </c>
       <c r="F370" s="4" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="G370" s="3" t="s">
         <v>26</v>
@@ -29351,45 +29472,45 @@
         <v>102</v>
       </c>
       <c r="O370" s="4" t="s">
+        <v>1840</v>
+      </c>
+      <c r="P370" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q370" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R370" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="S370" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T370" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="U370" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="371" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A371" s="4" t="s">
         <v>1841</v>
       </c>
-      <c r="P370" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q370" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R370" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="S370" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="T370" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="U370" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="371" spans="1:21" ht="15">
-      <c r="A371" s="4" t="s">
+      <c r="B371" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C371" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D371" s="4" t="s">
         <v>1842</v>
-      </c>
-      <c r="B371" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C371" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D371" s="4" t="s">
-        <v>1843</v>
       </c>
       <c r="E371" s="3">
         <v>2018</v>
       </c>
       <c r="F371" s="4" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="G371" s="3" t="s">
         <v>26</v>
@@ -29414,30 +29535,30 @@
         <v>124</v>
       </c>
       <c r="O371" s="4" t="s">
+        <v>1844</v>
+      </c>
+      <c r="P371" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q371" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R371" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="S371" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T371" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="U371" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="372" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A372" s="4" t="s">
         <v>1845</v>
-      </c>
-      <c r="P371" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q371" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R371" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="S371" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="T371" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="U371" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="372" spans="1:21" ht="15">
-      <c r="A372" s="4" t="s">
-        <v>1846</v>
       </c>
       <c r="B372" s="4" t="s">
         <v>22</v>
@@ -29446,13 +29567,13 @@
         <v>23</v>
       </c>
       <c r="D372" s="4" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="E372" s="3">
         <v>2018</v>
       </c>
       <c r="F372" s="4" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="G372" s="3" t="s">
         <v>28</v>
@@ -29477,45 +29598,45 @@
         <v>109</v>
       </c>
       <c r="O372" s="4" t="s">
+        <v>1848</v>
+      </c>
+      <c r="P372" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q372" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R372" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="S372" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T372" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="U372" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="373" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A373" s="4" t="s">
         <v>1849</v>
       </c>
-      <c r="P372" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q372" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R372" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="S372" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="T372" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="U372" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="373" spans="1:21" ht="15">
-      <c r="A373" s="4" t="s">
+      <c r="B373" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C373" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D373" s="4" t="s">
         <v>1850</v>
-      </c>
-      <c r="B373" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C373" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D373" s="4" t="s">
-        <v>1851</v>
       </c>
       <c r="E373" s="3">
         <v>2017</v>
       </c>
       <c r="F373" s="4" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="G373" s="3" t="s">
         <v>28</v>
@@ -29561,24 +29682,24 @@
         <v>29</v>
       </c>
     </row>
-    <row r="374" spans="1:21" ht="15">
+    <row r="374" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A374" s="4" t="s">
+        <v>1852</v>
+      </c>
+      <c r="B374" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C374" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D374" s="4" t="s">
         <v>1853</v>
-      </c>
-      <c r="B374" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C374" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D374" s="4" t="s">
-        <v>1854</v>
       </c>
       <c r="E374" s="3">
         <v>2017</v>
       </c>
       <c r="F374" s="4" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="G374" s="3" t="s">
         <v>26</v>
@@ -29591,7 +29712,7 @@
         <v>29</v>
       </c>
       <c r="K374" s="4" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="L374" s="3" t="s">
         <v>26</v>
@@ -29603,30 +29724,30 @@
         <v>135</v>
       </c>
       <c r="O374" s="4" t="s">
+        <v>1856</v>
+      </c>
+      <c r="P374" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q374" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R374" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="S374" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T374" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="U374" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="375" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A375" s="4" t="s">
         <v>1857</v>
-      </c>
-      <c r="P374" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q374" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R374" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="S374" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="T374" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="U374" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="375" spans="1:21" ht="15">
-      <c r="A375" s="4" t="s">
-        <v>1858</v>
       </c>
       <c r="B375" s="4" t="s">
         <v>22</v>
@@ -29635,13 +29756,13 @@
         <v>23</v>
       </c>
       <c r="D375" s="4" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="E375" s="3">
         <v>2020</v>
       </c>
       <c r="F375" s="4" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="G375" s="3" t="s">
         <v>28</v>
@@ -29651,7 +29772,7 @@
         <v>26</v>
       </c>
       <c r="J375" s="4" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="K375" s="4" t="s">
         <v>29</v>
@@ -29666,7 +29787,7 @@
         <v>153</v>
       </c>
       <c r="O375" s="4" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="P375" s="4" t="s">
         <v>29</v>
@@ -29687,18 +29808,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="376" spans="1:21" ht="15">
+    <row r="376" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A376" s="4" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B376" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C376" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D376" s="4" t="s">
         <v>1859</v>
-      </c>
-      <c r="B376" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C376" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D376" s="4" t="s">
-        <v>1860</v>
       </c>
       <c r="E376" s="3">
         <v>2013</v>
@@ -29729,45 +29850,45 @@
         <v>112</v>
       </c>
       <c r="O376" s="4" t="s">
+        <v>1860</v>
+      </c>
+      <c r="P376" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q376" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R376" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="S376" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T376" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="U376" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="377" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A377" s="4" t="s">
         <v>1861</v>
       </c>
-      <c r="P376" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q376" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R376" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="S376" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="T376" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="U376" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="377" spans="1:21" ht="15">
-      <c r="A377" s="4" t="s">
+      <c r="B377" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C377" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D377" s="4" t="s">
         <v>1862</v>
-      </c>
-      <c r="B377" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C377" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D377" s="4" t="s">
-        <v>1863</v>
       </c>
       <c r="E377" s="3">
         <v>2000</v>
       </c>
       <c r="F377" s="4" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="G377" s="3" t="s">
         <v>26</v>
@@ -29777,10 +29898,10 @@
         <v>26</v>
       </c>
       <c r="J377" s="4" t="s">
+        <v>1864</v>
+      </c>
+      <c r="K377" s="4" t="s">
         <v>1865</v>
-      </c>
-      <c r="K377" s="4" t="s">
-        <v>1866</v>
       </c>
       <c r="L377" s="3" t="s">
         <v>26</v>
@@ -29813,24 +29934,24 @@
         <v>29</v>
       </c>
     </row>
-    <row r="378" spans="1:21" ht="15">
+    <row r="378" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A378" s="4" t="s">
+        <v>1866</v>
+      </c>
+      <c r="B378" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C378" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D378" s="4" t="s">
         <v>1867</v>
-      </c>
-      <c r="B378" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C378" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D378" s="4" t="s">
-        <v>1868</v>
       </c>
       <c r="E378" s="3">
         <v>2003</v>
       </c>
       <c r="F378" s="4" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="G378" s="3" t="s">
         <v>26</v>
@@ -29840,10 +29961,10 @@
         <v>26</v>
       </c>
       <c r="J378" s="4" t="s">
+        <v>1868</v>
+      </c>
+      <c r="K378" s="4" t="s">
         <v>1869</v>
-      </c>
-      <c r="K378" s="4" t="s">
-        <v>1870</v>
       </c>
       <c r="L378" s="3" t="s">
         <v>26</v>
@@ -29876,24 +29997,24 @@
         <v>29</v>
       </c>
     </row>
-    <row r="379" spans="1:21" ht="15">
+    <row r="379" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A379" s="4" t="s">
+        <v>1870</v>
+      </c>
+      <c r="B379" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C379" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D379" s="4" t="s">
         <v>1871</v>
-      </c>
-      <c r="B379" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C379" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D379" s="4" t="s">
-        <v>1872</v>
       </c>
       <c r="E379" s="3">
         <v>2016</v>
       </c>
       <c r="F379" s="4" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="G379" s="3" t="s">
         <v>26</v>
@@ -29903,10 +30024,10 @@
         <v>26</v>
       </c>
       <c r="J379" s="4" t="s">
+        <v>1872</v>
+      </c>
+      <c r="K379" s="4" t="s">
         <v>1873</v>
-      </c>
-      <c r="K379" s="4" t="s">
-        <v>1874</v>
       </c>
       <c r="L379" s="3" t="s">
         <v>26</v>
@@ -29939,18 +30060,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="380" spans="1:21" ht="15">
+    <row r="380" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A380" s="4" t="s">
+        <v>1874</v>
+      </c>
+      <c r="B380" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C380" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D380" s="4" t="s">
         <v>1875</v>
-      </c>
-      <c r="B380" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C380" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D380" s="4" t="s">
-        <v>1876</v>
       </c>
       <c r="E380" s="3">
         <v>2019</v>
@@ -29966,10 +30087,10 @@
         <v>26</v>
       </c>
       <c r="J380" s="4" t="s">
+        <v>1876</v>
+      </c>
+      <c r="K380" s="4" t="s">
         <v>1877</v>
-      </c>
-      <c r="K380" s="4" t="s">
-        <v>1878</v>
       </c>
       <c r="L380" s="3" t="s">
         <v>26</v>
@@ -30002,24 +30123,24 @@
         <v>29</v>
       </c>
     </row>
-    <row r="381" spans="1:21" ht="15">
+    <row r="381" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A381" s="4" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B381" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C381" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D381" s="4" t="s">
         <v>1879</v>
-      </c>
-      <c r="B381" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C381" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D381" s="4" t="s">
-        <v>1880</v>
       </c>
       <c r="E381" s="3">
         <v>2014</v>
       </c>
       <c r="F381" s="4" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="G381" s="3" t="s">
         <v>26</v>
@@ -30029,10 +30150,10 @@
         <v>26</v>
       </c>
       <c r="J381" s="4" t="s">
+        <v>1880</v>
+      </c>
+      <c r="K381" s="4" t="s">
         <v>1881</v>
-      </c>
-      <c r="K381" s="4" t="s">
-        <v>1882</v>
       </c>
       <c r="L381" s="3" t="s">
         <v>26</v>
@@ -30065,9 +30186,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="382" spans="1:21" ht="15">
+    <row r="382" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A382" s="4" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="B382" s="4" t="s">
         <v>22</v>
@@ -30076,7 +30197,7 @@
         <v>38</v>
       </c>
       <c r="D382" s="4" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="E382" s="3">
         <v>2011</v>
@@ -30095,7 +30216,7 @@
         <v>29</v>
       </c>
       <c r="K382" s="4" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="L382" s="3" t="s">
         <v>26</v>
@@ -30128,24 +30249,24 @@
         <v>29</v>
       </c>
     </row>
-    <row r="383" spans="1:21" ht="15">
+    <row r="383" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A383" s="4" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B383" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C383" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D383" s="4" t="s">
         <v>1885</v>
-      </c>
-      <c r="B383" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C383" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D383" s="4" t="s">
-        <v>1886</v>
       </c>
       <c r="E383" s="3">
         <v>2006</v>
       </c>
       <c r="F383" s="4" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="G383" s="3" t="s">
         <v>26</v>
@@ -30155,7 +30276,7 @@
         <v>26</v>
       </c>
       <c r="J383" s="4" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="K383" s="4" t="s">
         <v>29</v>
@@ -30191,9 +30312,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="384" spans="1:21" ht="15">
+    <row r="384" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A384" s="4" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="B384" s="4" t="s">
         <v>22</v>
@@ -30202,13 +30323,13 @@
         <v>23</v>
       </c>
       <c r="D384" s="4" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="E384" s="3">
         <v>2015</v>
       </c>
       <c r="F384" s="4" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="G384" s="3" t="s">
         <v>26</v>
@@ -30233,30 +30354,30 @@
         <v>98</v>
       </c>
       <c r="O384" s="4" t="s">
+        <v>1891</v>
+      </c>
+      <c r="P384" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q384" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R384" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="S384" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T384" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="U384" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="385" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A385" s="4" t="s">
         <v>1892</v>
-      </c>
-      <c r="P384" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q384" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R384" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="S384" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="T384" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="U384" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="385" spans="1:21" ht="15">
-      <c r="A385" s="4" t="s">
-        <v>1893</v>
       </c>
       <c r="B385" s="4" t="s">
         <v>22</v>
@@ -30265,13 +30386,13 @@
         <v>23</v>
       </c>
       <c r="D385" s="4" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="E385" s="3">
         <v>2012</v>
       </c>
       <c r="F385" s="4" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="G385" s="3" t="s">
         <v>26</v>
@@ -30296,39 +30417,39 @@
         <v>157</v>
       </c>
       <c r="O385" s="4" t="s">
+        <v>1895</v>
+      </c>
+      <c r="P385" s="4" t="s">
         <v>1896</v>
       </c>
-      <c r="P385" s="4" t="s">
+      <c r="Q385" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R385" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="S385" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T385" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="U385" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="386" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A386" s="4" t="s">
         <v>1897</v>
       </c>
-      <c r="Q385" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R385" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="S385" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="T385" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="U385" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="386" spans="1:21" ht="15">
-      <c r="A386" s="4" t="s">
+      <c r="B386" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C386" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D386" s="4" t="s">
         <v>1898</v>
-      </c>
-      <c r="B386" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C386" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D386" s="4" t="s">
-        <v>1899</v>
       </c>
       <c r="E386" s="3">
         <v>2009</v>
@@ -30347,7 +30468,7 @@
         <v>29</v>
       </c>
       <c r="K386" s="4" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="L386" s="3" t="s">
         <v>26</v>
@@ -30359,30 +30480,30 @@
         <v>84</v>
       </c>
       <c r="O386" s="4" t="s">
+        <v>1900</v>
+      </c>
+      <c r="P386" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q386" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R386" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="S386" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T386" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="U386" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="387" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A387" s="4" t="s">
         <v>1901</v>
-      </c>
-      <c r="P386" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q386" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R386" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="S386" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="T386" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="U386" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="387" spans="1:21" ht="15">
-      <c r="A387" s="4" t="s">
-        <v>1902</v>
       </c>
       <c r="B387" s="4" t="s">
         <v>22</v>
@@ -30391,7 +30512,7 @@
         <v>23</v>
       </c>
       <c r="D387" s="4" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="E387" s="3">
         <v>2019</v>
@@ -30407,7 +30528,7 @@
         <v>26</v>
       </c>
       <c r="J387" s="4" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="K387" s="4" t="s">
         <v>29</v>
@@ -30422,7 +30543,7 @@
         <v>99</v>
       </c>
       <c r="O387" s="4" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="P387" s="4" t="s">
         <v>29</v>
@@ -30443,24 +30564,24 @@
         <v>29</v>
       </c>
     </row>
-    <row r="388" spans="1:21" ht="15">
+    <row r="388" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A388" s="4" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B388" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C388" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D388" s="4" t="s">
         <v>1903</v>
-      </c>
-      <c r="B388" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C388" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D388" s="4" t="s">
-        <v>1904</v>
       </c>
       <c r="E388" s="3">
         <v>2016</v>
       </c>
       <c r="F388" s="4" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="G388" s="3" t="s">
         <v>26</v>
@@ -30485,25 +30606,334 @@
         <v>104</v>
       </c>
       <c r="O388" s="4" t="s">
+        <v>1905</v>
+      </c>
+      <c r="P388" s="4" t="s">
         <v>1906</v>
       </c>
-      <c r="P388" s="4" t="s">
+      <c r="Q388" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R388" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="S388" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T388" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="U388" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="389" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A389" s="4" t="s">
         <v>1907</v>
       </c>
-      <c r="Q388" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R388" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="S388" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="T388" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="U388" s="4" t="s">
-        <v>29</v>
+      <c r="B389" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C389" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D389" s="2" t="s">
+        <v>1908</v>
+      </c>
+      <c r="E389" s="3">
+        <v>2010</v>
+      </c>
+      <c r="F389" s="5" t="s">
+        <v>1909</v>
+      </c>
+      <c r="G389" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I389" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N389" s="9">
+        <v>106</v>
+      </c>
+      <c r="O389" s="4" t="s">
+        <v>1910</v>
+      </c>
+      <c r="Q389" t="s">
+        <v>1911</v>
+      </c>
+      <c r="R389" t="s">
+        <v>341</v>
+      </c>
+      <c r="S389" t="s">
+        <v>1913</v>
+      </c>
+      <c r="T389" t="s">
+        <v>1914</v>
+      </c>
+      <c r="U389" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="390" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A390" s="4" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B390" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C390" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D390" s="2" t="s">
+        <v>1916</v>
+      </c>
+      <c r="E390" s="3">
+        <v>1985</v>
+      </c>
+      <c r="F390" s="5" t="s">
+        <v>1917</v>
+      </c>
+      <c r="G390" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I390" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N390" s="9">
+        <v>117</v>
+      </c>
+      <c r="O390" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q390" t="s">
+        <v>1918</v>
+      </c>
+      <c r="R390" t="s">
+        <v>1920</v>
+      </c>
+      <c r="S390" t="s">
+        <v>1921</v>
+      </c>
+      <c r="T390" t="s">
+        <v>1922</v>
+      </c>
+      <c r="U390" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="391" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="A391" s="4" t="s">
+        <v>1923</v>
+      </c>
+      <c r="B391" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C391" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D391" s="2" t="s">
+        <v>1924</v>
+      </c>
+      <c r="E391" s="3">
+        <v>2001</v>
+      </c>
+      <c r="F391" s="5" t="s">
+        <v>1925</v>
+      </c>
+      <c r="G391" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I391" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K391" s="6" t="s">
+        <v>1926</v>
+      </c>
+      <c r="L391" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N391" s="9">
+        <v>178</v>
+      </c>
+      <c r="O391" s="4" t="s">
+        <v>1927</v>
+      </c>
+      <c r="Q391" t="s">
+        <v>1928</v>
+      </c>
+      <c r="R391" t="s">
+        <v>1930</v>
+      </c>
+      <c r="S391" t="s">
+        <v>1931</v>
+      </c>
+      <c r="T391" t="s">
+        <v>1932</v>
+      </c>
+      <c r="U391" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="392" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A392" s="4" t="s">
+        <v>1933</v>
+      </c>
+      <c r="B392" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C392" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D392" s="2" t="s">
+        <v>1934</v>
+      </c>
+      <c r="E392" s="3">
+        <v>2002</v>
+      </c>
+      <c r="F392" s="5" t="s">
+        <v>1925</v>
+      </c>
+      <c r="G392" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I392" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J392" s="6" t="s">
+        <v>1924</v>
+      </c>
+      <c r="K392" s="6" t="s">
+        <v>1935</v>
+      </c>
+      <c r="L392" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N392" s="9">
+        <v>179</v>
+      </c>
+      <c r="O392" s="4" t="s">
+        <v>1927</v>
+      </c>
+      <c r="Q392" t="s">
+        <v>1928</v>
+      </c>
+      <c r="R392" t="s">
+        <v>1930</v>
+      </c>
+      <c r="S392" t="s">
+        <v>1931</v>
+      </c>
+      <c r="T392" t="s">
+        <v>1932</v>
+      </c>
+      <c r="U392" t="s">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="393" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="A393" s="4" t="s">
+        <v>1937</v>
+      </c>
+      <c r="B393" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C393" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D393" s="2" t="s">
+        <v>1935</v>
+      </c>
+      <c r="E393" s="3">
+        <v>2003</v>
+      </c>
+      <c r="F393" s="5" t="s">
+        <v>1925</v>
+      </c>
+      <c r="G393" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I393" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J393" s="6" t="s">
+        <v>1938</v>
+      </c>
+      <c r="L393" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N393" s="9">
+        <v>201</v>
+      </c>
+      <c r="O393" s="4" t="s">
+        <v>1927</v>
+      </c>
+      <c r="Q393" t="s">
+        <v>1928</v>
+      </c>
+      <c r="R393" t="s">
+        <v>1930</v>
+      </c>
+      <c r="S393" t="s">
+        <v>1931</v>
+      </c>
+      <c r="T393" t="s">
+        <v>1932</v>
+      </c>
+      <c r="U393" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="394" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A394" s="4" t="s">
+        <v>1940</v>
+      </c>
+      <c r="B394" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C394" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D394" s="2" t="s">
+        <v>1941</v>
+      </c>
+      <c r="E394" s="3">
+        <v>2005</v>
+      </c>
+      <c r="F394" s="5" t="s">
+        <v>1942</v>
+      </c>
+      <c r="G394" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I394" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L394" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M394" s="6" t="s">
+        <v>1943</v>
+      </c>
+      <c r="N394" s="9">
+        <v>106</v>
+      </c>
+      <c r="O394" s="4" t="s">
+        <v>1796</v>
+      </c>
+      <c r="Q394" t="s">
+        <v>1944</v>
+      </c>
+      <c r="R394" t="s">
+        <v>1946</v>
+      </c>
+      <c r="S394" t="s">
+        <v>1947</v>
+      </c>
+      <c r="T394" t="s">
+        <v>1948</v>
+      </c>
+      <c r="U394" t="s">
+        <v>1945</v>
       </c>
     </row>
   </sheetData>

--- a/content/database.xlsx
+++ b/content/database.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hannah\life\dabad2_0\dabad\content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FB83FD-09C5-49B5-8A34-8E832980048F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D09949F-FDA5-4A7D-802E-FBB8DCA6C582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7037" uniqueCount="1947">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7062" uniqueCount="1961">
   <si>
     <t>ID</t>
   </si>
@@ -5880,6 +5880,48 @@
   </si>
   <si>
     <t>Michael Keaton, Zach Galifianakis, Edward Norton, Andrea Riseborough, Emma Stone, Naomi Watts, Merritt Wever, Amy Ryan</t>
+  </si>
+  <si>
+    <t>The Apprentice</t>
+  </si>
+  <si>
+    <t>My Favorite Cake</t>
+  </si>
+  <si>
+    <t>My_Favorite_Cake_2024</t>
+  </si>
+  <si>
+    <t>The_Apprentice_2024</t>
+  </si>
+  <si>
+    <t>Ali Abbasi</t>
+  </si>
+  <si>
+    <t>Maryam Moghadam, Behtash Sanaeeha</t>
+  </si>
+  <si>
+    <t>Gabriel Sherman</t>
+  </si>
+  <si>
+    <t>Sebastian Stan, Jeremy Strong, Martin Donovan, Maria Bakalova, Catherine McNally, Charlie Carrick, Ben Sullivan, Mark Rendall, Joe Pingue</t>
+  </si>
+  <si>
+    <t>Martin Dirkov, David Holmes, Brian Irvine</t>
+  </si>
+  <si>
+    <t>Kasper Tuxen</t>
+  </si>
+  <si>
+    <t>Laura Montgomery</t>
+  </si>
+  <si>
+    <t>Lili Farhadpour, Esmaeel Mehrabi, Mansoore Ilkhani, Soraya Orang, Homa Mottahedin, Sima Esmaeili</t>
+  </si>
+  <si>
+    <t>Mohamad Hadidi</t>
+  </si>
+  <si>
+    <t>Maryam Moghadam</t>
   </si>
 </sst>
 </file>
@@ -5923,7 +5965,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5959,7 +6001,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6274,11 +6315,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U394"/>
+  <dimension ref="A1:U396"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="109" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23184,7 +23225,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="270" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A270" s="4" t="s">
         <v>1386</v>
       </c>
@@ -23247,7 +23288,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="271" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A271" s="4" t="s">
         <v>1390</v>
       </c>
@@ -23310,7 +23351,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="272" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A272" s="4" t="s">
         <v>1393</v>
       </c>
@@ -26810,20 +26851,19 @@
       <c r="O328" s="4" t="s">
         <v>1922</v>
       </c>
-      <c r="P328" s="13"/>
-      <c r="Q328" s="13" t="s">
+      <c r="Q328" t="s">
         <v>1923</v>
       </c>
-      <c r="R328" s="13" t="s">
+      <c r="R328" t="s">
         <v>1925</v>
       </c>
-      <c r="S328" s="13" t="s">
+      <c r="S328" t="s">
         <v>1926</v>
       </c>
-      <c r="T328" s="13" t="s">
+      <c r="T328" t="s">
         <v>1927</v>
       </c>
-      <c r="U328" s="13" t="s">
+      <c r="U328" t="s">
         <v>1924</v>
       </c>
     </row>
@@ -26867,20 +26907,19 @@
       <c r="O329" s="4" t="s">
         <v>1922</v>
       </c>
-      <c r="P329" s="13"/>
-      <c r="Q329" s="13" t="s">
+      <c r="Q329" t="s">
         <v>1923</v>
       </c>
-      <c r="R329" s="13" t="s">
+      <c r="R329" t="s">
         <v>1925</v>
       </c>
-      <c r="S329" s="13" t="s">
+      <c r="S329" t="s">
         <v>1926</v>
       </c>
-      <c r="T329" s="13" t="s">
+      <c r="T329" t="s">
         <v>1927</v>
       </c>
-      <c r="U329" s="13" t="s">
+      <c r="U329" t="s">
         <v>1934</v>
       </c>
     </row>
@@ -26926,20 +26965,19 @@
       <c r="O330" s="4" t="s">
         <v>1922</v>
       </c>
-      <c r="P330" s="13"/>
-      <c r="Q330" s="13" t="s">
+      <c r="Q330" t="s">
         <v>1923</v>
       </c>
-      <c r="R330" s="13" t="s">
+      <c r="R330" t="s">
         <v>1925</v>
       </c>
-      <c r="S330" s="13" t="s">
+      <c r="S330" t="s">
         <v>1926</v>
       </c>
-      <c r="T330" s="13" t="s">
+      <c r="T330" t="s">
         <v>1927</v>
       </c>
-      <c r="U330" s="13" t="s">
+      <c r="U330" t="s">
         <v>1931</v>
       </c>
     </row>
@@ -30942,6 +30980,97 @@
       </c>
       <c r="U394" s="4" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="395" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A395" s="4" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B395" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C395" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D395" s="2" t="s">
+        <v>1947</v>
+      </c>
+      <c r="E395" s="3">
+        <v>2024</v>
+      </c>
+      <c r="F395" s="5" t="s">
+        <v>1951</v>
+      </c>
+      <c r="G395" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I395" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N395" s="9">
+        <v>122</v>
+      </c>
+      <c r="O395" s="4" t="s">
+        <v>1643</v>
+      </c>
+      <c r="Q395" t="s">
+        <v>1953</v>
+      </c>
+      <c r="R395" t="s">
+        <v>1955</v>
+      </c>
+      <c r="S395" t="s">
+        <v>1956</v>
+      </c>
+      <c r="T395" t="s">
+        <v>1957</v>
+      </c>
+      <c r="U395" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="396" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A396" s="4" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B396" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C396" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D396" s="2" t="s">
+        <v>1948</v>
+      </c>
+      <c r="E396" s="3">
+        <v>2024</v>
+      </c>
+      <c r="F396" s="5" t="s">
+        <v>1952</v>
+      </c>
+      <c r="G396" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I396" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N396" s="9">
+        <v>97</v>
+      </c>
+      <c r="O396" s="4" t="s">
+        <v>1905</v>
+      </c>
+      <c r="R396" s="5" t="s">
+        <v>1952</v>
+      </c>
+      <c r="S396" t="s">
+        <v>1959</v>
+      </c>
+      <c r="T396" t="s">
+        <v>1960</v>
+      </c>
+      <c r="U396" t="s">
+        <v>1958</v>
       </c>
     </row>
   </sheetData>

--- a/content/database.xlsx
+++ b/content/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hannah\life\dabad2_0\dabad\content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D09949F-FDA5-4A7D-802E-FBB8DCA6C582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AF06B7-6010-4840-9677-CF70A95EA1AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="database" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7062" uniqueCount="1961">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7253" uniqueCount="2070">
   <si>
     <t>ID</t>
   </si>
@@ -5922,6 +5922,333 @@
   </si>
   <si>
     <t>Maryam Moghadam</t>
+  </si>
+  <si>
+    <t>Duel_1971</t>
+  </si>
+  <si>
+    <t>Duel</t>
+  </si>
+  <si>
+    <t>Richard Matheson</t>
+  </si>
+  <si>
+    <t>Dennis Weaver, Jacqueline Scott, Eddie Firestone, Lou Frizzell, Gene Dynarski, Lucille Benson</t>
+  </si>
+  <si>
+    <t>Billy Goldenberg</t>
+  </si>
+  <si>
+    <t>Jack A. Marta</t>
+  </si>
+  <si>
+    <t>Robert S. Smith (Art Director)</t>
+  </si>
+  <si>
+    <t>The_Last_Emperor_1987</t>
+  </si>
+  <si>
+    <t>The Last Emperor</t>
+  </si>
+  <si>
+    <t>Bernardo Bertolucci</t>
+  </si>
+  <si>
+    <t>John Lone, Joan Chen, Peter O'Toole, Ruocheng Ying, Victor Wong, Dennis Dun, Ryuichi Sakamoto, Maggie Han</t>
+  </si>
+  <si>
+    <t>Enzo Ungari, Mark Peploe, Bernardo Bertolucci</t>
+  </si>
+  <si>
+    <t>David Byrne, Ryuichi Sakamoto, Cong Su</t>
+  </si>
+  <si>
+    <t>Vittorio Storaro</t>
+  </si>
+  <si>
+    <t>James Acheson</t>
+  </si>
+  <si>
+    <t>The_Zone_Of_Interest_2023</t>
+  </si>
+  <si>
+    <t>The Zone of Interest</t>
+  </si>
+  <si>
+    <t>Jonathan Glazer</t>
+  </si>
+  <si>
+    <t>Drama, History, War</t>
+  </si>
+  <si>
+    <t>Jonathan Glazer, Martin Amis</t>
+  </si>
+  <si>
+    <t>Mica Levi</t>
+  </si>
+  <si>
+    <t>Lukasz Zal</t>
+  </si>
+  <si>
+    <t>Malgorzata Karpiuk</t>
+  </si>
+  <si>
+    <t>Christian Friedel, Sandra Hüller, Johann Karthaus, Luis Noah Witte, Nele Ahrensmeier, Lilli Falk, Max Beck</t>
+  </si>
+  <si>
+    <t>Marcel the Shell with Shoes on</t>
+  </si>
+  <si>
+    <t>Marcel_The_Shell_With_Shoes_On_2021</t>
+  </si>
+  <si>
+    <t>Dean Fleischer Camp</t>
+  </si>
+  <si>
+    <t>Animation, Comedy, Biography</t>
+  </si>
+  <si>
+    <t>Dean Fleischer Camp, Jenny Slate, Nick Paley</t>
+  </si>
+  <si>
+    <t>Disasterpeace</t>
+  </si>
+  <si>
+    <t>Eric Adkins, Bianca Cline</t>
+  </si>
+  <si>
+    <t>Jamie Catino</t>
+  </si>
+  <si>
+    <t>Jenny Slate, Dean Fleischer Camp, Isabella Rossellini, Joe Gabler</t>
+  </si>
+  <si>
+    <t>The_Outfit_2022</t>
+  </si>
+  <si>
+    <t>The Outfit</t>
+  </si>
+  <si>
+    <t>Graham Moore</t>
+  </si>
+  <si>
+    <t>Crime, Thriller, Drama</t>
+  </si>
+  <si>
+    <t>Graham Moore, Jonathan McClain</t>
+  </si>
+  <si>
+    <t>Mark Rylance, Zoey Deutch, Dylan O'Brien, Johnny Flynn, Simon Russell Beale, Alan Mehdizadeh</t>
+  </si>
+  <si>
+    <t>Dick Pope</t>
+  </si>
+  <si>
+    <t>Sophie O'Neill, Zac Posen</t>
+  </si>
+  <si>
+    <t>Cocaine_Bear_2023</t>
+  </si>
+  <si>
+    <t>Cocaine Bear</t>
+  </si>
+  <si>
+    <t>Jimmy Warden</t>
+  </si>
+  <si>
+    <t>Keri Russell, Alden Ehrenreich, O'Shea Jackson Jr., Ray Liotta, Isiah Whitlock Jr., Brooklyn Prince, Christian Convery, Margo Martindale, Jesse Tyler Ferguson, Matthew Rhys</t>
+  </si>
+  <si>
+    <t>Tiziana Corvisieri</t>
+  </si>
+  <si>
+    <t>West_Side_Story_1961</t>
+  </si>
+  <si>
+    <t>West Side Story</t>
+  </si>
+  <si>
+    <t>Jerome Robbins, Robert Wise</t>
+  </si>
+  <si>
+    <t>Musical, Drama, Romance</t>
+  </si>
+  <si>
+    <t>Ernest Lehman, Arthur Laurents, Jerome Robbins</t>
+  </si>
+  <si>
+    <t>Natalie Wood, George Chakiris, Richard Beymer, Russ Tamblyn, Rita Moreno, Simon Oakland, Ned Glass, William Bramley, Tucker Smith</t>
+  </si>
+  <si>
+    <t>Leonard Bernstein</t>
+  </si>
+  <si>
+    <t>Daniel L. Fapp</t>
+  </si>
+  <si>
+    <t>Irene Sharaff</t>
+  </si>
+  <si>
+    <t>The_Edge_of_Seventeen_2016</t>
+  </si>
+  <si>
+    <t>The Edge of Seventeen</t>
+  </si>
+  <si>
+    <t>Kelly Fremon Craig</t>
+  </si>
+  <si>
+    <t>Hailee Steinfeld, Haley Lu Richardson, Blake Jenner, Kyra Sedgwick, Woody Harrelson</t>
+  </si>
+  <si>
+    <t>Atli Örvarsson</t>
+  </si>
+  <si>
+    <t>Doug Emmett</t>
+  </si>
+  <si>
+    <t>Carla Hetland</t>
+  </si>
+  <si>
+    <t>Beetlejuice_1988</t>
+  </si>
+  <si>
+    <t>Beetlejuice</t>
+  </si>
+  <si>
+    <t>Beetlejuice Beetlejuice</t>
+  </si>
+  <si>
+    <t>Comedy, Fantasy, Seasonal</t>
+  </si>
+  <si>
+    <t>Michael McDowell, Larry Wilson, Warren Skaaren</t>
+  </si>
+  <si>
+    <t>Alec Baldwin, Geena Davis, Michael Keaton, Annie McEnroe, Marice Page, Hugo Stanger, Rachel Mittelman, Catherine O'Hara, Jeffrey Jones, Winona Ryder</t>
+  </si>
+  <si>
+    <t>Danny Elfman</t>
+  </si>
+  <si>
+    <t>Thomas E. Ackerman</t>
+  </si>
+  <si>
+    <t>Aggie Guerard Rodgers</t>
+  </si>
+  <si>
+    <t>Rumours_2024</t>
+  </si>
+  <si>
+    <t>Rumours</t>
+  </si>
+  <si>
+    <t>Evan Johnson, Galen Johnson, Guy Maddin</t>
+  </si>
+  <si>
+    <t>Comedy, Drama, Horror</t>
+  </si>
+  <si>
+    <t>Evan Johnson, Guy Maddin, Galen Johnson</t>
+  </si>
+  <si>
+    <t>Cate Blanchett, Roy Dupuis, Denis Ménochet, Charles Dance, Nikki Amuka-Bird, Rolando Ravello, Takehiro Hira, Alicia Vikander</t>
+  </si>
+  <si>
+    <t>Kristian Eidnes Andersen</t>
+  </si>
+  <si>
+    <t>Stefan Ciupek</t>
+  </si>
+  <si>
+    <t>Bina Daigeler</t>
+  </si>
+  <si>
+    <t>Willy_Wonka_and_The_Chocolate_Factory_1971</t>
+  </si>
+  <si>
+    <t>Willy Wonka &amp; the Chocolate Factory</t>
+  </si>
+  <si>
+    <t>Mel Stuart</t>
+  </si>
+  <si>
+    <t>Fantasy, Musical, Comedy</t>
+  </si>
+  <si>
+    <t>Roald Dahl, Robert Kaufman, David Seltzer</t>
+  </si>
+  <si>
+    <t>Gene Wilder, Jack Albertson, Peter Ostrum, Roy Kinnear, Julie Dawn Cole, Leonard Stone, Denise Nickerson, Nora Denney, Paris Themmen, Ursula Reit, Michael Bollner, Diana Sowle</t>
+  </si>
+  <si>
+    <t>Arthur Ibbetson</t>
+  </si>
+  <si>
+    <t>Helen Colvig</t>
+  </si>
+  <si>
+    <t>Leslie Bricusse</t>
+  </si>
+  <si>
+    <t>Before_Sunrise_1995</t>
+  </si>
+  <si>
+    <t>Before Sunrise</t>
+  </si>
+  <si>
+    <t>Before Sunset</t>
+  </si>
+  <si>
+    <t>Before Midnight</t>
+  </si>
+  <si>
+    <t>Richard Linklater, Kim Krizan</t>
+  </si>
+  <si>
+    <t>Ethan Hawke, Julie Delpy</t>
+  </si>
+  <si>
+    <t>Fred Frith</t>
+  </si>
+  <si>
+    <t>Lee Daniel</t>
+  </si>
+  <si>
+    <t>Florentina Welley</t>
+  </si>
+  <si>
+    <t>Before_Sunset_2004</t>
+  </si>
+  <si>
+    <t>Richard Linklater, Julie Delpy, Ethan Hawke</t>
+  </si>
+  <si>
+    <t>Thierry Delettre</t>
+  </si>
+  <si>
+    <t>Igor Kipnis</t>
+  </si>
+  <si>
+    <t>Operation_Mincemeat_2021</t>
+  </si>
+  <si>
+    <t>Operation Mincemeat</t>
+  </si>
+  <si>
+    <t>Drama, War</t>
+  </si>
+  <si>
+    <t>Michelle Ashford, Ben Macintyre</t>
+  </si>
+  <si>
+    <t>Colin Firth, Matthew Macfadyen, Kelly Macdonald, Rufus Wright, Ruby Bentall, Charlotte Hamblin, Simon Russell, Beale, Jason Isaacs, Alex Jennings</t>
+  </si>
+  <si>
+    <t>Sebastian Blenkov</t>
+  </si>
+  <si>
+    <t>Andrea Flesch</t>
   </si>
 </sst>
 </file>
@@ -6315,11 +6642,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U396"/>
+  <dimension ref="A1:U410"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="109" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A392" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D406" sqref="D406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31073,6 +31400,691 @@
         <v>1958</v>
       </c>
     </row>
+    <row r="397" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A397" s="4" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B397" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C397" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D397" s="2" t="s">
+        <v>1962</v>
+      </c>
+      <c r="E397" s="3">
+        <v>1971</v>
+      </c>
+      <c r="F397" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="G397" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I397" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N397" s="9">
+        <v>90</v>
+      </c>
+      <c r="O397" s="4" t="s">
+        <v>1007</v>
+      </c>
+      <c r="Q397" t="s">
+        <v>1963</v>
+      </c>
+      <c r="R397" t="s">
+        <v>1965</v>
+      </c>
+      <c r="S397" t="s">
+        <v>1966</v>
+      </c>
+      <c r="T397" t="s">
+        <v>1967</v>
+      </c>
+      <c r="U397" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="398" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A398" s="4" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B398" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C398" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D398" s="2" t="s">
+        <v>1969</v>
+      </c>
+      <c r="E398" s="3">
+        <v>1987</v>
+      </c>
+      <c r="F398" s="5" t="s">
+        <v>1970</v>
+      </c>
+      <c r="G398" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I398" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N398" s="9">
+        <v>163</v>
+      </c>
+      <c r="O398" s="4" t="s">
+        <v>1633</v>
+      </c>
+      <c r="Q398" t="s">
+        <v>1972</v>
+      </c>
+      <c r="R398" t="s">
+        <v>1973</v>
+      </c>
+      <c r="S398" t="s">
+        <v>1974</v>
+      </c>
+      <c r="T398" t="s">
+        <v>1975</v>
+      </c>
+      <c r="U398" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="399" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A399" s="4" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B399" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C399" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D399" s="2" t="s">
+        <v>1977</v>
+      </c>
+      <c r="E399" s="3">
+        <v>2023</v>
+      </c>
+      <c r="F399" s="5" t="s">
+        <v>1978</v>
+      </c>
+      <c r="G399" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I399" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N399" s="9">
+        <v>105</v>
+      </c>
+      <c r="O399" s="4" t="s">
+        <v>1979</v>
+      </c>
+      <c r="Q399" t="s">
+        <v>1980</v>
+      </c>
+      <c r="R399" t="s">
+        <v>1981</v>
+      </c>
+      <c r="S399" t="s">
+        <v>1982</v>
+      </c>
+      <c r="T399" t="s">
+        <v>1983</v>
+      </c>
+      <c r="U399" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="400" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A400" s="4" t="s">
+        <v>1986</v>
+      </c>
+      <c r="B400" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C400" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D400" s="2" t="s">
+        <v>1985</v>
+      </c>
+      <c r="E400" s="3">
+        <v>2021</v>
+      </c>
+      <c r="F400" s="5" t="s">
+        <v>1987</v>
+      </c>
+      <c r="G400" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I400" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N400" s="9">
+        <v>90</v>
+      </c>
+      <c r="O400" s="4" t="s">
+        <v>1988</v>
+      </c>
+      <c r="Q400" t="s">
+        <v>1989</v>
+      </c>
+      <c r="R400" t="s">
+        <v>1990</v>
+      </c>
+      <c r="S400" t="s">
+        <v>1991</v>
+      </c>
+      <c r="T400" t="s">
+        <v>1992</v>
+      </c>
+      <c r="U400" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="401" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A401" s="4" t="s">
+        <v>1994</v>
+      </c>
+      <c r="B401" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C401" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D401" s="2" t="s">
+        <v>1995</v>
+      </c>
+      <c r="E401" s="3">
+        <v>2022</v>
+      </c>
+      <c r="F401" s="5" t="s">
+        <v>1996</v>
+      </c>
+      <c r="G401" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I401" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N401" s="9">
+        <v>105</v>
+      </c>
+      <c r="O401" s="4" t="s">
+        <v>1997</v>
+      </c>
+      <c r="Q401" t="s">
+        <v>1998</v>
+      </c>
+      <c r="R401" t="s">
+        <v>147</v>
+      </c>
+      <c r="S401" t="s">
+        <v>2000</v>
+      </c>
+      <c r="T401" t="s">
+        <v>2001</v>
+      </c>
+      <c r="U401" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="402" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A402" s="4" t="s">
+        <v>2002</v>
+      </c>
+      <c r="B402" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C402" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D402" s="2" t="s">
+        <v>2003</v>
+      </c>
+      <c r="E402" s="3">
+        <v>2023</v>
+      </c>
+      <c r="F402" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="G402" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I402" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N402" s="9">
+        <v>95</v>
+      </c>
+      <c r="O402" s="4" t="s">
+        <v>1472</v>
+      </c>
+      <c r="Q402" t="s">
+        <v>2004</v>
+      </c>
+      <c r="R402" t="s">
+        <v>1175</v>
+      </c>
+      <c r="S402" t="s">
+        <v>635</v>
+      </c>
+      <c r="T402" t="s">
+        <v>2006</v>
+      </c>
+      <c r="U402" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="403" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A403" s="4" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B403" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C403" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D403" s="2" t="s">
+        <v>2008</v>
+      </c>
+      <c r="E403" s="3">
+        <v>1961</v>
+      </c>
+      <c r="F403" s="5" t="s">
+        <v>2009</v>
+      </c>
+      <c r="G403" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I403" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N403" s="9">
+        <v>153</v>
+      </c>
+      <c r="O403" s="4" t="s">
+        <v>2010</v>
+      </c>
+      <c r="Q403" t="s">
+        <v>2011</v>
+      </c>
+      <c r="R403" t="s">
+        <v>2013</v>
+      </c>
+      <c r="S403" t="s">
+        <v>2014</v>
+      </c>
+      <c r="T403" t="s">
+        <v>2015</v>
+      </c>
+      <c r="U403" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="404" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A404" s="4" t="s">
+        <v>2016</v>
+      </c>
+      <c r="B404" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C404" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D404" s="2" t="s">
+        <v>2017</v>
+      </c>
+      <c r="E404" s="3">
+        <v>2016</v>
+      </c>
+      <c r="F404" s="5" t="s">
+        <v>2018</v>
+      </c>
+      <c r="G404" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I404" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N404" s="9">
+        <v>104</v>
+      </c>
+      <c r="O404" s="4" t="s">
+        <v>936</v>
+      </c>
+      <c r="Q404" t="s">
+        <v>2018</v>
+      </c>
+      <c r="R404" t="s">
+        <v>2020</v>
+      </c>
+      <c r="S404" t="s">
+        <v>2021</v>
+      </c>
+      <c r="T404" t="s">
+        <v>2022</v>
+      </c>
+      <c r="U404" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="405" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A405" s="4" t="s">
+        <v>2023</v>
+      </c>
+      <c r="B405" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C405" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D405" s="2" t="s">
+        <v>2024</v>
+      </c>
+      <c r="E405" s="3">
+        <v>1988</v>
+      </c>
+      <c r="F405" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="G405" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I405" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K405" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="L405" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M405" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="N405" s="9">
+        <v>92</v>
+      </c>
+      <c r="O405" s="4" t="s">
+        <v>2026</v>
+      </c>
+      <c r="Q405" t="s">
+        <v>2027</v>
+      </c>
+      <c r="R405" t="s">
+        <v>2029</v>
+      </c>
+      <c r="S405" t="s">
+        <v>2030</v>
+      </c>
+      <c r="T405" t="s">
+        <v>2031</v>
+      </c>
+      <c r="U405" t="s">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="406" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A406" s="4" t="s">
+        <v>2032</v>
+      </c>
+      <c r="B406" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C406" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D406" s="2" t="s">
+        <v>2033</v>
+      </c>
+      <c r="E406" s="3">
+        <v>2024</v>
+      </c>
+      <c r="F406" s="5" t="s">
+        <v>2034</v>
+      </c>
+      <c r="G406" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I406" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N406" s="9">
+        <v>104</v>
+      </c>
+      <c r="O406" s="4" t="s">
+        <v>2035</v>
+      </c>
+      <c r="Q406" t="s">
+        <v>2036</v>
+      </c>
+      <c r="R406" t="s">
+        <v>2038</v>
+      </c>
+      <c r="S406" t="s">
+        <v>2039</v>
+      </c>
+      <c r="T406" t="s">
+        <v>2040</v>
+      </c>
+      <c r="U406" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="407" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A407" s="4" t="s">
+        <v>2041</v>
+      </c>
+      <c r="B407" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C407" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D407" s="2" t="s">
+        <v>2042</v>
+      </c>
+      <c r="E407" s="3">
+        <v>1971</v>
+      </c>
+      <c r="F407" s="5" t="s">
+        <v>2043</v>
+      </c>
+      <c r="G407" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I407" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N407" s="9">
+        <v>100</v>
+      </c>
+      <c r="O407" s="4" t="s">
+        <v>2044</v>
+      </c>
+      <c r="Q407" t="s">
+        <v>2045</v>
+      </c>
+      <c r="R407" t="s">
+        <v>2049</v>
+      </c>
+      <c r="S407" t="s">
+        <v>2047</v>
+      </c>
+      <c r="T407" t="s">
+        <v>2048</v>
+      </c>
+      <c r="U407" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="408" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A408" s="4" t="s">
+        <v>2050</v>
+      </c>
+      <c r="B408" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C408" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D408" s="2" t="s">
+        <v>2051</v>
+      </c>
+      <c r="E408" s="3">
+        <v>1995</v>
+      </c>
+      <c r="F408" s="5" t="s">
+        <v>1820</v>
+      </c>
+      <c r="G408" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I408" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K408" s="6" t="s">
+        <v>2052</v>
+      </c>
+      <c r="L408" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M408" s="6" t="s">
+        <v>2053</v>
+      </c>
+      <c r="N408" s="9">
+        <v>101</v>
+      </c>
+      <c r="O408" s="4" t="s">
+        <v>1118</v>
+      </c>
+      <c r="Q408" t="s">
+        <v>2054</v>
+      </c>
+      <c r="R408" t="s">
+        <v>2056</v>
+      </c>
+      <c r="S408" t="s">
+        <v>2057</v>
+      </c>
+      <c r="T408" t="s">
+        <v>2058</v>
+      </c>
+      <c r="U408" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="409" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A409" s="4" t="s">
+        <v>2059</v>
+      </c>
+      <c r="B409" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C409" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D409" s="2" t="s">
+        <v>2052</v>
+      </c>
+      <c r="E409" s="3">
+        <v>2004</v>
+      </c>
+      <c r="F409" s="5" t="s">
+        <v>1820</v>
+      </c>
+      <c r="G409" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I409" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J409" s="6" t="s">
+        <v>2051</v>
+      </c>
+      <c r="L409" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M409" s="6" t="s">
+        <v>2053</v>
+      </c>
+      <c r="N409" s="9">
+        <v>80</v>
+      </c>
+      <c r="O409" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q409" t="s">
+        <v>2060</v>
+      </c>
+      <c r="R409" t="s">
+        <v>2062</v>
+      </c>
+      <c r="S409" t="s">
+        <v>2057</v>
+      </c>
+      <c r="T409" t="s">
+        <v>2061</v>
+      </c>
+      <c r="U409" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="410" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A410" s="4" t="s">
+        <v>2063</v>
+      </c>
+      <c r="B410" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C410" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D410" s="2" t="s">
+        <v>2064</v>
+      </c>
+      <c r="E410" s="3">
+        <v>2021</v>
+      </c>
+      <c r="F410" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G410" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I410" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N410" s="9">
+        <v>128</v>
+      </c>
+      <c r="O410" s="4" t="s">
+        <v>2065</v>
+      </c>
+      <c r="Q410" t="s">
+        <v>2066</v>
+      </c>
+      <c r="R410" t="s">
+        <v>32</v>
+      </c>
+      <c r="S410" t="s">
+        <v>2068</v>
+      </c>
+      <c r="T410" t="s">
+        <v>2069</v>
+      </c>
+      <c r="U410" t="s">
+        <v>2067</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:U384" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U394">

--- a/content/database.xlsx
+++ b/content/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hannah\life\dabad2_0\dabad\content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AF06B7-6010-4840-9677-CF70A95EA1AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1CC71F-9A51-4F8B-B533-3E2FA79D7D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="database" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7253" uniqueCount="2070">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7256" uniqueCount="2073">
   <si>
     <t>ID</t>
   </si>
@@ -6249,6 +6249,15 @@
   </si>
   <si>
     <t>Andrea Flesch</t>
+  </si>
+  <si>
+    <t>signed by Cate Blanchett</t>
+  </si>
+  <si>
+    <t>signed by Tom Hiddleston</t>
+  </si>
+  <si>
+    <t>signed by Adrian Brody</t>
   </si>
 </sst>
 </file>
@@ -6645,8 +6654,8 @@
   <dimension ref="A1:U410"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A392" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D406" sqref="D406"/>
+      <pane ySplit="1" topLeftCell="A293" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H305" sqref="H305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18884,7 +18893,9 @@
       <c r="G195" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H195" s="3"/>
+      <c r="H195" s="3" t="s">
+        <v>2070</v>
+      </c>
       <c r="I195" s="3" t="s">
         <v>25</v>
       </c>
@@ -25740,7 +25751,9 @@
       <c r="G305" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H305" s="3"/>
+      <c r="H305" s="3" t="s">
+        <v>2072</v>
+      </c>
       <c r="I305" s="3" t="s">
         <v>27</v>
       </c>
@@ -27710,7 +27723,9 @@
       <c r="G337" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H337" s="3"/>
+      <c r="H337" s="3" t="s">
+        <v>2071</v>
+      </c>
       <c r="I337" s="3" t="s">
         <v>27</v>
       </c>
@@ -31696,7 +31711,7 @@
         <v>2008</v>
       </c>
       <c r="E403" s="3">
-        <v>1961</v>
+        <v>2023</v>
       </c>
       <c r="F403" s="5" t="s">
         <v>2009</v>

--- a/content/database.xlsx
+++ b/content/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hannah\life\dabad2_0\dabad\content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1CC71F-9A51-4F8B-B533-3E2FA79D7D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964FF6AA-5545-4B99-AAB1-EB85341FA93B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7256" uniqueCount="2073">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7257" uniqueCount="2074">
   <si>
     <t>ID</t>
   </si>
@@ -6258,6 +6258,9 @@
   </si>
   <si>
     <t>signed by Adrian Brody</t>
+  </si>
+  <si>
+    <t>signed by Gina McKee</t>
   </si>
 </sst>
 </file>
@@ -6654,8 +6657,8 @@
   <dimension ref="A1:U410"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A293" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H305" sqref="H305"/>
+      <pane ySplit="1" topLeftCell="A283" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H295" sqref="H295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25121,7 +25124,9 @@
       <c r="G295" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H295" s="3"/>
+      <c r="H295" s="3" t="s">
+        <v>2073</v>
+      </c>
       <c r="I295" s="3" t="s">
         <v>27</v>
       </c>

--- a/content/database.xlsx
+++ b/content/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hannah\life\dabad2_0\dabad\content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7056826-8E67-45A6-98B1-AAA9883ECA0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE4ED28-F3A6-40C9-AAFA-481FB2BE1001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7513" uniqueCount="2200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7505" uniqueCount="2199">
   <si>
     <t>ID</t>
   </si>
@@ -5615,36 +5615,24 @@
     <t>Bryan Singer</t>
   </si>
   <si>
-    <t xml:space="preserve">X-Men United, X-Men: The Last Stand </t>
-  </si>
-  <si>
     <t>XMen_United_2003</t>
   </si>
   <si>
     <t>X-Men United</t>
   </si>
   <si>
-    <t xml:space="preserve">X-Men: The Last Stand </t>
-  </si>
-  <si>
     <t>XMen_Apocalypse_2016</t>
   </si>
   <si>
     <t>X-Men: Apocalypse</t>
   </si>
   <si>
-    <t xml:space="preserve">X-Men: Dark Pheonix, X-Men, X-Men United, X-Men: The Last Stand </t>
-  </si>
-  <si>
     <t>XMen_Dark_Pheonix_2019</t>
   </si>
   <si>
     <t>X-Men: Dark Pheonix</t>
   </si>
   <si>
-    <t>X-Men: First Class, X-Men: Days of the Future Past, X-Men: Apocalypse</t>
-  </si>
-  <si>
     <t xml:space="preserve">X-Men, X-Men United, X-Men: The Last Stand </t>
   </si>
   <si>
@@ -5657,9 +5645,6 @@
     <t>X-Men: First Class</t>
   </si>
   <si>
-    <t xml:space="preserve">X-Men: Apocalypse, X-Men: Dark Pheonix, X-Men, X-Men United, X-Men: The Last Stand </t>
-  </si>
-  <si>
     <t>XMen_First_Class_2011</t>
   </si>
   <si>
@@ -6639,6 +6624,18 @@
   </si>
   <si>
     <t>Marit Allen</t>
+  </si>
+  <si>
+    <t>X-Men: First Class, X-Men: Days of Future Past, X-Men: Apocalypse</t>
+  </si>
+  <si>
+    <t>X-Men: Dark Pheonix, X-Men, X-Men United, X-Men: The Last Stand</t>
+  </si>
+  <si>
+    <t>X-Men: Apocalypse, X-Men: Dark Pheonix, X-Men, X-Men United, X-Men: The Last Stand</t>
+  </si>
+  <si>
+    <t>X-Men United, X-Men: The Last Stand</t>
   </si>
 </sst>
 </file>
@@ -7025,8 +7022,8 @@
   <dimension ref="A1:U428"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A352" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A365" sqref="A365"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7368,7 +7365,7 @@
         <v>263</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>1940</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
@@ -7688,7 +7685,7 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>1944</v>
+        <v>1939</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>22</v>
@@ -7697,13 +7694,13 @@
         <v>37</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1941</v>
+        <v>1936</v>
       </c>
       <c r="E11" s="2">
         <v>2024</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>1945</v>
+        <v>1940</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>25</v>
@@ -7718,19 +7715,19 @@
         <v>1642</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>1947</v>
+        <v>1942</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>1949</v>
+        <v>1944</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>1950</v>
+        <v>1945</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>1951</v>
+        <v>1946</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>1948</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
@@ -8365,7 +8362,7 @@
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>1962</v>
+        <v>1957</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>22</v>
@@ -8374,13 +8371,13 @@
         <v>23</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1963</v>
+        <v>1958</v>
       </c>
       <c r="E22" s="2">
         <v>1987</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>1964</v>
+        <v>1959</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>27</v>
@@ -8395,19 +8392,19 @@
         <v>1632</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>1966</v>
+        <v>1961</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>1967</v>
+        <v>1962</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>1968</v>
+        <v>1963</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>1969</v>
+        <v>1964</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>1965</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
@@ -9011,7 +9008,7 @@
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>1874</v>
+        <v>1869</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>22</v>
@@ -9020,13 +9017,13 @@
         <v>37</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>1875</v>
+        <v>1870</v>
       </c>
       <c r="E33" s="2">
         <v>2006</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>1876</v>
+        <v>1871</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>25</v>
@@ -9036,7 +9033,7 @@
         <v>25</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>2147</v>
+        <v>2142</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>28</v>
@@ -9099,10 +9096,10 @@
         <v>25</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>2146</v>
+        <v>2141</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>1858</v>
+        <v>2198</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>25</v>
@@ -9137,7 +9134,7 @@
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>22</v>
@@ -9146,7 +9143,7 @@
         <v>37</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="E35" s="2">
         <v>2003</v>
@@ -9162,10 +9159,10 @@
         <v>25</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>2148</v>
+        <v>2143</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>1861</v>
+        <v>1870</v>
       </c>
       <c r="L35" s="2" t="s">
         <v>25</v>
@@ -9200,7 +9197,7 @@
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>1869</v>
+        <v>1865</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>22</v>
@@ -9209,7 +9206,7 @@
         <v>37</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>1870</v>
+        <v>1866</v>
       </c>
       <c r="E36" s="2">
         <v>2014</v>
@@ -9225,10 +9222,10 @@
         <v>25</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>1871</v>
+        <v>1867</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>1872</v>
+        <v>2197</v>
       </c>
       <c r="L36" s="2" t="s">
         <v>25</v>
@@ -9263,7 +9260,7 @@
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>22</v>
@@ -9272,7 +9269,7 @@
         <v>37</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
       <c r="E37" s="2">
         <v>2016</v>
@@ -9288,10 +9285,10 @@
         <v>25</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>2149</v>
+        <v>2144</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>1864</v>
+        <v>2196</v>
       </c>
       <c r="L37" s="2" t="s">
         <v>25</v>
@@ -9389,7 +9386,7 @@
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>1891</v>
+        <v>1886</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>22</v>
@@ -9398,13 +9395,13 @@
         <v>37</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>1892</v>
+        <v>1887</v>
       </c>
       <c r="E39" s="2">
         <v>2016</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>1893</v>
+        <v>1888</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>25</v>
@@ -9429,10 +9426,10 @@
         <v>104</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>1894</v>
+        <v>1889</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>1895</v>
+        <v>1890</v>
       </c>
       <c r="Q39" s="3" t="s">
         <v>28</v>
@@ -10507,7 +10504,7 @@
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>2069</v>
+        <v>2064</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>22</v>
@@ -10516,7 +10513,7 @@
         <v>23</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>2068</v>
+        <v>2063</v>
       </c>
       <c r="E57" s="2">
         <v>2014</v>
@@ -10534,22 +10531,22 @@
         <v>169</v>
       </c>
       <c r="O57" s="3" t="s">
-        <v>2070</v>
+        <v>2065</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>2071</v>
+        <v>2066</v>
       </c>
       <c r="R57" s="1" t="s">
         <v>115</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>2073</v>
+        <v>2068</v>
       </c>
       <c r="T57" s="1" t="s">
         <v>224</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>2072</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.3">
@@ -11060,7 +11057,7 @@
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>1877</v>
+        <v>1872</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>22</v>
@@ -11069,13 +11066,13 @@
         <v>23</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>1878</v>
+        <v>1873</v>
       </c>
       <c r="E66" s="2">
         <v>2015</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>1879</v>
+        <v>1874</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>25</v>
@@ -11100,7 +11097,7 @@
         <v>98</v>
       </c>
       <c r="O66" s="3" t="s">
-        <v>1880</v>
+        <v>1875</v>
       </c>
       <c r="P66" s="3" t="s">
         <v>28</v>
@@ -11240,7 +11237,7 @@
         <v>543</v>
       </c>
       <c r="S68" s="3" t="s">
-        <v>1938</v>
+        <v>1933</v>
       </c>
       <c r="T68" s="3" t="s">
         <v>224</v>
@@ -11303,7 +11300,7 @@
         <v>543</v>
       </c>
       <c r="S69" s="3" t="s">
-        <v>1938</v>
+        <v>1933</v>
       </c>
       <c r="T69" s="3" t="s">
         <v>224</v>
@@ -11314,7 +11311,7 @@
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>2125</v>
+        <v>2120</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>22</v>
@@ -11323,7 +11320,7 @@
         <v>23</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>2126</v>
+        <v>2121</v>
       </c>
       <c r="E70" s="2">
         <v>2022</v>
@@ -11341,7 +11338,7 @@
         <v>189</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>2127</v>
+        <v>2122</v>
       </c>
       <c r="Q70" s="1" t="s">
         <v>539</v>
@@ -11350,13 +11347,13 @@
         <v>543</v>
       </c>
       <c r="S70" s="1" t="s">
-        <v>1938</v>
+        <v>1933</v>
       </c>
       <c r="T70" s="1" t="s">
         <v>224</v>
       </c>
       <c r="U70" s="1" t="s">
-        <v>2128</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.3">
@@ -11884,7 +11881,7 @@
         <v>25</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>2065</v>
+        <v>2060</v>
       </c>
       <c r="I79" s="2" t="s">
         <v>27</v>
@@ -13188,7 +13185,7 @@
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>1980</v>
+        <v>1975</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>22</v>
@@ -13197,13 +13194,13 @@
         <v>37</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>1979</v>
+        <v>1974</v>
       </c>
       <c r="E100" s="2">
         <v>2021</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>1981</v>
+        <v>1976</v>
       </c>
       <c r="G100" s="7" t="s">
         <v>25</v>
@@ -13215,22 +13212,22 @@
         <v>90</v>
       </c>
       <c r="O100" s="3" t="s">
+        <v>1977</v>
+      </c>
+      <c r="Q100" s="1" t="s">
+        <v>1978</v>
+      </c>
+      <c r="R100" s="1" t="s">
+        <v>1979</v>
+      </c>
+      <c r="S100" s="1" t="s">
+        <v>1980</v>
+      </c>
+      <c r="T100" s="1" t="s">
+        <v>1981</v>
+      </c>
+      <c r="U100" s="1" t="s">
         <v>1982</v>
-      </c>
-      <c r="Q100" s="1" t="s">
-        <v>1983</v>
-      </c>
-      <c r="R100" s="1" t="s">
-        <v>1984</v>
-      </c>
-      <c r="S100" s="1" t="s">
-        <v>1985</v>
-      </c>
-      <c r="T100" s="1" t="s">
-        <v>1986</v>
-      </c>
-      <c r="U100" s="1" t="s">
-        <v>1987</v>
       </c>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.3">
@@ -14235,7 +14232,7 @@
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>1996</v>
+        <v>1991</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>22</v>
@@ -14244,7 +14241,7 @@
         <v>37</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>1997</v>
+        <v>1992</v>
       </c>
       <c r="E117" s="2">
         <v>2023</v>
@@ -14265,7 +14262,7 @@
         <v>1471</v>
       </c>
       <c r="Q117" s="1" t="s">
-        <v>1998</v>
+        <v>1993</v>
       </c>
       <c r="R117" s="1" t="s">
         <v>1174</v>
@@ -14274,10 +14271,10 @@
         <v>634</v>
       </c>
       <c r="T117" s="1" t="s">
-        <v>2000</v>
+        <v>1995</v>
       </c>
       <c r="U117" s="1" t="s">
-        <v>1999</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.3">
@@ -14405,7 +14402,7 @@
     </row>
     <row r="120" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>2081</v>
+        <v>2076</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>22</v>
@@ -14414,13 +14411,13 @@
         <v>37</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>2082</v>
+        <v>2077</v>
       </c>
       <c r="E120" s="2">
         <v>2005</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>2083</v>
+        <v>2078</v>
       </c>
       <c r="G120" s="7" t="s">
         <v>25</v>
@@ -14432,7 +14429,7 @@
         <v>27</v>
       </c>
       <c r="M120" s="4" t="s">
-        <v>2084</v>
+        <v>2079</v>
       </c>
       <c r="N120" s="7">
         <v>86</v>
@@ -14441,16 +14438,16 @@
         <v>1446</v>
       </c>
       <c r="Q120" s="1" t="s">
-        <v>2085</v>
+        <v>2080</v>
       </c>
       <c r="R120" s="1" t="s">
         <v>115</v>
       </c>
       <c r="T120" s="1" t="s">
-        <v>2087</v>
+        <v>2082</v>
       </c>
       <c r="U120" s="1" t="s">
-        <v>2086</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.3">
@@ -14644,7 +14641,7 @@
     </row>
     <row r="124" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>2026</v>
+        <v>2021</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>22</v>
@@ -14653,13 +14650,13 @@
         <v>37</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>2027</v>
+        <v>2022</v>
       </c>
       <c r="E124" s="2">
         <v>2024</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>2028</v>
+        <v>2023</v>
       </c>
       <c r="G124" s="7" t="s">
         <v>25</v>
@@ -14671,22 +14668,22 @@
         <v>104</v>
       </c>
       <c r="O124" s="3" t="s">
+        <v>2024</v>
+      </c>
+      <c r="Q124" s="1" t="s">
+        <v>2025</v>
+      </c>
+      <c r="R124" s="1" t="s">
+        <v>2027</v>
+      </c>
+      <c r="S124" s="1" t="s">
+        <v>2028</v>
+      </c>
+      <c r="T124" s="1" t="s">
         <v>2029</v>
       </c>
-      <c r="Q124" s="1" t="s">
-        <v>2030</v>
-      </c>
-      <c r="R124" s="1" t="s">
-        <v>2032</v>
-      </c>
-      <c r="S124" s="1" t="s">
-        <v>2033</v>
-      </c>
-      <c r="T124" s="1" t="s">
-        <v>2034</v>
-      </c>
       <c r="U124" s="1" t="s">
-        <v>2031</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="125" spans="1:21" x14ac:dyDescent="0.3">
@@ -15329,7 +15326,7 @@
         <v>25</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>2064</v>
+        <v>2059</v>
       </c>
       <c r="I135" s="2" t="s">
         <v>25</v>
@@ -15625,7 +15622,7 @@
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
-        <v>1988</v>
+        <v>1983</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>22</v>
@@ -15634,13 +15631,13 @@
         <v>37</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>1989</v>
+        <v>1984</v>
       </c>
       <c r="E140" s="2">
         <v>2022</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>1990</v>
+        <v>1985</v>
       </c>
       <c r="G140" s="7" t="s">
         <v>25</v>
@@ -15652,22 +15649,22 @@
         <v>105</v>
       </c>
       <c r="O140" s="3" t="s">
-        <v>1991</v>
+        <v>1986</v>
       </c>
       <c r="Q140" s="1" t="s">
-        <v>1992</v>
+        <v>1987</v>
       </c>
       <c r="R140" s="1" t="s">
         <v>146</v>
       </c>
       <c r="S140" s="1" t="s">
-        <v>1994</v>
+        <v>1989</v>
       </c>
       <c r="T140" s="1" t="s">
-        <v>1995</v>
+        <v>1990</v>
       </c>
       <c r="U140" s="1" t="s">
-        <v>1993</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="141" spans="1:21" x14ac:dyDescent="0.3">
@@ -16906,7 +16903,7 @@
     </row>
     <row r="161" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
-        <v>1904</v>
+        <v>1899</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>22</v>
@@ -16915,13 +16912,13 @@
         <v>37</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>1905</v>
+        <v>1900</v>
       </c>
       <c r="E161" s="2">
         <v>1985</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>1906</v>
+        <v>1901</v>
       </c>
       <c r="G161" s="7" t="s">
         <v>27</v>
@@ -16936,19 +16933,19 @@
         <v>447</v>
       </c>
       <c r="Q161" s="1" t="s">
-        <v>1907</v>
+        <v>1902</v>
       </c>
       <c r="R161" s="1" t="s">
-        <v>1909</v>
+        <v>1904</v>
       </c>
       <c r="S161" s="1" t="s">
-        <v>1910</v>
+        <v>1905</v>
       </c>
       <c r="T161" s="1" t="s">
-        <v>1911</v>
+        <v>1906</v>
       </c>
       <c r="U161" s="1" t="s">
-        <v>1908</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="162" spans="1:21" x14ac:dyDescent="0.3">
@@ -17583,7 +17580,7 @@
     </row>
     <row r="172" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
-        <v>2001</v>
+        <v>1996</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>22</v>
@@ -17592,13 +17589,13 @@
         <v>23</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>2002</v>
+        <v>1997</v>
       </c>
       <c r="E172" s="2">
         <v>2023</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>2003</v>
+        <v>1998</v>
       </c>
       <c r="G172" s="7" t="s">
         <v>27</v>
@@ -17610,22 +17607,22 @@
         <v>153</v>
       </c>
       <c r="O172" s="3" t="s">
+        <v>1999</v>
+      </c>
+      <c r="Q172" s="1" t="s">
+        <v>2000</v>
+      </c>
+      <c r="R172" s="1" t="s">
+        <v>2002</v>
+      </c>
+      <c r="S172" s="1" t="s">
+        <v>2003</v>
+      </c>
+      <c r="T172" s="1" t="s">
         <v>2004</v>
       </c>
-      <c r="Q172" s="1" t="s">
-        <v>2005</v>
-      </c>
-      <c r="R172" s="1" t="s">
-        <v>2007</v>
-      </c>
-      <c r="S172" s="1" t="s">
-        <v>2008</v>
-      </c>
-      <c r="T172" s="1" t="s">
-        <v>2009</v>
-      </c>
       <c r="U172" s="1" t="s">
-        <v>2006</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="173" spans="1:21" x14ac:dyDescent="0.3">
@@ -18227,13 +18224,13 @@
         <v>28</v>
       </c>
       <c r="K182" s="3" t="s">
-        <v>2101</v>
+        <v>2096</v>
       </c>
       <c r="L182" s="2" t="s">
         <v>27</v>
       </c>
       <c r="M182" s="3" t="s">
-        <v>2103</v>
+        <v>2098</v>
       </c>
       <c r="N182" s="2">
         <v>87</v>
@@ -18262,7 +18259,7 @@
     </row>
     <row r="183" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
-        <v>2102</v>
+        <v>2097</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>22</v>
@@ -18271,7 +18268,7 @@
         <v>23</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>2101</v>
+        <v>2096</v>
       </c>
       <c r="E183" s="2">
         <v>2020</v>
@@ -18292,7 +18289,7 @@
         <v>27</v>
       </c>
       <c r="M183" s="4" t="s">
-        <v>2103</v>
+        <v>2098</v>
       </c>
       <c r="N183" s="7">
         <v>97</v>
@@ -18307,13 +18304,13 @@
         <v>61</v>
       </c>
       <c r="S183" s="1" t="s">
-        <v>2104</v>
+        <v>2099</v>
       </c>
       <c r="T183" s="1" t="s">
         <v>63</v>
       </c>
       <c r="U183" s="1" t="s">
-        <v>2105</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="184" spans="1:21" x14ac:dyDescent="0.3">
@@ -18570,7 +18567,7 @@
     </row>
     <row r="188" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
-        <v>2057</v>
+        <v>2052</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>22</v>
@@ -18579,7 +18576,7 @@
         <v>37</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>2058</v>
+        <v>2053</v>
       </c>
       <c r="E188" s="2">
         <v>2021</v>
@@ -18597,22 +18594,22 @@
         <v>128</v>
       </c>
       <c r="O188" s="3" t="s">
-        <v>2059</v>
+        <v>2054</v>
       </c>
       <c r="Q188" s="1" t="s">
-        <v>2060</v>
+        <v>2055</v>
       </c>
       <c r="R188" s="1" t="s">
         <v>32</v>
       </c>
       <c r="S188" s="1" t="s">
-        <v>2062</v>
+        <v>2057</v>
       </c>
       <c r="T188" s="1" t="s">
-        <v>2063</v>
+        <v>2058</v>
       </c>
       <c r="U188" s="1" t="s">
-        <v>2061</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="189" spans="1:21" x14ac:dyDescent="0.3">
@@ -19110,7 +19107,7 @@
         <v>223</v>
       </c>
       <c r="S196" s="3" t="s">
-        <v>1938</v>
+        <v>1933</v>
       </c>
       <c r="T196" s="3" t="s">
         <v>224</v>
@@ -19121,7 +19118,7 @@
     </row>
     <row r="197" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
-        <v>1970</v>
+        <v>1965</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>22</v>
@@ -19130,13 +19127,13 @@
         <v>23</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>1971</v>
+        <v>1966</v>
       </c>
       <c r="E197" s="2">
         <v>2023</v>
       </c>
       <c r="F197" s="4" t="s">
-        <v>1972</v>
+        <v>1967</v>
       </c>
       <c r="G197" s="7" t="s">
         <v>25</v>
@@ -19148,22 +19145,22 @@
         <v>105</v>
       </c>
       <c r="O197" s="3" t="s">
+        <v>1968</v>
+      </c>
+      <c r="Q197" s="1" t="s">
+        <v>1969</v>
+      </c>
+      <c r="R197" s="1" t="s">
+        <v>1970</v>
+      </c>
+      <c r="S197" s="1" t="s">
+        <v>1971</v>
+      </c>
+      <c r="T197" s="1" t="s">
+        <v>1972</v>
+      </c>
+      <c r="U197" s="1" t="s">
         <v>1973</v>
-      </c>
-      <c r="Q197" s="1" t="s">
-        <v>1974</v>
-      </c>
-      <c r="R197" s="1" t="s">
-        <v>1975</v>
-      </c>
-      <c r="S197" s="1" t="s">
-        <v>1976</v>
-      </c>
-      <c r="T197" s="1" t="s">
-        <v>1977</v>
-      </c>
-      <c r="U197" s="1" t="s">
-        <v>1978</v>
       </c>
     </row>
     <row r="198" spans="1:21" x14ac:dyDescent="0.3">
@@ -19672,7 +19669,7 @@
     </row>
     <row r="206" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
-        <v>2129</v>
+        <v>2124</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>22</v>
@@ -19681,13 +19678,13 @@
         <v>23</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>2130</v>
+        <v>2125</v>
       </c>
       <c r="E206" s="2">
         <v>2023</v>
       </c>
       <c r="F206" s="4" t="s">
-        <v>2131</v>
+        <v>2126</v>
       </c>
       <c r="G206" s="7" t="s">
         <v>25</v>
@@ -19702,24 +19699,24 @@
         <v>318</v>
       </c>
       <c r="Q206" s="1" t="s">
-        <v>2132</v>
+        <v>2127</v>
       </c>
       <c r="R206" s="1" t="s">
-        <v>2136</v>
+        <v>2131</v>
       </c>
       <c r="S206" s="1" t="s">
-        <v>2135</v>
+        <v>2130</v>
       </c>
       <c r="T206" s="1" t="s">
-        <v>2134</v>
+        <v>2129</v>
       </c>
       <c r="U206" s="1" t="s">
-        <v>2133</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="207" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
-        <v>1881</v>
+        <v>1876</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>22</v>
@@ -19728,13 +19725,13 @@
         <v>23</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>1882</v>
+        <v>1877</v>
       </c>
       <c r="E207" s="2">
         <v>2012</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>1883</v>
+        <v>1878</v>
       </c>
       <c r="G207" s="2" t="s">
         <v>25</v>
@@ -19759,10 +19756,10 @@
         <v>157</v>
       </c>
       <c r="O207" s="3" t="s">
-        <v>1884</v>
+        <v>1879</v>
       </c>
       <c r="P207" s="3" t="s">
-        <v>1885</v>
+        <v>1880</v>
       </c>
       <c r="Q207" s="3" t="s">
         <v>28</v>
@@ -19782,7 +19779,7 @@
     </row>
     <row r="208" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A208" s="3" t="s">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>22</v>
@@ -19791,13 +19788,13 @@
         <v>37</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="E208" s="2">
         <v>2016</v>
       </c>
       <c r="F208" s="4" t="s">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="G208" s="7" t="s">
         <v>25</v>
@@ -19812,19 +19809,19 @@
         <v>935</v>
       </c>
       <c r="Q208" s="1" t="s">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="R208" s="1" t="s">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="S208" s="1" t="s">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="T208" s="1" t="s">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="U208" s="1" t="s">
-        <v>2013</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="209" spans="1:21" x14ac:dyDescent="0.3">
@@ -20196,10 +20193,10 @@
         <v>1579</v>
       </c>
       <c r="S214" s="3" t="s">
-        <v>1938</v>
+        <v>1933</v>
       </c>
       <c r="T214" s="3" t="s">
-        <v>1939</v>
+        <v>1934</v>
       </c>
       <c r="U214" s="3" t="s">
         <v>28</v>
@@ -20333,7 +20330,7 @@
     </row>
     <row r="217" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="s">
-        <v>1896</v>
+        <v>1891</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>22</v>
@@ -20342,13 +20339,13 @@
         <v>37</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>1897</v>
+        <v>1892</v>
       </c>
       <c r="E217" s="2">
         <v>2010</v>
       </c>
       <c r="F217" s="4" t="s">
-        <v>1898</v>
+        <v>1893</v>
       </c>
       <c r="G217" s="7" t="s">
         <v>27</v>
@@ -20360,22 +20357,22 @@
         <v>106</v>
       </c>
       <c r="O217" s="3" t="s">
-        <v>1899</v>
+        <v>1894</v>
       </c>
       <c r="Q217" s="1" t="s">
-        <v>1900</v>
+        <v>1895</v>
       </c>
       <c r="R217" s="1" t="s">
         <v>336</v>
       </c>
       <c r="S217" s="1" t="s">
-        <v>1902</v>
+        <v>1897</v>
       </c>
       <c r="T217" s="1" t="s">
-        <v>1903</v>
+        <v>1898</v>
       </c>
       <c r="U217" s="1" t="s">
-        <v>1901</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="218" spans="1:21" x14ac:dyDescent="0.3">
@@ -20716,7 +20713,7 @@
         <v>25</v>
       </c>
       <c r="H223" s="2" t="s">
-        <v>2067</v>
+        <v>2062</v>
       </c>
       <c r="I223" s="2" t="s">
         <v>27</v>
@@ -21946,7 +21943,7 @@
     </row>
     <row r="243" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A243" s="3" t="s">
-        <v>1943</v>
+        <v>1938</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>22</v>
@@ -21955,13 +21952,13 @@
         <v>37</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>1942</v>
+        <v>1937</v>
       </c>
       <c r="E243" s="2">
         <v>2024</v>
       </c>
       <c r="F243" s="4" t="s">
-        <v>1946</v>
+        <v>1941</v>
       </c>
       <c r="G243" s="7" t="s">
         <v>27</v>
@@ -21973,19 +21970,19 @@
         <v>97</v>
       </c>
       <c r="O243" s="3" t="s">
-        <v>1899</v>
+        <v>1894</v>
       </c>
       <c r="R243" s="4" t="s">
-        <v>1946</v>
+        <v>1941</v>
       </c>
       <c r="S243" s="1" t="s">
-        <v>1953</v>
+        <v>1948</v>
       </c>
       <c r="T243" s="1" t="s">
-        <v>1954</v>
+        <v>1949</v>
       </c>
       <c r="U243" s="1" t="s">
-        <v>1952</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="244" spans="1:21" x14ac:dyDescent="0.3">
@@ -22053,7 +22050,7 @@
     </row>
     <row r="245" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A245" s="3" t="s">
-        <v>1873</v>
+        <v>1868</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>22</v>
@@ -22062,7 +22059,7 @@
         <v>37</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>1871</v>
+        <v>1867</v>
       </c>
       <c r="E245" s="2">
         <v>2011</v>
@@ -22081,7 +22078,7 @@
         <v>28</v>
       </c>
       <c r="K245" s="3" t="s">
-        <v>2145</v>
+        <v>2140</v>
       </c>
       <c r="L245" s="2" t="s">
         <v>25</v>
@@ -22368,7 +22365,7 @@
     </row>
     <row r="250" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A250" s="3" t="s">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>22</v>
@@ -22377,13 +22374,13 @@
         <v>37</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>2036</v>
+        <v>2031</v>
       </c>
       <c r="E250" s="2">
         <v>1971</v>
       </c>
       <c r="F250" s="4" t="s">
-        <v>2037</v>
+        <v>2032</v>
       </c>
       <c r="G250" s="7" t="s">
         <v>27</v>
@@ -22395,22 +22392,22 @@
         <v>100</v>
       </c>
       <c r="O250" s="3" t="s">
+        <v>2033</v>
+      </c>
+      <c r="Q250" s="1" t="s">
+        <v>2034</v>
+      </c>
+      <c r="R250" s="1" t="s">
         <v>2038</v>
       </c>
-      <c r="Q250" s="1" t="s">
-        <v>2039</v>
-      </c>
-      <c r="R250" s="1" t="s">
-        <v>2043</v>
-      </c>
       <c r="S250" s="1" t="s">
-        <v>2041</v>
+        <v>2036</v>
       </c>
       <c r="T250" s="1" t="s">
-        <v>2042</v>
+        <v>2037</v>
       </c>
       <c r="U250" s="1" t="s">
-        <v>2040</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="251" spans="1:21" x14ac:dyDescent="0.3">
@@ -23616,7 +23613,7 @@
     </row>
     <row r="270" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
-        <v>2115</v>
+        <v>2110</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>90</v>
@@ -23625,13 +23622,13 @@
         <v>23</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>2118</v>
+        <v>2113</v>
       </c>
       <c r="E270" s="2">
         <v>2023</v>
       </c>
       <c r="F270" s="4" t="s">
-        <v>2116</v>
+        <v>2111</v>
       </c>
       <c r="G270" s="7" t="s">
         <v>25</v>
@@ -23643,33 +23640,33 @@
         <v>27</v>
       </c>
       <c r="M270" s="4" t="s">
-        <v>2117</v>
+        <v>2112</v>
       </c>
       <c r="N270" s="7">
         <v>50</v>
       </c>
       <c r="O270" s="1" t="s">
+        <v>2114</v>
+      </c>
+      <c r="Q270" s="1" t="s">
+        <v>2115</v>
+      </c>
+      <c r="R270" s="1" t="s">
+        <v>2117</v>
+      </c>
+      <c r="S270" s="1" t="s">
+        <v>2118</v>
+      </c>
+      <c r="T270" s="1" t="s">
         <v>2119</v>
       </c>
-      <c r="Q270" s="1" t="s">
-        <v>2120</v>
-      </c>
-      <c r="R270" s="1" t="s">
-        <v>2122</v>
-      </c>
-      <c r="S270" s="1" t="s">
-        <v>2123</v>
-      </c>
-      <c r="T270" s="1" t="s">
-        <v>2124</v>
-      </c>
       <c r="U270" s="1" t="s">
-        <v>2121</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="271" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A271" s="3" t="s">
-        <v>2074</v>
+        <v>2069</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>22</v>
@@ -23678,13 +23675,13 @@
         <v>37</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>2075</v>
+        <v>2070</v>
       </c>
       <c r="E271" s="2">
         <v>2008</v>
       </c>
       <c r="F271" s="4" t="s">
-        <v>2076</v>
+        <v>2071</v>
       </c>
       <c r="G271" s="7" t="s">
         <v>25</v>
@@ -23699,19 +23696,19 @@
         <v>935</v>
       </c>
       <c r="Q271" s="1" t="s">
-        <v>2077</v>
+        <v>2072</v>
       </c>
       <c r="R271" s="1" t="s">
-        <v>2079</v>
+        <v>2074</v>
       </c>
       <c r="S271" s="1" t="s">
         <v>1714</v>
       </c>
       <c r="T271" s="1" t="s">
-        <v>2080</v>
+        <v>2075</v>
       </c>
       <c r="U271" s="1" t="s">
-        <v>2078</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="272" spans="1:21" x14ac:dyDescent="0.3">
@@ -24709,7 +24706,7 @@
     </row>
     <row r="288" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
-        <v>2137</v>
+        <v>2132</v>
       </c>
       <c r="B288" s="1" t="s">
         <v>22</v>
@@ -24718,13 +24715,13 @@
         <v>37</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>2138</v>
+        <v>2133</v>
       </c>
       <c r="E288" s="2">
         <v>2020</v>
       </c>
       <c r="F288" s="4" t="s">
-        <v>2139</v>
+        <v>2134</v>
       </c>
       <c r="G288" s="7" t="s">
         <v>25</v>
@@ -24736,19 +24733,19 @@
         <v>100</v>
       </c>
       <c r="O288" s="1" t="s">
-        <v>2140</v>
+        <v>2135</v>
       </c>
       <c r="Q288" s="1" t="s">
-        <v>2141</v>
+        <v>2136</v>
       </c>
       <c r="R288" s="1" t="s">
-        <v>2142</v>
+        <v>2137</v>
       </c>
       <c r="S288" s="1" t="s">
-        <v>2143</v>
+        <v>2138</v>
       </c>
       <c r="U288" s="1" t="s">
-        <v>2144</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="289" spans="1:21" x14ac:dyDescent="0.3">
@@ -24816,7 +24813,7 @@
     </row>
     <row r="290" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A290" s="3" t="s">
-        <v>1912</v>
+        <v>1907</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>22</v>
@@ -24825,13 +24822,13 @@
         <v>37</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>1913</v>
+        <v>1908</v>
       </c>
       <c r="E290" s="2">
         <v>2001</v>
       </c>
       <c r="F290" s="1" t="s">
-        <v>1914</v>
+        <v>1909</v>
       </c>
       <c r="G290" s="2" t="s">
         <v>25</v>
@@ -24842,7 +24839,7 @@
       </c>
       <c r="J290" s="1"/>
       <c r="K290" s="1" t="s">
-        <v>1915</v>
+        <v>1910</v>
       </c>
       <c r="L290" s="2" t="s">
         <v>25</v>
@@ -24852,27 +24849,27 @@
         <v>178</v>
       </c>
       <c r="O290" s="3" t="s">
+        <v>1911</v>
+      </c>
+      <c r="Q290" s="1" t="s">
+        <v>1912</v>
+      </c>
+      <c r="R290" s="1" t="s">
+        <v>1914</v>
+      </c>
+      <c r="S290" s="1" t="s">
+        <v>1915</v>
+      </c>
+      <c r="T290" s="1" t="s">
         <v>1916</v>
       </c>
-      <c r="Q290" s="1" t="s">
-        <v>1917</v>
-      </c>
-      <c r="R290" s="1" t="s">
-        <v>1919</v>
-      </c>
-      <c r="S290" s="1" t="s">
-        <v>1920</v>
-      </c>
-      <c r="T290" s="1" t="s">
-        <v>1921</v>
-      </c>
       <c r="U290" s="1" t="s">
-        <v>1918</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="291" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A291" s="3" t="s">
-        <v>1922</v>
+        <v>1917</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>22</v>
@@ -24881,13 +24878,13 @@
         <v>37</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>1923</v>
+        <v>1918</v>
       </c>
       <c r="E291" s="2">
         <v>2002</v>
       </c>
       <c r="F291" s="1" t="s">
-        <v>1914</v>
+        <v>1909</v>
       </c>
       <c r="G291" s="2" t="s">
         <v>27</v>
@@ -24897,10 +24894,10 @@
         <v>25</v>
       </c>
       <c r="J291" s="1" t="s">
-        <v>1913</v>
+        <v>1908</v>
       </c>
       <c r="K291" s="1" t="s">
-        <v>1924</v>
+        <v>1919</v>
       </c>
       <c r="L291" s="2" t="s">
         <v>25</v>
@@ -24910,27 +24907,27 @@
         <v>179</v>
       </c>
       <c r="O291" s="3" t="s">
+        <v>1911</v>
+      </c>
+      <c r="Q291" s="1" t="s">
+        <v>1912</v>
+      </c>
+      <c r="R291" s="1" t="s">
+        <v>1914</v>
+      </c>
+      <c r="S291" s="1" t="s">
+        <v>1915</v>
+      </c>
+      <c r="T291" s="1" t="s">
         <v>1916</v>
       </c>
-      <c r="Q291" s="1" t="s">
-        <v>1917</v>
-      </c>
-      <c r="R291" s="1" t="s">
-        <v>1919</v>
-      </c>
-      <c r="S291" s="1" t="s">
+      <c r="U291" s="1" t="s">
         <v>1920</v>
-      </c>
-      <c r="T291" s="1" t="s">
-        <v>1921</v>
-      </c>
-      <c r="U291" s="1" t="s">
-        <v>1925</v>
       </c>
     </row>
     <row r="292" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A292" s="3" t="s">
-        <v>1926</v>
+        <v>1921</v>
       </c>
       <c r="B292" s="1" t="s">
         <v>22</v>
@@ -24939,13 +24936,13 @@
         <v>37</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>1924</v>
+        <v>1919</v>
       </c>
       <c r="E292" s="2">
         <v>2003</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>1914</v>
+        <v>1909</v>
       </c>
       <c r="G292" s="2" t="s">
         <v>27</v>
@@ -24955,7 +24952,7 @@
         <v>25</v>
       </c>
       <c r="J292" s="1" t="s">
-        <v>1927</v>
+        <v>1922</v>
       </c>
       <c r="K292" s="1"/>
       <c r="L292" s="2" t="s">
@@ -24966,22 +24963,22 @@
         <v>201</v>
       </c>
       <c r="O292" s="3" t="s">
+        <v>1911</v>
+      </c>
+      <c r="Q292" s="1" t="s">
+        <v>1912</v>
+      </c>
+      <c r="R292" s="1" t="s">
+        <v>1914</v>
+      </c>
+      <c r="S292" s="1" t="s">
+        <v>1915</v>
+      </c>
+      <c r="T292" s="1" t="s">
         <v>1916</v>
       </c>
-      <c r="Q292" s="1" t="s">
-        <v>1917</v>
-      </c>
-      <c r="R292" s="1" t="s">
-        <v>1919</v>
-      </c>
-      <c r="S292" s="1" t="s">
-        <v>1920</v>
-      </c>
-      <c r="T292" s="1" t="s">
-        <v>1921</v>
-      </c>
       <c r="U292" s="1" t="s">
-        <v>1928</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="293" spans="1:21" x14ac:dyDescent="0.3">
@@ -26173,7 +26170,7 @@
     </row>
     <row r="312" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A312" s="3" t="s">
-        <v>2044</v>
+        <v>2039</v>
       </c>
       <c r="B312" s="1" t="s">
         <v>22</v>
@@ -26182,7 +26179,7 @@
         <v>37</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>2045</v>
+        <v>2040</v>
       </c>
       <c r="E312" s="2">
         <v>1995</v>
@@ -26197,13 +26194,13 @@
         <v>25</v>
       </c>
       <c r="K312" s="4" t="s">
-        <v>2046</v>
+        <v>2041</v>
       </c>
       <c r="L312" s="7" t="s">
         <v>27</v>
       </c>
       <c r="M312" s="4" t="s">
-        <v>2047</v>
+        <v>2042</v>
       </c>
       <c r="N312" s="7">
         <v>101</v>
@@ -26212,24 +26209,24 @@
         <v>1117</v>
       </c>
       <c r="Q312" s="1" t="s">
-        <v>2048</v>
+        <v>2043</v>
       </c>
       <c r="R312" s="1" t="s">
-        <v>2050</v>
+        <v>2045</v>
       </c>
       <c r="S312" s="1" t="s">
-        <v>2051</v>
+        <v>2046</v>
       </c>
       <c r="T312" s="1" t="s">
-        <v>2052</v>
+        <v>2047</v>
       </c>
       <c r="U312" s="1" t="s">
-        <v>2049</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="313" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A313" s="3" t="s">
-        <v>2053</v>
+        <v>2048</v>
       </c>
       <c r="B313" s="1" t="s">
         <v>22</v>
@@ -26238,7 +26235,7 @@
         <v>37</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>2046</v>
+        <v>2041</v>
       </c>
       <c r="E313" s="2">
         <v>2004</v>
@@ -26253,13 +26250,13 @@
         <v>25</v>
       </c>
       <c r="J313" s="4" t="s">
-        <v>2045</v>
+        <v>2040</v>
       </c>
       <c r="L313" s="7" t="s">
         <v>27</v>
       </c>
       <c r="M313" s="4" t="s">
-        <v>2047</v>
+        <v>2042</v>
       </c>
       <c r="N313" s="7">
         <v>80</v>
@@ -26268,19 +26265,19 @@
         <v>447</v>
       </c>
       <c r="Q313" s="1" t="s">
-        <v>2054</v>
+        <v>2049</v>
       </c>
       <c r="R313" s="1" t="s">
-        <v>2056</v>
+        <v>2051</v>
       </c>
       <c r="S313" s="1" t="s">
-        <v>2051</v>
+        <v>2046</v>
       </c>
       <c r="T313" s="1" t="s">
-        <v>2055</v>
+        <v>2050</v>
       </c>
       <c r="U313" s="1" t="s">
-        <v>2049</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="314" spans="1:21" x14ac:dyDescent="0.3">
@@ -27609,7 +27606,7 @@
     </row>
     <row r="335" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A335" s="3" t="s">
-        <v>1886</v>
+        <v>1881</v>
       </c>
       <c r="B335" s="3" t="s">
         <v>22</v>
@@ -27618,7 +27615,7 @@
         <v>37</v>
       </c>
       <c r="D335" s="3" t="s">
-        <v>1887</v>
+        <v>1882</v>
       </c>
       <c r="E335" s="2">
         <v>2009</v>
@@ -27637,7 +27634,7 @@
         <v>28</v>
       </c>
       <c r="K335" s="3" t="s">
-        <v>1888</v>
+        <v>1883</v>
       </c>
       <c r="L335" s="2" t="s">
         <v>25</v>
@@ -27649,7 +27646,7 @@
         <v>84</v>
       </c>
       <c r="O335" s="3" t="s">
-        <v>1889</v>
+        <v>1884</v>
       </c>
       <c r="P335" s="3" t="s">
         <v>28</v>
@@ -27735,7 +27732,7 @@
     </row>
     <row r="337" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A337" s="3" t="s">
-        <v>1890</v>
+        <v>1885</v>
       </c>
       <c r="B337" s="3" t="s">
         <v>22</v>
@@ -27744,7 +27741,7 @@
         <v>23</v>
       </c>
       <c r="D337" s="3" t="s">
-        <v>1888</v>
+        <v>1883</v>
       </c>
       <c r="E337" s="2">
         <v>2019</v>
@@ -27760,7 +27757,7 @@
         <v>25</v>
       </c>
       <c r="J337" s="3" t="s">
-        <v>1887</v>
+        <v>1882</v>
       </c>
       <c r="K337" s="3" t="s">
         <v>28</v>
@@ -27775,7 +27772,7 @@
         <v>99</v>
       </c>
       <c r="O337" s="3" t="s">
-        <v>1889</v>
+        <v>1884</v>
       </c>
       <c r="P337" s="3" t="s">
         <v>28</v>
@@ -29001,7 +28998,7 @@
     </row>
     <row r="357" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A357" s="3" t="s">
-        <v>1865</v>
+        <v>1862</v>
       </c>
       <c r="B357" s="3" t="s">
         <v>22</v>
@@ -29010,7 +29007,7 @@
         <v>37</v>
       </c>
       <c r="D357" s="3" t="s">
-        <v>1866</v>
+        <v>1863</v>
       </c>
       <c r="E357" s="2">
         <v>2019</v>
@@ -29026,10 +29023,10 @@
         <v>25</v>
       </c>
       <c r="J357" s="3" t="s">
-        <v>1867</v>
+        <v>2195</v>
       </c>
       <c r="K357" s="3" t="s">
-        <v>1868</v>
+        <v>1864</v>
       </c>
       <c r="L357" s="2" t="s">
         <v>25</v>
@@ -29303,7 +29300,7 @@
     </row>
     <row r="362" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="s">
-        <v>2150</v>
+        <v>2145</v>
       </c>
       <c r="B362" s="1" t="s">
         <v>22</v>
@@ -29312,13 +29309,13 @@
         <v>23</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>2151</v>
+        <v>2146</v>
       </c>
       <c r="E362" s="2">
         <v>1962</v>
       </c>
       <c r="F362" s="4" t="s">
-        <v>2152</v>
+        <v>2147</v>
       </c>
       <c r="G362" s="7" t="s">
         <v>27</v>
@@ -29330,27 +29327,27 @@
         <v>153</v>
       </c>
       <c r="O362" s="1" t="s">
+        <v>2148</v>
+      </c>
+      <c r="Q362" s="1" t="s">
+        <v>2149</v>
+      </c>
+      <c r="R362" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="S362" s="1" t="s">
+        <v>2152</v>
+      </c>
+      <c r="T362" s="1" t="s">
         <v>2153</v>
       </c>
-      <c r="Q362" s="1" t="s">
-        <v>2154</v>
-      </c>
-      <c r="R362" s="1" t="s">
-        <v>2156</v>
-      </c>
-      <c r="S362" s="1" t="s">
-        <v>2157</v>
-      </c>
-      <c r="T362" s="1" t="s">
-        <v>2158</v>
-      </c>
       <c r="U362" s="1" t="s">
-        <v>2155</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="363" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A363" s="1" t="s">
-        <v>2159</v>
+        <v>2154</v>
       </c>
       <c r="B363" s="1" t="s">
         <v>22</v>
@@ -29359,13 +29356,13 @@
         <v>23</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>2160</v>
+        <v>2155</v>
       </c>
       <c r="E363" s="2">
         <v>1968</v>
       </c>
       <c r="F363" s="4" t="s">
-        <v>2152</v>
+        <v>2147</v>
       </c>
       <c r="G363" s="7" t="s">
         <v>27</v>
@@ -29377,27 +29374,27 @@
         <v>149</v>
       </c>
       <c r="O363" s="1" t="s">
+        <v>2156</v>
+      </c>
+      <c r="Q363" s="1" t="s">
+        <v>2157</v>
+      </c>
+      <c r="R363" s="1" t="s">
+        <v>2159</v>
+      </c>
+      <c r="S363" s="1" t="s">
+        <v>2158</v>
+      </c>
+      <c r="T363" s="1" t="s">
+        <v>2160</v>
+      </c>
+      <c r="U363" s="1" t="s">
         <v>2161</v>
-      </c>
-      <c r="Q363" s="1" t="s">
-        <v>2162</v>
-      </c>
-      <c r="R363" s="1" t="s">
-        <v>2164</v>
-      </c>
-      <c r="S363" s="1" t="s">
-        <v>2163</v>
-      </c>
-      <c r="T363" s="1" t="s">
-        <v>2165</v>
-      </c>
-      <c r="U363" s="1" t="s">
-        <v>2166</v>
       </c>
     </row>
     <row r="364" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
-        <v>2167</v>
+        <v>2162</v>
       </c>
       <c r="B364" s="1" t="s">
         <v>22</v>
@@ -29406,13 +29403,13 @@
         <v>23</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>2168</v>
+        <v>2163</v>
       </c>
       <c r="E364" s="2">
         <v>1971</v>
       </c>
       <c r="F364" s="4" t="s">
-        <v>2152</v>
+        <v>2147</v>
       </c>
       <c r="G364" s="7" t="s">
         <v>27</v>
@@ -29424,27 +29421,27 @@
         <v>136</v>
       </c>
       <c r="O364" s="1" t="s">
-        <v>2169</v>
+        <v>2164</v>
       </c>
       <c r="Q364" s="1" t="s">
-        <v>2152</v>
+        <v>2147</v>
       </c>
       <c r="R364" s="1" t="s">
-        <v>2170</v>
+        <v>2165</v>
       </c>
       <c r="S364" s="1" t="s">
-        <v>2171</v>
+        <v>2166</v>
       </c>
       <c r="T364" s="1" t="s">
-        <v>2172</v>
+        <v>2167</v>
       </c>
       <c r="U364" s="1" t="s">
-        <v>2173</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="365" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A365" s="1" t="s">
-        <v>2174</v>
+        <v>2169</v>
       </c>
       <c r="B365" s="1" t="s">
         <v>22</v>
@@ -29453,13 +29450,13 @@
         <v>23</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>2175</v>
+        <v>2170</v>
       </c>
       <c r="E365" s="2">
         <v>1975</v>
       </c>
       <c r="F365" s="4" t="s">
-        <v>2152</v>
+        <v>2147</v>
       </c>
       <c r="G365" s="7" t="s">
         <v>27</v>
@@ -29471,27 +29468,27 @@
         <v>185</v>
       </c>
       <c r="O365" s="1" t="s">
-        <v>2176</v>
+        <v>2171</v>
       </c>
       <c r="Q365" s="1" t="s">
-        <v>2152</v>
+        <v>2147</v>
       </c>
       <c r="R365" s="1" t="s">
-        <v>2178</v>
+        <v>2173</v>
       </c>
       <c r="S365" s="1" t="s">
-        <v>2171</v>
+        <v>2166</v>
       </c>
       <c r="T365" s="1" t="s">
+        <v>2167</v>
+      </c>
+      <c r="U365" s="1" t="s">
         <v>2172</v>
-      </c>
-      <c r="U365" s="1" t="s">
-        <v>2177</v>
       </c>
     </row>
     <row r="366" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
-        <v>2179</v>
+        <v>2174</v>
       </c>
       <c r="B366" s="1" t="s">
         <v>22</v>
@@ -29500,13 +29497,13 @@
         <v>23</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>2180</v>
+        <v>2175</v>
       </c>
       <c r="E366" s="2">
         <v>1980</v>
       </c>
       <c r="F366" s="4" t="s">
-        <v>2152</v>
+        <v>2147</v>
       </c>
       <c r="G366" s="7" t="s">
         <v>25</v>
@@ -29518,27 +29515,27 @@
         <v>146</v>
       </c>
       <c r="O366" s="1" t="s">
-        <v>2181</v>
+        <v>2176</v>
       </c>
       <c r="Q366" s="1" t="s">
-        <v>2182</v>
+        <v>2177</v>
       </c>
       <c r="R366" s="1" t="s">
-        <v>2184</v>
+        <v>2179</v>
       </c>
       <c r="S366" s="1" t="s">
-        <v>2171</v>
+        <v>2166</v>
       </c>
       <c r="T366" s="1" t="s">
-        <v>2172</v>
+        <v>2167</v>
       </c>
       <c r="U366" s="1" t="s">
-        <v>2183</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="367" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A367" s="1" t="s">
-        <v>2185</v>
+        <v>2180</v>
       </c>
       <c r="B367" s="1" t="s">
         <v>22</v>
@@ -29547,13 +29544,13 @@
         <v>23</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>2186</v>
+        <v>2181</v>
       </c>
       <c r="E367" s="2">
         <v>1987</v>
       </c>
       <c r="F367" s="4" t="s">
-        <v>2152</v>
+        <v>2147</v>
       </c>
       <c r="G367" s="7" t="s">
         <v>27</v>
@@ -29565,27 +29562,27 @@
         <v>116</v>
       </c>
       <c r="O367" s="1" t="s">
+        <v>2182</v>
+      </c>
+      <c r="Q367" s="1" t="s">
+        <v>2183</v>
+      </c>
+      <c r="R367" s="1" t="s">
+        <v>2185</v>
+      </c>
+      <c r="S367" s="1" t="s">
+        <v>2186</v>
+      </c>
+      <c r="T367" s="1" t="s">
         <v>2187</v>
       </c>
-      <c r="Q367" s="1" t="s">
-        <v>2188</v>
-      </c>
-      <c r="R367" s="1" t="s">
-        <v>2190</v>
-      </c>
-      <c r="S367" s="1" t="s">
-        <v>2191</v>
-      </c>
-      <c r="T367" s="1" t="s">
-        <v>2192</v>
-      </c>
       <c r="U367" s="1" t="s">
-        <v>2189</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="368" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
-        <v>2193</v>
+        <v>2188</v>
       </c>
       <c r="B368" s="1" t="s">
         <v>22</v>
@@ -29594,13 +29591,13 @@
         <v>23</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>2194</v>
+        <v>2189</v>
       </c>
       <c r="E368" s="2">
         <v>1999</v>
       </c>
       <c r="F368" s="4" t="s">
-        <v>2152</v>
+        <v>2147</v>
       </c>
       <c r="G368" s="7" t="s">
         <v>27</v>
@@ -29615,19 +29612,19 @@
         <v>112</v>
       </c>
       <c r="Q368" s="1" t="s">
-        <v>2195</v>
+        <v>2190</v>
       </c>
       <c r="R368" s="1" t="s">
-        <v>2197</v>
+        <v>2192</v>
       </c>
       <c r="S368" s="1" t="s">
-        <v>2198</v>
+        <v>2193</v>
       </c>
       <c r="T368" s="1" t="s">
-        <v>2199</v>
+        <v>2194</v>
       </c>
       <c r="U368" s="1" t="s">
-        <v>2196</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="369" spans="1:21" x14ac:dyDescent="0.3">
@@ -30703,7 +30700,7 @@
     </row>
     <row r="386" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A386" s="3" t="s">
-        <v>1955</v>
+        <v>1950</v>
       </c>
       <c r="B386" s="1" t="s">
         <v>22</v>
@@ -30712,7 +30709,7 @@
         <v>23</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>1956</v>
+        <v>1951</v>
       </c>
       <c r="E386" s="2">
         <v>1971</v>
@@ -30733,19 +30730,19 @@
         <v>1006</v>
       </c>
       <c r="Q386" s="1" t="s">
-        <v>1957</v>
+        <v>1952</v>
       </c>
       <c r="R386" s="1" t="s">
-        <v>1959</v>
+        <v>1954</v>
       </c>
       <c r="S386" s="1" t="s">
-        <v>1960</v>
+        <v>1955</v>
       </c>
       <c r="T386" s="1" t="s">
-        <v>1961</v>
+        <v>1956</v>
       </c>
       <c r="U386" s="1" t="s">
-        <v>1958</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="387" spans="1:21" x14ac:dyDescent="0.3">
@@ -31762,7 +31759,7 @@
     </row>
     <row r="403" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A403" s="3" t="s">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="B403" s="1" t="s">
         <v>22</v>
@@ -31771,7 +31768,7 @@
         <v>37</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="E403" s="2">
         <v>1988</v>
@@ -31786,7 +31783,7 @@
         <v>25</v>
       </c>
       <c r="K403" s="4" t="s">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="L403" s="7" t="s">
         <v>25</v>
@@ -31795,22 +31792,22 @@
         <v>92</v>
       </c>
       <c r="O403" s="3" t="s">
+        <v>2015</v>
+      </c>
+      <c r="Q403" s="1" t="s">
+        <v>2016</v>
+      </c>
+      <c r="R403" s="1" t="s">
+        <v>2018</v>
+      </c>
+      <c r="S403" s="1" t="s">
+        <v>2019</v>
+      </c>
+      <c r="T403" s="1" t="s">
         <v>2020</v>
       </c>
-      <c r="Q403" s="1" t="s">
-        <v>2021</v>
-      </c>
-      <c r="R403" s="1" t="s">
-        <v>2023</v>
-      </c>
-      <c r="S403" s="1" t="s">
-        <v>2024</v>
-      </c>
-      <c r="T403" s="1" t="s">
-        <v>2025</v>
-      </c>
       <c r="U403" s="1" t="s">
-        <v>2022</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="404" spans="1:21" x14ac:dyDescent="0.3">
@@ -31878,7 +31875,7 @@
     </row>
     <row r="405" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A405" s="3" t="s">
-        <v>2114</v>
+        <v>2109</v>
       </c>
       <c r="B405" s="1" t="s">
         <v>90</v>
@@ -31887,7 +31884,7 @@
         <v>37</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>2106</v>
+        <v>2101</v>
       </c>
       <c r="E405" s="2">
         <v>2022</v>
@@ -31905,33 +31902,33 @@
         <v>27</v>
       </c>
       <c r="M405" s="4" t="s">
-        <v>2107</v>
+        <v>2102</v>
       </c>
       <c r="N405" s="7">
         <v>45</v>
       </c>
       <c r="O405" s="3" t="s">
+        <v>2103</v>
+      </c>
+      <c r="Q405" s="1" t="s">
+        <v>2104</v>
+      </c>
+      <c r="R405" s="1" t="s">
+        <v>2105</v>
+      </c>
+      <c r="S405" s="1" t="s">
+        <v>2106</v>
+      </c>
+      <c r="T405" s="1" t="s">
+        <v>2107</v>
+      </c>
+      <c r="U405" s="1" t="s">
         <v>2108</v>
-      </c>
-      <c r="Q405" s="1" t="s">
-        <v>2109</v>
-      </c>
-      <c r="R405" s="1" t="s">
-        <v>2110</v>
-      </c>
-      <c r="S405" s="1" t="s">
-        <v>2111</v>
-      </c>
-      <c r="T405" s="1" t="s">
-        <v>2112</v>
-      </c>
-      <c r="U405" s="1" t="s">
-        <v>2113</v>
       </c>
     </row>
     <row r="406" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A406" s="3" t="s">
-        <v>2088</v>
+        <v>2083</v>
       </c>
       <c r="B406" s="1" t="s">
         <v>22</v>
@@ -31940,7 +31937,7 @@
         <v>37</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="E406" s="2">
         <v>2024</v>
@@ -31955,7 +31952,7 @@
         <v>25</v>
       </c>
       <c r="J406" s="4" t="s">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="L406" s="7" t="s">
         <v>25</v>
@@ -31964,27 +31961,27 @@
         <v>105</v>
       </c>
       <c r="O406" s="3" t="s">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="Q406" s="1" t="s">
-        <v>2089</v>
+        <v>2084</v>
       </c>
       <c r="R406" s="1" t="s">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="S406" s="1" t="s">
-        <v>2091</v>
+        <v>2086</v>
       </c>
       <c r="T406" s="1" t="s">
         <v>298</v>
       </c>
       <c r="U406" s="1" t="s">
-        <v>2090</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="407" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A407" s="3" t="s">
-        <v>1929</v>
+        <v>1924</v>
       </c>
       <c r="B407" s="1" t="s">
         <v>22</v>
@@ -31993,13 +31990,13 @@
         <v>37</v>
       </c>
       <c r="D407" s="1" t="s">
-        <v>1930</v>
+        <v>1925</v>
       </c>
       <c r="E407" s="2">
         <v>2005</v>
       </c>
       <c r="F407" s="4" t="s">
-        <v>1931</v>
+        <v>1926</v>
       </c>
       <c r="G407" s="7" t="s">
         <v>25</v>
@@ -32011,7 +32008,7 @@
         <v>27</v>
       </c>
       <c r="M407" s="4" t="s">
-        <v>1932</v>
+        <v>1927</v>
       </c>
       <c r="N407" s="7">
         <v>106</v>
@@ -32020,19 +32017,19 @@
         <v>1790</v>
       </c>
       <c r="Q407" s="1" t="s">
-        <v>1933</v>
+        <v>1928</v>
       </c>
       <c r="R407" s="1" t="s">
-        <v>1935</v>
+        <v>1930</v>
       </c>
       <c r="S407" s="1" t="s">
-        <v>1936</v>
+        <v>1931</v>
       </c>
       <c r="T407" s="1" t="s">
-        <v>1937</v>
+        <v>1932</v>
       </c>
       <c r="U407" s="1" t="s">
-        <v>1934</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="408" spans="1:21" x14ac:dyDescent="0.3">
@@ -32688,7 +32685,7 @@
         <v>25</v>
       </c>
       <c r="H418" s="2" t="s">
-        <v>2066</v>
+        <v>2061</v>
       </c>
       <c r="I418" s="2" t="s">
         <v>27</v>
@@ -33299,7 +33296,7 @@
     </row>
     <row r="428" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A428" s="3" t="s">
-        <v>2092</v>
+        <v>2087</v>
       </c>
       <c r="B428" s="1" t="s">
         <v>22</v>
@@ -33308,13 +33305,13 @@
         <v>37</v>
       </c>
       <c r="D428" s="1" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
       <c r="E428" s="2">
         <v>2024</v>
       </c>
       <c r="F428" s="4" t="s">
-        <v>2094</v>
+        <v>2089</v>
       </c>
       <c r="G428" s="7" t="s">
         <v>27</v>
@@ -33326,22 +33323,22 @@
         <v>102</v>
       </c>
       <c r="O428" s="3" t="s">
+        <v>2090</v>
+      </c>
+      <c r="Q428" s="1" t="s">
+        <v>2091</v>
+      </c>
+      <c r="R428" s="1" t="s">
+        <v>2093</v>
+      </c>
+      <c r="S428" s="1" t="s">
+        <v>2094</v>
+      </c>
+      <c r="T428" s="1" t="s">
         <v>2095</v>
       </c>
-      <c r="Q428" s="1" t="s">
-        <v>2096</v>
-      </c>
-      <c r="R428" s="1" t="s">
-        <v>2098</v>
-      </c>
-      <c r="S428" s="1" t="s">
-        <v>2099</v>
-      </c>
-      <c r="T428" s="1" t="s">
-        <v>2100</v>
-      </c>
       <c r="U428" s="1" t="s">
-        <v>2097</v>
+        <v>2092</v>
       </c>
     </row>
   </sheetData>

--- a/content/database.xlsx
+++ b/content/database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hannah\life\dabad\vue-dabad\content\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hannah\life\dabad2_0\dabad\content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590B1EB6-BD3D-437E-BC17-C95770EC4778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1E5A32-1973-4983-9666-09A21B4178DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{19379007-CF45-4D83-A844-C3FD6EF3BA4D}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{19379007-CF45-4D83-A844-C3FD6EF3BA4D}"/>
   </bookViews>
   <sheets>
     <sheet name="database" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4757" uniqueCount="2230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4809" uniqueCount="2260">
   <si>
     <t>ID</t>
   </si>
@@ -4666,9 +4666,6 @@
     <t>Phoebe Waller-Bridge</t>
   </si>
   <si>
-    <t>signed by Anjana Vasan</t>
-  </si>
-  <si>
     <t>Killing Eve [Season 2], Killing Eve [Season 3], Killing Eve [Season 4]</t>
   </si>
   <si>
@@ -6713,6 +6710,99 @@
   </si>
   <si>
     <t>Ryland Brickson Cole Tews, Olivia Graves, Doug Mancheski, Wes Tank, Luis Rico</t>
+  </si>
+  <si>
+    <t>signed by Anjana Vasan and Edward Bluemel</t>
+  </si>
+  <si>
+    <t>signed by Rian Johnson</t>
+  </si>
+  <si>
+    <t>signed by Daisy Ridley</t>
+  </si>
+  <si>
+    <t>Sinners_2025</t>
+  </si>
+  <si>
+    <t>Sinners</t>
+  </si>
+  <si>
+    <t>Horror, Drama, Action</t>
+  </si>
+  <si>
+    <t>Ludwig Göransson</t>
+  </si>
+  <si>
+    <t>Ruth E. Carter</t>
+  </si>
+  <si>
+    <t>Miles Caton, Saul Williams, Andrene Ward-Hammond, Jack O'Connell, Michael B. Jordan, Dave Maldonado, Hailee Steinfeld, Wunmi Mosaku</t>
+  </si>
+  <si>
+    <t>Autumn Durald Arkapaw</t>
+  </si>
+  <si>
+    <t>Eternals_2021</t>
+  </si>
+  <si>
+    <t>Eternals</t>
+  </si>
+  <si>
+    <t>Chloe Zhao</t>
+  </si>
+  <si>
+    <t>Adventure, SciFi, Fantasy</t>
+  </si>
+  <si>
+    <t>Chloe Zhao, Patrick Burleigh</t>
+  </si>
+  <si>
+    <t>Ramin Djawadi</t>
+  </si>
+  <si>
+    <t>Ben Davis</t>
+  </si>
+  <si>
+    <t>Gemma Chan, Richard Madden, Angelina Jolie, Salma Hayek, Kit Harington, Kumail Nanjiani, Lia McHugh, Brian Tyree Henry, Lauren Ridloff, Barry Keoghan, Harish Patel, Bill Skarsgård</t>
+  </si>
+  <si>
+    <t>Robot_Dreams_2023</t>
+  </si>
+  <si>
+    <t>Robot Dreams</t>
+  </si>
+  <si>
+    <t>Pablo Berger</t>
+  </si>
+  <si>
+    <t>Animation, Comedy, Drama</t>
+  </si>
+  <si>
+    <t>Ivan Labanda, Robin Krambroeckers, Metodi Dimitrov</t>
+  </si>
+  <si>
+    <t>Alfonso de Vilallonga</t>
+  </si>
+  <si>
+    <t>The_Haunting_Of_Hill_House_2018</t>
+  </si>
+  <si>
+    <t>The Haunting of Hill House</t>
+  </si>
+  <si>
+    <t>Mike Flanagan</t>
+  </si>
+  <si>
+    <t>Natalia Rominati, Michiel Huisman, Carla Gugino, Henry Thomas, Elizabeth Reaser, Oliver Jackson-Cohen, Kate Siegel, Victoria Pedretti, Lulu Wilson, Mckenna Grace, Paxton Singleton, Julian Hilliard, Violet McGraw, Timothy Hutton</t>
+  </si>
+  <si>
+    <t>The Newton Brothers</t>
+  </si>
+  <si>
+    <t>Michael Fimognari</t>
+  </si>
+  <si>
+    <t>Lynn Falconer</t>
   </si>
 </sst>
 </file>
@@ -7583,39 +7673,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A95FB3FF-36B5-4204-8D1D-937EE61C148B}">
-  <dimension ref="A1:U432"/>
+  <dimension ref="A1:U436"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D209" sqref="D209"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" customWidth="1"/>
     <col min="4" max="4" width="40" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="3"/>
-    <col min="6" max="6" width="25.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="3"/>
+    <col min="6" max="6" width="25.88671875" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" customWidth="1"/>
     <col min="9" max="9" width="12" style="3" customWidth="1"/>
-    <col min="10" max="10" width="39.7109375" customWidth="1"/>
-    <col min="11" max="11" width="33.140625" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="35.28515625" customWidth="1"/>
-    <col min="14" max="14" width="8.85546875" style="3"/>
-    <col min="15" max="15" width="27.28515625" customWidth="1"/>
-    <col min="16" max="16" width="38.28515625" customWidth="1"/>
-    <col min="17" max="17" width="19.7109375" customWidth="1"/>
-    <col min="18" max="18" width="18.42578125" customWidth="1"/>
-    <col min="19" max="19" width="17.7109375" customWidth="1"/>
-    <col min="20" max="20" width="17.85546875" customWidth="1"/>
+    <col min="10" max="10" width="39.6640625" customWidth="1"/>
+    <col min="11" max="11" width="33.109375" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="35.33203125" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" style="3"/>
+    <col min="15" max="15" width="27.33203125" customWidth="1"/>
+    <col min="16" max="16" width="38.33203125" customWidth="1"/>
+    <col min="17" max="17" width="19.6640625" customWidth="1"/>
+    <col min="18" max="18" width="18.44140625" customWidth="1"/>
+    <col min="19" max="19" width="17.6640625" customWidth="1"/>
+    <col min="20" max="20" width="17.88671875" customWidth="1"/>
     <col min="21" max="21" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7680,7 +7770,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -7712,7 +7802,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -7747,7 +7837,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -7797,7 +7887,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -7829,7 +7919,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -7879,7 +7969,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -7920,7 +8010,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -7952,7 +8042,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>71</v>
       </c>
@@ -7984,7 +8074,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>75</v>
       </c>
@@ -8031,7 +8121,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>84</v>
       </c>
@@ -8063,7 +8153,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>88</v>
       </c>
@@ -8113,7 +8203,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>97</v>
       </c>
@@ -8145,7 +8235,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>100</v>
       </c>
@@ -8177,7 +8267,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>104</v>
       </c>
@@ -8215,7 +8305,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>109</v>
       </c>
@@ -8256,7 +8346,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>115</v>
       </c>
@@ -8288,7 +8378,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>119</v>
       </c>
@@ -8320,7 +8410,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>123</v>
       </c>
@@ -8370,7 +8460,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>133</v>
       </c>
@@ -8405,7 +8495,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>138</v>
       </c>
@@ -8452,7 +8542,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>147</v>
       </c>
@@ -8487,7 +8577,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>152</v>
       </c>
@@ -8525,7 +8615,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>157</v>
       </c>
@@ -8563,7 +8653,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>162</v>
       </c>
@@ -8595,7 +8685,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>166</v>
       </c>
@@ -8654,7 +8744,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>177</v>
       </c>
@@ -8716,7 +8806,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>184</v>
       </c>
@@ -8772,7 +8862,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>190</v>
       </c>
@@ -8807,7 +8897,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>195</v>
       </c>
@@ -8848,7 +8938,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>201</v>
       </c>
@@ -8898,7 +8988,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>211</v>
       </c>
@@ -8936,7 +9026,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>216</v>
       </c>
@@ -8977,7 +9067,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>221</v>
       </c>
@@ -9018,7 +9108,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>224</v>
       </c>
@@ -9059,7 +9149,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>228</v>
       </c>
@@ -9100,7 +9190,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>232</v>
       </c>
@@ -9132,7 +9222,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>236</v>
       </c>
@@ -9167,7 +9257,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>241</v>
       </c>
@@ -9217,7 +9307,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>251</v>
       </c>
@@ -9255,7 +9345,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>256</v>
       </c>
@@ -9290,7 +9380,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>261</v>
       </c>
@@ -9325,7 +9415,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>265</v>
       </c>
@@ -9363,7 +9453,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>270</v>
       </c>
@@ -9401,7 +9491,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>271</v>
       </c>
@@ -9439,7 +9529,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>275</v>
       </c>
@@ -9480,7 +9570,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>278</v>
       </c>
@@ -9518,7 +9608,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>282</v>
       </c>
@@ -9565,7 +9655,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>291</v>
       </c>
@@ -9597,7 +9687,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>295</v>
       </c>
@@ -9638,7 +9728,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>300</v>
       </c>
@@ -9679,7 +9769,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>301</v>
       </c>
@@ -9720,7 +9810,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>307</v>
       </c>
@@ -9761,7 +9851,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>310</v>
       </c>
@@ -9796,7 +9886,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>313</v>
       </c>
@@ -9834,7 +9924,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>315</v>
       </c>
@@ -9881,7 +9971,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>323</v>
       </c>
@@ -9913,7 +10003,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>325</v>
       </c>
@@ -9945,7 +10035,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>329</v>
       </c>
@@ -9995,7 +10085,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>339</v>
       </c>
@@ -10027,7 +10117,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>343</v>
       </c>
@@ -10068,7 +10158,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>349</v>
       </c>
@@ -10112,7 +10202,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>355</v>
       </c>
@@ -10150,7 +10240,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>358</v>
       </c>
@@ -10200,7 +10290,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>368</v>
       </c>
@@ -10232,7 +10322,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>372</v>
       </c>
@@ -10267,7 +10357,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>377</v>
       </c>
@@ -10320,7 +10410,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>386</v>
       </c>
@@ -10370,7 +10460,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>392</v>
       </c>
@@ -10417,7 +10507,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>396</v>
       </c>
@@ -10449,7 +10539,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>401</v>
       </c>
@@ -10484,7 +10574,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>406</v>
       </c>
@@ -10522,7 +10612,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>411</v>
       </c>
@@ -10554,7 +10644,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>415</v>
       </c>
@@ -10586,7 +10676,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>419</v>
       </c>
@@ -10618,7 +10708,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>423</v>
       </c>
@@ -10662,7 +10752,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>430</v>
       </c>
@@ -10703,7 +10793,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>433</v>
       </c>
@@ -10738,7 +10828,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>438</v>
       </c>
@@ -10788,7 +10878,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>446</v>
       </c>
@@ -10820,7 +10910,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>449</v>
       </c>
@@ -10852,9 +10942,9 @@
         <v>452</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="B82" t="s">
         <v>22</v>
@@ -10863,13 +10953,13 @@
         <v>53</v>
       </c>
       <c r="D82" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="E82" s="3">
         <v>2024</v>
       </c>
       <c r="F82" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="G82" s="3" t="s">
         <v>31</v>
@@ -10881,25 +10971,25 @@
         <v>126</v>
       </c>
       <c r="O82" t="s">
+        <v>2207</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>2209</v>
+      </c>
+      <c r="R82" t="s">
+        <v>2169</v>
+      </c>
+      <c r="S82" t="s">
+        <v>2210</v>
+      </c>
+      <c r="T82" t="s">
+        <v>2211</v>
+      </c>
+      <c r="U82" t="s">
         <v>2208</v>
       </c>
-      <c r="Q82" t="s">
-        <v>2210</v>
-      </c>
-      <c r="R82" t="s">
-        <v>2170</v>
-      </c>
-      <c r="S82" t="s">
-        <v>2211</v>
-      </c>
-      <c r="T82" t="s">
-        <v>2212</v>
-      </c>
-      <c r="U82" t="s">
-        <v>2209</v>
-      </c>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>453</v>
       </c>
@@ -10931,7 +11021,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>457</v>
       </c>
@@ -10972,7 +11062,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>462</v>
       </c>
@@ -11016,7 +11106,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>466</v>
       </c>
@@ -11060,7 +11150,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>471</v>
       </c>
@@ -11104,7 +11194,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>476</v>
       </c>
@@ -11148,7 +11238,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>481</v>
       </c>
@@ -11192,7 +11282,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>486</v>
       </c>
@@ -11236,7 +11326,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>491</v>
       </c>
@@ -11277,7 +11367,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>494</v>
       </c>
@@ -11309,7 +11399,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>498</v>
       </c>
@@ -11350,7 +11440,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>503</v>
       </c>
@@ -11391,7 +11481,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>507</v>
       </c>
@@ -11432,7 +11522,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>511</v>
       </c>
@@ -11470,7 +11560,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>513</v>
       </c>
@@ -11511,7 +11601,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>517</v>
       </c>
@@ -11543,7 +11633,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>520</v>
       </c>
@@ -11584,7 +11674,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>521</v>
       </c>
@@ -11631,7 +11721,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>530</v>
       </c>
@@ -11663,7 +11753,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>534</v>
       </c>
@@ -11701,7 +11791,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>539</v>
       </c>
@@ -11751,7 +11841,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>547</v>
       </c>
@@ -11792,7 +11882,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>552</v>
       </c>
@@ -11824,7 +11914,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>555</v>
       </c>
@@ -11874,7 +11964,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>564</v>
       </c>
@@ -11906,7 +11996,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>568</v>
       </c>
@@ -11938,7 +12028,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>571</v>
       </c>
@@ -11979,7 +12069,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>577</v>
       </c>
@@ -12017,7 +12107,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>582</v>
       </c>
@@ -12049,7 +12139,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>586</v>
       </c>
@@ -12081,7 +12171,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>589</v>
       </c>
@@ -12116,7 +12206,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>594</v>
       </c>
@@ -12166,7 +12256,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>604</v>
       </c>
@@ -12225,7 +12315,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>616</v>
       </c>
@@ -12275,7 +12365,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>623</v>
       </c>
@@ -12322,7 +12412,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>629</v>
       </c>
@@ -12360,7 +12450,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>631</v>
       </c>
@@ -12398,7 +12488,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>634</v>
       </c>
@@ -12448,7 +12538,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>642</v>
       </c>
@@ -12480,7 +12570,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>645</v>
       </c>
@@ -12512,7 +12602,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>648</v>
       </c>
@@ -12544,7 +12634,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>651</v>
       </c>
@@ -12591,7 +12681,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>660</v>
       </c>
@@ -12650,7 +12740,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>671</v>
       </c>
@@ -12712,7 +12802,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>680</v>
       </c>
@@ -12768,7 +12858,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>684</v>
       </c>
@@ -12803,7 +12893,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>688</v>
       </c>
@@ -12859,7 +12949,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>694</v>
       </c>
@@ -12900,7 +12990,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>699</v>
       </c>
@@ -12932,7 +13022,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>703</v>
       </c>
@@ -12970,7 +13060,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>707</v>
       </c>
@@ -13008,7 +13098,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>708</v>
       </c>
@@ -13067,7 +13157,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>717</v>
       </c>
@@ -13126,7 +13216,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>727</v>
       </c>
@@ -13158,7 +13248,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>731</v>
       </c>
@@ -13196,7 +13286,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>736</v>
       </c>
@@ -13246,7 +13336,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>745</v>
       </c>
@@ -13278,7 +13368,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>748</v>
       </c>
@@ -13325,7 +13415,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>756</v>
       </c>
@@ -13375,7 +13465,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>765</v>
       </c>
@@ -13425,7 +13515,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>769</v>
       </c>
@@ -13457,7 +13547,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>773</v>
       </c>
@@ -13507,7 +13597,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>781</v>
       </c>
@@ -13542,7 +13632,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>786</v>
       </c>
@@ -13574,7 +13664,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>790</v>
       </c>
@@ -13606,7 +13696,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>794</v>
       </c>
@@ -13641,7 +13731,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>797</v>
       </c>
@@ -13691,7 +13781,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>806</v>
       </c>
@@ -13723,7 +13813,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>810</v>
       </c>
@@ -13764,7 +13854,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>815</v>
       </c>
@@ -13805,7 +13895,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>818</v>
       </c>
@@ -13846,7 +13936,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>822</v>
       </c>
@@ -13887,7 +13977,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>828</v>
       </c>
@@ -13946,7 +14036,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>837</v>
       </c>
@@ -13978,7 +14068,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>840</v>
       </c>
@@ -14016,7 +14106,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>845</v>
       </c>
@@ -14054,7 +14144,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>846</v>
       </c>
@@ -14110,7 +14200,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>856</v>
       </c>
@@ -14142,7 +14232,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>859</v>
       </c>
@@ -14189,7 +14279,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>868</v>
       </c>
@@ -14221,7 +14311,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>872</v>
       </c>
@@ -14253,7 +14343,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>876</v>
       </c>
@@ -14309,7 +14399,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>886</v>
       </c>
@@ -14359,7 +14449,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>896</v>
       </c>
@@ -14415,7 +14505,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>903</v>
       </c>
@@ -14447,7 +14537,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>906</v>
       </c>
@@ -14479,7 +14569,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>909</v>
       </c>
@@ -14529,7 +14619,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>918</v>
       </c>
@@ -14561,7 +14651,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>922</v>
       </c>
@@ -14611,7 +14701,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>930</v>
       </c>
@@ -14658,7 +14748,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>939</v>
       </c>
@@ -14690,7 +14780,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>942</v>
       </c>
@@ -14734,7 +14824,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>949</v>
       </c>
@@ -14775,7 +14865,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>955</v>
       </c>
@@ -14819,7 +14909,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>960</v>
       </c>
@@ -14869,7 +14959,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>970</v>
       </c>
@@ -14904,7 +14994,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>975</v>
       </c>
@@ -14939,7 +15029,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>980</v>
       </c>
@@ -14974,7 +15064,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>985</v>
       </c>
@@ -15006,7 +15096,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>987</v>
       </c>
@@ -15065,7 +15155,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>999</v>
       </c>
@@ -15121,7 +15211,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>1002</v>
       </c>
@@ -15162,7 +15252,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>1008</v>
       </c>
@@ -15206,7 +15296,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>1011</v>
       </c>
@@ -15244,7 +15334,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>1015</v>
       </c>
@@ -15276,7 +15366,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>1017</v>
       </c>
@@ -15323,7 +15413,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>1025</v>
       </c>
@@ -15361,7 +15451,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>1027</v>
       </c>
@@ -15393,7 +15483,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>1031</v>
       </c>
@@ -15434,7 +15524,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>1035</v>
       </c>
@@ -15475,7 +15565,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>1039</v>
       </c>
@@ -15510,7 +15600,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>1042</v>
       </c>
@@ -15548,7 +15638,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>1047</v>
       </c>
@@ -15580,7 +15670,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>1051</v>
       </c>
@@ -15630,7 +15720,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>1058</v>
       </c>
@@ -15677,7 +15767,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>1067</v>
       </c>
@@ -15712,7 +15802,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>1072</v>
       </c>
@@ -15747,7 +15837,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>1077</v>
       </c>
@@ -15779,7 +15869,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>1080</v>
       </c>
@@ -15811,7 +15901,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>1084</v>
       </c>
@@ -15843,7 +15933,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>1087</v>
       </c>
@@ -15875,7 +15965,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>1090</v>
       </c>
@@ -15925,7 +16015,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>1099</v>
       </c>
@@ -15972,7 +16062,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>1107</v>
       </c>
@@ -16019,7 +16109,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>1115</v>
       </c>
@@ -16054,7 +16144,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>1120</v>
       </c>
@@ -16101,7 +16191,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>1127</v>
       </c>
@@ -16123,6 +16213,9 @@
       <c r="G209" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="H209" t="s">
+        <v>2231</v>
+      </c>
       <c r="I209" s="3" t="s">
         <v>25</v>
       </c>
@@ -16133,7 +16226,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>1131</v>
       </c>
@@ -16165,7 +16258,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>1134</v>
       </c>
@@ -16197,7 +16290,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>1136</v>
       </c>
@@ -16232,7 +16325,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>1140</v>
       </c>
@@ -16273,7 +16366,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>1145</v>
       </c>
@@ -16314,7 +16407,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>1150</v>
       </c>
@@ -16355,7 +16448,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>1153</v>
       </c>
@@ -16387,7 +16480,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>1156</v>
       </c>
@@ -16434,7 +16527,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>1165</v>
       </c>
@@ -16466,7 +16559,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>1168</v>
       </c>
@@ -16501,7 +16594,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>1172</v>
       </c>
@@ -16539,7 +16632,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>1177</v>
       </c>
@@ -16580,7 +16673,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>1180</v>
       </c>
@@ -16618,7 +16711,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>1182</v>
       </c>
@@ -16671,7 +16764,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>1192</v>
       </c>
@@ -16718,7 +16811,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>1200</v>
       </c>
@@ -16750,7 +16843,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>1203</v>
       </c>
@@ -16785,7 +16878,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>1206</v>
       </c>
@@ -16835,7 +16928,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>1215</v>
       </c>
@@ -16891,7 +16984,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="229" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>1224</v>
       </c>
@@ -16947,7 +17040,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>1231</v>
       </c>
@@ -16997,7 +17090,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="231" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>1241</v>
       </c>
@@ -17038,7 +17131,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>1247</v>
       </c>
@@ -17082,7 +17175,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>1251</v>
       </c>
@@ -17126,7 +17219,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>1256</v>
       </c>
@@ -17170,7 +17263,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>1261</v>
       </c>
@@ -17214,7 +17307,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>1266</v>
       </c>
@@ -17258,7 +17351,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>1271</v>
       </c>
@@ -17302,7 +17395,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>1277</v>
       </c>
@@ -17346,7 +17439,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>1282</v>
       </c>
@@ -17387,7 +17480,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>1286</v>
       </c>
@@ -17419,7 +17512,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>1290</v>
       </c>
@@ -17463,7 +17556,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="242" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>1294</v>
       </c>
@@ -17498,7 +17591,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="243" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>1299</v>
       </c>
@@ -17542,7 +17635,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="244" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>1305</v>
       </c>
@@ -17583,7 +17676,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="245" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>1311</v>
       </c>
@@ -17621,7 +17714,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="246" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>1314</v>
       </c>
@@ -17662,7 +17755,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="247" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>1318</v>
       </c>
@@ -17703,7 +17796,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>1319</v>
       </c>
@@ -17735,7 +17828,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>1323</v>
       </c>
@@ -17770,7 +17863,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="250" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>1327</v>
       </c>
@@ -17817,7 +17910,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>1336</v>
       </c>
@@ -17849,7 +17942,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>1339</v>
       </c>
@@ -17890,7 +17983,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>1344</v>
       </c>
@@ -17922,7 +18015,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>1348</v>
       </c>
@@ -17954,7 +18047,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="255" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>1352</v>
       </c>
@@ -17992,7 +18085,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="256" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>1357</v>
       </c>
@@ -18033,7 +18126,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="257" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>1360</v>
       </c>
@@ -18074,7 +18167,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="258" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>1364</v>
       </c>
@@ -18112,7 +18205,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="259" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>1366</v>
       </c>
@@ -18144,7 +18237,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="260" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>1370</v>
       </c>
@@ -18200,7 +18293,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="261" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>1380</v>
       </c>
@@ -18256,9 +18349,9 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="262" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="B262" t="s">
         <v>22</v>
@@ -18267,19 +18360,19 @@
         <v>53</v>
       </c>
       <c r="D262" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="E262" s="3">
         <v>2022</v>
       </c>
       <c r="F262" t="s">
+        <v>2222</v>
+      </c>
+      <c r="G262" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H262" t="s">
         <v>2223</v>
-      </c>
-      <c r="G262" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H262" t="s">
-        <v>2224</v>
       </c>
       <c r="I262" s="3" t="s">
         <v>25</v>
@@ -18291,22 +18384,22 @@
         <v>171</v>
       </c>
       <c r="Q262" t="s">
+        <v>2224</v>
+      </c>
+      <c r="R262" t="s">
         <v>2225</v>
       </c>
-      <c r="R262" t="s">
+      <c r="S262" t="s">
         <v>2226</v>
       </c>
-      <c r="S262" t="s">
+      <c r="T262" t="s">
         <v>2227</v>
       </c>
-      <c r="T262" t="s">
+      <c r="U262" t="s">
         <v>2228</v>
       </c>
-      <c r="U262" t="s">
-        <v>2229</v>
-      </c>
-    </row>
-    <row r="263" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="263" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>1385</v>
       </c>
@@ -18344,7 +18437,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="264" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>1389</v>
       </c>
@@ -18385,7 +18478,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="265" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>1394</v>
       </c>
@@ -18417,7 +18510,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="266" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>1397</v>
       </c>
@@ -18452,7 +18545,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="267" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>1402</v>
       </c>
@@ -18487,7 +18580,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="268" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>1406</v>
       </c>
@@ -18519,7 +18612,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="269" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>1410</v>
       </c>
@@ -18551,7 +18644,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="270" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>1412</v>
       </c>
@@ -18595,7 +18688,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="271" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>1418</v>
       </c>
@@ -18648,7 +18741,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="272" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>1428</v>
       </c>
@@ -18695,7 +18788,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="273" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>1435</v>
       </c>
@@ -18727,7 +18820,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="274" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>1438</v>
       </c>
@@ -18759,7 +18852,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="275" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>1442</v>
       </c>
@@ -18791,7 +18884,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="276" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>1446</v>
       </c>
@@ -18823,7 +18916,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="277" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>1448</v>
       </c>
@@ -18855,7 +18948,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="278" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>1452</v>
       </c>
@@ -18893,7 +18986,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="279" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>1456</v>
       </c>
@@ -18943,7 +19036,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="280" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>1466</v>
       </c>
@@ -18978,7 +19071,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="281" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>1470</v>
       </c>
@@ -19010,7 +19103,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="282" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>1474</v>
       </c>
@@ -19060,7 +19153,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="283" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>1482</v>
       </c>
@@ -19098,7 +19191,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="284" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>1487</v>
       </c>
@@ -19136,7 +19229,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="285" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>1488</v>
       </c>
@@ -19186,7 +19279,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="286" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>1495</v>
       </c>
@@ -19218,7 +19311,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="287" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>1497</v>
       </c>
@@ -19256,7 +19349,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="288" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>1499</v>
       </c>
@@ -19297,7 +19390,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="289" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>1503</v>
       </c>
@@ -19341,7 +19434,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="290" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>1511</v>
       </c>
@@ -19379,7 +19472,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="291" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>1513</v>
       </c>
@@ -19432,7 +19525,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="292" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>1523</v>
       </c>
@@ -19488,7 +19581,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="293" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>1527</v>
       </c>
@@ -19541,9 +19634,9 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="294" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="B294" t="s">
         <v>22</v>
@@ -19552,13 +19645,13 @@
         <v>53</v>
       </c>
       <c r="D294" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="E294" s="3">
         <v>2023</v>
       </c>
       <c r="F294" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="G294" s="3" t="s">
         <v>31</v>
@@ -19570,22 +19663,22 @@
         <v>101</v>
       </c>
       <c r="O294" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="Q294" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="R294" t="s">
         <v>1021</v>
       </c>
       <c r="S294" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="U294" t="s">
-        <v>2202</v>
-      </c>
-    </row>
-    <row r="295" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="295" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>1530</v>
       </c>
@@ -19620,7 +19713,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="296" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>1535</v>
       </c>
@@ -19652,7 +19745,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="297" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>1538</v>
       </c>
@@ -19693,7 +19786,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="298" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>1544</v>
       </c>
@@ -19716,13 +19809,13 @@
         <v>31</v>
       </c>
       <c r="H298" t="s">
+        <v>2229</v>
+      </c>
+      <c r="I298" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K298" t="s">
         <v>1547</v>
-      </c>
-      <c r="I298" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K298" t="s">
-        <v>1548</v>
       </c>
       <c r="L298" s="3" t="s">
         <v>31</v>
@@ -19731,30 +19824,30 @@
         <v>42</v>
       </c>
       <c r="O298" t="s">
+        <v>1548</v>
+      </c>
+      <c r="P298" t="s">
         <v>1549</v>
       </c>
-      <c r="P298" t="s">
+      <c r="Q298" t="s">
         <v>1550</v>
       </c>
-      <c r="Q298" t="s">
+      <c r="R298" t="s">
         <v>1551</v>
       </c>
-      <c r="R298" t="s">
+      <c r="S298" t="s">
         <v>1552</v>
-      </c>
-      <c r="S298" t="s">
-        <v>1553</v>
       </c>
       <c r="T298" t="s">
         <v>894</v>
       </c>
       <c r="U298" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="299" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
         <v>1554</v>
-      </c>
-    </row>
-    <row r="299" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
-        <v>1555</v>
       </c>
       <c r="B299" t="s">
         <v>397</v>
@@ -19763,7 +19856,7 @@
         <v>23</v>
       </c>
       <c r="D299" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="E299" s="3">
         <v>2019</v>
@@ -19775,7 +19868,7 @@
         <v>31</v>
       </c>
       <c r="H299" t="s">
-        <v>1547</v>
+        <v>2229</v>
       </c>
       <c r="I299" s="3" t="s">
         <v>31</v>
@@ -19784,7 +19877,7 @@
         <v>1545</v>
       </c>
       <c r="K299" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="L299" s="3" t="s">
         <v>31</v>
@@ -19793,30 +19886,30 @@
         <v>42</v>
       </c>
       <c r="O299" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="P299" t="s">
+        <v>1557</v>
+      </c>
+      <c r="Q299" t="s">
         <v>1558</v>
       </c>
-      <c r="Q299" t="s">
+      <c r="R299" t="s">
+        <v>1551</v>
+      </c>
+      <c r="S299" t="s">
+        <v>1552</v>
+      </c>
+      <c r="T299" t="s">
         <v>1559</v>
       </c>
-      <c r="R299" t="s">
-        <v>1552</v>
-      </c>
-      <c r="S299" t="s">
-        <v>1553</v>
-      </c>
-      <c r="T299" t="s">
+      <c r="U299" t="s">
         <v>1560</v>
       </c>
-      <c r="U299" t="s">
+    </row>
+    <row r="300" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
         <v>1561</v>
-      </c>
-    </row>
-    <row r="300" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
-        <v>1562</v>
       </c>
       <c r="B300" t="s">
         <v>397</v>
@@ -19825,7 +19918,7 @@
         <v>23</v>
       </c>
       <c r="D300" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="E300" s="3">
         <v>2020</v>
@@ -19837,16 +19930,16 @@
         <v>31</v>
       </c>
       <c r="H300" t="s">
-        <v>1547</v>
+        <v>2229</v>
       </c>
       <c r="I300" s="3" t="s">
         <v>31</v>
       </c>
       <c r="J300" t="s">
+        <v>1563</v>
+      </c>
+      <c r="K300" t="s">
         <v>1564</v>
-      </c>
-      <c r="K300" t="s">
-        <v>1565</v>
       </c>
       <c r="L300" s="3" t="s">
         <v>31</v>
@@ -19855,30 +19948,30 @@
         <v>42</v>
       </c>
       <c r="O300" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="P300" t="s">
+        <v>1565</v>
+      </c>
+      <c r="Q300" t="s">
         <v>1566</v>
       </c>
-      <c r="Q300" t="s">
+      <c r="R300" t="s">
+        <v>1551</v>
+      </c>
+      <c r="S300" t="s">
+        <v>1552</v>
+      </c>
+      <c r="T300" t="s">
         <v>1567</v>
       </c>
-      <c r="R300" t="s">
-        <v>1552</v>
-      </c>
-      <c r="S300" t="s">
-        <v>1553</v>
-      </c>
-      <c r="T300" t="s">
+      <c r="U300" t="s">
         <v>1568</v>
       </c>
-      <c r="U300" t="s">
+    </row>
+    <row r="301" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
         <v>1569</v>
-      </c>
-    </row>
-    <row r="301" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
-        <v>1570</v>
       </c>
       <c r="B301" t="s">
         <v>397</v>
@@ -19887,7 +19980,7 @@
         <v>23</v>
       </c>
       <c r="D301" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="E301" s="3">
         <v>2022</v>
@@ -19899,13 +19992,13 @@
         <v>31</v>
       </c>
       <c r="H301" t="s">
-        <v>1547</v>
+        <v>2229</v>
       </c>
       <c r="I301" s="3" t="s">
         <v>31</v>
       </c>
       <c r="J301" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="L301" s="3" t="s">
         <v>31</v>
@@ -19914,83 +20007,83 @@
         <v>42</v>
       </c>
       <c r="O301" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="P301" t="s">
+        <v>1571</v>
+      </c>
+      <c r="Q301" t="s">
         <v>1572</v>
       </c>
-      <c r="Q301" t="s">
+      <c r="R301" t="s">
+        <v>1551</v>
+      </c>
+      <c r="S301" t="s">
+        <v>1552</v>
+      </c>
+      <c r="T301" t="s">
+        <v>1567</v>
+      </c>
+      <c r="U301" t="s">
         <v>1573</v>
       </c>
-      <c r="R301" t="s">
-        <v>1552</v>
-      </c>
-      <c r="S301" t="s">
-        <v>1553</v>
-      </c>
-      <c r="T301" t="s">
-        <v>1568</v>
-      </c>
-      <c r="U301" t="s">
+    </row>
+    <row r="302" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
         <v>1574</v>
       </c>
-    </row>
-    <row r="302" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A302" t="s">
+      <c r="B302" t="s">
+        <v>22</v>
+      </c>
+      <c r="C302" t="s">
+        <v>23</v>
+      </c>
+      <c r="D302" t="s">
         <v>1575</v>
-      </c>
-      <c r="B302" t="s">
-        <v>22</v>
-      </c>
-      <c r="C302" t="s">
-        <v>23</v>
-      </c>
-      <c r="D302" t="s">
-        <v>1576</v>
       </c>
       <c r="E302" s="3">
         <v>2008</v>
       </c>
       <c r="F302" t="s">
+        <v>1576</v>
+      </c>
+      <c r="G302" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I302" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L302" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M302" t="s">
         <v>1577</v>
-      </c>
-      <c r="G302" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I302" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L302" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M302" t="s">
-        <v>1578</v>
       </c>
       <c r="N302" s="3">
         <v>104</v>
       </c>
       <c r="O302" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="303" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
         <v>1579</v>
       </c>
-    </row>
-    <row r="303" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A303" t="s">
+      <c r="B303" t="s">
+        <v>22</v>
+      </c>
+      <c r="C303" t="s">
+        <v>23</v>
+      </c>
+      <c r="D303" t="s">
         <v>1580</v>
-      </c>
-      <c r="B303" t="s">
-        <v>22</v>
-      </c>
-      <c r="C303" t="s">
-        <v>23</v>
-      </c>
-      <c r="D303" t="s">
-        <v>1581</v>
       </c>
       <c r="E303" s="3">
         <v>2017</v>
       </c>
       <c r="F303" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="G303" s="3" t="s">
         <v>25</v>
@@ -20005,24 +20098,24 @@
         <v>36</v>
       </c>
     </row>
-    <row r="304" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B304" t="s">
+        <v>22</v>
+      </c>
+      <c r="C304" t="s">
+        <v>23</v>
+      </c>
+      <c r="D304" t="s">
         <v>1582</v>
-      </c>
-      <c r="B304" t="s">
-        <v>22</v>
-      </c>
-      <c r="C304" t="s">
-        <v>23</v>
-      </c>
-      <c r="D304" t="s">
-        <v>1583</v>
       </c>
       <c r="E304" s="3">
         <v>2022</v>
       </c>
       <c r="F304" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="G304" s="3" t="s">
         <v>25</v>
@@ -20037,27 +20130,27 @@
         <v>204</v>
       </c>
       <c r="P304" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="305" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
         <v>1585</v>
       </c>
-    </row>
-    <row r="305" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A305" t="s">
+      <c r="B305" t="s">
+        <v>22</v>
+      </c>
+      <c r="C305" t="s">
+        <v>23</v>
+      </c>
+      <c r="D305" t="s">
         <v>1586</v>
-      </c>
-      <c r="B305" t="s">
-        <v>22</v>
-      </c>
-      <c r="C305" t="s">
-        <v>23</v>
-      </c>
-      <c r="D305" t="s">
-        <v>1587</v>
       </c>
       <c r="E305" s="3">
         <v>2010</v>
       </c>
       <c r="F305" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="G305" s="3" t="s">
         <v>31</v>
@@ -20069,7 +20162,7 @@
         <v>1141</v>
       </c>
       <c r="K305" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="L305" s="3" t="s">
         <v>25</v>
@@ -20084,9 +20177,9 @@
         <v>760</v>
       </c>
     </row>
-    <row r="306" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="B306" t="s">
         <v>22</v>
@@ -20095,13 +20188,13 @@
         <v>23</v>
       </c>
       <c r="D306" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="E306" s="3">
         <v>2013</v>
       </c>
       <c r="F306" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="G306" s="3" t="s">
         <v>31</v>
@@ -20110,7 +20203,7 @@
         <v>31</v>
       </c>
       <c r="J306" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="L306" s="3" t="s">
         <v>25</v>
@@ -20125,9 +20218,9 @@
         <v>760</v>
       </c>
     </row>
-    <row r="307" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="B307" t="s">
         <v>22</v>
@@ -20136,13 +20229,13 @@
         <v>53</v>
       </c>
       <c r="D307" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="E307" s="3">
         <v>2023</v>
       </c>
       <c r="F307" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="G307" s="3" t="s">
         <v>31</v>
@@ -20157,39 +20250,39 @@
         <v>1070</v>
       </c>
       <c r="Q307" t="s">
+        <v>2215</v>
+      </c>
+      <c r="R307" t="s">
+        <v>2217</v>
+      </c>
+      <c r="S307" t="s">
+        <v>2218</v>
+      </c>
+      <c r="T307" t="s">
+        <v>2219</v>
+      </c>
+      <c r="U307" t="s">
         <v>2216</v>
       </c>
-      <c r="R307" t="s">
-        <v>2218</v>
-      </c>
-      <c r="S307" t="s">
-        <v>2219</v>
-      </c>
-      <c r="T307" t="s">
-        <v>2220</v>
-      </c>
-      <c r="U307" t="s">
-        <v>2217</v>
-      </c>
-    </row>
-    <row r="308" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="308" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B308" t="s">
+        <v>22</v>
+      </c>
+      <c r="C308" t="s">
+        <v>23</v>
+      </c>
+      <c r="D308" t="s">
         <v>1592</v>
-      </c>
-      <c r="B308" t="s">
-        <v>22</v>
-      </c>
-      <c r="C308" t="s">
-        <v>23</v>
-      </c>
-      <c r="D308" t="s">
-        <v>1593</v>
       </c>
       <c r="E308" s="3">
         <v>2013</v>
       </c>
       <c r="F308" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="G308" s="3" t="s">
         <v>31</v>
@@ -20204,9 +20297,9 @@
         <v>747</v>
       </c>
     </row>
-    <row r="309" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="B309" t="s">
         <v>22</v>
@@ -20215,57 +20308,57 @@
         <v>53</v>
       </c>
       <c r="D309" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="E309" s="3">
         <v>1967</v>
       </c>
       <c r="F309" t="s">
+        <v>1596</v>
+      </c>
+      <c r="G309" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I309" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L309" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M309" t="s">
         <v>1597</v>
-      </c>
-      <c r="G309" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I309" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L309" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M309" t="s">
-        <v>1598</v>
       </c>
       <c r="N309" s="3">
         <v>65</v>
       </c>
       <c r="O309" t="s">
+        <v>1598</v>
+      </c>
+      <c r="P309" t="s">
         <v>1599</v>
       </c>
-      <c r="P309" t="s">
+      <c r="Q309" t="s">
+        <v>1596</v>
+      </c>
+      <c r="R309" t="s">
         <v>1600</v>
       </c>
-      <c r="Q309" t="s">
-        <v>1597</v>
-      </c>
-      <c r="R309" t="s">
+      <c r="U309" t="s">
         <v>1601</v>
       </c>
-      <c r="U309" t="s">
+    </row>
+    <row r="310" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
         <v>1602</v>
       </c>
-    </row>
-    <row r="310" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A310" t="s">
+      <c r="B310" t="s">
+        <v>22</v>
+      </c>
+      <c r="C310" t="s">
+        <v>23</v>
+      </c>
+      <c r="D310" t="s">
         <v>1603</v>
-      </c>
-      <c r="B310" t="s">
-        <v>22</v>
-      </c>
-      <c r="C310" t="s">
-        <v>23</v>
-      </c>
-      <c r="D310" t="s">
-        <v>1604</v>
       </c>
       <c r="E310" s="3">
         <v>2012</v>
@@ -20283,12 +20376,12 @@
         <v>114</v>
       </c>
       <c r="O310" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="311" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
         <v>1605</v>
-      </c>
-    </row>
-    <row r="311" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A311" t="s">
-        <v>1606</v>
       </c>
       <c r="B311" t="s">
         <v>22</v>
@@ -20297,7 +20390,7 @@
         <v>53</v>
       </c>
       <c r="D311" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="E311" s="3">
         <v>2017</v>
@@ -20330,9 +20423,9 @@
         <v>827</v>
       </c>
     </row>
-    <row r="312" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="B312" t="s">
         <v>22</v>
@@ -20341,7 +20434,7 @@
         <v>53</v>
       </c>
       <c r="D312" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="E312" s="3">
         <v>2019</v>
@@ -20352,6 +20445,9 @@
       <c r="G312" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="H312" t="s">
+        <v>2230</v>
+      </c>
       <c r="I312" s="3" t="s">
         <v>31</v>
       </c>
@@ -20359,51 +20455,51 @@
         <v>25</v>
       </c>
       <c r="M312" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="N312" s="3">
         <v>131</v>
       </c>
       <c r="O312" t="s">
+        <v>1610</v>
+      </c>
+      <c r="P312" t="s">
         <v>1611</v>
-      </c>
-      <c r="P312" t="s">
-        <v>1612</v>
       </c>
       <c r="Q312" t="s">
         <v>832</v>
       </c>
       <c r="R312" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="S312" t="s">
         <v>834</v>
       </c>
       <c r="T312" t="s">
+        <v>1613</v>
+      </c>
+      <c r="U312" t="s">
         <v>1614</v>
       </c>
-      <c r="U312" t="s">
+    </row>
+    <row r="313" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
         <v>1615</v>
       </c>
-    </row>
-    <row r="313" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A313" t="s">
+      <c r="B313" t="s">
+        <v>22</v>
+      </c>
+      <c r="C313" t="s">
+        <v>23</v>
+      </c>
+      <c r="D313" t="s">
         <v>1616</v>
-      </c>
-      <c r="B313" t="s">
-        <v>22</v>
-      </c>
-      <c r="C313" t="s">
-        <v>23</v>
-      </c>
-      <c r="D313" t="s">
-        <v>1617</v>
       </c>
       <c r="E313" s="3">
         <v>1985</v>
       </c>
       <c r="F313" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="G313" s="3" t="s">
         <v>25</v>
@@ -20415,27 +20511,27 @@
         <v>110</v>
       </c>
       <c r="O313" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="314" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
         <v>1619</v>
       </c>
-    </row>
-    <row r="314" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A314" t="s">
+      <c r="B314" t="s">
+        <v>22</v>
+      </c>
+      <c r="C314" t="s">
+        <v>23</v>
+      </c>
+      <c r="D314" t="s">
         <v>1620</v>
-      </c>
-      <c r="B314" t="s">
-        <v>22</v>
-      </c>
-      <c r="C314" t="s">
-        <v>23</v>
-      </c>
-      <c r="D314" t="s">
-        <v>1621</v>
       </c>
       <c r="E314" s="3">
         <v>2014</v>
       </c>
       <c r="F314" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="G314" s="3" t="s">
         <v>31</v>
@@ -20450,39 +20546,39 @@
         <v>204</v>
       </c>
     </row>
-    <row r="315" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B315" t="s">
+        <v>22</v>
+      </c>
+      <c r="C315" t="s">
+        <v>23</v>
+      </c>
+      <c r="D315" t="s">
         <v>1623</v>
-      </c>
-      <c r="B315" t="s">
-        <v>22</v>
-      </c>
-      <c r="C315" t="s">
-        <v>23</v>
-      </c>
-      <c r="D315" t="s">
-        <v>1624</v>
       </c>
       <c r="E315" s="3">
         <v>1995</v>
       </c>
       <c r="F315" t="s">
+        <v>1624</v>
+      </c>
+      <c r="G315" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I315" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K315" t="s">
         <v>1625</v>
       </c>
-      <c r="G315" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I315" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K315" t="s">
+      <c r="L315" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M315" t="s">
         <v>1626</v>
-      </c>
-      <c r="L315" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M315" t="s">
-        <v>1627</v>
       </c>
       <c r="N315" s="3">
         <v>101</v>
@@ -20491,25 +20587,25 @@
         <v>1275</v>
       </c>
       <c r="Q315" t="s">
+        <v>1627</v>
+      </c>
+      <c r="R315" t="s">
         <v>1628</v>
       </c>
-      <c r="R315" t="s">
+      <c r="S315" t="s">
         <v>1629</v>
       </c>
-      <c r="S315" t="s">
+      <c r="T315" t="s">
         <v>1630</v>
       </c>
-      <c r="T315" t="s">
+      <c r="U315" t="s">
         <v>1631</v>
       </c>
-      <c r="U315" t="s">
+    </row>
+    <row r="316" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
         <v>1632</v>
       </c>
-    </row>
-    <row r="316" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A316" t="s">
-        <v>1633</v>
-      </c>
       <c r="B316" t="s">
         <v>22</v>
       </c>
@@ -20517,13 +20613,13 @@
         <v>23</v>
       </c>
       <c r="D316" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="E316" s="3">
         <v>2004</v>
       </c>
       <c r="F316" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="G316" s="3" t="s">
         <v>25</v>
@@ -20532,13 +20628,13 @@
         <v>31</v>
       </c>
       <c r="J316" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="L316" s="3" t="s">
         <v>25</v>
       </c>
       <c r="M316" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="N316" s="3">
         <v>80</v>
@@ -20547,39 +20643,39 @@
         <v>862</v>
       </c>
       <c r="Q316" t="s">
+        <v>1633</v>
+      </c>
+      <c r="R316" t="s">
         <v>1634</v>
       </c>
-      <c r="R316" t="s">
+      <c r="S316" t="s">
+        <v>1629</v>
+      </c>
+      <c r="T316" t="s">
         <v>1635</v>
       </c>
-      <c r="S316" t="s">
-        <v>1630</v>
-      </c>
-      <c r="T316" t="s">
+      <c r="U316" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="317" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
         <v>1636</v>
       </c>
-      <c r="U316" t="s">
-        <v>1632</v>
-      </c>
-    </row>
-    <row r="317" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A317" t="s">
+      <c r="B317" t="s">
+        <v>22</v>
+      </c>
+      <c r="C317" t="s">
+        <v>23</v>
+      </c>
+      <c r="D317" t="s">
         <v>1637</v>
-      </c>
-      <c r="B317" t="s">
-        <v>22</v>
-      </c>
-      <c r="C317" t="s">
-        <v>23</v>
-      </c>
-      <c r="D317" t="s">
-        <v>1638</v>
       </c>
       <c r="E317" s="3">
         <v>2019</v>
       </c>
       <c r="F317" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="G317" s="3" t="s">
         <v>31</v>
@@ -20594,54 +20690,54 @@
         <v>204</v>
       </c>
       <c r="P317" t="s">
+        <v>1638</v>
+      </c>
+      <c r="Q317" t="s">
         <v>1639</v>
       </c>
-      <c r="Q317" t="s">
+      <c r="R317" t="s">
         <v>1640</v>
       </c>
-      <c r="R317" t="s">
+      <c r="S317" t="s">
         <v>1641</v>
       </c>
-      <c r="S317" t="s">
+      <c r="T317" t="s">
         <v>1642</v>
       </c>
-      <c r="T317" t="s">
+      <c r="U317" t="s">
         <v>1643</v>
       </c>
-      <c r="U317" t="s">
+    </row>
+    <row r="318" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
         <v>1644</v>
       </c>
-    </row>
-    <row r="318" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A318" t="s">
+      <c r="B318" t="s">
+        <v>22</v>
+      </c>
+      <c r="C318" t="s">
+        <v>23</v>
+      </c>
+      <c r="D318" t="s">
         <v>1645</v>
-      </c>
-      <c r="B318" t="s">
-        <v>22</v>
-      </c>
-      <c r="C318" t="s">
-        <v>23</v>
-      </c>
-      <c r="D318" t="s">
-        <v>1646</v>
       </c>
       <c r="E318" s="3">
         <v>1982</v>
       </c>
       <c r="F318" t="s">
+        <v>1646</v>
+      </c>
+      <c r="G318" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I318" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L318" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M318" t="s">
         <v>1647</v>
-      </c>
-      <c r="G318" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I318" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L318" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M318" t="s">
-        <v>1648</v>
       </c>
       <c r="N318" s="3">
         <v>113</v>
@@ -20650,12 +20746,12 @@
         <v>55</v>
       </c>
       <c r="P318" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="319" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
         <v>1649</v>
-      </c>
-    </row>
-    <row r="319" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A319" t="s">
-        <v>1650</v>
       </c>
       <c r="B319" t="s">
         <v>22</v>
@@ -20664,13 +20760,13 @@
         <v>53</v>
       </c>
       <c r="D319" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="E319" s="3">
         <v>2014</v>
       </c>
       <c r="F319" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="G319" s="3" t="s">
         <v>25</v>
@@ -20682,12 +20778,12 @@
         <v>150</v>
       </c>
       <c r="O319" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="320" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
         <v>1652</v>
-      </c>
-    </row>
-    <row r="320" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A320" t="s">
-        <v>1653</v>
       </c>
       <c r="B320" t="s">
         <v>22</v>
@@ -20696,13 +20792,13 @@
         <v>53</v>
       </c>
       <c r="D320" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="E320" s="3">
         <v>2015</v>
       </c>
       <c r="F320" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="G320" s="3" t="s">
         <v>31</v>
@@ -20714,27 +20810,27 @@
         <v>142</v>
       </c>
       <c r="O320" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="321" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
         <v>1655</v>
       </c>
-    </row>
-    <row r="321" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A321" t="s">
+      <c r="B321" t="s">
+        <v>22</v>
+      </c>
+      <c r="C321" t="s">
+        <v>23</v>
+      </c>
+      <c r="D321" t="s">
         <v>1656</v>
-      </c>
-      <c r="B321" t="s">
-        <v>22</v>
-      </c>
-      <c r="C321" t="s">
-        <v>23</v>
-      </c>
-      <c r="D321" t="s">
-        <v>1657</v>
       </c>
       <c r="E321" s="3">
         <v>2021</v>
       </c>
       <c r="F321" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="G321" s="3" t="s">
         <v>31</v>
@@ -20749,9 +20845,9 @@
         <v>361</v>
       </c>
     </row>
-    <row r="322" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="B322" t="s">
         <v>22</v>
@@ -20760,13 +20856,13 @@
         <v>53</v>
       </c>
       <c r="D322" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="E322" s="3">
         <v>2021</v>
       </c>
       <c r="F322" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="G322" s="3" t="s">
         <v>31</v>
@@ -20781,27 +20877,27 @@
         <v>141</v>
       </c>
       <c r="P322" t="s">
+        <v>1659</v>
+      </c>
+      <c r="Q322" t="s">
         <v>1660</v>
       </c>
-      <c r="Q322" t="s">
+      <c r="R322" t="s">
         <v>1661</v>
       </c>
-      <c r="R322" t="s">
+      <c r="S322" t="s">
         <v>1662</v>
       </c>
-      <c r="S322" t="s">
+      <c r="T322" t="s">
         <v>1663</v>
       </c>
-      <c r="T322" t="s">
+      <c r="U322" t="s">
         <v>1664</v>
       </c>
-      <c r="U322" t="s">
+    </row>
+    <row r="323" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
         <v>1665</v>
-      </c>
-    </row>
-    <row r="323" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A323" t="s">
-        <v>1666</v>
       </c>
       <c r="B323" t="s">
         <v>22</v>
@@ -20810,13 +20906,13 @@
         <v>53</v>
       </c>
       <c r="D323" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="E323" s="3">
         <v>2018</v>
       </c>
       <c r="F323" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="G323" s="3" t="s">
         <v>31</v>
@@ -20828,27 +20924,27 @@
         <v>118</v>
       </c>
       <c r="O323" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="324" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
         <v>1669</v>
       </c>
-    </row>
-    <row r="324" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A324" t="s">
+      <c r="B324" t="s">
+        <v>22</v>
+      </c>
+      <c r="C324" t="s">
+        <v>23</v>
+      </c>
+      <c r="D324" t="s">
         <v>1670</v>
-      </c>
-      <c r="B324" t="s">
-        <v>22</v>
-      </c>
-      <c r="C324" t="s">
-        <v>23</v>
-      </c>
-      <c r="D324" t="s">
-        <v>1671</v>
       </c>
       <c r="E324" s="3">
         <v>2004</v>
       </c>
       <c r="F324" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="G324" s="3" t="s">
         <v>31</v>
@@ -20863,24 +20959,24 @@
         <v>760</v>
       </c>
     </row>
-    <row r="325" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B325" t="s">
+        <v>22</v>
+      </c>
+      <c r="C325" t="s">
+        <v>23</v>
+      </c>
+      <c r="D325" t="s">
         <v>1673</v>
-      </c>
-      <c r="B325" t="s">
-        <v>22</v>
-      </c>
-      <c r="C325" t="s">
-        <v>23</v>
-      </c>
-      <c r="D325" t="s">
-        <v>1674</v>
       </c>
       <c r="E325" s="3">
         <v>2014</v>
       </c>
       <c r="F325" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="G325" s="3" t="s">
         <v>31</v>
@@ -20892,45 +20988,45 @@
         <v>120</v>
       </c>
       <c r="O325" t="s">
+        <v>1675</v>
+      </c>
+      <c r="P325" t="s">
         <v>1676</v>
       </c>
-      <c r="P325" t="s">
+      <c r="Q325" t="s">
         <v>1677</v>
       </c>
-      <c r="Q325" t="s">
+      <c r="R325" t="s">
         <v>1678</v>
       </c>
-      <c r="R325" t="s">
+      <c r="S325" t="s">
         <v>1679</v>
-      </c>
-      <c r="S325" t="s">
-        <v>1680</v>
       </c>
       <c r="T325" t="s">
         <v>916</v>
       </c>
       <c r="U325" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="326" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
         <v>1681</v>
       </c>
-    </row>
-    <row r="326" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A326" t="s">
+      <c r="B326" t="s">
+        <v>22</v>
+      </c>
+      <c r="C326" t="s">
+        <v>23</v>
+      </c>
+      <c r="D326" t="s">
         <v>1682</v>
-      </c>
-      <c r="B326" t="s">
-        <v>22</v>
-      </c>
-      <c r="C326" t="s">
-        <v>23</v>
-      </c>
-      <c r="D326" t="s">
-        <v>1683</v>
       </c>
       <c r="E326" s="3">
         <v>2018</v>
       </c>
       <c r="F326" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="G326" s="3" t="s">
         <v>31</v>
@@ -20939,7 +21035,7 @@
         <v>31</v>
       </c>
       <c r="J326" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="L326" s="3" t="s">
         <v>31</v>
@@ -20948,27 +21044,27 @@
         <v>125</v>
       </c>
       <c r="O326" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="327" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
         <v>1685</v>
       </c>
-    </row>
-    <row r="327" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A327" t="s">
+      <c r="B327" t="s">
+        <v>22</v>
+      </c>
+      <c r="C327" t="s">
+        <v>23</v>
+      </c>
+      <c r="D327" t="s">
         <v>1686</v>
-      </c>
-      <c r="B327" t="s">
-        <v>22</v>
-      </c>
-      <c r="C327" t="s">
-        <v>23</v>
-      </c>
-      <c r="D327" t="s">
-        <v>1687</v>
       </c>
       <c r="E327" s="3">
         <v>2001</v>
       </c>
       <c r="F327" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="G327" s="3" t="s">
         <v>25</v>
@@ -20980,27 +21076,27 @@
         <v>90</v>
       </c>
       <c r="O327" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="328" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
         <v>1689</v>
       </c>
-    </row>
-    <row r="328" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A328" t="s">
+      <c r="B328" t="s">
+        <v>22</v>
+      </c>
+      <c r="C328" t="s">
+        <v>23</v>
+      </c>
+      <c r="D328" t="s">
         <v>1690</v>
-      </c>
-      <c r="B328" t="s">
-        <v>22</v>
-      </c>
-      <c r="C328" t="s">
-        <v>23</v>
-      </c>
-      <c r="D328" t="s">
-        <v>1691</v>
       </c>
       <c r="E328" s="3">
         <v>1976</v>
       </c>
       <c r="F328" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="G328" s="3" t="s">
         <v>31</v>
@@ -21015,24 +21111,24 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="329" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B329" t="s">
+        <v>22</v>
+      </c>
+      <c r="C329" t="s">
+        <v>23</v>
+      </c>
+      <c r="D329" t="s">
         <v>1693</v>
-      </c>
-      <c r="B329" t="s">
-        <v>22</v>
-      </c>
-      <c r="C329" t="s">
-        <v>23</v>
-      </c>
-      <c r="D329" t="s">
-        <v>1694</v>
       </c>
       <c r="E329" s="3">
         <v>2015</v>
       </c>
       <c r="F329" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="G329" s="3" t="s">
         <v>31</v>
@@ -21044,7 +21140,7 @@
         <v>1413</v>
       </c>
       <c r="K329" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="L329" s="3" t="s">
         <v>31</v>
@@ -21056,9 +21152,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="330" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="B330" t="s">
         <v>22</v>
@@ -21067,13 +21163,13 @@
         <v>23</v>
       </c>
       <c r="D330" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="E330" s="3">
         <v>2016</v>
       </c>
       <c r="F330" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="G330" s="3" t="s">
         <v>31</v>
@@ -21082,7 +21178,7 @@
         <v>31</v>
       </c>
       <c r="J330" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="L330" s="3" t="s">
         <v>31</v>
@@ -21091,31 +21187,31 @@
         <v>115</v>
       </c>
       <c r="O330" t="s">
+        <v>1698</v>
+      </c>
+      <c r="P330" t="s">
         <v>1699</v>
       </c>
-      <c r="P330" t="s">
+      <c r="Q330" t="s">
         <v>1700</v>
       </c>
-      <c r="Q330" t="s">
+      <c r="R330" t="s">
         <v>1701</v>
       </c>
-      <c r="R330" t="s">
+      <c r="S330" t="s">
         <v>1702</v>
-      </c>
-      <c r="S330" t="s">
-        <v>1703</v>
       </c>
       <c r="T330" t="s">
         <v>602</v>
       </c>
       <c r="U330" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="331" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
         <v>1704</v>
       </c>
-    </row>
-    <row r="331" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A331" t="s">
-        <v>1705</v>
-      </c>
       <c r="B331" t="s">
         <v>22</v>
       </c>
@@ -21123,13 +21219,13 @@
         <v>23</v>
       </c>
       <c r="D331" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="E331" s="3">
         <v>1964</v>
       </c>
       <c r="F331" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="G331" s="3" t="s">
         <v>31</v>
@@ -21138,7 +21234,7 @@
         <v>31</v>
       </c>
       <c r="K331" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="L331" s="3" t="s">
         <v>31</v>
@@ -21147,27 +21243,27 @@
         <v>134</v>
       </c>
       <c r="O331" t="s">
-        <v>1685</v>
-      </c>
-    </row>
-    <row r="332" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="332" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B332" t="s">
+        <v>22</v>
+      </c>
+      <c r="C332" t="s">
+        <v>23</v>
+      </c>
+      <c r="D332" t="s">
         <v>1707</v>
-      </c>
-      <c r="B332" t="s">
-        <v>22</v>
-      </c>
-      <c r="C332" t="s">
-        <v>23</v>
-      </c>
-      <c r="D332" t="s">
-        <v>1708</v>
       </c>
       <c r="E332" s="3">
         <v>2014</v>
       </c>
       <c r="F332" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="G332" s="3" t="s">
         <v>31</v>
@@ -21182,7 +21278,7 @@
         <v>25</v>
       </c>
       <c r="M332" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="N332" s="3">
         <v>93</v>
@@ -21191,24 +21287,24 @@
         <v>255</v>
       </c>
     </row>
-    <row r="333" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B333" t="s">
+        <v>22</v>
+      </c>
+      <c r="C333" t="s">
+        <v>23</v>
+      </c>
+      <c r="D333" t="s">
         <v>1711</v>
-      </c>
-      <c r="B333" t="s">
-        <v>22</v>
-      </c>
-      <c r="C333" t="s">
-        <v>23</v>
-      </c>
-      <c r="D333" t="s">
-        <v>1712</v>
       </c>
       <c r="E333" s="3">
         <v>1965</v>
       </c>
       <c r="F333" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="G333" s="3" t="s">
         <v>31</v>
@@ -21220,27 +21316,27 @@
         <v>168</v>
       </c>
       <c r="O333" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="334" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
         <v>1714</v>
       </c>
-    </row>
-    <row r="334" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A334" t="s">
+      <c r="B334" t="s">
+        <v>22</v>
+      </c>
+      <c r="C334" t="s">
+        <v>23</v>
+      </c>
+      <c r="D334" t="s">
         <v>1715</v>
-      </c>
-      <c r="B334" t="s">
-        <v>22</v>
-      </c>
-      <c r="C334" t="s">
-        <v>23</v>
-      </c>
-      <c r="D334" t="s">
-        <v>1716</v>
       </c>
       <c r="E334" s="3">
         <v>2001</v>
       </c>
       <c r="F334" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="G334" s="3" t="s">
         <v>25</v>
@@ -21252,45 +21348,45 @@
         <v>130</v>
       </c>
       <c r="O334" t="s">
+        <v>1717</v>
+      </c>
+      <c r="P334" t="s">
         <v>1718</v>
       </c>
-      <c r="P334" t="s">
+      <c r="Q334" t="s">
         <v>1719</v>
-      </c>
-      <c r="Q334" t="s">
-        <v>1720</v>
       </c>
       <c r="R334" t="s">
         <v>852</v>
       </c>
       <c r="S334" t="s">
+        <v>1720</v>
+      </c>
+      <c r="T334" t="s">
         <v>1721</v>
       </c>
-      <c r="T334" t="s">
+      <c r="U334" t="s">
         <v>1722</v>
       </c>
-      <c r="U334" t="s">
+    </row>
+    <row r="335" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
         <v>1723</v>
       </c>
-    </row>
-    <row r="335" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A335" t="s">
+      <c r="B335" t="s">
+        <v>22</v>
+      </c>
+      <c r="C335" t="s">
+        <v>23</v>
+      </c>
+      <c r="D335" t="s">
         <v>1724</v>
-      </c>
-      <c r="B335" t="s">
-        <v>22</v>
-      </c>
-      <c r="C335" t="s">
-        <v>23</v>
-      </c>
-      <c r="D335" t="s">
-        <v>1725</v>
       </c>
       <c r="E335" s="3">
         <v>2006</v>
       </c>
       <c r="F335" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="G335" s="3" t="s">
         <v>31</v>
@@ -21299,13 +21395,13 @@
         <v>31</v>
       </c>
       <c r="K335" t="s">
+        <v>1725</v>
+      </c>
+      <c r="L335" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M335" t="s">
         <v>1726</v>
-      </c>
-      <c r="L335" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M335" t="s">
-        <v>1727</v>
       </c>
       <c r="N335" s="3">
         <v>167</v>
@@ -21314,9 +21410,9 @@
         <v>165</v>
       </c>
     </row>
-    <row r="336" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="B336" t="s">
         <v>22</v>
@@ -21325,13 +21421,13 @@
         <v>23</v>
       </c>
       <c r="D336" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="E336" s="3">
         <v>2009</v>
       </c>
       <c r="F336" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="G336" s="3" t="s">
         <v>31</v>
@@ -21340,13 +21436,13 @@
         <v>31</v>
       </c>
       <c r="J336" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="L336" s="3" t="s">
         <v>25</v>
       </c>
       <c r="M336" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="N336" s="3">
         <v>138</v>
@@ -21355,27 +21451,27 @@
         <v>165</v>
       </c>
       <c r="P336" t="s">
+        <v>1728</v>
+      </c>
+      <c r="Q336" t="s">
         <v>1729</v>
-      </c>
-      <c r="Q336" t="s">
-        <v>1730</v>
       </c>
       <c r="R336" t="s">
         <v>319</v>
       </c>
       <c r="S336" t="s">
+        <v>1730</v>
+      </c>
+      <c r="T336" t="s">
         <v>1731</v>
       </c>
-      <c r="T336" t="s">
+      <c r="U336" t="s">
         <v>1732</v>
       </c>
-      <c r="U336" t="s">
+    </row>
+    <row r="337" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
         <v>1733</v>
-      </c>
-    </row>
-    <row r="337" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A337" t="s">
-        <v>1734</v>
       </c>
       <c r="B337" t="s">
         <v>397</v>
@@ -21384,13 +21480,13 @@
         <v>23</v>
       </c>
       <c r="D337" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="E337" s="3">
         <v>1990</v>
       </c>
       <c r="F337" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="G337" s="3" t="s">
         <v>31</v>
@@ -21405,33 +21501,33 @@
         <v>171</v>
       </c>
     </row>
-    <row r="338" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B338" t="s">
+        <v>22</v>
+      </c>
+      <c r="C338" t="s">
+        <v>23</v>
+      </c>
+      <c r="D338" t="s">
         <v>1737</v>
-      </c>
-      <c r="B338" t="s">
-        <v>22</v>
-      </c>
-      <c r="C338" t="s">
-        <v>23</v>
-      </c>
-      <c r="D338" t="s">
-        <v>1738</v>
       </c>
       <c r="E338" s="3">
         <v>2009</v>
       </c>
       <c r="F338" t="s">
+        <v>1738</v>
+      </c>
+      <c r="G338" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I338" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K338" t="s">
         <v>1739</v>
-      </c>
-      <c r="G338" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I338" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K338" t="s">
-        <v>1740</v>
       </c>
       <c r="L338" s="3" t="s">
         <v>31</v>
@@ -21440,27 +21536,27 @@
         <v>84</v>
       </c>
       <c r="O338" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="339" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
         <v>1741</v>
       </c>
-    </row>
-    <row r="339" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A339" t="s">
+      <c r="B339" t="s">
+        <v>22</v>
+      </c>
+      <c r="C339" t="s">
+        <v>23</v>
+      </c>
+      <c r="D339" t="s">
         <v>1742</v>
-      </c>
-      <c r="B339" t="s">
-        <v>22</v>
-      </c>
-      <c r="C339" t="s">
-        <v>23</v>
-      </c>
-      <c r="D339" t="s">
-        <v>1743</v>
       </c>
       <c r="E339" s="3">
         <v>2018</v>
       </c>
       <c r="F339" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="G339" s="3" t="s">
         <v>31</v>
@@ -21472,7 +21568,7 @@
         <v>25</v>
       </c>
       <c r="M339" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="N339" s="3">
         <v>108</v>
@@ -21481,9 +21577,9 @@
         <v>215</v>
       </c>
     </row>
-    <row r="340" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="B340" t="s">
         <v>22</v>
@@ -21492,13 +21588,13 @@
         <v>53</v>
       </c>
       <c r="D340" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="E340" s="3">
         <v>2019</v>
       </c>
       <c r="F340" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="G340" s="3" t="s">
         <v>31</v>
@@ -21507,7 +21603,7 @@
         <v>31</v>
       </c>
       <c r="J340" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="L340" s="3" t="s">
         <v>31</v>
@@ -21516,12 +21612,12 @@
         <v>99</v>
       </c>
       <c r="O340" t="s">
-        <v>1741</v>
-      </c>
-    </row>
-    <row r="341" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="341" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="B341" t="s">
         <v>22</v>
@@ -21536,7 +21632,7 @@
         <v>2011</v>
       </c>
       <c r="F341" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="G341" s="3" t="s">
         <v>31</v>
@@ -21560,9 +21656,9 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="342" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="B342" t="s">
         <v>22</v>
@@ -21571,28 +21667,28 @@
         <v>53</v>
       </c>
       <c r="D342" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="E342" s="3">
         <v>2018</v>
       </c>
       <c r="F342" t="s">
+        <v>1749</v>
+      </c>
+      <c r="G342" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H342" t="s">
         <v>1750</v>
       </c>
-      <c r="G342" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H342" t="s">
+      <c r="I342" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L342" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M342" t="s">
         <v>1751</v>
-      </c>
-      <c r="I342" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L342" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M342" t="s">
-        <v>1752</v>
       </c>
       <c r="N342" s="3">
         <v>134</v>
@@ -21601,39 +21697,39 @@
         <v>1310</v>
       </c>
       <c r="P342" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="343" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
         <v>1753</v>
       </c>
-    </row>
-    <row r="343" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A343" t="s">
+      <c r="B343" t="s">
+        <v>22</v>
+      </c>
+      <c r="C343" t="s">
+        <v>23</v>
+      </c>
+      <c r="D343" t="s">
         <v>1754</v>
-      </c>
-      <c r="B343" t="s">
-        <v>22</v>
-      </c>
-      <c r="C343" t="s">
-        <v>23</v>
-      </c>
-      <c r="D343" t="s">
-        <v>1755</v>
       </c>
       <c r="E343" s="3">
         <v>2012</v>
       </c>
       <c r="F343" t="s">
+        <v>1755</v>
+      </c>
+      <c r="G343" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I343" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J343" t="s">
         <v>1756</v>
       </c>
-      <c r="G343" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I343" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J343" t="s">
+      <c r="K343" t="s">
         <v>1757</v>
-      </c>
-      <c r="K343" t="s">
-        <v>1758</v>
       </c>
       <c r="L343" s="3" t="s">
         <v>25</v>
@@ -21648,13 +21744,13 @@
         <v>1198</v>
       </c>
       <c r="P343" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="344" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
         <v>1759</v>
       </c>
-    </row>
-    <row r="344" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A344" t="s">
-        <v>1760</v>
-      </c>
       <c r="B344" t="s">
         <v>22</v>
       </c>
@@ -21662,13 +21758,13 @@
         <v>23</v>
       </c>
       <c r="D344" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="E344" s="3">
         <v>2015</v>
       </c>
       <c r="F344" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="G344" s="3" t="s">
         <v>25</v>
@@ -21677,7 +21773,7 @@
         <v>31</v>
       </c>
       <c r="J344" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="L344" s="3" t="s">
         <v>25</v>
@@ -21692,12 +21788,12 @@
         <v>1198</v>
       </c>
       <c r="P344" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="345" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
         <v>1762</v>
-      </c>
-    </row>
-    <row r="345" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A345" t="s">
-        <v>1763</v>
       </c>
       <c r="B345" t="s">
         <v>22</v>
@@ -21712,13 +21808,13 @@
         <v>2019</v>
       </c>
       <c r="F345" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="G345" s="3" t="s">
         <v>31</v>
       </c>
       <c r="H345" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="I345" s="3" t="s">
         <v>25</v>
@@ -21730,51 +21826,51 @@
         <v>1441</v>
       </c>
       <c r="P345" t="s">
+        <v>1764</v>
+      </c>
+      <c r="Q345" t="s">
         <v>1765</v>
-      </c>
-      <c r="Q345" t="s">
-        <v>1766</v>
       </c>
       <c r="R345" t="s">
         <v>1021</v>
       </c>
       <c r="S345" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="T345" t="s">
+        <v>1766</v>
+      </c>
+      <c r="U345" t="s">
         <v>1767</v>
       </c>
-      <c r="U345" t="s">
+    </row>
+    <row r="346" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
         <v>1768</v>
       </c>
-    </row>
-    <row r="346" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A346" t="s">
+      <c r="B346" t="s">
+        <v>22</v>
+      </c>
+      <c r="C346" t="s">
+        <v>23</v>
+      </c>
+      <c r="D346" t="s">
         <v>1769</v>
-      </c>
-      <c r="B346" t="s">
-        <v>22</v>
-      </c>
-      <c r="C346" t="s">
-        <v>23</v>
-      </c>
-      <c r="D346" t="s">
-        <v>1770</v>
       </c>
       <c r="E346" s="3">
         <v>2002</v>
       </c>
       <c r="F346" t="s">
+        <v>1770</v>
+      </c>
+      <c r="G346" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I346" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K346" t="s">
         <v>1771</v>
-      </c>
-      <c r="G346" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I346" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K346" t="s">
-        <v>1772</v>
       </c>
       <c r="L346" s="3" t="s">
         <v>31</v>
@@ -21786,24 +21882,24 @@
         <v>55</v>
       </c>
     </row>
-    <row r="347" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B347" t="s">
+        <v>22</v>
+      </c>
+      <c r="C347" t="s">
+        <v>23</v>
+      </c>
+      <c r="D347" t="s">
         <v>1773</v>
-      </c>
-      <c r="B347" t="s">
-        <v>22</v>
-      </c>
-      <c r="C347" t="s">
-        <v>23</v>
-      </c>
-      <c r="D347" t="s">
-        <v>1774</v>
       </c>
       <c r="E347" s="3">
         <v>2004</v>
       </c>
       <c r="F347" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="G347" s="3" t="s">
         <v>31</v>
@@ -21812,10 +21908,10 @@
         <v>31</v>
       </c>
       <c r="J347" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="K347" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="L347" s="3" t="s">
         <v>31</v>
@@ -21827,9 +21923,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="348" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="B348" t="s">
         <v>22</v>
@@ -21838,13 +21934,13 @@
         <v>23</v>
       </c>
       <c r="D348" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="E348" s="3">
         <v>2007</v>
       </c>
       <c r="F348" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="G348" s="3" t="s">
         <v>31</v>
@@ -21853,7 +21949,7 @@
         <v>31</v>
       </c>
       <c r="J348" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="L348" s="3" t="s">
         <v>31</v>
@@ -21865,36 +21961,36 @@
         <v>55</v>
       </c>
     </row>
-    <row r="349" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B349" t="s">
+        <v>22</v>
+      </c>
+      <c r="C349" t="s">
+        <v>23</v>
+      </c>
+      <c r="D349" t="s">
         <v>1778</v>
-      </c>
-      <c r="B349" t="s">
-        <v>22</v>
-      </c>
-      <c r="C349" t="s">
-        <v>23</v>
-      </c>
-      <c r="D349" t="s">
-        <v>1779</v>
       </c>
       <c r="E349" s="3">
         <v>2012</v>
       </c>
       <c r="F349" t="s">
+        <v>1779</v>
+      </c>
+      <c r="G349" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I349" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J349" t="s">
         <v>1780</v>
       </c>
-      <c r="G349" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I349" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J349" t="s">
+      <c r="K349" t="s">
         <v>1781</v>
-      </c>
-      <c r="K349" t="s">
-        <v>1782</v>
       </c>
       <c r="L349" s="3" t="s">
         <v>31</v>
@@ -21906,24 +22002,24 @@
         <v>108</v>
       </c>
     </row>
-    <row r="350" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B350" t="s">
+        <v>22</v>
+      </c>
+      <c r="C350" t="s">
+        <v>23</v>
+      </c>
+      <c r="D350" t="s">
         <v>1783</v>
-      </c>
-      <c r="B350" t="s">
-        <v>22</v>
-      </c>
-      <c r="C350" t="s">
-        <v>23</v>
-      </c>
-      <c r="D350" t="s">
-        <v>1784</v>
       </c>
       <c r="E350" s="3">
         <v>2018</v>
       </c>
       <c r="F350" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="G350" s="3" t="s">
         <v>31</v>
@@ -21935,45 +22031,45 @@
         <v>113</v>
       </c>
       <c r="O350" t="s">
+        <v>1785</v>
+      </c>
+      <c r="P350" t="s">
         <v>1786</v>
       </c>
-      <c r="P350" t="s">
+      <c r="Q350" t="s">
         <v>1787</v>
       </c>
-      <c r="Q350" t="s">
+      <c r="R350" t="s">
         <v>1788</v>
-      </c>
-      <c r="R350" t="s">
-        <v>1789</v>
       </c>
       <c r="S350" t="s">
         <v>561</v>
       </c>
       <c r="T350" t="s">
+        <v>1789</v>
+      </c>
+      <c r="U350" t="s">
         <v>1790</v>
       </c>
-      <c r="U350" t="s">
+    </row>
+    <row r="351" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
         <v>1791</v>
       </c>
-    </row>
-    <row r="351" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A351" t="s">
+      <c r="B351" t="s">
+        <v>22</v>
+      </c>
+      <c r="C351" t="s">
+        <v>23</v>
+      </c>
+      <c r="D351" t="s">
         <v>1792</v>
-      </c>
-      <c r="B351" t="s">
-        <v>22</v>
-      </c>
-      <c r="C351" t="s">
-        <v>23</v>
-      </c>
-      <c r="D351" t="s">
-        <v>1793</v>
       </c>
       <c r="E351" s="3">
         <v>2017</v>
       </c>
       <c r="F351" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="G351" s="3" t="s">
         <v>31</v>
@@ -21988,42 +22084,42 @@
         <v>775</v>
       </c>
       <c r="P351" t="s">
+        <v>1794</v>
+      </c>
+      <c r="Q351" t="s">
         <v>1795</v>
       </c>
-      <c r="Q351" t="s">
+      <c r="R351" t="s">
         <v>1796</v>
       </c>
-      <c r="R351" t="s">
+      <c r="S351" t="s">
         <v>1797</v>
-      </c>
-      <c r="S351" t="s">
-        <v>1798</v>
       </c>
       <c r="T351" t="s">
         <v>743</v>
       </c>
       <c r="U351" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="352" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
         <v>1799</v>
       </c>
-    </row>
-    <row r="352" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A352" t="s">
+      <c r="B352" t="s">
+        <v>22</v>
+      </c>
+      <c r="C352" t="s">
+        <v>23</v>
+      </c>
+      <c r="D352" t="s">
         <v>1800</v>
-      </c>
-      <c r="B352" t="s">
-        <v>22</v>
-      </c>
-      <c r="C352" t="s">
-        <v>23</v>
-      </c>
-      <c r="D352" t="s">
-        <v>1801</v>
       </c>
       <c r="E352" s="3">
         <v>2021</v>
       </c>
       <c r="F352" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="G352" s="3" t="s">
         <v>31</v>
@@ -22035,54 +22131,54 @@
         <v>120</v>
       </c>
       <c r="O352" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="353" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
         <v>1803</v>
       </c>
-    </row>
-    <row r="353" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A353" t="s">
+      <c r="B353" t="s">
+        <v>22</v>
+      </c>
+      <c r="C353" t="s">
+        <v>23</v>
+      </c>
+      <c r="D353" t="s">
         <v>1804</v>
-      </c>
-      <c r="B353" t="s">
-        <v>22</v>
-      </c>
-      <c r="C353" t="s">
-        <v>23</v>
-      </c>
-      <c r="D353" t="s">
-        <v>1805</v>
       </c>
       <c r="E353" s="3">
         <v>2006</v>
       </c>
       <c r="F353" t="s">
+        <v>1805</v>
+      </c>
+      <c r="G353" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I353" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K353" t="s">
         <v>1806</v>
       </c>
-      <c r="G353" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I353" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K353" t="s">
+      <c r="L353" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M353" t="s">
         <v>1807</v>
-      </c>
-      <c r="L353" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M353" t="s">
-        <v>1808</v>
       </c>
       <c r="N353" s="3">
         <v>100</v>
       </c>
       <c r="O353" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="354" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
         <v>1809</v>
       </c>
-    </row>
-    <row r="354" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A354" t="s">
-        <v>1810</v>
-      </c>
       <c r="B354" t="s">
         <v>22</v>
       </c>
@@ -22090,13 +22186,13 @@
         <v>23</v>
       </c>
       <c r="D354" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="E354" s="3">
         <v>2009</v>
       </c>
       <c r="F354" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="G354" s="3" t="s">
         <v>31</v>
@@ -22105,24 +22201,24 @@
         <v>31</v>
       </c>
       <c r="J354" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="L354" s="3" t="s">
         <v>25</v>
       </c>
       <c r="M354" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="N354" s="3">
         <v>104</v>
       </c>
       <c r="O354" t="s">
-        <v>1809</v>
-      </c>
-    </row>
-    <row r="355" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="355" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="B355" t="s">
         <v>22</v>
@@ -22131,19 +22227,19 @@
         <v>53</v>
       </c>
       <c r="D355" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="E355" s="3">
         <v>2021</v>
       </c>
       <c r="F355" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="G355" s="3" t="s">
         <v>31</v>
       </c>
       <c r="H355" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="I355" s="3" t="s">
         <v>25</v>
@@ -22152,45 +22248,45 @@
         <v>115</v>
       </c>
       <c r="O355" t="s">
+        <v>1813</v>
+      </c>
+      <c r="P355" t="s">
         <v>1814</v>
       </c>
-      <c r="P355" t="s">
+      <c r="Q355" t="s">
         <v>1815</v>
       </c>
-      <c r="Q355" t="s">
+      <c r="R355" t="s">
         <v>1816</v>
       </c>
-      <c r="R355" t="s">
+      <c r="S355" t="s">
         <v>1817</v>
-      </c>
-      <c r="S355" t="s">
-        <v>1818</v>
       </c>
       <c r="T355" t="s">
         <v>602</v>
       </c>
       <c r="U355" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="356" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
         <v>1819</v>
       </c>
-    </row>
-    <row r="356" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A356" t="s">
+      <c r="B356" t="s">
+        <v>22</v>
+      </c>
+      <c r="C356" t="s">
+        <v>23</v>
+      </c>
+      <c r="D356" t="s">
         <v>1820</v>
-      </c>
-      <c r="B356" t="s">
-        <v>22</v>
-      </c>
-      <c r="C356" t="s">
-        <v>23</v>
-      </c>
-      <c r="D356" t="s">
-        <v>1821</v>
       </c>
       <c r="E356" s="3">
         <v>1974</v>
       </c>
       <c r="F356" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="G356" s="3" t="s">
         <v>31</v>
@@ -22205,24 +22301,24 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="357" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B357" t="s">
+        <v>22</v>
+      </c>
+      <c r="C357" t="s">
+        <v>23</v>
+      </c>
+      <c r="D357" t="s">
         <v>1823</v>
-      </c>
-      <c r="B357" t="s">
-        <v>22</v>
-      </c>
-      <c r="C357" t="s">
-        <v>23</v>
-      </c>
-      <c r="D357" t="s">
-        <v>1824</v>
       </c>
       <c r="E357" s="3">
         <v>2004</v>
       </c>
       <c r="F357" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="G357" s="3" t="s">
         <v>31</v>
@@ -22237,24 +22333,24 @@
         <v>418</v>
       </c>
     </row>
-    <row r="358" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
+        <v>1825</v>
+      </c>
+      <c r="B358" t="s">
+        <v>22</v>
+      </c>
+      <c r="C358" t="s">
+        <v>23</v>
+      </c>
+      <c r="D358" t="s">
         <v>1826</v>
-      </c>
-      <c r="B358" t="s">
-        <v>22</v>
-      </c>
-      <c r="C358" t="s">
-        <v>23</v>
-      </c>
-      <c r="D358" t="s">
-        <v>1827</v>
       </c>
       <c r="E358" s="3">
         <v>2017</v>
       </c>
       <c r="F358" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="G358" s="3" t="s">
         <v>31</v>
@@ -22269,42 +22365,42 @@
         <v>1473</v>
       </c>
       <c r="P358" t="s">
+        <v>1828</v>
+      </c>
+      <c r="Q358" t="s">
         <v>1829</v>
-      </c>
-      <c r="Q358" t="s">
-        <v>1830</v>
       </c>
       <c r="R358" t="s">
         <v>1161</v>
       </c>
       <c r="S358" t="s">
+        <v>1830</v>
+      </c>
+      <c r="T358" t="s">
         <v>1831</v>
       </c>
-      <c r="T358" t="s">
+      <c r="U358" t="s">
         <v>1832</v>
       </c>
-      <c r="U358" t="s">
+    </row>
+    <row r="359" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
         <v>1833</v>
       </c>
-    </row>
-    <row r="359" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A359" t="s">
+      <c r="B359" t="s">
+        <v>22</v>
+      </c>
+      <c r="C359" t="s">
+        <v>23</v>
+      </c>
+      <c r="D359" t="s">
         <v>1834</v>
-      </c>
-      <c r="B359" t="s">
-        <v>22</v>
-      </c>
-      <c r="C359" t="s">
-        <v>23</v>
-      </c>
-      <c r="D359" t="s">
-        <v>1835</v>
       </c>
       <c r="E359" s="3">
         <v>2007</v>
       </c>
       <c r="F359" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="G359" s="3" t="s">
         <v>31</v>
@@ -22319,39 +22415,39 @@
         <v>410</v>
       </c>
       <c r="P359" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="360" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
         <v>1837</v>
       </c>
-    </row>
-    <row r="360" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A360" t="s">
+      <c r="B360" t="s">
+        <v>22</v>
+      </c>
+      <c r="C360" t="s">
+        <v>23</v>
+      </c>
+      <c r="D360" t="s">
         <v>1838</v>
-      </c>
-      <c r="B360" t="s">
-        <v>22</v>
-      </c>
-      <c r="C360" t="s">
-        <v>23</v>
-      </c>
-      <c r="D360" t="s">
-        <v>1839</v>
       </c>
       <c r="E360" s="3">
         <v>2019</v>
       </c>
       <c r="F360" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G360" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I360" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J360" t="s">
         <v>1840</v>
       </c>
-      <c r="G360" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I360" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J360" t="s">
+      <c r="K360" t="s">
         <v>1841</v>
-      </c>
-      <c r="K360" t="s">
-        <v>1842</v>
       </c>
       <c r="L360" s="3" t="s">
         <v>31</v>
@@ -22363,24 +22459,24 @@
         <v>215</v>
       </c>
     </row>
-    <row r="361" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
+        <v>1842</v>
+      </c>
+      <c r="B361" t="s">
+        <v>22</v>
+      </c>
+      <c r="C361" t="s">
+        <v>23</v>
+      </c>
+      <c r="D361" t="s">
         <v>1843</v>
-      </c>
-      <c r="B361" t="s">
-        <v>22</v>
-      </c>
-      <c r="C361" t="s">
-        <v>23</v>
-      </c>
-      <c r="D361" t="s">
-        <v>1844</v>
       </c>
       <c r="E361" s="3">
         <v>2022</v>
       </c>
       <c r="F361" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="G361" s="3" t="s">
         <v>31</v>
@@ -22392,45 +22488,45 @@
         <v>122</v>
       </c>
       <c r="O361" t="s">
+        <v>1844</v>
+      </c>
+      <c r="P361" t="s">
         <v>1845</v>
       </c>
-      <c r="P361" t="s">
+      <c r="Q361" t="s">
         <v>1846</v>
       </c>
-      <c r="Q361" t="s">
+      <c r="R361" t="s">
         <v>1847</v>
       </c>
-      <c r="R361" t="s">
+      <c r="S361" t="s">
         <v>1848</v>
       </c>
-      <c r="S361" t="s">
+      <c r="T361" t="s">
         <v>1849</v>
       </c>
-      <c r="T361" t="s">
+      <c r="U361" t="s">
         <v>1850</v>
       </c>
-      <c r="U361" t="s">
+    </row>
+    <row r="362" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
         <v>1851</v>
       </c>
-    </row>
-    <row r="362" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A362" t="s">
+      <c r="B362" t="s">
+        <v>22</v>
+      </c>
+      <c r="C362" t="s">
+        <v>23</v>
+      </c>
+      <c r="D362" t="s">
         <v>1852</v>
-      </c>
-      <c r="B362" t="s">
-        <v>22</v>
-      </c>
-      <c r="C362" t="s">
-        <v>23</v>
-      </c>
-      <c r="D362" t="s">
-        <v>1853</v>
       </c>
       <c r="E362" s="3">
         <v>2004</v>
       </c>
       <c r="F362" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="G362" s="3" t="s">
         <v>25</v>
@@ -22445,9 +22541,9 @@
         <v>772</v>
       </c>
     </row>
-    <row r="363" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="B363" t="s">
         <v>22</v>
@@ -22456,13 +22552,13 @@
         <v>53</v>
       </c>
       <c r="D363" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="E363" s="3">
         <v>2018</v>
       </c>
       <c r="F363" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="G363" s="3" t="s">
         <v>31</v>
@@ -22474,30 +22570,30 @@
         <v>135</v>
       </c>
       <c r="O363" t="s">
+        <v>1857</v>
+      </c>
+      <c r="P363" t="s">
         <v>1858</v>
       </c>
-      <c r="P363" t="s">
+    </row>
+    <row r="364" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
         <v>1859</v>
       </c>
-    </row>
-    <row r="364" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A364" t="s">
+      <c r="B364" t="s">
+        <v>22</v>
+      </c>
+      <c r="C364" t="s">
+        <v>23</v>
+      </c>
+      <c r="D364" t="s">
         <v>1860</v>
-      </c>
-      <c r="B364" t="s">
-        <v>22</v>
-      </c>
-      <c r="C364" t="s">
-        <v>23</v>
-      </c>
-      <c r="D364" t="s">
-        <v>1861</v>
       </c>
       <c r="E364" s="3">
         <v>1952</v>
       </c>
       <c r="F364" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="G364" s="3" t="s">
         <v>25</v>
@@ -22509,12 +22605,12 @@
         <v>99</v>
       </c>
       <c r="O364" t="s">
-        <v>1579</v>
-      </c>
-    </row>
-    <row r="365" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="365" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="B365" t="s">
         <v>22</v>
@@ -22523,13 +22619,13 @@
         <v>53</v>
       </c>
       <c r="D365" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="E365" s="3">
         <v>1962</v>
       </c>
       <c r="F365" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="G365" s="3" t="s">
         <v>25</v>
@@ -22541,27 +22637,27 @@
         <v>153</v>
       </c>
       <c r="O365" t="s">
+        <v>1865</v>
+      </c>
+      <c r="Q365" t="s">
         <v>1866</v>
       </c>
-      <c r="Q365" t="s">
+      <c r="R365" t="s">
         <v>1867</v>
       </c>
-      <c r="R365" t="s">
+      <c r="S365" t="s">
         <v>1868</v>
       </c>
-      <c r="S365" t="s">
+      <c r="T365" t="s">
         <v>1869</v>
       </c>
-      <c r="T365" t="s">
+      <c r="U365" t="s">
         <v>1870</v>
       </c>
-      <c r="U365" t="s">
+    </row>
+    <row r="366" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
         <v>1871</v>
-      </c>
-    </row>
-    <row r="366" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A366" t="s">
-        <v>1872</v>
       </c>
       <c r="B366" t="s">
         <v>22</v>
@@ -22570,13 +22666,13 @@
         <v>53</v>
       </c>
       <c r="D366" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="E366" s="3">
         <v>1968</v>
       </c>
       <c r="F366" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="G366" s="3" t="s">
         <v>25</v>
@@ -22588,27 +22684,27 @@
         <v>149</v>
       </c>
       <c r="O366" t="s">
+        <v>1873</v>
+      </c>
+      <c r="Q366" t="s">
         <v>1874</v>
       </c>
-      <c r="Q366" t="s">
+      <c r="R366" t="s">
         <v>1875</v>
       </c>
-      <c r="R366" t="s">
+      <c r="S366" t="s">
         <v>1876</v>
       </c>
-      <c r="S366" t="s">
+      <c r="T366" t="s">
         <v>1877</v>
       </c>
-      <c r="T366" t="s">
+      <c r="U366" t="s">
         <v>1878</v>
       </c>
-      <c r="U366" t="s">
+    </row>
+    <row r="367" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
         <v>1879</v>
-      </c>
-    </row>
-    <row r="367" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A367" t="s">
-        <v>1880</v>
       </c>
       <c r="B367" t="s">
         <v>22</v>
@@ -22617,13 +22713,13 @@
         <v>53</v>
       </c>
       <c r="D367" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="E367" s="3">
         <v>1971</v>
       </c>
       <c r="F367" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="G367" s="3" t="s">
         <v>25</v>
@@ -22635,27 +22731,27 @@
         <v>136</v>
       </c>
       <c r="O367" t="s">
+        <v>1881</v>
+      </c>
+      <c r="Q367" t="s">
+        <v>1864</v>
+      </c>
+      <c r="R367" t="s">
         <v>1882</v>
       </c>
-      <c r="Q367" t="s">
-        <v>1865</v>
-      </c>
-      <c r="R367" t="s">
+      <c r="S367" t="s">
         <v>1883</v>
       </c>
-      <c r="S367" t="s">
+      <c r="T367" t="s">
         <v>1884</v>
       </c>
-      <c r="T367" t="s">
+      <c r="U367" t="s">
         <v>1885</v>
       </c>
-      <c r="U367" t="s">
+    </row>
+    <row r="368" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
         <v>1886</v>
-      </c>
-    </row>
-    <row r="368" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A368" t="s">
-        <v>1887</v>
       </c>
       <c r="B368" t="s">
         <v>22</v>
@@ -22664,13 +22760,13 @@
         <v>53</v>
       </c>
       <c r="D368" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="E368" s="3">
         <v>1975</v>
       </c>
       <c r="F368" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="G368" s="3" t="s">
         <v>25</v>
@@ -22682,27 +22778,27 @@
         <v>185</v>
       </c>
       <c r="O368" t="s">
+        <v>1888</v>
+      </c>
+      <c r="Q368" t="s">
+        <v>1864</v>
+      </c>
+      <c r="R368" t="s">
         <v>1889</v>
       </c>
-      <c r="Q368" t="s">
-        <v>1865</v>
-      </c>
-      <c r="R368" t="s">
+      <c r="S368" t="s">
+        <v>1883</v>
+      </c>
+      <c r="T368" t="s">
+        <v>1884</v>
+      </c>
+      <c r="U368" t="s">
         <v>1890</v>
       </c>
-      <c r="S368" t="s">
-        <v>1884</v>
-      </c>
-      <c r="T368" t="s">
-        <v>1885</v>
-      </c>
-      <c r="U368" t="s">
+    </row>
+    <row r="369" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
         <v>1891</v>
-      </c>
-    </row>
-    <row r="369" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A369" t="s">
-        <v>1892</v>
       </c>
       <c r="B369" t="s">
         <v>22</v>
@@ -22711,13 +22807,13 @@
         <v>53</v>
       </c>
       <c r="D369" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="E369" s="3">
         <v>1980</v>
       </c>
       <c r="F369" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="G369" s="3" t="s">
         <v>31</v>
@@ -22729,27 +22825,27 @@
         <v>146</v>
       </c>
       <c r="O369" t="s">
+        <v>1893</v>
+      </c>
+      <c r="Q369" t="s">
         <v>1894</v>
       </c>
-      <c r="Q369" t="s">
+      <c r="R369" t="s">
         <v>1895</v>
       </c>
-      <c r="R369" t="s">
+      <c r="S369" t="s">
+        <v>1883</v>
+      </c>
+      <c r="T369" t="s">
+        <v>1884</v>
+      </c>
+      <c r="U369" t="s">
         <v>1896</v>
       </c>
-      <c r="S369" t="s">
-        <v>1884</v>
-      </c>
-      <c r="T369" t="s">
-        <v>1885</v>
-      </c>
-      <c r="U369" t="s">
+    </row>
+    <row r="370" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
         <v>1897</v>
-      </c>
-    </row>
-    <row r="370" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A370" t="s">
-        <v>1898</v>
       </c>
       <c r="B370" t="s">
         <v>22</v>
@@ -22758,13 +22854,13 @@
         <v>53</v>
       </c>
       <c r="D370" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="E370" s="3">
         <v>1987</v>
       </c>
       <c r="F370" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="G370" s="3" t="s">
         <v>25</v>
@@ -22776,27 +22872,27 @@
         <v>116</v>
       </c>
       <c r="O370" t="s">
+        <v>1899</v>
+      </c>
+      <c r="Q370" t="s">
         <v>1900</v>
       </c>
-      <c r="Q370" t="s">
+      <c r="R370" t="s">
         <v>1901</v>
       </c>
-      <c r="R370" t="s">
+      <c r="S370" t="s">
         <v>1902</v>
       </c>
-      <c r="S370" t="s">
+      <c r="T370" t="s">
         <v>1903</v>
       </c>
-      <c r="T370" t="s">
+      <c r="U370" t="s">
         <v>1904</v>
       </c>
-      <c r="U370" t="s">
+    </row>
+    <row r="371" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
         <v>1905</v>
-      </c>
-    </row>
-    <row r="371" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A371" t="s">
-        <v>1906</v>
       </c>
       <c r="B371" t="s">
         <v>22</v>
@@ -22805,13 +22901,13 @@
         <v>53</v>
       </c>
       <c r="D371" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="E371" s="3">
         <v>1999</v>
       </c>
       <c r="F371" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="G371" s="3" t="s">
         <v>25</v>
@@ -22826,39 +22922,39 @@
         <v>165</v>
       </c>
       <c r="Q371" t="s">
+        <v>1907</v>
+      </c>
+      <c r="R371" t="s">
         <v>1908</v>
       </c>
-      <c r="R371" t="s">
+      <c r="S371" t="s">
         <v>1909</v>
       </c>
-      <c r="S371" t="s">
+      <c r="T371" t="s">
         <v>1910</v>
       </c>
-      <c r="T371" t="s">
+      <c r="U371" t="s">
         <v>1911</v>
       </c>
-      <c r="U371" t="s">
+    </row>
+    <row r="372" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
         <v>1912</v>
       </c>
-    </row>
-    <row r="372" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A372" t="s">
+      <c r="B372" t="s">
+        <v>22</v>
+      </c>
+      <c r="C372" t="s">
+        <v>23</v>
+      </c>
+      <c r="D372" t="s">
         <v>1913</v>
-      </c>
-      <c r="B372" t="s">
-        <v>22</v>
-      </c>
-      <c r="C372" t="s">
-        <v>23</v>
-      </c>
-      <c r="D372" t="s">
-        <v>1914</v>
       </c>
       <c r="E372" s="3">
         <v>2008</v>
       </c>
       <c r="F372" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="G372" s="3" t="s">
         <v>25</v>
@@ -22870,27 +22966,27 @@
         <v>124</v>
       </c>
       <c r="O372" t="s">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="373" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
         <v>1916</v>
       </c>
-    </row>
-    <row r="373" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A373" t="s">
+      <c r="B373" t="s">
+        <v>22</v>
+      </c>
+      <c r="C373" t="s">
+        <v>23</v>
+      </c>
+      <c r="D373" t="s">
         <v>1917</v>
-      </c>
-      <c r="B373" t="s">
-        <v>22</v>
-      </c>
-      <c r="C373" t="s">
-        <v>23</v>
-      </c>
-      <c r="D373" t="s">
-        <v>1918</v>
       </c>
       <c r="E373" s="3">
         <v>2016</v>
       </c>
       <c r="F373" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="G373" s="3" t="s">
         <v>25</v>
@@ -22902,12 +22998,12 @@
         <v>106</v>
       </c>
       <c r="O373" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="374" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
         <v>1920</v>
-      </c>
-    </row>
-    <row r="374" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A374" t="s">
-        <v>1921</v>
       </c>
       <c r="B374" t="s">
         <v>397</v>
@@ -22916,22 +23012,22 @@
         <v>23</v>
       </c>
       <c r="D374" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="E374" s="3">
         <v>1999</v>
       </c>
       <c r="F374" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G374" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I374" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K374" t="s">
         <v>1923</v>
-      </c>
-      <c r="G374" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I374" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K374" t="s">
-        <v>1924</v>
       </c>
       <c r="L374" s="3" t="s">
         <v>31</v>
@@ -22940,12 +23036,12 @@
         <v>10</v>
       </c>
       <c r="O374" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="375" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
         <v>1925</v>
-      </c>
-    </row>
-    <row r="375" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A375" t="s">
-        <v>1926</v>
       </c>
       <c r="B375" t="s">
         <v>397</v>
@@ -22954,13 +23050,13 @@
         <v>23</v>
       </c>
       <c r="D375" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="E375" s="3">
         <v>2000</v>
       </c>
       <c r="F375" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="G375" s="3" t="s">
         <v>31</v>
@@ -22969,10 +23065,10 @@
         <v>31</v>
       </c>
       <c r="J375" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="K375" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="L375" s="3" t="s">
         <v>31</v>
@@ -22981,12 +23077,12 @@
         <v>10</v>
       </c>
       <c r="O375" t="s">
-        <v>1925</v>
-      </c>
-    </row>
-    <row r="376" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="376" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="B376" t="s">
         <v>397</v>
@@ -22995,13 +23091,13 @@
         <v>23</v>
       </c>
       <c r="D376" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="E376" s="3">
         <v>2001</v>
       </c>
       <c r="F376" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="G376" s="3" t="s">
         <v>31</v>
@@ -23010,10 +23106,10 @@
         <v>31</v>
       </c>
       <c r="J376" t="s">
+        <v>1930</v>
+      </c>
+      <c r="K376" t="s">
         <v>1931</v>
-      </c>
-      <c r="K376" t="s">
-        <v>1932</v>
       </c>
       <c r="L376" s="3" t="s">
         <v>31</v>
@@ -23022,12 +23118,12 @@
         <v>10</v>
       </c>
       <c r="O376" t="s">
-        <v>1925</v>
-      </c>
-    </row>
-    <row r="377" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="377" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="B377" t="s">
         <v>397</v>
@@ -23036,13 +23132,13 @@
         <v>23</v>
       </c>
       <c r="D377" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="E377" s="3">
         <v>2005</v>
       </c>
       <c r="F377" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="G377" s="3" t="s">
         <v>31</v>
@@ -23051,10 +23147,10 @@
         <v>31</v>
       </c>
       <c r="J377" t="s">
+        <v>1934</v>
+      </c>
+      <c r="K377" t="s">
         <v>1935</v>
-      </c>
-      <c r="K377" t="s">
-        <v>1936</v>
       </c>
       <c r="L377" s="3" t="s">
         <v>31</v>
@@ -23063,12 +23159,12 @@
         <v>10</v>
       </c>
       <c r="O377" t="s">
-        <v>1925</v>
-      </c>
-    </row>
-    <row r="378" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="378" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="B378" t="s">
         <v>397</v>
@@ -23077,13 +23173,13 @@
         <v>23</v>
       </c>
       <c r="D378" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="E378" s="3">
         <v>2007</v>
       </c>
       <c r="F378" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="G378" s="3" t="s">
         <v>31</v>
@@ -23092,10 +23188,10 @@
         <v>31</v>
       </c>
       <c r="J378" t="s">
+        <v>1938</v>
+      </c>
+      <c r="K378" t="s">
         <v>1939</v>
-      </c>
-      <c r="K378" t="s">
-        <v>1940</v>
       </c>
       <c r="L378" s="3" t="s">
         <v>31</v>
@@ -23104,12 +23200,12 @@
         <v>10</v>
       </c>
       <c r="O378" t="s">
-        <v>1925</v>
-      </c>
-    </row>
-    <row r="379" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="379" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="B379" t="s">
         <v>397</v>
@@ -23118,13 +23214,13 @@
         <v>23</v>
       </c>
       <c r="D379" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="E379" s="3">
         <v>2008</v>
       </c>
       <c r="F379" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="G379" s="3" t="s">
         <v>31</v>
@@ -23133,10 +23229,10 @@
         <v>31</v>
       </c>
       <c r="J379" t="s">
+        <v>1942</v>
+      </c>
+      <c r="K379" t="s">
         <v>1943</v>
-      </c>
-      <c r="K379" t="s">
-        <v>1944</v>
       </c>
       <c r="L379" s="3" t="s">
         <v>31</v>
@@ -23145,12 +23241,12 @@
         <v>10</v>
       </c>
       <c r="O379" t="s">
-        <v>1925</v>
-      </c>
-    </row>
-    <row r="380" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="380" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="B380" t="s">
         <v>397</v>
@@ -23159,13 +23255,13 @@
         <v>23</v>
       </c>
       <c r="D380" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="E380" s="3">
         <v>2009</v>
       </c>
       <c r="F380" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="G380" s="3" t="s">
         <v>31</v>
@@ -23174,10 +23270,10 @@
         <v>31</v>
       </c>
       <c r="J380" t="s">
+        <v>1946</v>
+      </c>
+      <c r="K380" t="s">
         <v>1947</v>
-      </c>
-      <c r="K380" t="s">
-        <v>1948</v>
       </c>
       <c r="L380" s="3" t="s">
         <v>31</v>
@@ -23186,12 +23282,12 @@
         <v>10</v>
       </c>
       <c r="O380" t="s">
-        <v>1925</v>
-      </c>
-    </row>
-    <row r="381" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="381" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="B381" t="s">
         <v>397</v>
@@ -23200,13 +23296,13 @@
         <v>23</v>
       </c>
       <c r="D381" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="E381" s="3">
         <v>2011</v>
       </c>
       <c r="F381" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="G381" s="3" t="s">
         <v>31</v>
@@ -23215,7 +23311,7 @@
         <v>31</v>
       </c>
       <c r="J381" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="L381" s="3" t="s">
         <v>31</v>
@@ -23224,27 +23320,27 @@
         <v>10</v>
       </c>
       <c r="O381" t="s">
-        <v>1925</v>
-      </c>
-    </row>
-    <row r="382" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="382" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B382" t="s">
+        <v>22</v>
+      </c>
+      <c r="C382" t="s">
+        <v>23</v>
+      </c>
+      <c r="D382" t="s">
         <v>1951</v>
-      </c>
-      <c r="B382" t="s">
-        <v>22</v>
-      </c>
-      <c r="C382" t="s">
-        <v>23</v>
-      </c>
-      <c r="D382" t="s">
-        <v>1952</v>
       </c>
       <c r="E382" s="3">
         <v>2004</v>
       </c>
       <c r="F382" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="G382" s="3" t="s">
         <v>31</v>
@@ -23259,33 +23355,33 @@
         <v>497</v>
       </c>
     </row>
-    <row r="383" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
+        <v>1953</v>
+      </c>
+      <c r="B383" t="s">
+        <v>22</v>
+      </c>
+      <c r="C383" t="s">
+        <v>23</v>
+      </c>
+      <c r="D383" t="s">
         <v>1954</v>
-      </c>
-      <c r="B383" t="s">
-        <v>22</v>
-      </c>
-      <c r="C383" t="s">
-        <v>23</v>
-      </c>
-      <c r="D383" t="s">
-        <v>1955</v>
       </c>
       <c r="E383" s="3">
         <v>2001</v>
       </c>
       <c r="F383" t="s">
+        <v>1955</v>
+      </c>
+      <c r="G383" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I383" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K383" t="s">
         <v>1956</v>
-      </c>
-      <c r="G383" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I383" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K383" t="s">
-        <v>1957</v>
       </c>
       <c r="L383" s="3" t="s">
         <v>31</v>
@@ -23297,24 +23393,24 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="384" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
+        <v>1957</v>
+      </c>
+      <c r="B384" t="s">
+        <v>22</v>
+      </c>
+      <c r="C384" t="s">
+        <v>23</v>
+      </c>
+      <c r="D384" t="s">
         <v>1958</v>
-      </c>
-      <c r="B384" t="s">
-        <v>22</v>
-      </c>
-      <c r="C384" t="s">
-        <v>23</v>
-      </c>
-      <c r="D384" t="s">
-        <v>1959</v>
       </c>
       <c r="E384" s="3">
         <v>2004</v>
       </c>
       <c r="F384" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="G384" s="3" t="s">
         <v>31</v>
@@ -23323,10 +23419,10 @@
         <v>31</v>
       </c>
       <c r="J384" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="K384" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="L384" s="3" t="s">
         <v>31</v>
@@ -23338,24 +23434,24 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="385" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B385" t="s">
+        <v>22</v>
+      </c>
+      <c r="C385" t="s">
+        <v>23</v>
+      </c>
+      <c r="D385" t="s">
         <v>1961</v>
-      </c>
-      <c r="B385" t="s">
-        <v>22</v>
-      </c>
-      <c r="C385" t="s">
-        <v>23</v>
-      </c>
-      <c r="D385" t="s">
-        <v>1962</v>
       </c>
       <c r="E385" s="3">
         <v>2007</v>
       </c>
       <c r="F385" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="G385" s="3" t="s">
         <v>31</v>
@@ -23364,7 +23460,7 @@
         <v>31</v>
       </c>
       <c r="J385" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="K385" t="s">
         <v>718</v>
@@ -23379,24 +23475,24 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="386" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B386" t="s">
+        <v>22</v>
+      </c>
+      <c r="C386" t="s">
+        <v>23</v>
+      </c>
+      <c r="D386" t="s">
         <v>1964</v>
-      </c>
-      <c r="B386" t="s">
-        <v>22</v>
-      </c>
-      <c r="C386" t="s">
-        <v>23</v>
-      </c>
-      <c r="D386" t="s">
-        <v>1965</v>
       </c>
       <c r="E386" s="3">
         <v>1999</v>
       </c>
       <c r="F386" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="G386" s="3" t="s">
         <v>25</v>
@@ -23408,27 +23504,27 @@
         <v>120</v>
       </c>
       <c r="O386" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="387" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
         <v>1967</v>
       </c>
-    </row>
-    <row r="387" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A387" t="s">
+      <c r="B387" t="s">
+        <v>22</v>
+      </c>
+      <c r="C387" t="s">
+        <v>23</v>
+      </c>
+      <c r="D387" t="s">
         <v>1968</v>
-      </c>
-      <c r="B387" t="s">
-        <v>22</v>
-      </c>
-      <c r="C387" t="s">
-        <v>23</v>
-      </c>
-      <c r="D387" t="s">
-        <v>1969</v>
       </c>
       <c r="E387" s="3">
         <v>2007</v>
       </c>
       <c r="F387" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="G387" s="3" t="s">
         <v>31</v>
@@ -23443,24 +23539,24 @@
         <v>747</v>
       </c>
     </row>
-    <row r="388" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
+        <v>1970</v>
+      </c>
+      <c r="B388" t="s">
+        <v>22</v>
+      </c>
+      <c r="C388" t="s">
+        <v>23</v>
+      </c>
+      <c r="D388" t="s">
         <v>1971</v>
-      </c>
-      <c r="B388" t="s">
-        <v>22</v>
-      </c>
-      <c r="C388" t="s">
-        <v>23</v>
-      </c>
-      <c r="D388" t="s">
-        <v>1972</v>
       </c>
       <c r="E388" s="3">
         <v>2018</v>
       </c>
       <c r="F388" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="G388" s="3" t="s">
         <v>31</v>
@@ -23472,12 +23568,12 @@
         <v>124</v>
       </c>
       <c r="O388" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="389" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
         <v>1974</v>
-      </c>
-    </row>
-    <row r="389" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A389" t="s">
-        <v>1975</v>
       </c>
       <c r="B389" t="s">
         <v>22</v>
@@ -23486,13 +23582,13 @@
         <v>53</v>
       </c>
       <c r="D389" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="E389" s="3">
         <v>1971</v>
       </c>
       <c r="F389" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="G389" s="3" t="s">
         <v>25</v>
@@ -23507,39 +23603,39 @@
         <v>87</v>
       </c>
       <c r="Q389" t="s">
+        <v>1977</v>
+      </c>
+      <c r="R389" t="s">
         <v>1978</v>
       </c>
-      <c r="R389" t="s">
+      <c r="S389" t="s">
         <v>1979</v>
       </c>
-      <c r="S389" t="s">
+      <c r="T389" t="s">
         <v>1980</v>
       </c>
-      <c r="T389" t="s">
+      <c r="U389" t="s">
         <v>1981</v>
       </c>
-      <c r="U389" t="s">
+    </row>
+    <row r="390" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
         <v>1982</v>
       </c>
-    </row>
-    <row r="390" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A390" t="s">
+      <c r="B390" t="s">
+        <v>22</v>
+      </c>
+      <c r="C390" t="s">
+        <v>23</v>
+      </c>
+      <c r="D390" t="s">
         <v>1983</v>
-      </c>
-      <c r="B390" t="s">
-        <v>22</v>
-      </c>
-      <c r="C390" t="s">
-        <v>23</v>
-      </c>
-      <c r="D390" t="s">
-        <v>1984</v>
       </c>
       <c r="E390" s="3">
         <v>1981</v>
       </c>
       <c r="F390" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="G390" s="3" t="s">
         <v>31</v>
@@ -23548,39 +23644,39 @@
         <v>31</v>
       </c>
       <c r="K390" t="s">
+        <v>1984</v>
+      </c>
+      <c r="L390" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M390" t="s">
         <v>1985</v>
-      </c>
-      <c r="L390" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M390" t="s">
-        <v>1986</v>
       </c>
       <c r="N390" s="3">
         <v>111</v>
       </c>
       <c r="O390" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="391" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
         <v>1987</v>
       </c>
-    </row>
-    <row r="391" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A391" t="s">
+      <c r="B391" t="s">
+        <v>22</v>
+      </c>
+      <c r="C391" t="s">
+        <v>23</v>
+      </c>
+      <c r="D391" t="s">
         <v>1988</v>
-      </c>
-      <c r="B391" t="s">
-        <v>22</v>
-      </c>
-      <c r="C391" t="s">
-        <v>23</v>
-      </c>
-      <c r="D391" t="s">
-        <v>1989</v>
       </c>
       <c r="E391" s="3">
         <v>1984</v>
       </c>
       <c r="F391" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="G391" s="3" t="s">
         <v>31</v>
@@ -23589,42 +23685,42 @@
         <v>31</v>
       </c>
       <c r="J391" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="K391" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="L391" s="3" t="s">
         <v>25</v>
       </c>
       <c r="M391" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="N391" s="3">
         <v>114</v>
       </c>
       <c r="O391" t="s">
-        <v>1987</v>
-      </c>
-    </row>
-    <row r="392" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="392" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
+        <v>1990</v>
+      </c>
+      <c r="B392" t="s">
+        <v>22</v>
+      </c>
+      <c r="C392" t="s">
+        <v>23</v>
+      </c>
+      <c r="D392" t="s">
         <v>1991</v>
-      </c>
-      <c r="B392" t="s">
-        <v>22</v>
-      </c>
-      <c r="C392" t="s">
-        <v>23</v>
-      </c>
-      <c r="D392" t="s">
-        <v>1992</v>
       </c>
       <c r="E392" s="3">
         <v>1989</v>
       </c>
       <c r="F392" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="G392" s="3" t="s">
         <v>31</v>
@@ -23633,42 +23729,42 @@
         <v>31</v>
       </c>
       <c r="J392" t="s">
+        <v>1992</v>
+      </c>
+      <c r="K392" t="s">
         <v>1993</v>
       </c>
-      <c r="K392" t="s">
-        <v>1994</v>
-      </c>
       <c r="L392" s="3" t="s">
         <v>25</v>
       </c>
       <c r="M392" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="N392" s="3">
         <v>122</v>
       </c>
       <c r="O392" t="s">
-        <v>1987</v>
-      </c>
-    </row>
-    <row r="393" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="393" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
+        <v>1994</v>
+      </c>
+      <c r="B393" t="s">
+        <v>22</v>
+      </c>
+      <c r="C393" t="s">
+        <v>23</v>
+      </c>
+      <c r="D393" t="s">
         <v>1995</v>
-      </c>
-      <c r="B393" t="s">
-        <v>22</v>
-      </c>
-      <c r="C393" t="s">
-        <v>23</v>
-      </c>
-      <c r="D393" t="s">
-        <v>1996</v>
       </c>
       <c r="E393" s="3">
         <v>1993</v>
       </c>
       <c r="F393" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="G393" s="3" t="s">
         <v>31</v>
@@ -23680,7 +23776,7 @@
         <v>31</v>
       </c>
       <c r="K393" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="L393" s="3" t="s">
         <v>31</v>
@@ -23692,24 +23788,24 @@
         <v>70</v>
       </c>
     </row>
-    <row r="394" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
+        <v>1997</v>
+      </c>
+      <c r="B394" t="s">
+        <v>22</v>
+      </c>
+      <c r="C394" t="s">
+        <v>23</v>
+      </c>
+      <c r="D394" t="s">
         <v>1998</v>
-      </c>
-      <c r="B394" t="s">
-        <v>22</v>
-      </c>
-      <c r="C394" t="s">
-        <v>23</v>
-      </c>
-      <c r="D394" t="s">
-        <v>1999</v>
       </c>
       <c r="E394" s="3">
         <v>1997</v>
       </c>
       <c r="F394" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="G394" s="3" t="s">
         <v>31</v>
@@ -23721,10 +23817,10 @@
         <v>31</v>
       </c>
       <c r="J394" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="K394" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="L394" s="3" t="s">
         <v>31</v>
@@ -23736,9 +23832,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="395" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B395" t="s">
         <v>22</v>
@@ -23747,13 +23843,13 @@
         <v>23</v>
       </c>
       <c r="D395" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E395" s="3">
         <v>2008</v>
       </c>
       <c r="F395" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="G395" s="3" t="s">
         <v>31</v>
@@ -23762,42 +23858,42 @@
         <v>31</v>
       </c>
       <c r="J395" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="L395" s="3" t="s">
         <v>25</v>
       </c>
       <c r="M395" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="N395" s="3">
         <v>117</v>
       </c>
       <c r="O395" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="P395" t="s">
+        <v>2002</v>
+      </c>
+      <c r="Q395" t="s">
         <v>2003</v>
-      </c>
-      <c r="Q395" t="s">
-        <v>2004</v>
       </c>
       <c r="R395" t="s">
         <v>833</v>
       </c>
       <c r="S395" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="T395" t="s">
         <v>321</v>
       </c>
       <c r="U395" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="396" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
         <v>2006</v>
-      </c>
-    </row>
-    <row r="396" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A396" t="s">
-        <v>2007</v>
       </c>
       <c r="B396" t="s">
         <v>22</v>
@@ -23806,13 +23902,13 @@
         <v>53</v>
       </c>
       <c r="D396" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E396" s="3">
         <v>2018</v>
       </c>
       <c r="F396" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="G396" s="3" t="s">
         <v>31</v>
@@ -23827,9 +23923,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="397" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B397" t="s">
         <v>22</v>
@@ -23838,69 +23934,69 @@
         <v>53</v>
       </c>
       <c r="D397" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E397" s="3">
         <v>2017</v>
       </c>
       <c r="F397" t="s">
+        <v>2010</v>
+      </c>
+      <c r="G397" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I397" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L397" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M397" t="s">
         <v>2011</v>
-      </c>
-      <c r="G397" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I397" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L397" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M397" t="s">
-        <v>2012</v>
       </c>
       <c r="N397" s="3">
         <v>130</v>
       </c>
       <c r="O397" t="s">
+        <v>2012</v>
+      </c>
+      <c r="P397" t="s">
         <v>2013</v>
       </c>
-      <c r="P397" t="s">
+      <c r="Q397" t="s">
         <v>2014</v>
-      </c>
-      <c r="Q397" t="s">
-        <v>2015</v>
       </c>
       <c r="R397" t="s">
         <v>612</v>
       </c>
       <c r="S397" t="s">
+        <v>2015</v>
+      </c>
+      <c r="T397" t="s">
         <v>2016</v>
       </c>
-      <c r="T397" t="s">
+      <c r="U397" t="s">
         <v>2017</v>
       </c>
-      <c r="U397" t="s">
+    </row>
+    <row r="398" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
         <v>2018</v>
       </c>
-    </row>
-    <row r="398" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A398" t="s">
+      <c r="B398" t="s">
+        <v>22</v>
+      </c>
+      <c r="C398" t="s">
+        <v>23</v>
+      </c>
+      <c r="D398" t="s">
         <v>2019</v>
-      </c>
-      <c r="B398" t="s">
-        <v>22</v>
-      </c>
-      <c r="C398" t="s">
-        <v>23</v>
-      </c>
-      <c r="D398" t="s">
-        <v>2020</v>
       </c>
       <c r="E398" s="3">
         <v>2019</v>
       </c>
       <c r="F398" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G398" s="3" t="s">
         <v>31</v>
@@ -23912,45 +24008,45 @@
         <v>108</v>
       </c>
       <c r="O398" t="s">
+        <v>2020</v>
+      </c>
+      <c r="P398" t="s">
         <v>2021</v>
       </c>
-      <c r="P398" t="s">
+      <c r="Q398" t="s">
+        <v>2010</v>
+      </c>
+      <c r="R398" t="s">
         <v>2022</v>
       </c>
-      <c r="Q398" t="s">
-        <v>2011</v>
-      </c>
-      <c r="R398" t="s">
+      <c r="S398" t="s">
         <v>2023</v>
       </c>
-      <c r="S398" t="s">
+      <c r="T398" t="s">
+        <v>2016</v>
+      </c>
+      <c r="U398" t="s">
         <v>2024</v>
       </c>
-      <c r="T398" t="s">
-        <v>2017</v>
-      </c>
-      <c r="U398" t="s">
+    </row>
+    <row r="399" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
         <v>2025</v>
       </c>
-    </row>
-    <row r="399" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A399" t="s">
+      <c r="B399" t="s">
+        <v>22</v>
+      </c>
+      <c r="C399" t="s">
+        <v>23</v>
+      </c>
+      <c r="D399" t="s">
         <v>2026</v>
-      </c>
-      <c r="B399" t="s">
-        <v>22</v>
-      </c>
-      <c r="C399" t="s">
-        <v>23</v>
-      </c>
-      <c r="D399" t="s">
-        <v>2027</v>
       </c>
       <c r="E399" s="3">
         <v>2011</v>
       </c>
       <c r="F399" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="G399" s="3" t="s">
         <v>31</v>
@@ -23962,45 +24058,45 @@
         <v>140</v>
       </c>
       <c r="O399" t="s">
+        <v>2028</v>
+      </c>
+      <c r="P399" t="s">
         <v>2029</v>
       </c>
-      <c r="P399" t="s">
-        <v>2030</v>
-      </c>
       <c r="Q399" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="R399" t="s">
         <v>1021</v>
       </c>
       <c r="S399" t="s">
+        <v>2030</v>
+      </c>
+      <c r="T399" t="s">
         <v>2031</v>
       </c>
-      <c r="T399" t="s">
+      <c r="U399" t="s">
         <v>2032</v>
       </c>
-      <c r="U399" t="s">
+    </row>
+    <row r="400" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
         <v>2033</v>
       </c>
-    </row>
-    <row r="400" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A400" t="s">
+      <c r="B400" t="s">
+        <v>22</v>
+      </c>
+      <c r="C400" t="s">
+        <v>23</v>
+      </c>
+      <c r="D400" t="s">
         <v>2034</v>
-      </c>
-      <c r="B400" t="s">
-        <v>22</v>
-      </c>
-      <c r="C400" t="s">
-        <v>23</v>
-      </c>
-      <c r="D400" t="s">
-        <v>2035</v>
       </c>
       <c r="E400" s="3">
         <v>2019</v>
       </c>
       <c r="F400" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="G400" s="3" t="s">
         <v>31</v>
@@ -24012,27 +24108,27 @@
         <v>95</v>
       </c>
       <c r="O400" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="401" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
         <v>2036</v>
       </c>
-    </row>
-    <row r="401" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A401" t="s">
+      <c r="B401" t="s">
+        <v>22</v>
+      </c>
+      <c r="C401" t="s">
+        <v>23</v>
+      </c>
+      <c r="D401" t="s">
         <v>2037</v>
-      </c>
-      <c r="B401" t="s">
-        <v>22</v>
-      </c>
-      <c r="C401" t="s">
-        <v>23</v>
-      </c>
-      <c r="D401" t="s">
-        <v>2038</v>
       </c>
       <c r="E401" s="3">
         <v>2017</v>
       </c>
       <c r="F401" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="G401" s="3" t="s">
         <v>25</v>
@@ -24047,24 +24143,24 @@
         <v>204</v>
       </c>
     </row>
-    <row r="402" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
+        <v>2039</v>
+      </c>
+      <c r="B402" t="s">
+        <v>22</v>
+      </c>
+      <c r="C402" t="s">
+        <v>23</v>
+      </c>
+      <c r="D402" t="s">
         <v>2040</v>
-      </c>
-      <c r="B402" t="s">
-        <v>22</v>
-      </c>
-      <c r="C402" t="s">
-        <v>23</v>
-      </c>
-      <c r="D402" t="s">
-        <v>2041</v>
       </c>
       <c r="E402" s="3">
         <v>1970</v>
       </c>
       <c r="F402" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="G402" s="3" t="s">
         <v>31</v>
@@ -24076,7 +24172,7 @@
         <v>695</v>
       </c>
       <c r="K402" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="L402" s="3" t="s">
         <v>31</v>
@@ -24088,12 +24184,12 @@
         <v>576</v>
       </c>
       <c r="P402" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="403" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
         <v>2044</v>
-      </c>
-    </row>
-    <row r="403" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A403" t="s">
-        <v>2045</v>
       </c>
       <c r="B403" t="s">
         <v>22</v>
@@ -24102,13 +24198,13 @@
         <v>53</v>
       </c>
       <c r="D403" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="E403" s="3">
         <v>2016</v>
       </c>
       <c r="F403" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="G403" s="3" t="s">
         <v>31</v>
@@ -24120,12 +24216,12 @@
         <v>127</v>
       </c>
       <c r="O403" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="404" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
         <v>2048</v>
-      </c>
-    </row>
-    <row r="404" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A404" t="s">
-        <v>2049</v>
       </c>
       <c r="B404" t="s">
         <v>22</v>
@@ -24140,16 +24236,16 @@
         <v>2010</v>
       </c>
       <c r="F404" t="s">
+        <v>2049</v>
+      </c>
+      <c r="G404" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I404" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K404" t="s">
         <v>2050</v>
-      </c>
-      <c r="G404" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I404" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K404" t="s">
-        <v>2051</v>
       </c>
       <c r="L404" s="3" t="s">
         <v>31</v>
@@ -24161,12 +24257,12 @@
         <v>428</v>
       </c>
       <c r="P404" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="405" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
         <v>2052</v>
-      </c>
-    </row>
-    <row r="405" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A405" t="s">
-        <v>2053</v>
       </c>
       <c r="B405" t="s">
         <v>22</v>
@@ -24181,7 +24277,7 @@
         <v>2013</v>
       </c>
       <c r="F405" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="G405" s="3" t="s">
         <v>31</v>
@@ -24202,33 +24298,33 @@
         <v>281</v>
       </c>
     </row>
-    <row r="406" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
+        <v>2053</v>
+      </c>
+      <c r="B406" t="s">
+        <v>22</v>
+      </c>
+      <c r="C406" t="s">
+        <v>23</v>
+      </c>
+      <c r="D406" t="s">
         <v>2054</v>
-      </c>
-      <c r="B406" t="s">
-        <v>22</v>
-      </c>
-      <c r="C406" t="s">
-        <v>23</v>
-      </c>
-      <c r="D406" t="s">
-        <v>2055</v>
       </c>
       <c r="E406" s="3">
         <v>1988</v>
       </c>
       <c r="F406" t="s">
+        <v>2055</v>
+      </c>
+      <c r="G406" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I406" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K406" t="s">
         <v>2056</v>
-      </c>
-      <c r="G406" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I406" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K406" t="s">
-        <v>2057</v>
       </c>
       <c r="L406" s="3" t="s">
         <v>31</v>
@@ -24237,42 +24333,42 @@
         <v>92</v>
       </c>
       <c r="O406" t="s">
+        <v>2057</v>
+      </c>
+      <c r="Q406" t="s">
         <v>2058</v>
       </c>
-      <c r="Q406" t="s">
+      <c r="R406" t="s">
         <v>2059</v>
       </c>
-      <c r="R406" t="s">
+      <c r="S406" t="s">
         <v>2060</v>
       </c>
-      <c r="S406" t="s">
+      <c r="T406" t="s">
         <v>2061</v>
       </c>
-      <c r="T406" t="s">
+      <c r="U406" t="s">
         <v>2062</v>
       </c>
-      <c r="U406" t="s">
+    </row>
+    <row r="407" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
         <v>2063</v>
       </c>
-    </row>
-    <row r="407" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A407" t="s">
+      <c r="B407" t="s">
+        <v>22</v>
+      </c>
+      <c r="C407" t="s">
+        <v>23</v>
+      </c>
+      <c r="D407" t="s">
         <v>2064</v>
-      </c>
-      <c r="B407" t="s">
-        <v>22</v>
-      </c>
-      <c r="C407" t="s">
-        <v>23</v>
-      </c>
-      <c r="D407" t="s">
-        <v>2065</v>
       </c>
       <c r="E407" s="3">
         <v>2005</v>
       </c>
       <c r="F407" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="G407" s="3" t="s">
         <v>31</v>
@@ -24284,15 +24380,15 @@
         <v>110</v>
       </c>
       <c r="O407" t="s">
+        <v>2065</v>
+      </c>
+      <c r="P407" t="s">
         <v>2066</v>
       </c>
-      <c r="P407" t="s">
+    </row>
+    <row r="408" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
         <v>2067</v>
-      </c>
-    </row>
-    <row r="408" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A408" t="s">
-        <v>2068</v>
       </c>
       <c r="B408" t="s">
         <v>397</v>
@@ -24301,13 +24397,13 @@
         <v>23</v>
       </c>
       <c r="D408" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="E408" s="3">
         <v>2022</v>
       </c>
       <c r="F408" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="G408" s="3" t="s">
         <v>31</v>
@@ -24319,34 +24415,34 @@
         <v>25</v>
       </c>
       <c r="M408" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="N408" s="3">
         <v>45</v>
       </c>
       <c r="O408" t="s">
+        <v>2070</v>
+      </c>
+      <c r="Q408" t="s">
         <v>2071</v>
       </c>
-      <c r="Q408" t="s">
+      <c r="R408" t="s">
         <v>2072</v>
       </c>
-      <c r="R408" t="s">
+      <c r="S408" t="s">
         <v>2073</v>
       </c>
-      <c r="S408" t="s">
+      <c r="T408" t="s">
         <v>2074</v>
       </c>
-      <c r="T408" t="s">
+      <c r="U408" t="s">
         <v>2075</v>
       </c>
-      <c r="U408" t="s">
+    </row>
+    <row r="409" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
         <v>2076</v>
       </c>
-    </row>
-    <row r="409" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A409" t="s">
-        <v>2077</v>
-      </c>
       <c r="B409" t="s">
         <v>22</v>
       </c>
@@ -24354,13 +24450,13 @@
         <v>23</v>
       </c>
       <c r="D409" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="E409" s="3">
         <v>2024</v>
       </c>
       <c r="F409" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="G409" s="3" t="s">
         <v>31</v>
@@ -24369,7 +24465,7 @@
         <v>31</v>
       </c>
       <c r="J409" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="L409" s="3" t="s">
         <v>31</v>
@@ -24378,54 +24474,54 @@
         <v>105</v>
       </c>
       <c r="O409" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="Q409" t="s">
+        <v>2077</v>
+      </c>
+      <c r="R409" t="s">
+        <v>2059</v>
+      </c>
+      <c r="S409" t="s">
         <v>2078</v>
-      </c>
-      <c r="R409" t="s">
-        <v>2060</v>
-      </c>
-      <c r="S409" t="s">
-        <v>2079</v>
       </c>
       <c r="T409" t="s">
         <v>916</v>
       </c>
       <c r="U409" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="410" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
         <v>2080</v>
       </c>
-    </row>
-    <row r="410" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A410" t="s">
+      <c r="B410" t="s">
+        <v>22</v>
+      </c>
+      <c r="C410" t="s">
+        <v>23</v>
+      </c>
+      <c r="D410" t="s">
         <v>2081</v>
-      </c>
-      <c r="B410" t="s">
-        <v>22</v>
-      </c>
-      <c r="C410" t="s">
-        <v>23</v>
-      </c>
-      <c r="D410" t="s">
-        <v>2082</v>
       </c>
       <c r="E410" s="3">
         <v>2005</v>
       </c>
       <c r="F410" t="s">
+        <v>2082</v>
+      </c>
+      <c r="G410" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I410" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L410" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M410" t="s">
         <v>2083</v>
-      </c>
-      <c r="G410" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I410" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L410" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M410" t="s">
-        <v>2084</v>
       </c>
       <c r="N410" s="3">
         <v>106</v>
@@ -24434,24 +24530,24 @@
         <v>215</v>
       </c>
       <c r="Q410" t="s">
+        <v>2084</v>
+      </c>
+      <c r="R410" t="s">
         <v>2085</v>
       </c>
-      <c r="R410" t="s">
+      <c r="S410" t="s">
         <v>2086</v>
       </c>
-      <c r="S410" t="s">
+      <c r="T410" t="s">
         <v>2087</v>
       </c>
-      <c r="T410" t="s">
+      <c r="U410" t="s">
         <v>2088</v>
       </c>
-      <c r="U410" t="s">
+    </row>
+    <row r="411" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
         <v>2089</v>
-      </c>
-    </row>
-    <row r="411" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A411" t="s">
-        <v>2090</v>
       </c>
       <c r="B411" t="s">
         <v>22</v>
@@ -24460,13 +24556,13 @@
         <v>53</v>
       </c>
       <c r="D411" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="E411" s="3">
         <v>2017</v>
       </c>
       <c r="F411" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="G411" s="3" t="s">
         <v>25</v>
@@ -24481,9 +24577,9 @@
         <v>414</v>
       </c>
     </row>
-    <row r="412" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="B412" t="s">
         <v>22</v>
@@ -24492,13 +24588,13 @@
         <v>53</v>
       </c>
       <c r="D412" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="E412" s="3">
         <v>2015</v>
       </c>
       <c r="F412" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="G412" s="3" t="s">
         <v>31</v>
@@ -24510,30 +24606,30 @@
         <v>118</v>
       </c>
       <c r="O412" t="s">
+        <v>2095</v>
+      </c>
+      <c r="P412" t="s">
         <v>2096</v>
       </c>
-      <c r="P412" t="s">
-        <v>2097</v>
-      </c>
       <c r="Q412" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="R412" t="s">
         <v>1161</v>
       </c>
       <c r="S412" t="s">
+        <v>2097</v>
+      </c>
+      <c r="T412" t="s">
         <v>2098</v>
       </c>
-      <c r="T412" t="s">
+      <c r="U412" t="s">
         <v>2099</v>
       </c>
-      <c r="U412" t="s">
+    </row>
+    <row r="413" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
         <v>2100</v>
-      </c>
-    </row>
-    <row r="413" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A413" t="s">
-        <v>2101</v>
       </c>
       <c r="B413" t="s">
         <v>22</v>
@@ -24542,25 +24638,25 @@
         <v>53</v>
       </c>
       <c r="D413" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="E413" s="3">
         <v>2019</v>
       </c>
       <c r="F413" t="s">
+        <v>2102</v>
+      </c>
+      <c r="G413" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I413" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L413" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M413" t="s">
         <v>2103</v>
-      </c>
-      <c r="G413" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I413" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L413" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M413" t="s">
-        <v>2104</v>
       </c>
       <c r="N413" s="3">
         <v>122</v>
@@ -24569,27 +24665,27 @@
         <v>204</v>
       </c>
       <c r="P413" t="s">
+        <v>2104</v>
+      </c>
+      <c r="Q413" t="s">
         <v>2105</v>
       </c>
-      <c r="Q413" t="s">
+      <c r="R413" t="s">
         <v>2106</v>
       </c>
-      <c r="R413" t="s">
+      <c r="S413" t="s">
         <v>2107</v>
       </c>
-      <c r="S413" t="s">
+      <c r="T413" t="s">
         <v>2108</v>
       </c>
-      <c r="T413" t="s">
+      <c r="U413" t="s">
         <v>2109</v>
       </c>
-      <c r="U413" t="s">
+    </row>
+    <row r="414" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
         <v>2110</v>
-      </c>
-    </row>
-    <row r="414" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A414" t="s">
-        <v>2111</v>
       </c>
       <c r="B414" t="s">
         <v>397</v>
@@ -24598,25 +24694,25 @@
         <v>23</v>
       </c>
       <c r="D414" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="E414" s="3">
         <v>1988</v>
       </c>
       <c r="F414" t="s">
+        <v>2112</v>
+      </c>
+      <c r="G414" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I414" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L414" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M414" t="s">
         <v>2113</v>
-      </c>
-      <c r="G414" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I414" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L414" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M414" t="s">
-        <v>2114</v>
       </c>
       <c r="N414" s="3">
         <v>30</v>
@@ -24625,42 +24721,42 @@
         <v>1356</v>
       </c>
       <c r="P414" t="s">
+        <v>2114</v>
+      </c>
+      <c r="Q414" t="s">
         <v>2115</v>
       </c>
-      <c r="Q414" t="s">
+    </row>
+    <row r="415" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
         <v>2116</v>
       </c>
-    </row>
-    <row r="415" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A415" t="s">
+      <c r="B415" t="s">
+        <v>22</v>
+      </c>
+      <c r="C415" t="s">
+        <v>23</v>
+      </c>
+      <c r="D415" t="s">
         <v>2117</v>
-      </c>
-      <c r="B415" t="s">
-        <v>22</v>
-      </c>
-      <c r="C415" t="s">
-        <v>23</v>
-      </c>
-      <c r="D415" t="s">
-        <v>2118</v>
       </c>
       <c r="E415" s="3">
         <v>1986</v>
       </c>
       <c r="F415" t="s">
+        <v>2118</v>
+      </c>
+      <c r="G415" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I415" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L415" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M415" t="s">
         <v>2119</v>
-      </c>
-      <c r="G415" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I415" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L415" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M415" t="s">
-        <v>2120</v>
       </c>
       <c r="N415" s="3">
         <v>105</v>
@@ -24669,9 +24765,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="416" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="B416" t="s">
         <v>22</v>
@@ -24680,22 +24776,22 @@
         <v>23</v>
       </c>
       <c r="D416" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="E416" s="3">
         <v>2014</v>
       </c>
       <c r="F416" t="s">
+        <v>2121</v>
+      </c>
+      <c r="G416" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I416" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J416" t="s">
         <v>2122</v>
-      </c>
-      <c r="G416" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I416" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J416" t="s">
-        <v>2123</v>
       </c>
       <c r="L416" s="3" t="s">
         <v>31</v>
@@ -24707,9 +24803,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="417" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="B417" t="s">
         <v>22</v>
@@ -24724,7 +24820,7 @@
         <v>2017</v>
       </c>
       <c r="F417" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="G417" s="3" t="s">
         <v>31</v>
@@ -24733,7 +24829,7 @@
         <v>31</v>
       </c>
       <c r="J417" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="L417" s="3" t="s">
         <v>31</v>
@@ -24742,45 +24838,45 @@
         <v>89</v>
       </c>
       <c r="O417" t="s">
+        <v>2125</v>
+      </c>
+      <c r="P417" t="s">
         <v>2126</v>
       </c>
-      <c r="P417" t="s">
+      <c r="Q417" t="s">
         <v>2127</v>
       </c>
-      <c r="Q417" t="s">
+      <c r="R417" t="s">
+        <v>1796</v>
+      </c>
+      <c r="S417" t="s">
         <v>2128</v>
-      </c>
-      <c r="R417" t="s">
-        <v>1797</v>
-      </c>
-      <c r="S417" t="s">
-        <v>2129</v>
       </c>
       <c r="T417" t="s">
         <v>614</v>
       </c>
       <c r="U417" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="418" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
         <v>2130</v>
       </c>
-    </row>
-    <row r="418" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A418" t="s">
+      <c r="B418" t="s">
+        <v>22</v>
+      </c>
+      <c r="C418" t="s">
+        <v>23</v>
+      </c>
+      <c r="D418" t="s">
         <v>2131</v>
-      </c>
-      <c r="B418" t="s">
-        <v>22</v>
-      </c>
-      <c r="C418" t="s">
-        <v>23</v>
-      </c>
-      <c r="D418" t="s">
-        <v>2132</v>
       </c>
       <c r="E418" s="3">
         <v>2018</v>
       </c>
       <c r="F418" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="G418" s="3" t="s">
         <v>31</v>
@@ -24792,27 +24888,27 @@
         <v>91</v>
       </c>
       <c r="O418" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="419" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
         <v>2134</v>
       </c>
-    </row>
-    <row r="419" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A419" t="s">
+      <c r="B419" t="s">
+        <v>22</v>
+      </c>
+      <c r="C419" t="s">
+        <v>23</v>
+      </c>
+      <c r="D419" t="s">
         <v>2135</v>
-      </c>
-      <c r="B419" t="s">
-        <v>22</v>
-      </c>
-      <c r="C419" t="s">
-        <v>23</v>
-      </c>
-      <c r="D419" t="s">
-        <v>2136</v>
       </c>
       <c r="E419" s="3">
         <v>2020</v>
       </c>
       <c r="F419" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="G419" s="3" t="s">
         <v>31</v>
@@ -24824,7 +24920,7 @@
         <v>1386</v>
       </c>
       <c r="K419" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="L419" s="3" t="s">
         <v>31</v>
@@ -24836,9 +24932,9 @@
         <v>269</v>
       </c>
     </row>
-    <row r="420" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="B420" t="s">
         <v>22</v>
@@ -24847,22 +24943,22 @@
         <v>23</v>
       </c>
       <c r="D420" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="E420" s="3">
         <v>2023</v>
       </c>
       <c r="F420" t="s">
+        <v>2139</v>
+      </c>
+      <c r="G420" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I420" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J420" t="s">
         <v>2140</v>
-      </c>
-      <c r="G420" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I420" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J420" t="s">
-        <v>2141</v>
       </c>
       <c r="L420" s="3" t="s">
         <v>31</v>
@@ -24874,9 +24970,9 @@
         <v>269</v>
       </c>
     </row>
-    <row r="421" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="B421" t="s">
         <v>22</v>
@@ -24885,19 +24981,19 @@
         <v>53</v>
       </c>
       <c r="D421" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="E421" s="3">
         <v>2014</v>
       </c>
       <c r="F421" t="s">
+        <v>2143</v>
+      </c>
+      <c r="G421" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H421" t="s">
         <v>2144</v>
-      </c>
-      <c r="G421" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H421" t="s">
-        <v>2145</v>
       </c>
       <c r="I421" s="3" t="s">
         <v>25</v>
@@ -24909,24 +25005,24 @@
         <v>41</v>
       </c>
     </row>
-    <row r="422" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
+        <v>2145</v>
+      </c>
+      <c r="B422" t="s">
+        <v>22</v>
+      </c>
+      <c r="C422" t="s">
+        <v>23</v>
+      </c>
+      <c r="D422" t="s">
         <v>2146</v>
-      </c>
-      <c r="B422" t="s">
-        <v>22</v>
-      </c>
-      <c r="C422" t="s">
-        <v>23</v>
-      </c>
-      <c r="D422" t="s">
-        <v>2147</v>
       </c>
       <c r="E422" s="3">
         <v>2018</v>
       </c>
       <c r="F422" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="G422" s="3" t="s">
         <v>31</v>
@@ -24938,54 +25034,54 @@
         <v>97</v>
       </c>
       <c r="O422" t="s">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="423" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
         <v>2148</v>
       </c>
-    </row>
-    <row r="423" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A423" t="s">
+      <c r="B423" t="s">
+        <v>22</v>
+      </c>
+      <c r="C423" t="s">
+        <v>23</v>
+      </c>
+      <c r="D423" t="s">
         <v>2149</v>
-      </c>
-      <c r="B423" t="s">
-        <v>22</v>
-      </c>
-      <c r="C423" t="s">
-        <v>23</v>
-      </c>
-      <c r="D423" t="s">
-        <v>2150</v>
       </c>
       <c r="E423" s="3">
         <v>2014</v>
       </c>
       <c r="F423" t="s">
+        <v>2150</v>
+      </c>
+      <c r="G423" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I423" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K423" t="s">
         <v>2151</v>
       </c>
-      <c r="G423" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I423" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K423" t="s">
+      <c r="L423" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M423" t="s">
         <v>2152</v>
-      </c>
-      <c r="L423" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M423" t="s">
-        <v>2153</v>
       </c>
       <c r="N423" s="3">
         <v>109</v>
       </c>
       <c r="O423" t="s">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="424" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
         <v>2154</v>
       </c>
-    </row>
-    <row r="424" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A424" t="s">
-        <v>2155</v>
-      </c>
       <c r="B424" t="s">
         <v>22</v>
       </c>
@@ -24993,13 +25089,13 @@
         <v>23</v>
       </c>
       <c r="D424" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="E424" s="3">
         <v>2015</v>
       </c>
       <c r="F424" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="G424" s="3" t="s">
         <v>25</v>
@@ -25008,13 +25104,13 @@
         <v>31</v>
       </c>
       <c r="J424" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="L424" s="3" t="s">
         <v>25</v>
       </c>
       <c r="M424" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="N424" s="3">
         <v>126</v>
@@ -25023,24 +25119,24 @@
         <v>55</v>
       </c>
     </row>
-    <row r="425" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
+        <v>2155</v>
+      </c>
+      <c r="B425" t="s">
+        <v>22</v>
+      </c>
+      <c r="C425" t="s">
+        <v>23</v>
+      </c>
+      <c r="D425" t="s">
         <v>2156</v>
-      </c>
-      <c r="B425" t="s">
-        <v>22</v>
-      </c>
-      <c r="C425" t="s">
-        <v>23</v>
-      </c>
-      <c r="D425" t="s">
-        <v>2157</v>
       </c>
       <c r="E425" s="3">
         <v>2010</v>
       </c>
       <c r="F425" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="G425" s="3" t="s">
         <v>31</v>
@@ -25055,42 +25151,42 @@
         <v>1459</v>
       </c>
       <c r="P425" t="s">
+        <v>2158</v>
+      </c>
+      <c r="Q425" t="s">
         <v>2159</v>
       </c>
-      <c r="Q425" t="s">
+      <c r="R425" t="s">
         <v>2160</v>
       </c>
-      <c r="R425" t="s">
+      <c r="S425" t="s">
         <v>2161</v>
       </c>
-      <c r="S425" t="s">
+      <c r="T425" t="s">
         <v>2162</v>
       </c>
-      <c r="T425" t="s">
+      <c r="U425" t="s">
         <v>2163</v>
       </c>
-      <c r="U425" t="s">
+    </row>
+    <row r="426" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
         <v>2164</v>
       </c>
-    </row>
-    <row r="426" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A426" t="s">
+      <c r="B426" t="s">
+        <v>22</v>
+      </c>
+      <c r="C426" t="s">
+        <v>23</v>
+      </c>
+      <c r="D426" t="s">
         <v>2165</v>
-      </c>
-      <c r="B426" t="s">
-        <v>22</v>
-      </c>
-      <c r="C426" t="s">
-        <v>23</v>
-      </c>
-      <c r="D426" t="s">
-        <v>2166</v>
       </c>
       <c r="E426" s="3">
         <v>2018</v>
       </c>
       <c r="F426" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="G426" s="3" t="s">
         <v>31</v>
@@ -25102,7 +25198,7 @@
         <v>25</v>
       </c>
       <c r="M426" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="N426" s="3">
         <v>91</v>
@@ -25111,42 +25207,42 @@
         <v>747</v>
       </c>
       <c r="P426" t="s">
+        <v>2167</v>
+      </c>
+      <c r="Q426" t="s">
         <v>2168</v>
       </c>
-      <c r="Q426" t="s">
+      <c r="R426" t="s">
         <v>2169</v>
       </c>
-      <c r="R426" t="s">
+      <c r="S426" t="s">
         <v>2170</v>
       </c>
-      <c r="S426" t="s">
+      <c r="T426" t="s">
         <v>2171</v>
       </c>
-      <c r="T426" t="s">
+      <c r="U426" t="s">
         <v>2172</v>
       </c>
-      <c r="U426" t="s">
+    </row>
+    <row r="427" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
         <v>2173</v>
       </c>
-    </row>
-    <row r="427" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A427" t="s">
+      <c r="B427" t="s">
+        <v>22</v>
+      </c>
+      <c r="C427" t="s">
+        <v>23</v>
+      </c>
+      <c r="D427" t="s">
         <v>2174</v>
-      </c>
-      <c r="B427" t="s">
-        <v>22</v>
-      </c>
-      <c r="C427" t="s">
-        <v>23</v>
-      </c>
-      <c r="D427" t="s">
-        <v>2175</v>
       </c>
       <c r="E427" s="3">
         <v>2017</v>
       </c>
       <c r="F427" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="G427" s="3" t="s">
         <v>25</v>
@@ -25158,27 +25254,27 @@
         <v>107</v>
       </c>
       <c r="O427" t="s">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="428" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
         <v>2177</v>
       </c>
-    </row>
-    <row r="428" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A428" t="s">
+      <c r="B428" t="s">
+        <v>22</v>
+      </c>
+      <c r="C428" t="s">
+        <v>23</v>
+      </c>
+      <c r="D428" t="s">
         <v>2178</v>
-      </c>
-      <c r="B428" t="s">
-        <v>22</v>
-      </c>
-      <c r="C428" t="s">
-        <v>23</v>
-      </c>
-      <c r="D428" t="s">
-        <v>2179</v>
       </c>
       <c r="E428" s="3">
         <v>2018</v>
       </c>
       <c r="F428" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="G428" s="3" t="s">
         <v>31</v>
@@ -25190,12 +25286,12 @@
         <v>115</v>
       </c>
       <c r="O428" t="s">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="429" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
         <v>2181</v>
-      </c>
-    </row>
-    <row r="429" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A429" t="s">
-        <v>2182</v>
       </c>
       <c r="B429" t="s">
         <v>22</v>
@@ -25204,13 +25300,13 @@
         <v>53</v>
       </c>
       <c r="D429" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="E429" s="3">
         <v>2016</v>
       </c>
       <c r="F429" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="G429" s="3" t="s">
         <v>25</v>
@@ -25222,15 +25318,15 @@
         <v>151</v>
       </c>
       <c r="O429" t="s">
+        <v>2184</v>
+      </c>
+      <c r="P429" t="s">
         <v>2185</v>
       </c>
-      <c r="P429" t="s">
+    </row>
+    <row r="430" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
         <v>2186</v>
-      </c>
-    </row>
-    <row r="430" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A430" t="s">
-        <v>2187</v>
       </c>
       <c r="B430" t="s">
         <v>22</v>
@@ -25239,13 +25335,13 @@
         <v>53</v>
       </c>
       <c r="D430" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="E430" s="3">
         <v>2017</v>
       </c>
       <c r="F430" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="G430" s="3" t="s">
         <v>31</v>
@@ -25260,24 +25356,24 @@
         <v>113</v>
       </c>
     </row>
-    <row r="431" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
+        <v>2188</v>
+      </c>
+      <c r="B431" t="s">
+        <v>22</v>
+      </c>
+      <c r="C431" t="s">
+        <v>23</v>
+      </c>
+      <c r="D431" t="s">
         <v>2189</v>
-      </c>
-      <c r="B431" t="s">
-        <v>22</v>
-      </c>
-      <c r="C431" t="s">
-        <v>23</v>
-      </c>
-      <c r="D431" t="s">
-        <v>2190</v>
       </c>
       <c r="E431" s="3">
         <v>2024</v>
       </c>
       <c r="F431" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="G431" s="3" t="s">
         <v>25</v>
@@ -25289,25 +25385,25 @@
         <v>102</v>
       </c>
       <c r="O431" t="s">
+        <v>2191</v>
+      </c>
+      <c r="Q431" t="s">
         <v>2192</v>
       </c>
-      <c r="Q431" t="s">
+      <c r="R431" t="s">
         <v>2193</v>
       </c>
-      <c r="R431" t="s">
+      <c r="S431" t="s">
         <v>2194</v>
       </c>
-      <c r="S431" t="s">
+      <c r="T431" t="s">
         <v>2195</v>
       </c>
-      <c r="T431" t="s">
+      <c r="U431" t="s">
         <v>2196</v>
       </c>
-      <c r="U431" t="s">
-        <v>2197</v>
-      </c>
-    </row>
-    <row r="432" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="432" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>21</v>
       </c>
@@ -25337,6 +25433,188 @@
       </c>
       <c r="P432" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="433" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>2232</v>
+      </c>
+      <c r="B433" t="s">
+        <v>22</v>
+      </c>
+      <c r="C433" t="s">
+        <v>53</v>
+      </c>
+      <c r="D433" t="s">
+        <v>2233</v>
+      </c>
+      <c r="E433" s="3">
+        <v>2025</v>
+      </c>
+      <c r="F433" t="s">
+        <v>1749</v>
+      </c>
+      <c r="G433" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I433" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N433" s="3">
+        <v>137</v>
+      </c>
+      <c r="O433" t="s">
+        <v>2234</v>
+      </c>
+      <c r="Q433" t="s">
+        <v>1749</v>
+      </c>
+      <c r="R433" t="s">
+        <v>2235</v>
+      </c>
+      <c r="S433" t="s">
+        <v>2238</v>
+      </c>
+      <c r="T433" t="s">
+        <v>2236</v>
+      </c>
+      <c r="U433" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="434" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>2239</v>
+      </c>
+      <c r="B434" t="s">
+        <v>22</v>
+      </c>
+      <c r="C434" t="s">
+        <v>53</v>
+      </c>
+      <c r="D434" t="s">
+        <v>2240</v>
+      </c>
+      <c r="E434" s="3">
+        <v>2021</v>
+      </c>
+      <c r="F434" t="s">
+        <v>2241</v>
+      </c>
+      <c r="G434" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I434" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N434" s="3">
+        <v>156</v>
+      </c>
+      <c r="O434" t="s">
+        <v>2242</v>
+      </c>
+      <c r="Q434" t="s">
+        <v>2243</v>
+      </c>
+      <c r="R434" t="s">
+        <v>2244</v>
+      </c>
+      <c r="S434" t="s">
+        <v>2245</v>
+      </c>
+      <c r="T434" t="s">
+        <v>60</v>
+      </c>
+      <c r="U434" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="435" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>2247</v>
+      </c>
+      <c r="B435" t="s">
+        <v>22</v>
+      </c>
+      <c r="C435" t="s">
+        <v>53</v>
+      </c>
+      <c r="D435" t="s">
+        <v>2248</v>
+      </c>
+      <c r="E435" s="3">
+        <v>2023</v>
+      </c>
+      <c r="F435" t="s">
+        <v>2249</v>
+      </c>
+      <c r="G435" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I435" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N435" s="3">
+        <v>103</v>
+      </c>
+      <c r="O435" t="s">
+        <v>2250</v>
+      </c>
+      <c r="Q435" t="s">
+        <v>2249</v>
+      </c>
+      <c r="R435" t="s">
+        <v>2252</v>
+      </c>
+      <c r="U435" t="s">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="436" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
+        <v>2253</v>
+      </c>
+      <c r="B436" t="s">
+        <v>397</v>
+      </c>
+      <c r="C436" t="s">
+        <v>53</v>
+      </c>
+      <c r="D436" t="s">
+        <v>2254</v>
+      </c>
+      <c r="E436" s="3">
+        <v>2018</v>
+      </c>
+      <c r="F436" t="s">
+        <v>2255</v>
+      </c>
+      <c r="G436" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I436" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N436" s="3">
+        <v>60</v>
+      </c>
+      <c r="O436" t="s">
+        <v>2035</v>
+      </c>
+      <c r="Q436" t="s">
+        <v>2255</v>
+      </c>
+      <c r="R436" t="s">
+        <v>2257</v>
+      </c>
+      <c r="S436" t="s">
+        <v>2258</v>
+      </c>
+      <c r="T436" t="s">
+        <v>2259</v>
+      </c>
+      <c r="U436" t="s">
+        <v>2256</v>
       </c>
     </row>
   </sheetData>

--- a/content/database.xlsx
+++ b/content/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hannah\life\dabad2_0\dabad\content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA75449D-5C58-42CE-81B8-704418845EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7A4A59-0672-47F3-9387-CBDFCA8428C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{19379007-CF45-4D83-A844-C3FD6EF3BA4D}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5768" uniqueCount="2731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5768" uniqueCount="2730">
   <si>
     <t>ID</t>
   </si>
@@ -7081,15 +7081,6 @@
     <t>Django Unchained</t>
   </si>
   <si>
-    <t>Pirates of the Caribbean: The Curse of the Black Pearl</t>
-  </si>
-  <si>
-    <t>Pirates of the Caribbean: Dead Man's Chest</t>
-  </si>
-  <si>
-    <t>Pirates of the Caribbean: At World's End</t>
-  </si>
-  <si>
     <t>Titanic</t>
   </si>
   <si>
@@ -7585,15 +7576,6 @@
     <t>Jamie Foxx, Christoph Waltz, Leonardo DiCaprio, Kerry Washington, Samuel L. Jackson, Walton Goggins, Dennis Christopher, James Remar, David Stehen</t>
   </si>
   <si>
-    <t>Pirates_Of_The_Carribean_The_Curse_Of_The_Black_Pearl_2003</t>
-  </si>
-  <si>
-    <t>Pirates_Of_The_Carribean_Dead_Mans_Chest_2006</t>
-  </si>
-  <si>
-    <t>Pirates_Of_The_Carribean_At_Worlds_End_2007</t>
-  </si>
-  <si>
     <t>Pirates of the Carribean: Dead Man's Chest, Pirates of the Carribean: At World's End</t>
   </si>
   <si>
@@ -8182,9 +8164,6 @@
     <t>Adam Elliot</t>
   </si>
   <si>
-    <t>Animaton, Comedy, Drama</t>
-  </si>
-  <si>
     <t>Jacki Weaver, Sarah Snook, Charlotte Belsey, Agnes Davison, Mason Litsos, Daniel Agdag, Eric Bana, Kodi Smit-McPhee</t>
   </si>
   <si>
@@ -8216,6 +8195,24 @@
   </si>
   <si>
     <t>Margaret Qualley, Geraldine Viswanathan, Beanie Feldstein, Joey Slotnick, C.J. Wilson, Colman Domingo, Pedro Pascal, Bill Camp, Matt Damon</t>
+  </si>
+  <si>
+    <t>Pirates of the Carribbean: The Curse of the Black Pearl</t>
+  </si>
+  <si>
+    <t>Pirates of the Carribbean: Dead Man's Chest</t>
+  </si>
+  <si>
+    <t>Pirates of the Carribbean: At World's End</t>
+  </si>
+  <si>
+    <t>Pirates_Of_The_Carribbean_At_Worlds_End_2007</t>
+  </si>
+  <si>
+    <t>Pirates_Of_The_Carribbean_Dead_Mans_Chest_2006</t>
+  </si>
+  <si>
+    <t>Pirates_Of_The_Carribbean_The_Curse_Of_The_Black_Pearl_2003</t>
   </si>
 </sst>
 </file>
@@ -9092,9 +9089,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A95FB3FF-36B5-4204-8D1D-937EE61C148B}">
   <dimension ref="A1:U507"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A399" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F476" sqref="F476"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="108" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9221,7 +9218,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2716</v>
+        <v>2710</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
@@ -9230,13 +9227,13 @@
         <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>2717</v>
+        <v>2711</v>
       </c>
       <c r="E3" s="3">
         <v>2024</v>
       </c>
       <c r="F3" t="s">
-        <v>2718</v>
+        <v>2712</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>31</v>
@@ -9248,19 +9245,19 @@
         <v>95</v>
       </c>
       <c r="O3" t="s">
-        <v>2719</v>
+        <v>2248</v>
       </c>
       <c r="Q3" t="s">
-        <v>2718</v>
+        <v>2712</v>
       </c>
       <c r="R3" t="s">
-        <v>2721</v>
+        <v>2714</v>
       </c>
       <c r="S3" t="s">
-        <v>2722</v>
+        <v>2715</v>
       </c>
       <c r="U3" t="s">
-        <v>2720</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
@@ -9479,7 +9476,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>2594</v>
+        <v>2588</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -9488,7 +9485,7 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>2375</v>
+        <v>2372</v>
       </c>
       <c r="E9" s="3">
         <v>2002</v>
@@ -9509,19 +9506,19 @@
         <v>1048</v>
       </c>
       <c r="Q9" t="s">
-        <v>2668</v>
+        <v>2662</v>
       </c>
       <c r="R9" t="s">
-        <v>2446</v>
+        <v>2443</v>
       </c>
       <c r="S9" t="s">
-        <v>2670</v>
+        <v>2664</v>
       </c>
       <c r="T9" t="s">
         <v>2336</v>
       </c>
       <c r="U9" t="s">
-        <v>2669</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
@@ -9792,7 +9789,7 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>2625</v>
+        <v>2619</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
@@ -9801,13 +9798,13 @@
         <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>2383</v>
+        <v>2380</v>
       </c>
       <c r="E17" s="3">
         <v>2008</v>
       </c>
       <c r="F17" t="s">
-        <v>2707</v>
+        <v>2701</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>31</v>
@@ -9819,22 +9816,22 @@
         <v>112</v>
       </c>
       <c r="O17" t="s">
-        <v>2708</v>
+        <v>2702</v>
       </c>
       <c r="Q17" t="s">
-        <v>2709</v>
+        <v>2703</v>
       </c>
       <c r="R17" t="s">
-        <v>2711</v>
+        <v>2705</v>
       </c>
       <c r="S17" t="s">
         <v>882</v>
       </c>
       <c r="T17" t="s">
-        <v>2712</v>
+        <v>2706</v>
       </c>
       <c r="U17" t="s">
-        <v>2710</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
@@ -9871,7 +9868,7 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>2597</v>
+        <v>2591</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
@@ -9880,7 +9877,7 @@
         <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>2381</v>
+        <v>2378</v>
       </c>
       <c r="E19" s="3">
         <v>2005</v>
@@ -9898,13 +9895,13 @@
         <v>134</v>
       </c>
       <c r="O19" t="s">
-        <v>2692</v>
+        <v>2686</v>
       </c>
       <c r="Q19" t="s">
-        <v>2693</v>
+        <v>2687</v>
       </c>
       <c r="R19" t="s">
-        <v>2695</v>
+        <v>2689</v>
       </c>
       <c r="S19" t="s">
         <v>130</v>
@@ -9913,7 +9910,7 @@
         <v>1908</v>
       </c>
       <c r="U19" t="s">
-        <v>2694</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
@@ -10108,7 +10105,7 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>2455</v>
+        <v>2452</v>
       </c>
       <c r="B25" t="s">
         <v>22</v>
@@ -10117,13 +10114,13 @@
         <v>23</v>
       </c>
       <c r="D25" t="s">
-        <v>2385</v>
+        <v>2382</v>
       </c>
       <c r="E25" s="3">
         <v>2008</v>
       </c>
       <c r="F25" t="s">
-        <v>2456</v>
+        <v>2453</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>25</v>
@@ -10138,19 +10135,19 @@
         <v>1886</v>
       </c>
       <c r="Q25" t="s">
+        <v>2454</v>
+      </c>
+      <c r="R25" t="s">
+        <v>2456</v>
+      </c>
+      <c r="S25" t="s">
         <v>2457</v>
       </c>
-      <c r="R25" t="s">
-        <v>2459</v>
-      </c>
-      <c r="S25" t="s">
-        <v>2460</v>
-      </c>
       <c r="T25" t="s">
-        <v>2461</v>
+        <v>2458</v>
       </c>
       <c r="U25" t="s">
-        <v>2458</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
@@ -10205,7 +10202,7 @@
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>2587</v>
+        <v>2581</v>
       </c>
       <c r="B27" t="s">
         <v>22</v>
@@ -10214,13 +10211,13 @@
         <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>2364</v>
+        <v>2361</v>
       </c>
       <c r="E27" s="3">
         <v>2013</v>
       </c>
       <c r="F27" t="s">
-        <v>2598</v>
+        <v>2592</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>25</v>
@@ -10232,22 +10229,22 @@
         <v>114</v>
       </c>
       <c r="O27" t="s">
-        <v>2599</v>
+        <v>2593</v>
       </c>
       <c r="Q27" t="s">
-        <v>2600</v>
+        <v>2594</v>
       </c>
       <c r="R27" t="s">
         <v>912</v>
       </c>
       <c r="S27" t="s">
-        <v>2490</v>
+        <v>2487</v>
       </c>
       <c r="T27" t="s">
         <v>723</v>
       </c>
       <c r="U27" t="s">
-        <v>2601</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.3">
@@ -10982,7 +10979,7 @@
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>2472</v>
+        <v>2469</v>
       </c>
       <c r="B45" t="s">
         <v>22</v>
@@ -10991,7 +10988,7 @@
         <v>23</v>
       </c>
       <c r="D45" t="s">
-        <v>2362</v>
+        <v>2359</v>
       </c>
       <c r="E45" s="3">
         <v>2018</v>
@@ -11012,24 +11009,24 @@
         <v>1232</v>
       </c>
       <c r="Q45" t="s">
-        <v>2572</v>
+        <v>2566</v>
       </c>
       <c r="R45" t="s">
-        <v>2573</v>
+        <v>2567</v>
       </c>
       <c r="S45" t="s">
-        <v>2440</v>
+        <v>2437</v>
       </c>
       <c r="T45" t="s">
-        <v>2574</v>
+        <v>2568</v>
       </c>
       <c r="U45" t="s">
-        <v>2575</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>2436</v>
+        <v>2433</v>
       </c>
       <c r="B46" t="s">
         <v>22</v>
@@ -11038,7 +11035,7 @@
         <v>23</v>
       </c>
       <c r="D46" t="s">
-        <v>2388</v>
+        <v>2385</v>
       </c>
       <c r="E46" s="3">
         <v>2008</v>
@@ -11056,22 +11053,22 @@
         <v>121</v>
       </c>
       <c r="O46" t="s">
-        <v>2437</v>
+        <v>2434</v>
       </c>
       <c r="Q46" t="s">
-        <v>2438</v>
+        <v>2435</v>
       </c>
       <c r="R46" t="s">
         <v>2083</v>
       </c>
       <c r="S46" t="s">
-        <v>2440</v>
+        <v>2437</v>
       </c>
       <c r="T46" t="s">
-        <v>2441</v>
+        <v>2438</v>
       </c>
       <c r="U46" t="s">
-        <v>2439</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.3">
@@ -11266,7 +11263,7 @@
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>2465</v>
+        <v>2462</v>
       </c>
       <c r="B52" t="s">
         <v>22</v>
@@ -11281,7 +11278,7 @@
         <v>2014</v>
       </c>
       <c r="F52" t="s">
-        <v>2499</v>
+        <v>2496</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>25</v>
@@ -11290,13 +11287,13 @@
         <v>31</v>
       </c>
       <c r="K52" s="5" t="s">
-        <v>2506</v>
+        <v>2503</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>25</v>
       </c>
       <c r="M52" t="s">
-        <v>2508</v>
+        <v>2505</v>
       </c>
       <c r="N52" s="3">
         <v>101</v>
@@ -11305,24 +11302,24 @@
         <v>1349</v>
       </c>
       <c r="Q52" t="s">
-        <v>2500</v>
+        <v>2497</v>
       </c>
       <c r="R52" t="s">
-        <v>2502</v>
+        <v>2499</v>
       </c>
       <c r="S52" t="s">
         <v>2208</v>
       </c>
       <c r="T52" t="s">
-        <v>2503</v>
+        <v>2500</v>
       </c>
       <c r="U52" t="s">
-        <v>2501</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>2504</v>
+        <v>2501</v>
       </c>
       <c r="B53" t="s">
         <v>22</v>
@@ -11337,7 +11334,7 @@
         <v>2017</v>
       </c>
       <c r="F53" t="s">
-        <v>2499</v>
+        <v>2496</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>25</v>
@@ -11355,7 +11352,7 @@
         <v>25</v>
       </c>
       <c r="M53" t="s">
-        <v>2508</v>
+        <v>2505</v>
       </c>
       <c r="N53" s="3">
         <v>122</v>
@@ -11364,24 +11361,24 @@
         <v>1349</v>
       </c>
       <c r="Q53" t="s">
+        <v>2497</v>
+      </c>
+      <c r="R53" t="s">
+        <v>2499</v>
+      </c>
+      <c r="S53" t="s">
+        <v>2507</v>
+      </c>
+      <c r="T53" t="s">
         <v>2500</v>
       </c>
-      <c r="R53" t="s">
-        <v>2502</v>
-      </c>
-      <c r="S53" t="s">
-        <v>2510</v>
-      </c>
-      <c r="T53" t="s">
-        <v>2503</v>
-      </c>
       <c r="U53" t="s">
-        <v>2509</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>2512</v>
+        <v>2509</v>
       </c>
       <c r="B54" t="s">
         <v>22</v>
@@ -11390,13 +11387,13 @@
         <v>23</v>
       </c>
       <c r="D54" t="s">
-        <v>2511</v>
+        <v>2508</v>
       </c>
       <c r="E54" s="3">
         <v>2019</v>
       </c>
       <c r="F54" t="s">
-        <v>2499</v>
+        <v>2496</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>25</v>
@@ -11405,13 +11402,13 @@
         <v>31</v>
       </c>
       <c r="J54" t="s">
-        <v>2507</v>
+        <v>2504</v>
       </c>
       <c r="L54" s="3" t="s">
         <v>25</v>
       </c>
       <c r="M54" t="s">
-        <v>2508</v>
+        <v>2505</v>
       </c>
       <c r="N54" s="3">
         <v>130</v>
@@ -11420,19 +11417,19 @@
         <v>1349</v>
       </c>
       <c r="Q54" t="s">
-        <v>2514</v>
+        <v>2511</v>
       </c>
       <c r="R54" t="s">
-        <v>2502</v>
+        <v>2499</v>
       </c>
       <c r="S54" t="s">
+        <v>2507</v>
+      </c>
+      <c r="T54" t="s">
+        <v>2500</v>
+      </c>
+      <c r="U54" t="s">
         <v>2510</v>
-      </c>
-      <c r="T54" t="s">
-        <v>2503</v>
-      </c>
-      <c r="U54" t="s">
-        <v>2513</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.3">
@@ -11712,7 +11709,7 @@
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>2589</v>
+        <v>2583</v>
       </c>
       <c r="B62" t="s">
         <v>22</v>
@@ -11721,13 +11718,13 @@
         <v>23</v>
       </c>
       <c r="D62" t="s">
-        <v>2366</v>
+        <v>2363</v>
       </c>
       <c r="E62" s="3">
         <v>2006</v>
       </c>
       <c r="F62" t="s">
-        <v>2613</v>
+        <v>2607</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>25</v>
@@ -11742,19 +11739,19 @@
         <v>1232</v>
       </c>
       <c r="Q62" t="s">
-        <v>2614</v>
+        <v>2608</v>
       </c>
       <c r="R62" t="s">
-        <v>2616</v>
+        <v>2610</v>
       </c>
       <c r="S62" t="s">
-        <v>2617</v>
+        <v>2611</v>
       </c>
       <c r="T62" t="s">
-        <v>2618</v>
+        <v>2612</v>
       </c>
       <c r="U62" t="s">
-        <v>2615</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.3">
@@ -12268,7 +12265,7 @@
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>2596</v>
+        <v>2590</v>
       </c>
       <c r="B76" t="s">
         <v>22</v>
@@ -12277,7 +12274,7 @@
         <v>23</v>
       </c>
       <c r="D76" t="s">
-        <v>2377</v>
+        <v>2374</v>
       </c>
       <c r="E76" s="3">
         <v>2004</v>
@@ -12295,10 +12292,10 @@
         <v>132</v>
       </c>
       <c r="O76" t="s">
-        <v>2657</v>
+        <v>2651</v>
       </c>
       <c r="Q76" t="s">
-        <v>2678</v>
+        <v>2672</v>
       </c>
       <c r="R76" t="s">
         <v>341</v>
@@ -12307,10 +12304,10 @@
         <v>712</v>
       </c>
       <c r="T76" t="s">
-        <v>2679</v>
+        <v>2673</v>
       </c>
       <c r="U76" t="s">
-        <v>2677</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.3">
@@ -12778,7 +12775,7 @@
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>2592</v>
+        <v>2586</v>
       </c>
       <c r="B88" t="s">
         <v>22</v>
@@ -12787,13 +12784,13 @@
         <v>23</v>
       </c>
       <c r="D88" t="s">
-        <v>2370</v>
+        <v>2367</v>
       </c>
       <c r="E88" s="3">
         <v>2012</v>
       </c>
       <c r="F88" t="s">
-        <v>2638</v>
+        <v>2632</v>
       </c>
       <c r="G88" s="3" t="s">
         <v>25</v>
@@ -12808,7 +12805,7 @@
         <v>87</v>
       </c>
       <c r="Q88" t="s">
-        <v>2639</v>
+        <v>2633</v>
       </c>
       <c r="R88" t="s">
         <v>2242</v>
@@ -12817,15 +12814,15 @@
         <v>2084</v>
       </c>
       <c r="T88" t="s">
-        <v>2640</v>
+        <v>2634</v>
       </c>
       <c r="U88" t="s">
-        <v>2641</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>2588</v>
+        <v>2582</v>
       </c>
       <c r="B89" t="s">
         <v>22</v>
@@ -12834,13 +12831,13 @@
         <v>23</v>
       </c>
       <c r="D89" t="s">
-        <v>2365</v>
+        <v>2362</v>
       </c>
       <c r="E89" s="3">
         <v>2016</v>
       </c>
       <c r="F89" t="s">
-        <v>2604</v>
+        <v>2598</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>25</v>
@@ -12852,22 +12849,22 @@
         <v>109</v>
       </c>
       <c r="O89" t="s">
-        <v>2605</v>
+        <v>2599</v>
       </c>
       <c r="Q89" t="s">
-        <v>2604</v>
+        <v>2598</v>
       </c>
       <c r="R89" t="s">
-        <v>2607</v>
+        <v>2601</v>
       </c>
       <c r="S89" t="s">
-        <v>2608</v>
+        <v>2602</v>
       </c>
       <c r="T89" t="s">
-        <v>2609</v>
+        <v>2603</v>
       </c>
       <c r="U89" t="s">
-        <v>2606</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.3">
@@ -12968,7 +12965,7 @@
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>2595</v>
+        <v>2589</v>
       </c>
       <c r="B93" t="s">
         <v>22</v>
@@ -12977,7 +12974,7 @@
         <v>23</v>
       </c>
       <c r="D93" t="s">
-        <v>2376</v>
+        <v>2373</v>
       </c>
       <c r="E93" s="3">
         <v>2008</v>
@@ -12995,22 +12992,22 @@
         <v>109</v>
       </c>
       <c r="O93" t="s">
-        <v>2671</v>
+        <v>2665</v>
       </c>
       <c r="Q93" t="s">
-        <v>2673</v>
+        <v>2667</v>
       </c>
       <c r="R93" t="s">
-        <v>2674</v>
+        <v>2668</v>
       </c>
       <c r="S93" t="s">
-        <v>2675</v>
+        <v>2669</v>
       </c>
       <c r="T93" t="s">
-        <v>2676</v>
+        <v>2670</v>
       </c>
       <c r="U93" t="s">
-        <v>2672</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.3">
@@ -14194,7 +14191,7 @@
     </row>
     <row r="124" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>2468</v>
+        <v>2465</v>
       </c>
       <c r="B124" t="s">
         <v>22</v>
@@ -14203,13 +14200,13 @@
         <v>23</v>
       </c>
       <c r="D124" t="s">
-        <v>2356</v>
+        <v>2353</v>
       </c>
       <c r="E124" s="3">
         <v>2017</v>
       </c>
       <c r="F124" t="s">
-        <v>2536</v>
+        <v>2530</v>
       </c>
       <c r="G124" s="3" t="s">
         <v>31</v>
@@ -14224,19 +14221,19 @@
         <v>728</v>
       </c>
       <c r="Q124" t="s">
-        <v>2536</v>
+        <v>2530</v>
       </c>
       <c r="R124" t="s">
-        <v>2538</v>
+        <v>2532</v>
       </c>
       <c r="S124" t="s">
         <v>618</v>
       </c>
       <c r="T124" t="s">
-        <v>2539</v>
+        <v>2533</v>
       </c>
       <c r="U124" t="s">
-        <v>2537</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="125" spans="1:21" x14ac:dyDescent="0.3">
@@ -14573,7 +14570,7 @@
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>2723</v>
+        <v>2716</v>
       </c>
       <c r="B132" t="s">
         <v>22</v>
@@ -14582,13 +14579,13 @@
         <v>53</v>
       </c>
       <c r="D132" t="s">
-        <v>2724</v>
+        <v>2717</v>
       </c>
       <c r="E132" s="3">
         <v>2024</v>
       </c>
       <c r="F132" t="s">
-        <v>2725</v>
+        <v>2718</v>
       </c>
       <c r="G132" s="3" t="s">
         <v>25</v>
@@ -14600,22 +14597,22 @@
         <v>84</v>
       </c>
       <c r="O132" t="s">
-        <v>2726</v>
+        <v>2719</v>
       </c>
       <c r="Q132" t="s">
-        <v>2727</v>
+        <v>2720</v>
       </c>
       <c r="R132" t="s">
         <v>1159</v>
       </c>
       <c r="S132" t="s">
-        <v>2728</v>
+        <v>2721</v>
       </c>
       <c r="T132" t="s">
-        <v>2729</v>
+        <v>2722</v>
       </c>
       <c r="U132" t="s">
-        <v>2730</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.3">
@@ -15031,7 +15028,7 @@
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>2704</v>
+        <v>2698</v>
       </c>
       <c r="B142" t="s">
         <v>22</v>
@@ -15040,7 +15037,7 @@
         <v>23</v>
       </c>
       <c r="D142" t="s">
-        <v>2703</v>
+        <v>2697</v>
       </c>
       <c r="E142" s="3">
         <v>2011</v>
@@ -15061,7 +15058,7 @@
         <v>860</v>
       </c>
       <c r="Q142" t="s">
-        <v>2705</v>
+        <v>2699</v>
       </c>
       <c r="R142" t="s">
         <v>665</v>
@@ -15073,7 +15070,7 @@
         <v>2322</v>
       </c>
       <c r="U142" t="s">
-        <v>2706</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.3">
@@ -15227,7 +15224,7 @@
     </row>
     <row r="147" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>2471</v>
+        <v>2468</v>
       </c>
       <c r="B147" t="s">
         <v>22</v>
@@ -15236,13 +15233,13 @@
         <v>23</v>
       </c>
       <c r="D147" t="s">
-        <v>2396</v>
+        <v>2393</v>
       </c>
       <c r="E147" s="3">
         <v>2002</v>
       </c>
       <c r="F147" t="s">
-        <v>2562</v>
+        <v>2556</v>
       </c>
       <c r="G147" s="3" t="s">
         <v>25</v>
@@ -15254,19 +15251,19 @@
         <v>65</v>
       </c>
       <c r="O147" t="s">
-        <v>2563</v>
+        <v>2557</v>
       </c>
       <c r="Q147" t="s">
-        <v>2564</v>
+        <v>2558</v>
       </c>
       <c r="R147" t="s">
-        <v>2566</v>
+        <v>2560</v>
       </c>
       <c r="S147" t="s">
-        <v>2567</v>
+        <v>2561</v>
       </c>
       <c r="U147" t="s">
-        <v>2565</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="148" spans="1:21" x14ac:dyDescent="0.3">
@@ -15541,7 +15538,7 @@
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>2520</v>
+        <v>2729</v>
       </c>
       <c r="B154" t="s">
         <v>22</v>
@@ -15550,13 +15547,13 @@
         <v>23</v>
       </c>
       <c r="D154" t="s">
-        <v>2352</v>
+        <v>2724</v>
       </c>
       <c r="E154" s="3">
         <v>2003</v>
       </c>
       <c r="F154" t="s">
-        <v>2528</v>
+        <v>2522</v>
       </c>
       <c r="G154" s="3" t="s">
         <v>31</v>
@@ -15565,13 +15562,13 @@
         <v>31</v>
       </c>
       <c r="K154" t="s">
-        <v>2523</v>
+        <v>2517</v>
       </c>
       <c r="L154" s="3" t="s">
         <v>25</v>
       </c>
       <c r="M154" t="s">
-        <v>2527</v>
+        <v>2521</v>
       </c>
       <c r="N154" s="3">
         <v>143</v>
@@ -15580,24 +15577,24 @@
         <v>1806</v>
       </c>
       <c r="Q154" t="s">
-        <v>2529</v>
+        <v>2523</v>
       </c>
       <c r="R154" t="s">
-        <v>2534</v>
+        <v>2528</v>
       </c>
       <c r="S154" t="s">
         <v>1660</v>
       </c>
       <c r="T154" t="s">
-        <v>2533</v>
+        <v>2527</v>
       </c>
       <c r="U154" t="s">
-        <v>2531</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="155" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>2521</v>
+        <v>2728</v>
       </c>
       <c r="B155" t="s">
         <v>22</v>
@@ -15606,13 +15603,13 @@
         <v>23</v>
       </c>
       <c r="D155" t="s">
-        <v>2353</v>
+        <v>2725</v>
       </c>
       <c r="E155" s="3">
         <v>2006</v>
       </c>
       <c r="F155" t="s">
-        <v>2528</v>
+        <v>2522</v>
       </c>
       <c r="G155" s="3" t="s">
         <v>31</v>
@@ -15621,16 +15618,16 @@
         <v>31</v>
       </c>
       <c r="J155" t="s">
-        <v>2525</v>
+        <v>2519</v>
       </c>
       <c r="K155" t="s">
-        <v>2524</v>
+        <v>2518</v>
       </c>
       <c r="L155" s="3" t="s">
         <v>25</v>
       </c>
       <c r="M155" t="s">
-        <v>2527</v>
+        <v>2521</v>
       </c>
       <c r="N155" s="3">
         <v>151</v>
@@ -15639,7 +15636,7 @@
         <v>1806</v>
       </c>
       <c r="Q155" t="s">
-        <v>2529</v>
+        <v>2523</v>
       </c>
       <c r="R155" t="s">
         <v>319</v>
@@ -15648,15 +15645,15 @@
         <v>1660</v>
       </c>
       <c r="T155" t="s">
-        <v>2533</v>
+        <v>2527</v>
       </c>
       <c r="U155" t="s">
-        <v>2530</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="156" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>2522</v>
+        <v>2727</v>
       </c>
       <c r="B156" t="s">
         <v>22</v>
@@ -15665,13 +15662,13 @@
         <v>23</v>
       </c>
       <c r="D156" t="s">
-        <v>2354</v>
+        <v>2726</v>
       </c>
       <c r="E156" s="3">
         <v>2007</v>
       </c>
       <c r="F156" t="s">
-        <v>2528</v>
+        <v>2522</v>
       </c>
       <c r="G156" s="3" t="s">
         <v>31</v>
@@ -15680,13 +15677,13 @@
         <v>31</v>
       </c>
       <c r="J156" t="s">
-        <v>2526</v>
+        <v>2520</v>
       </c>
       <c r="L156" s="3" t="s">
         <v>25</v>
       </c>
       <c r="M156" t="s">
-        <v>2527</v>
+        <v>2521</v>
       </c>
       <c r="N156" s="3">
         <v>169</v>
@@ -15695,7 +15692,7 @@
         <v>1806</v>
       </c>
       <c r="Q156" t="s">
-        <v>2529</v>
+        <v>2523</v>
       </c>
       <c r="R156" t="s">
         <v>319</v>
@@ -15704,15 +15701,15 @@
         <v>1660</v>
       </c>
       <c r="T156" t="s">
-        <v>2533</v>
+        <v>2527</v>
       </c>
       <c r="U156" t="s">
-        <v>2532</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="157" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>2591</v>
+        <v>2585</v>
       </c>
       <c r="B157" t="s">
         <v>22</v>
@@ -15721,13 +15718,13 @@
         <v>23</v>
       </c>
       <c r="D157" t="s">
-        <v>2368</v>
+        <v>2365</v>
       </c>
       <c r="E157" s="3">
         <v>2011</v>
       </c>
       <c r="F157" t="s">
-        <v>2528</v>
+        <v>2522</v>
       </c>
       <c r="G157" s="3" t="s">
         <v>25</v>
@@ -15739,10 +15736,10 @@
         <v>107</v>
       </c>
       <c r="O157" t="s">
-        <v>2627</v>
+        <v>2621</v>
       </c>
       <c r="Q157" t="s">
-        <v>2629</v>
+        <v>2623</v>
       </c>
       <c r="R157" t="s">
         <v>319</v>
@@ -15751,10 +15748,10 @@
         <v>1718</v>
       </c>
       <c r="T157" t="s">
-        <v>2630</v>
+        <v>2624</v>
       </c>
       <c r="U157" t="s">
-        <v>2628</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="158" spans="1:21" x14ac:dyDescent="0.3">
@@ -16172,7 +16169,7 @@
     </row>
     <row r="168" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>2549</v>
+        <v>2543</v>
       </c>
       <c r="B168" t="s">
         <v>22</v>
@@ -16181,7 +16178,7 @@
         <v>23</v>
       </c>
       <c r="D168" t="s">
-        <v>2397</v>
+        <v>2394</v>
       </c>
       <c r="E168" s="3">
         <v>2017</v>
@@ -16199,22 +16196,22 @@
         <v>126</v>
       </c>
       <c r="O168" t="s">
-        <v>2576</v>
+        <v>2570</v>
       </c>
       <c r="Q168" t="s">
-        <v>2577</v>
+        <v>2571</v>
       </c>
       <c r="R168" t="s">
         <v>247</v>
       </c>
       <c r="S168" t="s">
-        <v>2579</v>
+        <v>2573</v>
       </c>
       <c r="T168" t="s">
-        <v>2580</v>
+        <v>2574</v>
       </c>
       <c r="U168" t="s">
-        <v>2578</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="169" spans="1:21" x14ac:dyDescent="0.3">
@@ -16251,7 +16248,7 @@
     </row>
     <row r="170" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>2542</v>
+        <v>2536</v>
       </c>
       <c r="B170" t="s">
         <v>22</v>
@@ -16260,13 +16257,13 @@
         <v>23</v>
       </c>
       <c r="D170" t="s">
-        <v>2358</v>
+        <v>2355</v>
       </c>
       <c r="E170" s="3">
         <v>1989</v>
       </c>
       <c r="F170" t="s">
-        <v>2543</v>
+        <v>2537</v>
       </c>
       <c r="G170" s="3" t="s">
         <v>25</v>
@@ -16281,21 +16278,21 @@
         <v>26</v>
       </c>
       <c r="Q170" t="s">
-        <v>2543</v>
+        <v>2537</v>
       </c>
       <c r="R170" t="s">
-        <v>2544</v>
+        <v>2538</v>
       </c>
       <c r="S170" t="s">
-        <v>2545</v>
+        <v>2539</v>
       </c>
       <c r="U170" t="s">
-        <v>2546</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="171" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>2470</v>
+        <v>2467</v>
       </c>
       <c r="B171" t="s">
         <v>22</v>
@@ -16304,13 +16301,13 @@
         <v>23</v>
       </c>
       <c r="D171" t="s">
-        <v>2360</v>
+        <v>2357</v>
       </c>
       <c r="E171" s="3">
         <v>2016</v>
       </c>
       <c r="F171" t="s">
-        <v>2555</v>
+        <v>2549</v>
       </c>
       <c r="G171" s="3" t="s">
         <v>31</v>
@@ -16322,22 +16319,22 @@
         <v>96</v>
       </c>
       <c r="O171" t="s">
-        <v>2556</v>
+        <v>2550</v>
       </c>
       <c r="Q171" t="s">
-        <v>2557</v>
+        <v>2551</v>
       </c>
       <c r="R171" t="s">
-        <v>2559</v>
+        <v>2553</v>
       </c>
       <c r="S171" t="s">
-        <v>2560</v>
+        <v>2554</v>
       </c>
       <c r="T171" t="s">
-        <v>2561</v>
+        <v>2555</v>
       </c>
       <c r="U171" t="s">
-        <v>2558</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="172" spans="1:21" x14ac:dyDescent="0.3">
@@ -16729,7 +16726,7 @@
     </row>
     <row r="181" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>2467</v>
+        <v>2464</v>
       </c>
       <c r="B181" t="s">
         <v>22</v>
@@ -16738,7 +16735,7 @@
         <v>23</v>
       </c>
       <c r="D181" t="s">
-        <v>2355</v>
+        <v>2352</v>
       </c>
       <c r="E181" s="3">
         <v>1997</v>
@@ -16765,13 +16762,13 @@
         <v>850</v>
       </c>
       <c r="S181" t="s">
-        <v>2447</v>
+        <v>2444</v>
       </c>
       <c r="T181" t="s">
         <v>1227</v>
       </c>
       <c r="U181" t="s">
-        <v>2535</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="182" spans="1:21" x14ac:dyDescent="0.3">
@@ -17192,7 +17189,7 @@
     </row>
     <row r="192" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>2428</v>
+        <v>2425</v>
       </c>
       <c r="B192" t="s">
         <v>22</v>
@@ -17201,13 +17198,13 @@
         <v>23</v>
       </c>
       <c r="D192" t="s">
-        <v>2389</v>
+        <v>2386</v>
       </c>
       <c r="E192" s="3">
         <v>2004</v>
       </c>
       <c r="F192" t="s">
-        <v>2429</v>
+        <v>2426</v>
       </c>
       <c r="G192" s="3" t="s">
         <v>25</v>
@@ -17219,22 +17216,22 @@
         <v>125</v>
       </c>
       <c r="O192" t="s">
+        <v>2427</v>
+      </c>
+      <c r="Q192" t="s">
+        <v>2428</v>
+      </c>
+      <c r="R192" t="s">
         <v>2430</v>
       </c>
-      <c r="Q192" t="s">
+      <c r="S192" t="s">
         <v>2431</v>
       </c>
-      <c r="R192" t="s">
-        <v>2433</v>
-      </c>
-      <c r="S192" t="s">
-        <v>2434</v>
-      </c>
       <c r="T192" t="s">
-        <v>2435</v>
+        <v>2432</v>
       </c>
       <c r="U192" t="s">
-        <v>2432</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="193" spans="1:21" x14ac:dyDescent="0.3">
@@ -17321,7 +17318,7 @@
     </row>
     <row r="195" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>2626</v>
+        <v>2620</v>
       </c>
       <c r="B195" t="s">
         <v>22</v>
@@ -17330,13 +17327,13 @@
         <v>23</v>
       </c>
       <c r="D195" t="s">
-        <v>2384</v>
+        <v>2381</v>
       </c>
       <c r="E195" s="3">
         <v>1989</v>
       </c>
       <c r="F195" t="s">
-        <v>2713</v>
+        <v>2707</v>
       </c>
       <c r="G195" s="3" t="s">
         <v>25</v>
@@ -17348,13 +17345,13 @@
         <v>97</v>
       </c>
       <c r="O195" t="s">
-        <v>2451</v>
+        <v>2448</v>
       </c>
       <c r="Q195" t="s">
         <v>980</v>
       </c>
       <c r="R195" t="s">
-        <v>2715</v>
+        <v>2709</v>
       </c>
       <c r="S195" t="s">
         <v>2058</v>
@@ -17363,7 +17360,7 @@
         <v>833</v>
       </c>
       <c r="U195" t="s">
-        <v>2714</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="196" spans="1:21" x14ac:dyDescent="0.3">
@@ -17447,7 +17444,7 @@
     </row>
     <row r="198" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>2411</v>
+        <v>2408</v>
       </c>
       <c r="B198" t="s">
         <v>22</v>
@@ -17456,13 +17453,13 @@
         <v>23</v>
       </c>
       <c r="D198" t="s">
-        <v>2391</v>
+        <v>2388</v>
       </c>
       <c r="E198" s="3">
         <v>2024</v>
       </c>
       <c r="F198" t="s">
-        <v>2398</v>
+        <v>2395</v>
       </c>
       <c r="G198" s="3" t="s">
         <v>31</v>
@@ -17477,19 +17474,19 @@
         <v>1443</v>
       </c>
       <c r="Q198" t="s">
-        <v>2398</v>
+        <v>2395</v>
       </c>
       <c r="R198" t="s">
-        <v>2415</v>
+        <v>2412</v>
       </c>
       <c r="S198" t="s">
-        <v>2413</v>
+        <v>2410</v>
       </c>
       <c r="T198" t="s">
-        <v>2414</v>
+        <v>2411</v>
       </c>
       <c r="U198" t="s">
-        <v>2412</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="199" spans="1:21" x14ac:dyDescent="0.3">
@@ -17579,7 +17576,7 @@
     </row>
     <row r="201" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>2449</v>
+        <v>2446</v>
       </c>
       <c r="B201" t="s">
         <v>22</v>
@@ -17588,13 +17585,13 @@
         <v>23</v>
       </c>
       <c r="D201" t="s">
-        <v>2386</v>
+        <v>2383</v>
       </c>
       <c r="E201" s="3">
         <v>2004</v>
       </c>
       <c r="F201" t="s">
-        <v>2450</v>
+        <v>2447</v>
       </c>
       <c r="G201" s="3" t="s">
         <v>25</v>
@@ -17606,22 +17603,22 @@
         <v>99</v>
       </c>
       <c r="O201" t="s">
-        <v>2451</v>
+        <v>2448</v>
       </c>
       <c r="Q201" t="s">
         <v>273</v>
       </c>
       <c r="R201" t="s">
-        <v>2453</v>
+        <v>2450</v>
       </c>
       <c r="S201" t="s">
         <v>882</v>
       </c>
       <c r="T201" t="s">
-        <v>2454</v>
+        <v>2451</v>
       </c>
       <c r="U201" t="s">
-        <v>2452</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="202" spans="1:21" x14ac:dyDescent="0.3">
@@ -17676,7 +17673,7 @@
     </row>
     <row r="203" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>2593</v>
+        <v>2587</v>
       </c>
       <c r="B203" t="s">
         <v>22</v>
@@ -17685,7 +17682,7 @@
         <v>23</v>
       </c>
       <c r="D203" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="E203" s="3">
         <v>2007</v>
@@ -17706,19 +17703,19 @@
         <v>860</v>
       </c>
       <c r="Q203" t="s">
-        <v>2648</v>
+        <v>2642</v>
       </c>
       <c r="R203" t="s">
         <v>2262</v>
       </c>
       <c r="S203" t="s">
-        <v>2649</v>
+        <v>2643</v>
       </c>
       <c r="T203" t="s">
         <v>777</v>
       </c>
       <c r="U203" t="s">
-        <v>2647</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="204" spans="1:21" x14ac:dyDescent="0.3">
@@ -17758,7 +17755,7 @@
     </row>
     <row r="205" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>2654</v>
+        <v>2648</v>
       </c>
       <c r="B205" t="s">
         <v>22</v>
@@ -17767,13 +17764,13 @@
         <v>23</v>
       </c>
       <c r="D205" t="s">
-        <v>2374</v>
+        <v>2371</v>
       </c>
       <c r="E205" s="3">
         <v>1976</v>
       </c>
       <c r="F205" t="s">
-        <v>2655</v>
+        <v>2649</v>
       </c>
       <c r="G205" s="3" t="s">
         <v>25</v>
@@ -17785,28 +17782,28 @@
         <v>25</v>
       </c>
       <c r="M205" t="s">
-        <v>2656</v>
+        <v>2650</v>
       </c>
       <c r="N205" s="3">
         <v>120</v>
       </c>
       <c r="O205" t="s">
-        <v>2657</v>
+        <v>2651</v>
       </c>
       <c r="Q205" t="s">
-        <v>2658</v>
+        <v>2652</v>
       </c>
       <c r="R205" t="s">
-        <v>2660</v>
+        <v>2654</v>
       </c>
       <c r="S205" t="s">
-        <v>2661</v>
+        <v>2655</v>
       </c>
       <c r="T205" t="s">
-        <v>2662</v>
+        <v>2656</v>
       </c>
       <c r="U205" t="s">
-        <v>2659</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="206" spans="1:21" x14ac:dyDescent="0.3">
@@ -17844,7 +17841,7 @@
         <v>977</v>
       </c>
       <c r="T206" t="s">
-        <v>2618</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="207" spans="1:21" x14ac:dyDescent="0.3">
@@ -18303,7 +18300,7 @@
     </row>
     <row r="218" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>2622</v>
+        <v>2616</v>
       </c>
       <c r="B218" t="s">
         <v>22</v>
@@ -18312,13 +18309,13 @@
         <v>23</v>
       </c>
       <c r="D218" t="s">
-        <v>2373</v>
+        <v>2370</v>
       </c>
       <c r="E218" s="3">
         <v>2011</v>
       </c>
       <c r="F218" t="s">
-        <v>2650</v>
+        <v>2644</v>
       </c>
       <c r="G218" s="3" t="s">
         <v>25</v>
@@ -18330,10 +18327,10 @@
         <v>119</v>
       </c>
       <c r="O218" t="s">
-        <v>2651</v>
+        <v>2645</v>
       </c>
       <c r="Q218" t="s">
-        <v>2652</v>
+        <v>2646</v>
       </c>
       <c r="R218" t="s">
         <v>1659</v>
@@ -18345,7 +18342,7 @@
         <v>321</v>
       </c>
       <c r="U218" t="s">
-        <v>2653</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="219" spans="1:21" x14ac:dyDescent="0.3">
@@ -18467,7 +18464,7 @@
     </row>
     <row r="222" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>2505</v>
+        <v>2502</v>
       </c>
       <c r="B222" t="s">
         <v>22</v>
@@ -18476,7 +18473,7 @@
         <v>23</v>
       </c>
       <c r="D222" t="s">
-        <v>2363</v>
+        <v>2360</v>
       </c>
       <c r="E222" s="3">
         <v>2016</v>
@@ -18494,28 +18491,28 @@
         <v>25</v>
       </c>
       <c r="M222" t="s">
-        <v>2581</v>
+        <v>2575</v>
       </c>
       <c r="N222" s="3">
         <v>129</v>
       </c>
       <c r="O222" t="s">
-        <v>2582</v>
+        <v>2576</v>
       </c>
       <c r="Q222" t="s">
-        <v>2583</v>
+        <v>2577</v>
       </c>
       <c r="R222" t="s">
         <v>617</v>
       </c>
       <c r="S222" t="s">
-        <v>2585</v>
+        <v>2579</v>
       </c>
       <c r="T222" t="s">
-        <v>2586</v>
+        <v>2580</v>
       </c>
       <c r="U222" t="s">
-        <v>2584</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="223" spans="1:21" x14ac:dyDescent="0.3">
@@ -20054,7 +20051,7 @@
     </row>
     <row r="261" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>2417</v>
+        <v>2414</v>
       </c>
       <c r="B261" t="s">
         <v>22</v>
@@ -20063,13 +20060,13 @@
         <v>23</v>
       </c>
       <c r="D261" t="s">
-        <v>2416</v>
+        <v>2413</v>
       </c>
       <c r="E261" s="3">
         <v>2022</v>
       </c>
       <c r="F261" t="s">
-        <v>2399</v>
+        <v>2396</v>
       </c>
       <c r="G261" s="3" t="s">
         <v>31</v>
@@ -20084,7 +20081,7 @@
         <v>1443</v>
       </c>
       <c r="Q261" t="s">
-        <v>2399</v>
+        <v>2396</v>
       </c>
       <c r="R261" t="s">
         <v>1159</v>
@@ -20093,10 +20090,10 @@
         <v>2243</v>
       </c>
       <c r="T261" t="s">
-        <v>2419</v>
+        <v>2416</v>
       </c>
       <c r="U261" t="s">
-        <v>2418</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="262" spans="1:21" x14ac:dyDescent="0.3">
@@ -20922,7 +20919,7 @@
     </row>
     <row r="284" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>2492</v>
+        <v>2489</v>
       </c>
       <c r="B284" t="s">
         <v>22</v>
@@ -20937,7 +20934,7 @@
         <v>2009</v>
       </c>
       <c r="F284" t="s">
-        <v>2493</v>
+        <v>2490</v>
       </c>
       <c r="G284" s="3" t="s">
         <v>25</v>
@@ -20952,19 +20949,19 @@
         <v>204</v>
       </c>
       <c r="Q284" t="s">
+        <v>2491</v>
+      </c>
+      <c r="R284" t="s">
+        <v>2493</v>
+      </c>
+      <c r="S284" t="s">
         <v>2494</v>
       </c>
-      <c r="R284" t="s">
-        <v>2496</v>
-      </c>
-      <c r="S284" t="s">
-        <v>2497</v>
-      </c>
       <c r="T284" t="s">
-        <v>2498</v>
+        <v>2495</v>
       </c>
       <c r="U284" t="s">
-        <v>2495</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="285" spans="1:21" x14ac:dyDescent="0.3">
@@ -21903,7 +21900,7 @@
     </row>
     <row r="308" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>2548</v>
+        <v>2542</v>
       </c>
       <c r="B308" t="s">
         <v>22</v>
@@ -21912,7 +21909,7 @@
         <v>23</v>
       </c>
       <c r="D308" t="s">
-        <v>2361</v>
+        <v>2358</v>
       </c>
       <c r="E308" s="3">
         <v>2013</v>
@@ -21930,13 +21927,13 @@
         <v>25</v>
       </c>
       <c r="M308" t="s">
-        <v>2568</v>
+        <v>2562</v>
       </c>
       <c r="N308" s="3">
         <v>161</v>
       </c>
       <c r="O308" t="s">
-        <v>2569</v>
+        <v>2563</v>
       </c>
       <c r="Q308" t="s">
         <v>781</v>
@@ -21948,10 +21945,10 @@
         <v>1518</v>
       </c>
       <c r="T308" t="s">
-        <v>2570</v>
+        <v>2564</v>
       </c>
       <c r="U308" t="s">
-        <v>2571</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="309" spans="1:21" x14ac:dyDescent="0.3">
@@ -22345,7 +22342,7 @@
     </row>
     <row r="319" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>2466</v>
+        <v>2463</v>
       </c>
       <c r="B319" t="s">
         <v>22</v>
@@ -22360,7 +22357,7 @@
         <v>2012</v>
       </c>
       <c r="F319" t="s">
-        <v>2515</v>
+        <v>2512</v>
       </c>
       <c r="G319" s="3" t="s">
         <v>25</v>
@@ -22372,27 +22369,27 @@
         <v>165</v>
       </c>
       <c r="O319" t="s">
-        <v>2516</v>
+        <v>2513</v>
       </c>
       <c r="Q319" t="s">
+        <v>2512</v>
+      </c>
+      <c r="R319" t="s">
+        <v>2514</v>
+      </c>
+      <c r="S319" t="s">
         <v>2515</v>
-      </c>
-      <c r="R319" t="s">
-        <v>2517</v>
-      </c>
-      <c r="S319" t="s">
-        <v>2518</v>
       </c>
       <c r="T319" t="s">
         <v>2029</v>
       </c>
       <c r="U319" t="s">
-        <v>2519</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="320" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>2469</v>
+        <v>2466</v>
       </c>
       <c r="B320" t="s">
         <v>22</v>
@@ -22401,13 +22398,13 @@
         <v>23</v>
       </c>
       <c r="D320" t="s">
-        <v>2357</v>
+        <v>2354</v>
       </c>
       <c r="E320" s="3">
         <v>2015</v>
       </c>
       <c r="F320" t="s">
-        <v>2515</v>
+        <v>2512</v>
       </c>
       <c r="G320" s="3" t="s">
         <v>25</v>
@@ -22422,19 +22419,19 @@
         <v>922</v>
       </c>
       <c r="Q320" t="s">
+        <v>2512</v>
+      </c>
+      <c r="R320" t="s">
+        <v>2534</v>
+      </c>
+      <c r="S320" t="s">
         <v>2515</v>
       </c>
-      <c r="R320" t="s">
-        <v>2540</v>
-      </c>
-      <c r="S320" t="s">
-        <v>2518</v>
-      </c>
       <c r="T320" t="s">
-        <v>2539</v>
+        <v>2533</v>
       </c>
       <c r="U320" t="s">
-        <v>2541</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="321" spans="1:21" x14ac:dyDescent="0.3">
@@ -22486,7 +22483,7 @@
     </row>
     <row r="322" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>2547</v>
+        <v>2541</v>
       </c>
       <c r="B322" t="s">
         <v>22</v>
@@ -22495,13 +22492,13 @@
         <v>23</v>
       </c>
       <c r="D322" t="s">
-        <v>2359</v>
+        <v>2356</v>
       </c>
       <c r="E322" s="3">
         <v>1998</v>
       </c>
       <c r="F322" t="s">
-        <v>2550</v>
+        <v>2544</v>
       </c>
       <c r="G322" s="3" t="s">
         <v>25</v>
@@ -22513,22 +22510,22 @@
         <v>132</v>
       </c>
       <c r="O322" t="s">
-        <v>2551</v>
+        <v>2545</v>
       </c>
       <c r="Q322" t="s">
-        <v>2550</v>
+        <v>2544</v>
       </c>
       <c r="R322" t="s">
-        <v>2553</v>
+        <v>2547</v>
       </c>
       <c r="S322" t="s">
-        <v>2554</v>
+        <v>2548</v>
       </c>
       <c r="T322" t="s">
         <v>145</v>
       </c>
       <c r="U322" t="s">
-        <v>2552</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="323" spans="1:21" x14ac:dyDescent="0.3">
@@ -22612,7 +22609,7 @@
     </row>
     <row r="325" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>2404</v>
+        <v>2401</v>
       </c>
       <c r="B325" t="s">
         <v>22</v>
@@ -22621,13 +22618,13 @@
         <v>23</v>
       </c>
       <c r="D325" t="s">
-        <v>2392</v>
+        <v>2389</v>
       </c>
       <c r="E325" s="3">
         <v>2021</v>
       </c>
       <c r="F325" t="s">
-        <v>2400</v>
+        <v>2397</v>
       </c>
       <c r="G325" s="3" t="s">
         <v>31</v>
@@ -22639,22 +22636,22 @@
         <v>144</v>
       </c>
       <c r="O325" t="s">
-        <v>2657</v>
+        <v>2651</v>
       </c>
       <c r="Q325" t="s">
-        <v>2401</v>
+        <v>2398</v>
       </c>
       <c r="R325" t="s">
         <v>288</v>
       </c>
       <c r="S325" t="s">
-        <v>2403</v>
+        <v>2400</v>
       </c>
       <c r="T325" t="s">
         <v>2029</v>
       </c>
       <c r="U325" t="s">
-        <v>2402</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="326" spans="1:21" x14ac:dyDescent="0.3">
@@ -23456,7 +23453,7 @@
     </row>
     <row r="345" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>2590</v>
+        <v>2584</v>
       </c>
       <c r="B345" t="s">
         <v>22</v>
@@ -23465,7 +23462,7 @@
         <v>23</v>
       </c>
       <c r="D345" t="s">
-        <v>2367</v>
+        <v>2364</v>
       </c>
       <c r="E345" s="3">
         <v>2005</v>
@@ -23486,7 +23483,7 @@
         <v>860</v>
       </c>
       <c r="Q345" t="s">
-        <v>2619</v>
+        <v>2613</v>
       </c>
       <c r="R345" t="s">
         <v>831</v>
@@ -23498,7 +23495,7 @@
         <v>914</v>
       </c>
       <c r="U345" t="s">
-        <v>2620</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="346" spans="1:21" x14ac:dyDescent="0.3">
@@ -23535,7 +23532,7 @@
     </row>
     <row r="347" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>2612</v>
+        <v>2606</v>
       </c>
       <c r="B347" t="s">
         <v>22</v>
@@ -23544,13 +23541,13 @@
         <v>23</v>
       </c>
       <c r="D347" t="s">
-        <v>2380</v>
+        <v>2377</v>
       </c>
       <c r="E347" s="3">
         <v>2012</v>
       </c>
       <c r="F347" t="s">
-        <v>2689</v>
+        <v>2683</v>
       </c>
       <c r="G347" s="3" t="s">
         <v>25</v>
@@ -23562,10 +23559,10 @@
         <v>111</v>
       </c>
       <c r="O347" t="s">
-        <v>2657</v>
+        <v>2651</v>
       </c>
       <c r="Q347" t="s">
-        <v>2690</v>
+        <v>2684</v>
       </c>
       <c r="R347" t="s">
         <v>993</v>
@@ -23574,15 +23571,15 @@
         <v>712</v>
       </c>
       <c r="T347" t="s">
-        <v>2679</v>
+        <v>2673</v>
       </c>
       <c r="U347" t="s">
-        <v>2691</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="348" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>2442</v>
+        <v>2439</v>
       </c>
       <c r="B348" t="s">
         <v>22</v>
@@ -23591,13 +23588,13 @@
         <v>23</v>
       </c>
       <c r="D348" t="s">
-        <v>2387</v>
+        <v>2384</v>
       </c>
       <c r="E348" s="3">
         <v>2010</v>
       </c>
       <c r="F348" t="s">
-        <v>2443</v>
+        <v>2440</v>
       </c>
       <c r="G348" s="3" t="s">
         <v>31</v>
@@ -23612,19 +23609,19 @@
         <v>579</v>
       </c>
       <c r="Q348" t="s">
+        <v>2441</v>
+      </c>
+      <c r="R348" t="s">
+        <v>2443</v>
+      </c>
+      <c r="S348" t="s">
         <v>2444</v>
       </c>
-      <c r="R348" t="s">
-        <v>2446</v>
-      </c>
-      <c r="S348" t="s">
-        <v>2447</v>
-      </c>
       <c r="T348" t="s">
-        <v>2448</v>
+        <v>2445</v>
       </c>
       <c r="U348" t="s">
-        <v>2445</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="349" spans="1:21" x14ac:dyDescent="0.3">
@@ -23869,7 +23866,7 @@
     </row>
     <row r="355" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>2462</v>
+        <v>2459</v>
       </c>
       <c r="B355" t="s">
         <v>22</v>
@@ -23884,7 +23881,7 @@
         <v>2004</v>
       </c>
       <c r="F355" t="s">
-        <v>2473</v>
+        <v>2470</v>
       </c>
       <c r="G355" s="3" t="s">
         <v>25</v>
@@ -23896,22 +23893,22 @@
         <v>100</v>
       </c>
       <c r="O355" t="s">
+        <v>2471</v>
+      </c>
+      <c r="Q355" t="s">
+        <v>2475</v>
+      </c>
+      <c r="R355" t="s">
+        <v>2473</v>
+      </c>
+      <c r="S355" t="s">
         <v>2474</v>
       </c>
-      <c r="Q355" t="s">
-        <v>2478</v>
-      </c>
-      <c r="R355" t="s">
-        <v>2476</v>
-      </c>
-      <c r="S355" t="s">
-        <v>2477</v>
-      </c>
       <c r="T355" t="s">
-        <v>2441</v>
+        <v>2438</v>
       </c>
       <c r="U355" t="s">
-        <v>2475</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="356" spans="1:21" x14ac:dyDescent="0.3">
@@ -24626,7 +24623,7 @@
     </row>
     <row r="372" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>2464</v>
+        <v>2461</v>
       </c>
       <c r="B372" t="s">
         <v>22</v>
@@ -24641,7 +24638,7 @@
         <v>2007</v>
       </c>
       <c r="F372" t="s">
-        <v>2486</v>
+        <v>2483</v>
       </c>
       <c r="G372" s="3" t="s">
         <v>25</v>
@@ -24656,19 +24653,19 @@
         <v>773</v>
       </c>
       <c r="Q372" t="s">
+        <v>2484</v>
+      </c>
+      <c r="R372" t="s">
+        <v>2486</v>
+      </c>
+      <c r="S372" t="s">
         <v>2487</v>
       </c>
-      <c r="R372" t="s">
-        <v>2489</v>
-      </c>
-      <c r="S372" t="s">
-        <v>2490</v>
-      </c>
       <c r="T372" t="s">
-        <v>2491</v>
+        <v>2488</v>
       </c>
       <c r="U372" t="s">
-        <v>2488</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="373" spans="1:21" x14ac:dyDescent="0.3">
@@ -24764,7 +24761,7 @@
     </row>
     <row r="375" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>2611</v>
+        <v>2605</v>
       </c>
       <c r="B375" t="s">
         <v>22</v>
@@ -24773,13 +24770,13 @@
         <v>23</v>
       </c>
       <c r="D375" t="s">
-        <v>2378</v>
+        <v>2375</v>
       </c>
       <c r="E375" s="3">
         <v>2007</v>
       </c>
       <c r="F375" t="s">
-        <v>2680</v>
+        <v>2674</v>
       </c>
       <c r="G375" s="3" t="s">
         <v>31</v>
@@ -24794,19 +24791,19 @@
         <v>556</v>
       </c>
       <c r="Q375" t="s">
-        <v>2680</v>
+        <v>2674</v>
       </c>
       <c r="R375" t="s">
-        <v>2681</v>
+        <v>2675</v>
       </c>
       <c r="S375" t="s">
-        <v>2683</v>
+        <v>2677</v>
       </c>
       <c r="T375" t="s">
         <v>1161</v>
       </c>
       <c r="U375" t="s">
-        <v>2682</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="376" spans="1:21" x14ac:dyDescent="0.3">
@@ -24893,7 +24890,7 @@
     </row>
     <row r="378" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>2621</v>
+        <v>2615</v>
       </c>
       <c r="B378" t="s">
         <v>22</v>
@@ -24902,13 +24899,13 @@
         <v>23</v>
       </c>
       <c r="D378" t="s">
-        <v>2369</v>
+        <v>2366</v>
       </c>
       <c r="E378" s="3">
         <v>2016</v>
       </c>
       <c r="F378" t="s">
-        <v>2631</v>
+        <v>2625</v>
       </c>
       <c r="G378" s="3" t="s">
         <v>31</v>
@@ -24920,28 +24917,28 @@
         <v>25</v>
       </c>
       <c r="M378" t="s">
-        <v>2632</v>
+        <v>2626</v>
       </c>
       <c r="N378" s="3">
         <v>123</v>
       </c>
       <c r="O378" t="s">
-        <v>2637</v>
+        <v>2631</v>
       </c>
       <c r="Q378" t="s">
-        <v>2634</v>
+        <v>2628</v>
       </c>
       <c r="R378" t="s">
-        <v>2635</v>
+        <v>2629</v>
       </c>
       <c r="S378" t="s">
-        <v>2617</v>
+        <v>2611</v>
       </c>
       <c r="T378" t="s">
-        <v>2636</v>
+        <v>2630</v>
       </c>
       <c r="U378" t="s">
-        <v>2633</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="379" spans="1:21" x14ac:dyDescent="0.3">
@@ -25353,7 +25350,7 @@
     </row>
     <row r="389" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>2463</v>
+        <v>2460</v>
       </c>
       <c r="B389" t="s">
         <v>22</v>
@@ -25368,7 +25365,7 @@
         <v>2018</v>
       </c>
       <c r="F389" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="G389" s="3" t="s">
         <v>25</v>
@@ -25381,7 +25378,7 @@
         <v>25</v>
       </c>
       <c r="M389" s="5" t="s">
-        <v>2485</v>
+        <v>2482</v>
       </c>
       <c r="N389" s="3">
         <v>91</v>
@@ -25390,19 +25387,19 @@
         <v>171</v>
       </c>
       <c r="Q389" t="s">
+        <v>2477</v>
+      </c>
+      <c r="R389" t="s">
+        <v>2478</v>
+      </c>
+      <c r="S389" t="s">
+        <v>2479</v>
+      </c>
+      <c r="T389" t="s">
         <v>2480</v>
       </c>
-      <c r="R389" t="s">
+      <c r="U389" t="s">
         <v>2481</v>
-      </c>
-      <c r="S389" t="s">
-        <v>2482</v>
-      </c>
-      <c r="T389" t="s">
-        <v>2483</v>
-      </c>
-      <c r="U389" t="s">
-        <v>2484</v>
       </c>
     </row>
     <row r="390" spans="1:21" x14ac:dyDescent="0.3">
@@ -26731,7 +26728,7 @@
     </row>
     <row r="422" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>2405</v>
+        <v>2402</v>
       </c>
       <c r="B422" t="s">
         <v>22</v>
@@ -26740,13 +26737,13 @@
         <v>23</v>
       </c>
       <c r="D422" t="s">
-        <v>2393</v>
+        <v>2390</v>
       </c>
       <c r="E422" s="3">
         <v>2023</v>
       </c>
       <c r="F422" t="s">
-        <v>2406</v>
+        <v>2403</v>
       </c>
       <c r="G422" s="3" t="s">
         <v>25</v>
@@ -26761,19 +26758,19 @@
         <v>623</v>
       </c>
       <c r="Q422" t="s">
-        <v>2407</v>
+        <v>2404</v>
       </c>
       <c r="R422" t="s">
-        <v>2409</v>
+        <v>2406</v>
       </c>
       <c r="S422" t="s">
         <v>2243</v>
       </c>
       <c r="T422" t="s">
-        <v>2410</v>
+        <v>2407</v>
       </c>
       <c r="U422" t="s">
-        <v>2408</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="423" spans="1:21" x14ac:dyDescent="0.3">
@@ -27221,7 +27218,7 @@
     </row>
     <row r="433" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>2623</v>
+        <v>2617</v>
       </c>
       <c r="B433" t="s">
         <v>22</v>
@@ -27230,13 +27227,13 @@
         <v>23</v>
       </c>
       <c r="D433" t="s">
-        <v>2379</v>
+        <v>2376</v>
       </c>
       <c r="E433" s="3">
         <v>2012</v>
       </c>
       <c r="F433" t="s">
-        <v>2684</v>
+        <v>2678</v>
       </c>
       <c r="G433" s="3" t="s">
         <v>25</v>
@@ -27251,19 +27248,19 @@
         <v>1711</v>
       </c>
       <c r="Q433" t="s">
-        <v>2685</v>
+        <v>2679</v>
       </c>
       <c r="R433" t="s">
-        <v>2573</v>
+        <v>2567</v>
       </c>
       <c r="S433" t="s">
-        <v>2686</v>
+        <v>2680</v>
       </c>
       <c r="T433" t="s">
-        <v>2687</v>
+        <v>2681</v>
       </c>
       <c r="U433" t="s">
-        <v>2688</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="434" spans="1:21" x14ac:dyDescent="0.3">
@@ -27845,7 +27842,7 @@
     </row>
     <row r="448" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>2610</v>
+        <v>2604</v>
       </c>
       <c r="B448" t="s">
         <v>22</v>
@@ -27854,13 +27851,13 @@
         <v>23</v>
       </c>
       <c r="D448" t="s">
-        <v>2371</v>
+        <v>2368</v>
       </c>
       <c r="E448" s="3">
         <v>2011</v>
       </c>
       <c r="F448" t="s">
-        <v>2642</v>
+        <v>2636</v>
       </c>
       <c r="G448" s="3" t="s">
         <v>25</v>
@@ -27872,19 +27869,19 @@
         <v>94</v>
       </c>
       <c r="O448" t="s">
-        <v>2643</v>
+        <v>2637</v>
       </c>
       <c r="Q448" t="s">
-        <v>2642</v>
+        <v>2636</v>
       </c>
       <c r="S448" t="s">
-        <v>2645</v>
+        <v>2639</v>
       </c>
       <c r="T448" t="s">
-        <v>2646</v>
+        <v>2640</v>
       </c>
       <c r="U448" t="s">
-        <v>2644</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="449" spans="1:21" x14ac:dyDescent="0.3">
@@ -27921,7 +27918,7 @@
     </row>
     <row r="450" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>2395</v>
+        <v>2392</v>
       </c>
       <c r="B450" t="s">
         <v>22</v>
@@ -27930,7 +27927,7 @@
         <v>53</v>
       </c>
       <c r="D450" t="s">
-        <v>2394</v>
+        <v>2391</v>
       </c>
       <c r="E450" s="3">
         <v>2025</v>
@@ -28014,7 +28011,7 @@
     </row>
     <row r="453" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>2603</v>
+        <v>2597</v>
       </c>
       <c r="B453" t="s">
         <v>22</v>
@@ -28041,22 +28038,22 @@
         <v>117</v>
       </c>
       <c r="O453" t="s">
-        <v>2663</v>
+        <v>2657</v>
       </c>
       <c r="Q453" t="s">
-        <v>2664</v>
+        <v>2658</v>
       </c>
       <c r="R453" t="s">
-        <v>2666</v>
+        <v>2660</v>
       </c>
       <c r="S453" t="s">
-        <v>2667</v>
+        <v>2661</v>
       </c>
       <c r="T453" t="s">
         <v>802</v>
       </c>
       <c r="U453" t="s">
-        <v>2665</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="454" spans="1:21" x14ac:dyDescent="0.3">
@@ -28963,7 +28960,7 @@
     </row>
     <row r="473" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
-        <v>2624</v>
+        <v>2618</v>
       </c>
       <c r="B473" t="s">
         <v>397</v>
@@ -28972,13 +28969,13 @@
         <v>23</v>
       </c>
       <c r="D473" t="s">
-        <v>2382</v>
+        <v>2379</v>
       </c>
       <c r="E473" s="3">
         <v>2009</v>
       </c>
       <c r="F473" t="s">
-        <v>2696</v>
+        <v>2690</v>
       </c>
       <c r="G473" s="3" t="s">
         <v>31</v>
@@ -28990,7 +28987,7 @@
         <v>25</v>
       </c>
       <c r="M473" t="s">
-        <v>2697</v>
+        <v>2691</v>
       </c>
       <c r="N473" s="3">
         <v>22</v>
@@ -28999,19 +28996,19 @@
         <v>171</v>
       </c>
       <c r="Q473" t="s">
-        <v>2698</v>
+        <v>2692</v>
       </c>
       <c r="R473" t="s">
-        <v>2700</v>
+        <v>2694</v>
       </c>
       <c r="S473" t="s">
-        <v>2701</v>
+        <v>2695</v>
       </c>
       <c r="T473" t="s">
-        <v>2702</v>
+        <v>2696</v>
       </c>
       <c r="U473" t="s">
-        <v>2699</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="474" spans="1:21" x14ac:dyDescent="0.3">
@@ -30256,7 +30253,7 @@
     </row>
     <row r="503" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
-        <v>2420</v>
+        <v>2417</v>
       </c>
       <c r="B503" t="s">
         <v>397</v>
@@ -30265,19 +30262,19 @@
         <v>23</v>
       </c>
       <c r="D503" t="s">
-        <v>2390</v>
+        <v>2387</v>
       </c>
       <c r="E503" s="3">
         <v>1993</v>
       </c>
       <c r="F503" t="s">
-        <v>2421</v>
+        <v>2418</v>
       </c>
       <c r="G503" s="3" t="s">
         <v>31</v>
       </c>
       <c r="H503" t="s">
-        <v>2602</v>
+        <v>2596</v>
       </c>
       <c r="I503" s="3" t="s">
         <v>31</v>
@@ -30287,7 +30284,7 @@
         <v>25</v>
       </c>
       <c r="M503" s="5" t="s">
-        <v>2422</v>
+        <v>2419</v>
       </c>
       <c r="N503" s="3">
         <v>22</v>
@@ -30296,19 +30293,19 @@
         <v>1540</v>
       </c>
       <c r="Q503" t="s">
+        <v>2421</v>
+      </c>
+      <c r="R503" t="s">
+        <v>2422</v>
+      </c>
+      <c r="S503" t="s">
+        <v>2423</v>
+      </c>
+      <c r="T503" t="s">
         <v>2424</v>
       </c>
-      <c r="R503" t="s">
-        <v>2425</v>
-      </c>
-      <c r="S503" t="s">
-        <v>2426</v>
-      </c>
-      <c r="T503" t="s">
-        <v>2427</v>
-      </c>
       <c r="U503" t="s">
-        <v>2423</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="504" spans="1:21" x14ac:dyDescent="0.3">
